--- a/examples/eCommerce_feature_info.xlsx
+++ b/examples/eCommerce_feature_info.xlsx
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.348341984326569</v>
+        <v>1.311199371524912</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1164762135635926</v>
+        <v>0.08447283537176674</v>
       </c>
     </row>
     <row r="3">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6312321561634958</v>
+        <v>0.6673418403211393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06544364275227256</v>
+        <v>0.02726952123488633</v>
       </c>
     </row>
     <row r="4">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3129685602954393</v>
+        <v>0.2677060955556602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01944417294080366</v>
+        <v>0.04944393122521676</v>
       </c>
     </row>
     <row r="5">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1379707672529673</v>
+        <v>0.1504968760671375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02720043190585874</v>
+        <v>0.04321403400635328</v>
       </c>
     </row>
     <row r="6">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01245242448180721</v>
+        <v>0.01490827998505704</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007575359618682396</v>
+        <v>0.008785735995054342</v>
       </c>
     </row>
     <row r="7">
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006115189819846356</v>
+        <v>0.006307018173987533</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00980528200197916</v>
+        <v>0.005830984589668574</v>
       </c>
     </row>
     <row r="8">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002221450226244293</v>
+        <v>0.001350342673472538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001755519744480654</v>
+        <v>0.003993592728735748</v>
       </c>
     </row>
     <row r="9">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001984487154024261</v>
+        <v>0.001207979306123508</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002149825421921398</v>
+        <v>0.001327333400795891</v>
       </c>
     </row>
     <row r="10">
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001709744412651282</v>
+        <v>0.0009963584463170915</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001279195346264647</v>
+        <v>0.001809575726071564</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.026340278315224</v>
+        <v>1.029547823488341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07068570901935556</v>
+        <v>0.07629508854332614</v>
       </c>
     </row>
     <row r="3">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4402923845346258</v>
+        <v>0.4557843872849526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02173653920594235</v>
+        <v>0.04599487249331925</v>
       </c>
     </row>
     <row r="4">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2311857281285887</v>
+        <v>0.2180894959196356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00783738146509907</v>
+        <v>0.01503305399633734</v>
       </c>
     </row>
     <row r="5">
@@ -881,75 +881,75 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2020826036072097</v>
+        <v>0.1551771650368897</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01258577308330725</v>
+        <v>0.0235001602352905</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweekcos</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0102892043032381</v>
+        <v>0.006846723366946095</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004864648957794481</v>
+        <v>0.003463544475957801</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004431890470299016</v>
+        <v>0.006044230533637074</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005921325726315807</v>
+        <v>0.001788895058213828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002178970926876334</v>
+        <v>0.005941363545064937</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001444154867151798</v>
+        <v>0.007286760533841911</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002110498303272235</v>
+        <v>0.002605339218812985</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001422925820447573</v>
+        <v>0.001470553187605238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002464509033272888</v>
+        <v>0.001913866979967538</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005323640625663612</v>
+        <v>0.001416478866558768</v>
       </c>
     </row>
   </sheetData>
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2396125890638329</v>
+        <v>0.2206478732008442</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03985044021264646</v>
+        <v>0.04212353743566435</v>
       </c>
     </row>
     <row r="3">
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1511315955107367</v>
+        <v>0.2059843030971162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0195440110035997</v>
+        <v>0.02294142982895959</v>
       </c>
     </row>
     <row r="4">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07756704706781778</v>
+        <v>0.1171086323927896</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03090828218537534</v>
+        <v>0.03252405835860307</v>
       </c>
     </row>
     <row r="5">
@@ -1034,75 +1034,75 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03743585478129285</v>
+        <v>0.04166594959966848</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01452811218527169</v>
+        <v>0.01351688295212378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01949308450100278</v>
+        <v>0.02247143570503285</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02277697505255794</v>
+        <v>0.006268092702948198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01454675291285457</v>
+        <v>0.02008935746100273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01325398371541969</v>
+        <v>0.009769131623295006</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0134179686162482</v>
+        <v>0.01723144398373972</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02270062955521603</v>
+        <v>0.01700418787132128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0114192038226173</v>
+        <v>0.01445349979262349</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01560223172348495</v>
+        <v>0.005454463472312036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01007031021528153</v>
+        <v>0.002941930556542371</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007226091135247859</v>
+        <v>0.01644578405673467</v>
       </c>
     </row>
   </sheetData>
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8201276710757659</v>
+        <v>0.8507404739254181</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03258585874446705</v>
+        <v>0.07576259937151988</v>
       </c>
     </row>
     <row r="3">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2050183801452599</v>
+        <v>0.2089965282501766</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02399068917706629</v>
+        <v>0.04090609657533144</v>
       </c>
     </row>
     <row r="4">
@@ -1174,36 +1174,36 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1751923081795825</v>
+        <v>0.1818159899760815</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03445321202968507</v>
+        <v>0.009941671547852545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1745552599243405</v>
+        <v>0.1795823644398643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03578358698595466</v>
+        <v>0.02683327928032205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1560610297126456</v>
+        <v>0.1638764874468606</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02904788404485525</v>
+        <v>0.02170250062799305</v>
       </c>
     </row>
     <row r="7">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09029538262992291</v>
+        <v>0.09005603132485511</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0131880966216578</v>
+        <v>0.009342908399831127</v>
       </c>
     </row>
     <row r="8">
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0001606577367480266</v>
+        <v>0.0001385651754913342</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001188410273930007</v>
+        <v>5.620749532232699e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.158788667190215e-06</v>
+        <v>1.039902656341241e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>7.937264491468624e-07</v>
+        <v>1.097902492071785e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.648635450297476e-07</v>
+        <v>-1.298189042930886e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>1.528288468365136e-06</v>
+        <v>8.051866167924475e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6436102337247384</v>
+        <v>0.7158879114480425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07966182572901526</v>
+        <v>0.08322638779683864</v>
       </c>
     </row>
     <row r="3">
@@ -1314,49 +1314,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07754985731747754</v>
+        <v>0.1625350094664081</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01610203157880239</v>
+        <v>0.01988910093415461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05788722532274835</v>
+        <v>0.06751226153928647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003966028684212944</v>
+        <v>0.007846275793889662</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05355319329763206</v>
+        <v>0.05418835127341146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001822069797136172</v>
+        <v>0.004285370056800161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05112902182861763</v>
+        <v>0.05056969598017067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002550384034043318</v>
+        <v>0.007934562629182988</v>
       </c>
     </row>
     <row r="7">
@@ -1366,49 +1366,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0433587315197254</v>
+        <v>0.02976751390959958</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009309327908495342</v>
+        <v>0.004209165921070924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04164007805254148</v>
+        <v>0.02832110938831191</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003951899622045865</v>
+        <v>0.004339425121114984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>dayofweekcos</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03045826207238609</v>
+        <v>0.02486098114614443</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008367975307625834</v>
+        <v>0.002623729610932398</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02869268999531456</v>
+        <v>0.02307654094202316</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00424107534595014</v>
+        <v>0.004674575175645462</v>
       </c>
     </row>
   </sheetData>
@@ -1472,10 +1472,10 @@
         <v>515.0750576034154</v>
       </c>
       <c r="C2" t="n">
-        <v>1141.774470718658</v>
+        <v>1236.519864968546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.636</v>
+        <v>0.674</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-1779.5303012755942, 2701.7799071238705]</t>
+          <t>[-1636.2468334276932, 3028.845266866183]</t>
         </is>
       </c>
     </row>
@@ -1498,10 +1498,10 @@
         <v>22.65412425856411</v>
       </c>
       <c r="C3" t="n">
-        <v>57.838142062864</v>
+        <v>56.20361375561137</v>
       </c>
       <c r="D3" t="n">
-        <v>0.646</v>
+        <v>0.754</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-91.36584131098897, 156.68286611051238]</t>
+          <t>[-65.7302924246465, 141.50815241052038]</t>
         </is>
       </c>
     </row>
@@ -1524,10 +1524,10 @@
         <v>-8.594452395364391</v>
       </c>
       <c r="C4" t="n">
-        <v>68.1684665365123</v>
+        <v>64.04951749482737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.916</v>
+        <v>0.866</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-137.34271276136394, 139.3041825579682]</t>
+          <t>[-113.93693070658314, 130.75867133004738]</t>
         </is>
       </c>
     </row>
@@ -1550,10 +1550,10 @@
         <v>-55.80029369721267</v>
       </c>
       <c r="C5" t="n">
-        <v>56.0527585956905</v>
+        <v>48.76229135944097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-172.79201132286943, 50.53302228379752]</t>
+          <t>[-164.27666259863582, 36.05775322735431]</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
         <v>48.44447797676496</v>
       </c>
       <c r="C6" t="n">
-        <v>46.90399814068947</v>
+        <v>49.36884754290795</v>
       </c>
       <c r="D6" t="n">
         <v>0.156</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[0.0, 158.72573047297018]</t>
+          <t>[0.0, 168.2197060912814]</t>
         </is>
       </c>
     </row>
@@ -1602,10 +1602,10 @@
         <v>-14.81779181202579</v>
       </c>
       <c r="C7" t="n">
-        <v>28.15306524197089</v>
+        <v>25.51232275846012</v>
       </c>
       <c r="D7" t="n">
-        <v>0.662</v>
+        <v>0.338</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-81.90642823788522, 20.953844807493468]</t>
+          <t>[-79.81615394607665, 21.258613003891234]</t>
         </is>
       </c>
     </row>
@@ -1758,10 +1758,10 @@
         <v>-168.7779043649494</v>
       </c>
       <c r="C13" t="n">
-        <v>147.0963012607137</v>
+        <v>162.2296020117964</v>
       </c>
       <c r="D13" t="n">
-        <v>0.144</v>
+        <v>0.176</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-483.17068355582484, 0.0]</t>
+          <t>[-544.5460748424738, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1784,10 +1784,10 @@
         <v>3.181183761164196</v>
       </c>
       <c r="C14" t="n">
-        <v>20.67655253331432</v>
+        <v>19.29740265015736</v>
       </c>
       <c r="D14" t="n">
-        <v>0.914</v>
+        <v>0.538</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-37.0973855831506, 57.44213031937936]</t>
+          <t>[-35.41616273639356, 45.14941558417905]</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
         <v>58.65248641972787</v>
       </c>
       <c r="C15" t="n">
-        <v>61.31304307729562</v>
+        <v>60.1953510621968</v>
       </c>
       <c r="D15" t="n">
         <v>0.154</v>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.0, 209.70753117516824]</t>
+          <t>[0.0, 185.09808325935558]</t>
         </is>
       </c>
     </row>
@@ -1888,10 +1888,10 @@
         <v>230.7983276336033</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5281848096316</v>
+        <v>180.2461210527308</v>
       </c>
       <c r="D18" t="n">
-        <v>0.122</v>
+        <v>0.112</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[0.0, 667.1214824058989]</t>
+          <t>[0.0, 648.7310462390849]</t>
         </is>
       </c>
     </row>
@@ -1966,10 +1966,10 @@
         <v>-70.33417079411304</v>
       </c>
       <c r="C21" t="n">
-        <v>64.1082256147749</v>
+        <v>68.25077697170926</v>
       </c>
       <c r="D21" t="n">
-        <v>0.168</v>
+        <v>0.21</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-219.64943710999876, 13.807387669701757]</t>
+          <t>[-229.97986591656058, 20.337628983620426]</t>
         </is>
       </c>
     </row>
@@ -1992,10 +1992,10 @@
         <v>186.3958472026663</v>
       </c>
       <c r="C22" t="n">
-        <v>244.5933050794358</v>
+        <v>233.3632246948562</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6</v>
+        <v>0.476</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-162.761134185026, 720.809375209458]</t>
+          <t>[-149.19014274115017, 682.7437669178526]</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2018,10 @@
         <v>-51.34474510097267</v>
       </c>
       <c r="C23" t="n">
-        <v>53.08330681415691</v>
+        <v>48.35983727660712</v>
       </c>
       <c r="D23" t="n">
-        <v>0.154</v>
+        <v>0.138</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-177.13161851248884, 0.0]</t>
+          <t>[-163.14601494431025, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2070,10 +2070,10 @@
         <v>-96.37355254619062</v>
       </c>
       <c r="C25" t="n">
-        <v>92.59234135237558</v>
+        <v>91.59501454620968</v>
       </c>
       <c r="D25" t="n">
-        <v>0.152</v>
+        <v>0.148</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-304.9501438536871, 0.0]</t>
+          <t>[-303.10119366915256, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2096,10 +2096,10 @@
         <v>-117.5960417853465</v>
       </c>
       <c r="C26" t="n">
-        <v>90.99449164749973</v>
+        <v>95.65583810877371</v>
       </c>
       <c r="D26" t="n">
-        <v>0.118</v>
+        <v>0.13</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-321.39101389212465, 0.0]</t>
+          <t>[-345.91219064193604, 0.29647666578654924]</t>
         </is>
       </c>
     </row>
@@ -2122,19 +2122,19 @@
         <v>245.1068663925456</v>
       </c>
       <c r="C27" t="n">
-        <v>185.0349974103771</v>
+        <v>176.9648908253307</v>
       </c>
       <c r="D27" t="n">
-        <v>0.092</v>
+        <v>0.102</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[0.0, 679.9252820687332]</t>
+          <t>[0.0, 627.9659085179221]</t>
         </is>
       </c>
     </row>
@@ -2148,10 +2148,10 @@
         <v>-200.1455735013607</v>
       </c>
       <c r="C28" t="n">
-        <v>186.9512440739744</v>
+        <v>184.8334300562799</v>
       </c>
       <c r="D28" t="n">
-        <v>0.154</v>
+        <v>0.114</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-612.2229487264535, 0.0]</t>
+          <t>[-605.8169515822475, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2226,10 +2226,10 @@
         <v>119.9377543981747</v>
       </c>
       <c r="C31" t="n">
-        <v>113.5847528689811</v>
+        <v>110.2544562148057</v>
       </c>
       <c r="D31" t="n">
-        <v>0.138</v>
+        <v>0.154</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[0.0, 373.63184609694184]</t>
+          <t>[0.0, 374.8578408718453]</t>
         </is>
       </c>
     </row>
@@ -2252,10 +2252,10 @@
         <v>6.869511719321902</v>
       </c>
       <c r="C32" t="n">
-        <v>20.14902158087039</v>
+        <v>20.68619739530287</v>
       </c>
       <c r="D32" t="n">
-        <v>0.476</v>
+        <v>0.466</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-34.09904083092337, 55.94699959765093]</t>
+          <t>[-27.21160078641573, 61.270738252263044]</t>
         </is>
       </c>
     </row>
@@ -2408,10 +2408,10 @@
         <v>-773.0399754234578</v>
       </c>
       <c r="C38" t="n">
-        <v>477.9568858664769</v>
+        <v>513.4041763026406</v>
       </c>
       <c r="D38" t="n">
-        <v>0.112</v>
+        <v>0.124</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-1627.3073073488063, 236.87107813870705]</t>
+          <t>[-1766.9163798076806, 211.73629869911352]</t>
         </is>
       </c>
     </row>
@@ -2434,10 +2434,10 @@
         <v>273.837184027478</v>
       </c>
       <c r="C39" t="n">
-        <v>307.6574747379339</v>
+        <v>346.7337514188434</v>
       </c>
       <c r="D39" t="n">
-        <v>0.386</v>
+        <v>0.42</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-282.1942436158937, 869.677445724642]</t>
+          <t>[-446.60938049923584, 946.0889496095167]</t>
         </is>
       </c>
     </row>
@@ -2460,10 +2460,10 @@
         <v>-381.9316011929113</v>
       </c>
       <c r="C40" t="n">
-        <v>468.5528278776824</v>
+        <v>419.9028601412055</v>
       </c>
       <c r="D40" t="n">
-        <v>0.41</v>
+        <v>0.388</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-1294.1826531810857, 485.9611726337839]</t>
+          <t>[-1216.1186711304924, 420.50473561529185]</t>
         </is>
       </c>
     </row>
@@ -2486,10 +2486,10 @@
         <v>846.3253439322249</v>
       </c>
       <c r="C41" t="n">
-        <v>573.5825040251949</v>
+        <v>576.6499458648372</v>
       </c>
       <c r="D41" t="n">
-        <v>0.136</v>
+        <v>0.144</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-234.1908237700323, 1939.5507182072602]</t>
+          <t>[-237.8159527141661, 2009.2896820423844]</t>
         </is>
       </c>
     </row>
@@ -2512,10 +2512,10 @@
         <v>426.8684606004104</v>
       </c>
       <c r="C42" t="n">
-        <v>565.4474994266528</v>
+        <v>530.8947363910241</v>
       </c>
       <c r="D42" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-764.4641945522859, 1403.8571962307687]</t>
+          <t>[-727.2463429755969, 1314.2291173963001]</t>
         </is>
       </c>
     </row>
@@ -2538,10 +2538,10 @@
         <v>-228.4314092535711</v>
       </c>
       <c r="C43" t="n">
-        <v>204.1887799945187</v>
+        <v>212.5991777651346</v>
       </c>
       <c r="D43" t="n">
-        <v>0.154</v>
+        <v>0.476</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-659.234481608626, 0.0]</t>
+          <t>[-668.3719249299679, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2564,10 @@
         <v>134.6858674791933</v>
       </c>
       <c r="C44" t="n">
-        <v>124.082076117381</v>
+        <v>123.7910496118893</v>
       </c>
       <c r="D44" t="n">
-        <v>0.144</v>
+        <v>0.152</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.0, 433.86295119721865]</t>
+          <t>[0.0, 422.3156193198332]</t>
         </is>
       </c>
     </row>
@@ -2590,10 +2590,10 @@
         <v>69.81140080702318</v>
       </c>
       <c r="C45" t="n">
-        <v>69.45974646369592</v>
+        <v>69.59094653857245</v>
       </c>
       <c r="D45" t="n">
-        <v>0.16</v>
+        <v>0.5</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[0.0, 230.0343276143862]</t>
+          <t>[0.0, 228.92767333732064]</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
         <v>49.40150220930711</v>
       </c>
       <c r="C46" t="n">
-        <v>47.5434779983227</v>
+        <v>46.99090157457474</v>
       </c>
       <c r="D46" t="n">
         <v>0.142</v>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.0, 159.27129666078469]</t>
+          <t>[0.0, 159.645126982539]</t>
         </is>
       </c>
     </row>
@@ -2668,10 +2668,10 @@
         <v>-51.35760405921771</v>
       </c>
       <c r="C48" t="n">
-        <v>52.39084963697817</v>
+        <v>56.46419954875276</v>
       </c>
       <c r="D48" t="n">
-        <v>0.15</v>
+        <v>0.164</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[-174.80358777418292, 0.0]</t>
+          <t>[-191.05597092606683, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2694,10 +2694,10 @@
         <v>-5.594522612567842</v>
       </c>
       <c r="C49" t="n">
-        <v>23.14826808724021</v>
+        <v>24.70492556930832</v>
       </c>
       <c r="D49" t="n">
-        <v>0.474</v>
+        <v>0.858</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[-65.56764013847828, 38.836743672929515]</t>
+          <t>[-66.65376834966891, 38.0225751533732]</t>
         </is>
       </c>
     </row>
@@ -2720,10 +2720,10 @@
         <v>79.23406158657589</v>
       </c>
       <c r="C50" t="n">
-        <v>74.99291991362314</v>
+        <v>68.33540223907336</v>
       </c>
       <c r="D50" t="n">
-        <v>0.15</v>
+        <v>0.134</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.0, 261.47444274475873]</t>
+          <t>[0.0, 212.18476534934166]</t>
         </is>
       </c>
     </row>
@@ -2798,19 +2798,19 @@
         <v>614.8908037852003</v>
       </c>
       <c r="C53" t="n">
-        <v>303.5177219197134</v>
+        <v>315.98576146226</v>
       </c>
       <c r="D53" t="n">
-        <v>0.044</v>
+        <v>0.056</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[6.3360800807595545, 1156.6383054815774]</t>
+          <t>[-37.51351068826034, 1185.9992864416884]</t>
         </is>
       </c>
     </row>
@@ -2824,10 +2824,10 @@
         <v>-605.9516898445496</v>
       </c>
       <c r="C54" t="n">
-        <v>283.2460965473409</v>
+        <v>295.3924382493356</v>
       </c>
       <c r="D54" t="n">
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[-1200.467016357013, -96.92855930177393]</t>
+          <t>[-1138.5729187406307, -54.905831130683445]</t>
         </is>
       </c>
     </row>
@@ -2850,10 +2850,10 @@
         <v>496.7034556846617</v>
       </c>
       <c r="C55" t="n">
-        <v>230.5448320420726</v>
+        <v>234.3195019749643</v>
       </c>
       <c r="D55" t="n">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[63.71285802922503, 945.3790476312195]</t>
+          <t>[30.625554432593795, 917.1820026585842]</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
         <v>-1093.470203062709</v>
       </c>
       <c r="C56" t="n">
-        <v>257.4361844787391</v>
+        <v>261.4363400916017</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-1576.9228320204288, -597.2901994699195]</t>
+          <t>[-1623.6348713978941, -595.032988093028]</t>
         </is>
       </c>
     </row>
@@ -2954,10 +2954,10 @@
         <v>60.41412960477746</v>
       </c>
       <c r="C59" t="n">
-        <v>475.8914274741989</v>
+        <v>484.1149209301156</v>
       </c>
       <c r="D59" t="n">
-        <v>0.902</v>
+        <v>0.904</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[-805.3390090240591, 989.5370546816473]</t>
+          <t>[-975.27040472365, 950.375803628889]</t>
         </is>
       </c>
     </row>
@@ -3006,10 +3006,10 @@
         <v>-402.4409397377263</v>
       </c>
       <c r="C61" t="n">
-        <v>349.9613893321956</v>
+        <v>352.5386787674972</v>
       </c>
       <c r="D61" t="n">
-        <v>0.27</v>
+        <v>0.252</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-1098.3634450470624, 330.22049879772806]</t>
+          <t>[-1084.1724399797642, 284.3244444560322]</t>
         </is>
       </c>
     </row>
@@ -3032,10 +3032,10 @@
         <v>297.0957223162715</v>
       </c>
       <c r="C62" t="n">
-        <v>276.6171607100258</v>
+        <v>279.9101893790483</v>
       </c>
       <c r="D62" t="n">
-        <v>0.274</v>
+        <v>0.27</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[-242.06906637465227, 828.190425009425]</t>
+          <t>[-270.0455142793042, 828.8636941389764]</t>
         </is>
       </c>
     </row>
@@ -3058,10 +3058,10 @@
         <v>270.1146342314162</v>
       </c>
       <c r="C63" t="n">
-        <v>238.633208372784</v>
+        <v>231.759572385821</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242</v>
+        <v>0.252</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[-200.6359320557188, 756.5833420705162]</t>
+          <t>[-181.08132239382599, 714.2874665273921]</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
         <v>-788.6613638944169</v>
       </c>
       <c r="C64" t="n">
-        <v>221.4064809350779</v>
+        <v>226.1821480181324</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[-1212.0479275482035, -387.5764434708142]</t>
+          <t>[-1238.7584375281237, -315.2012874224979]</t>
         </is>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
         <v>579.9322657197032</v>
       </c>
       <c r="C67" t="n">
-        <v>382.4860059074379</v>
+        <v>384.6952667167662</v>
       </c>
       <c r="D67" t="n">
-        <v>0.148</v>
+        <v>0.12</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[-147.81295352466435, 1307.3978138720418]</t>
+          <t>[-113.46968331942665, 1324.6639521580437]</t>
         </is>
       </c>
     </row>
@@ -3188,10 +3188,10 @@
         <v>1643.710975597814</v>
       </c>
       <c r="C68" t="n">
-        <v>573.3382334386189</v>
+        <v>593.2842806986434</v>
       </c>
       <c r="D68" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[562.4356392146963, 2767.9186000605696]</t>
+          <t>[373.76452925836014, 2809.567866438482]</t>
         </is>
       </c>
     </row>
@@ -3214,10 +3214,10 @@
         <v>-380.8610365316063</v>
       </c>
       <c r="C69" t="n">
-        <v>471.7318654747814</v>
+        <v>504.6956392649864</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4</v>
+        <v>0.468</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-1377.5441722298197, 517.889914785086]</t>
+          <t>[-1352.5041464083479, 598.175838721198]</t>
         </is>
       </c>
     </row>
@@ -3240,10 +3240,10 @@
         <v>624.8671844221487</v>
       </c>
       <c r="C70" t="n">
-        <v>523.9307186623568</v>
+        <v>518.6457964594757</v>
       </c>
       <c r="D70" t="n">
-        <v>0.248</v>
+        <v>0.236</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[-389.5198273893028, 1705.9539069073467]</t>
+          <t>[-354.6035367445144, 1569.9526031131595]</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
         <v>2290.847914199599</v>
       </c>
       <c r="C71" t="n">
-        <v>375.7747797224443</v>
+        <v>371.02981130406</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[1508.0580278068032, 2989.2952701645927]</t>
+          <t>[1546.6198489470794, 2998.0321231700955]</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3292,10 @@
         <v>-211.1814429890639</v>
       </c>
       <c r="C72" t="n">
-        <v>444.4876326591908</v>
+        <v>443.9206167928735</v>
       </c>
       <c r="D72" t="n">
-        <v>0.656</v>
+        <v>0.634</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-1008.9615970892701, 700.193930829729]</t>
+          <t>[-1081.6010247474958, 674.0931743937736]</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
         <v>-2290.847914199599</v>
       </c>
       <c r="C73" t="n">
-        <v>375.7747797224444</v>
+        <v>371.0298113040597</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-2989.2952701645845, -1508.058027806806]</t>
+          <t>[-2998.0321231700973, -1546.6198489470767]</t>
         </is>
       </c>
     </row>
@@ -3344,10 +3344,10 @@
         <v>-211.1814429890664</v>
       </c>
       <c r="C74" t="n">
-        <v>444.4876326591908</v>
+        <v>443.9206167928735</v>
       </c>
       <c r="D74" t="n">
-        <v>0.656</v>
+        <v>0.634</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-1008.9615970892719, 700.1939308297265]</t>
+          <t>[-1081.6010247474978, 674.0931743937717]</t>
         </is>
       </c>
     </row>
@@ -3370,10 +3370,10 @@
         <v>-127.8325604692105</v>
       </c>
       <c r="C75" t="n">
-        <v>740.4477816686891</v>
+        <v>740.5730952490309</v>
       </c>
       <c r="D75" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-1585.2544840807925, 1220.3631504704945]</t>
+          <t>[-1534.5186645334836, 1310.1040393972103]</t>
         </is>
       </c>
     </row>
@@ -3396,10 +3396,10 @@
         <v>14.4376885113376</v>
       </c>
       <c r="C76" t="n">
-        <v>758.3864456684867</v>
+        <v>727.5570087253649</v>
       </c>
       <c r="D76" t="n">
-        <v>0.992</v>
+        <v>0.986</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-1453.2609639527677, 1422.8779749219473]</t>
+          <t>[-1396.6505424081752, 1488.6722875140315]</t>
         </is>
       </c>
     </row>
@@ -3422,10 +3422,10 @@
         <v>-98.52666136833008</v>
       </c>
       <c r="C77" t="n">
-        <v>799.7288543943364</v>
+        <v>773.9625827488002</v>
       </c>
       <c r="D77" t="n">
-        <v>0.896</v>
+        <v>0.908</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-1749.3824506209587, 1331.9496818493742]</t>
+          <t>[-1597.2494056546554, 1368.8180452491733]</t>
         </is>
       </c>
     </row>
@@ -3448,10 +3448,10 @@
         <v>-40.20918758927506</v>
       </c>
       <c r="C78" t="n">
-        <v>725.4274213020265</v>
+        <v>725.7404680912673</v>
       </c>
       <c r="D78" t="n">
-        <v>0.956</v>
+        <v>0.97</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-1481.261886260338, 1328.164423228452]</t>
+          <t>[-1445.715953281554, 1419.6685320034383]</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3474,10 @@
         <v>499.1580342968279</v>
       </c>
       <c r="C79" t="n">
-        <v>672.1905093884302</v>
+        <v>694.5151725798419</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44</v>
+        <v>0.462</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[-891.3985095200632, 1694.545043767258]</t>
+          <t>[-854.0043527572285, 1826.7533868344924]</t>
         </is>
       </c>
     </row>
@@ -3500,10 +3500,10 @@
         <v>319.9503393954711</v>
       </c>
       <c r="C80" t="n">
-        <v>807.1891009592161</v>
+        <v>824.8629548161628</v>
       </c>
       <c r="D80" t="n">
-        <v>0.678</v>
+        <v>0.72</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-1266.9241987332503, 1843.332290988029]</t>
+          <t>[-1303.9834510680362, 1989.0378168470002]</t>
         </is>
       </c>
     </row>
@@ -3526,10 +3526,10 @@
         <v>-137.6446496199349</v>
       </c>
       <c r="C81" t="n">
-        <v>746.0566243258404</v>
+        <v>787.8289863638461</v>
       </c>
       <c r="D81" t="n">
-        <v>0.85</v>
+        <v>0.874</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-1487.0852732489466, 1311.1111448674847]</t>
+          <t>[-1692.3464582037705, 1374.9075967520798]</t>
         </is>
       </c>
     </row>
@@ -3552,10 +3552,10 @@
         <v>-114.6722601495619</v>
       </c>
       <c r="C82" t="n">
-        <v>778.2969805379519</v>
+        <v>719.7058274287049</v>
       </c>
       <c r="D82" t="n">
-        <v>0.874</v>
+        <v>0.848</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-1612.1839322902833, 1387.704399126757]</t>
+          <t>[-1561.90121884059, 1307.5765264898969]</t>
         </is>
       </c>
     </row>
@@ -3578,10 +3578,10 @@
         <v>-454.2952192044123</v>
       </c>
       <c r="C83" t="n">
-        <v>673.5744292036602</v>
+        <v>720.3700019753135</v>
       </c>
       <c r="D83" t="n">
-        <v>0.47</v>
+        <v>0.532</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-1846.7983209909094, 909.0832425442297]</t>
+          <t>[-1919.1802298259236, 933.8168827984241]</t>
         </is>
       </c>
     </row>
@@ -3604,10 +3604,10 @@
         <v>102.9937060908886</v>
       </c>
       <c r="C84" t="n">
-        <v>830.1688585100089</v>
+        <v>791.4600648252057</v>
       </c>
       <c r="D84" t="n">
-        <v>0.922</v>
+        <v>0.92</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-1540.5301016346823, 1851.4720566088572]</t>
+          <t>[-1439.773698111808, 1557.7395435007209]</t>
         </is>
       </c>
     </row>

--- a/examples/eCommerce_feature_info.xlsx
+++ b/examples/eCommerce_feature_info.xlsx
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="elasticnet_feature_importance" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knn_feature_importance" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mlp_feature_importance" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lightgbm_feature_importance" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="svr_feature_importance" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="silverkite_summary_stats" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.311199371524912</v>
+        <v>1.273524768737927</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08447283537176674</v>
+        <v>0.07241520826551938</v>
       </c>
     </row>
     <row r="3">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6673418403211393</v>
+        <v>0.6554277167649099</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02726952123488633</v>
+        <v>0.09787197446857357</v>
       </c>
     </row>
     <row r="4">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2677060955556602</v>
+        <v>0.2800610630929664</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04944393122521676</v>
+        <v>0.04207522510091247</v>
       </c>
     </row>
     <row r="5">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1504968760671375</v>
+        <v>0.1391208357886453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04321403400635328</v>
+        <v>0.02556119051398171</v>
       </c>
     </row>
     <row r="6">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01490827998505704</v>
+        <v>0.01114835010354227</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008785735995054342</v>
+        <v>0.008736781563812935</v>
       </c>
     </row>
     <row r="7">
@@ -754,49 +754,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006307018173987533</v>
+        <v>0.004863079704306483</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005830984589668574</v>
+        <v>0.005368923258962931</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001350342673472538</v>
+        <v>0.002157609969710994</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003993592728735748</v>
+        <v>0.00278398997757125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001207979306123508</v>
+        <v>0.001942477797997055</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001327333400795891</v>
+        <v>0.002053173791002122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0009963584463170915</v>
+        <v>0.001657711184397836</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001809575726071564</v>
+        <v>0.002597078271564359</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.029547823488341</v>
+        <v>1.280137529767546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07629508854332614</v>
+        <v>0.09363502384005511</v>
       </c>
     </row>
     <row r="3">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4557843872849526</v>
+        <v>0.6366047059558049</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04599487249331925</v>
+        <v>0.04574232606615709</v>
       </c>
     </row>
     <row r="4">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2180894959196356</v>
+        <v>0.2929221263665492</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01503305399633734</v>
+        <v>0.03062579383129101</v>
       </c>
     </row>
     <row r="5">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1551771650368897</v>
+        <v>0.1504660820783812</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0235001602352905</v>
+        <v>0.01279699505591037</v>
       </c>
     </row>
     <row r="6">
@@ -894,62 +894,62 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006846723366946095</v>
+        <v>0.01244187697567132</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003463544475957801</v>
+        <v>0.007643447725996006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006044230533637074</v>
+        <v>0.008291758990134923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001788895058213828</v>
+        <v>0.003385458600307663</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.005941363545064937</v>
+        <v>0.001434590031272776</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007286760533841911</v>
+        <v>0.002278699945759024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002605339218812985</v>
+        <v>0.0004933335774797154</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001470553187605238</v>
+        <v>0.00102222973911366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001913866979967538</v>
+        <v>0.0001522089246931202</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001416478866558768</v>
+        <v>0.002351259740228771</v>
       </c>
     </row>
   </sheetData>
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2206478732008442</v>
+        <v>0.2091522525100028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04212353743566435</v>
+        <v>0.06841687228647787</v>
       </c>
     </row>
     <row r="3">
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2059843030971162</v>
+        <v>0.177581743353924</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02294142982895959</v>
+        <v>0.02903033535146909</v>
       </c>
     </row>
     <row r="4">
@@ -1021,49 +1021,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1171086323927896</v>
+        <v>0.07308443021711546</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03252405835860307</v>
+        <v>0.02857846520394071</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04166594959966848</v>
+        <v>0.02842597474754567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01351688295212378</v>
+        <v>0.02430322424129512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02247143570503285</v>
+        <v>0.0281385230452323</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006268092702948198</v>
+        <v>0.02228344899808097</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02008935746100273</v>
+        <v>0.02419387397752924</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009769131623295006</v>
+        <v>0.01390904533068789</v>
       </c>
     </row>
     <row r="8">
@@ -1073,23 +1073,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01723144398373972</v>
+        <v>0.02099286954988797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01700418787132128</v>
+        <v>0.01662817884653118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01445349979262349</v>
+        <v>0.01428447305818608</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005454463472312036</v>
+        <v>0.008886097691698853</v>
       </c>
     </row>
     <row r="10">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002941930556542371</v>
+        <v>-0.007534073254410046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01644578405673467</v>
+        <v>0.01312046583831987</v>
       </c>
     </row>
   </sheetData>
@@ -1148,62 +1148,62 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8507404739254181</v>
+        <v>0.3222797601167818</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07576259937151988</v>
+        <v>0.02873656625467434</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2089965282501766</v>
+        <v>0.07481670909394414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04090609657533144</v>
+        <v>0.02911914190964181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1818159899760815</v>
+        <v>0.03610369871297201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009941671547852545</v>
+        <v>0.01365963828425629</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1795823644398643</v>
+        <v>0.03317233810071041</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02683327928032205</v>
+        <v>0.009009793748115492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1638764874468606</v>
+        <v>0.02087499513006221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02170250062799305</v>
+        <v>0.02087612834878007</v>
       </c>
     </row>
     <row r="7">
@@ -1213,49 +1213,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09005603132485511</v>
+        <v>0.01910748785205001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009342908399831127</v>
+        <v>0.01988175893089993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweekcos</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0001385651754913342</v>
+        <v>0.01471104737892865</v>
       </c>
       <c r="C8" t="n">
-        <v>5.620749532232699e-05</v>
+        <v>0.007686237505111879</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.039902656341241e-06</v>
+        <v>0.01034106608717698</v>
       </c>
       <c r="C9" t="n">
-        <v>1.097902492071785e-06</v>
+        <v>0.01608381534854614</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.298189042930886e-07</v>
+        <v>0.009206027309926456</v>
       </c>
       <c r="C10" t="n">
-        <v>8.051866167924475e-07</v>
+        <v>0.01090278422857759</v>
       </c>
     </row>
   </sheetData>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7158879114480425</v>
+        <v>0.0003216332975825243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08322638779683864</v>
+        <v>4.566715192619536e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1314,36 +1314,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1625350094664081</v>
+        <v>9.430844499069835e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01988910093415461</v>
+        <v>6.316039190084372e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06751226153928647</v>
+        <v>5.606265754507511e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007846275793889662</v>
+        <v>1.310112679536609e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05418835127341146</v>
+        <v>1.899088867958199e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004285370056800161</v>
+        <v>3.345713657478988e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1353,62 +1353,62 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05056969598017067</v>
+        <v>1.828275782314037e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007934562629182988</v>
+        <v>7.023198687285785e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02976751390959958</v>
+        <v>9.387490645984541e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004209165921070924</v>
+        <v>1.043590577815601e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweekcos</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02832110938831191</v>
+        <v>1.601046221733071e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004339425121114984</v>
+        <v>8.268846644478354e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02486098114614443</v>
+        <v>2.735316429358647e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002623729610932398</v>
+        <v>1.448590253799544e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02307654094202316</v>
+        <v>-1.23576511626311e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004674575175645462</v>
+        <v>2.338272120559225e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1472,10 +1472,10 @@
         <v>515.0750576034154</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.519864968546</v>
+        <v>1241.255100628674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.674</v>
+        <v>0.708</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-1636.2468334276932, 3028.845266866183]</t>
+          <t>[-1798.044614390663, 2912.310168730801]</t>
         </is>
       </c>
     </row>
@@ -1498,10 +1498,10 @@
         <v>22.65412425856411</v>
       </c>
       <c r="C3" t="n">
-        <v>56.20361375561137</v>
+        <v>60.68721207517242</v>
       </c>
       <c r="D3" t="n">
-        <v>0.754</v>
+        <v>0.64</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-65.7302924246465, 141.50815241052038]</t>
+          <t>[-86.68207169425176, 164.4391755719883]</t>
         </is>
       </c>
     </row>
@@ -1524,10 +1524,10 @@
         <v>-8.594452395364391</v>
       </c>
       <c r="C4" t="n">
-        <v>64.04951749482737</v>
+        <v>70.77294182634094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.866</v>
+        <v>0.906</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-113.93693070658314, 130.75867133004738]</t>
+          <t>[-129.76798383718426, 153.11622753414528]</t>
         </is>
       </c>
     </row>
@@ -1550,10 +1550,10 @@
         <v>-55.80029369721267</v>
       </c>
       <c r="C5" t="n">
-        <v>48.76229135944097</v>
+        <v>54.55199830004853</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2</v>
+        <v>0.342</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-164.27666259863582, 36.05775322735431]</t>
+          <t>[-171.0290175562618, 26.4562779701482]</t>
         </is>
       </c>
     </row>
@@ -1576,10 +1576,10 @@
         <v>48.44447797676496</v>
       </c>
       <c r="C6" t="n">
-        <v>49.36884754290795</v>
+        <v>49.667217538876</v>
       </c>
       <c r="D6" t="n">
-        <v>0.156</v>
+        <v>0.154</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[0.0, 168.2197060912814]</t>
+          <t>[0.0, 162.6610787037628]</t>
         </is>
       </c>
     </row>
@@ -1602,10 +1602,10 @@
         <v>-14.81779181202579</v>
       </c>
       <c r="C7" t="n">
-        <v>25.51232275846012</v>
+        <v>22.41540374405217</v>
       </c>
       <c r="D7" t="n">
-        <v>0.338</v>
+        <v>0.294</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-79.81615394607665, 21.258613003891234]</t>
+          <t>[-70.66690617007416, 16.43146370800585]</t>
         </is>
       </c>
     </row>
@@ -1758,10 +1758,10 @@
         <v>-168.7779043649494</v>
       </c>
       <c r="C13" t="n">
-        <v>162.2296020117964</v>
+        <v>151.2996403255255</v>
       </c>
       <c r="D13" t="n">
-        <v>0.176</v>
+        <v>0.164</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-544.5460748424738, 0.0]</t>
+          <t>[-495.41897606720966, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1784,10 +1784,10 @@
         <v>3.181183761164196</v>
       </c>
       <c r="C14" t="n">
-        <v>19.29740265015736</v>
+        <v>22.75164805535757</v>
       </c>
       <c r="D14" t="n">
-        <v>0.538</v>
+        <v>0.594</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-35.41616273639356, 45.14941558417905]</t>
+          <t>[-41.67508604498846, 54.33764763439481]</t>
         </is>
       </c>
     </row>
@@ -1810,10 +1810,10 @@
         <v>58.65248641972787</v>
       </c>
       <c r="C15" t="n">
-        <v>60.1953510621968</v>
+        <v>61.96356659714451</v>
       </c>
       <c r="D15" t="n">
-        <v>0.154</v>
+        <v>0.496</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.0, 185.09808325935558]</t>
+          <t>[0.0, 210.39963553091803]</t>
         </is>
       </c>
     </row>
@@ -1888,10 +1888,10 @@
         <v>230.7983276336033</v>
       </c>
       <c r="C18" t="n">
-        <v>180.2461210527308</v>
+        <v>188.547647906461</v>
       </c>
       <c r="D18" t="n">
-        <v>0.112</v>
+        <v>0.122</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[0.0, 648.7310462390849]</t>
+          <t>[0.0, 637.4025717215109]</t>
         </is>
       </c>
     </row>
@@ -1966,10 +1966,10 @@
         <v>-70.33417079411304</v>
       </c>
       <c r="C21" t="n">
-        <v>68.25077697170926</v>
+        <v>69.34653097933453</v>
       </c>
       <c r="D21" t="n">
-        <v>0.21</v>
+        <v>0.208</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-229.97986591656058, 20.337628983620426]</t>
+          <t>[-240.65719457956754, 21.472168820725138]</t>
         </is>
       </c>
     </row>
@@ -1992,10 +1992,10 @@
         <v>186.3958472026663</v>
       </c>
       <c r="C22" t="n">
-        <v>233.3632246948562</v>
+        <v>257.1365993580937</v>
       </c>
       <c r="D22" t="n">
-        <v>0.476</v>
+        <v>0.508</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-149.19014274115017, 682.7437669178526]</t>
+          <t>[-183.95519636071475, 761.2923183982186]</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2018,10 @@
         <v>-51.34474510097267</v>
       </c>
       <c r="C23" t="n">
-        <v>48.35983727660712</v>
+        <v>53.22081504388208</v>
       </c>
       <c r="D23" t="n">
-        <v>0.138</v>
+        <v>0.152</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-163.14601494431025, 0.0]</t>
+          <t>[-182.85599254271693, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2070,10 +2070,10 @@
         <v>-96.37355254619062</v>
       </c>
       <c r="C25" t="n">
-        <v>91.59501454620968</v>
+        <v>88.17345324817011</v>
       </c>
       <c r="D25" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-303.10119366915256, 0.0]</t>
+          <t>[-296.11396066024463, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2096,10 +2096,10 @@
         <v>-117.5960417853465</v>
       </c>
       <c r="C26" t="n">
-        <v>95.65583810877371</v>
+        <v>93.97734940111161</v>
       </c>
       <c r="D26" t="n">
-        <v>0.13</v>
+        <v>0.116</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-345.91219064193604, 0.29647666578654924]</t>
+          <t>[-305.7831981011815, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2122,10 +2122,10 @@
         <v>245.1068663925456</v>
       </c>
       <c r="C27" t="n">
-        <v>176.9648908253307</v>
+        <v>188.8646404783926</v>
       </c>
       <c r="D27" t="n">
-        <v>0.102</v>
+        <v>0.114</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[0.0, 627.9659085179221]</t>
+          <t>[0.0, 659.8580194236742]</t>
         </is>
       </c>
     </row>
@@ -2148,10 +2148,10 @@
         <v>-200.1455735013607</v>
       </c>
       <c r="C28" t="n">
-        <v>184.8334300562799</v>
+        <v>171.0114227630227</v>
       </c>
       <c r="D28" t="n">
-        <v>0.114</v>
+        <v>0.152</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-605.8169515822475, 0.0]</t>
+          <t>[-580.4967477684941, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2226,10 +2226,10 @@
         <v>119.9377543981747</v>
       </c>
       <c r="C31" t="n">
-        <v>110.2544562148057</v>
+        <v>119.6954189296213</v>
       </c>
       <c r="D31" t="n">
-        <v>0.154</v>
+        <v>0.178</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[0.0, 374.8578408718453]</t>
+          <t>[0.0, 396.1462399321228]</t>
         </is>
       </c>
     </row>
@@ -2252,10 +2252,10 @@
         <v>6.869511719321902</v>
       </c>
       <c r="C32" t="n">
-        <v>20.68619739530287</v>
+        <v>21.44404005719547</v>
       </c>
       <c r="D32" t="n">
-        <v>0.466</v>
+        <v>0.482</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-27.21160078641573, 61.270738252263044]</t>
+          <t>[-28.44154174244447, 62.81893160791795]</t>
         </is>
       </c>
     </row>
@@ -2408,10 +2408,10 @@
         <v>-773.0399754234578</v>
       </c>
       <c r="C38" t="n">
-        <v>513.4041763026406</v>
+        <v>476.2410654249954</v>
       </c>
       <c r="D38" t="n">
-        <v>0.124</v>
+        <v>0.106</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-1766.9163798076806, 211.73629869911352]</t>
+          <t>[-1664.6182905842388, 205.41922490024984]</t>
         </is>
       </c>
     </row>
@@ -2434,10 +2434,10 @@
         <v>273.837184027478</v>
       </c>
       <c r="C39" t="n">
-        <v>346.7337514188434</v>
+        <v>334.4701129226075</v>
       </c>
       <c r="D39" t="n">
-        <v>0.42</v>
+        <v>0.398</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-446.60938049923584, 946.0889496095167]</t>
+          <t>[-364.89543801112427, 947.2315614258971]</t>
         </is>
       </c>
     </row>
@@ -2460,10 +2460,10 @@
         <v>-381.9316011929113</v>
       </c>
       <c r="C40" t="n">
-        <v>419.9028601412055</v>
+        <v>460.9458807022011</v>
       </c>
       <c r="D40" t="n">
-        <v>0.388</v>
+        <v>0.418</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-1216.1186711304924, 420.50473561529185]</t>
+          <t>[-1353.1824731676752, 475.5884139571177]</t>
         </is>
       </c>
     </row>
@@ -2486,10 +2486,10 @@
         <v>846.3253439322249</v>
       </c>
       <c r="C41" t="n">
-        <v>576.6499458648372</v>
+        <v>571.4544301284365</v>
       </c>
       <c r="D41" t="n">
-        <v>0.144</v>
+        <v>0.13</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-237.8159527141661, 2009.2896820423844]</t>
+          <t>[-267.5693810498243, 2025.300052954119]</t>
         </is>
       </c>
     </row>
@@ -2512,10 +2512,10 @@
         <v>426.8684606004104</v>
       </c>
       <c r="C42" t="n">
-        <v>530.8947363910241</v>
+        <v>536.2214977132792</v>
       </c>
       <c r="D42" t="n">
-        <v>0.44</v>
+        <v>0.424</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-727.2463429755969, 1314.2291173963001]</t>
+          <t>[-686.2803686708952, 1451.8814140247748]</t>
         </is>
       </c>
     </row>
@@ -2538,10 +2538,10 @@
         <v>-228.4314092535711</v>
       </c>
       <c r="C43" t="n">
-        <v>212.5991777651346</v>
+        <v>208.3658055366746</v>
       </c>
       <c r="D43" t="n">
-        <v>0.476</v>
+        <v>0.128</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-668.3719249299679, 0.0]</t>
+          <t>[-691.9299162470359, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2564,10 @@
         <v>134.6858674791933</v>
       </c>
       <c r="C44" t="n">
-        <v>123.7910496118893</v>
+        <v>124.4901421045095</v>
       </c>
       <c r="D44" t="n">
-        <v>0.152</v>
+        <v>0.154</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.0, 422.3156193198332]</t>
+          <t>[0.0, 421.9088605100922]</t>
         </is>
       </c>
     </row>
@@ -2590,10 +2590,10 @@
         <v>69.81140080702318</v>
       </c>
       <c r="C45" t="n">
-        <v>69.59094653857245</v>
+        <v>68.93944703263621</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5</v>
+        <v>0.166</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[0.0, 228.92767333732064]</t>
+          <t>[0.0, 236.01860970893094]</t>
         </is>
       </c>
     </row>
@@ -2616,10 +2616,10 @@
         <v>49.40150220930711</v>
       </c>
       <c r="C46" t="n">
-        <v>46.99090157457474</v>
+        <v>48.34725996877822</v>
       </c>
       <c r="D46" t="n">
-        <v>0.142</v>
+        <v>0.162</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.0, 159.645126982539]</t>
+          <t>[0.0, 157.1420890506929]</t>
         </is>
       </c>
     </row>
@@ -2668,10 +2668,10 @@
         <v>-51.35760405921771</v>
       </c>
       <c r="C48" t="n">
-        <v>56.46419954875276</v>
+        <v>52.46966090860085</v>
       </c>
       <c r="D48" t="n">
-        <v>0.164</v>
+        <v>0.15</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[-191.05597092606683, 0.0]</t>
+          <t>[-181.35615316889923, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2694,10 +2694,10 @@
         <v>-5.594522612567842</v>
       </c>
       <c r="C49" t="n">
-        <v>24.70492556930832</v>
+        <v>25.54757790219096</v>
       </c>
       <c r="D49" t="n">
-        <v>0.858</v>
+        <v>0.892</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[-66.65376834966891, 38.0225751533732]</t>
+          <t>[-75.85717050526497, 38.104948905208985]</t>
         </is>
       </c>
     </row>
@@ -2720,10 +2720,10 @@
         <v>79.23406158657589</v>
       </c>
       <c r="C50" t="n">
-        <v>68.33540223907336</v>
+        <v>75.88641931398728</v>
       </c>
       <c r="D50" t="n">
-        <v>0.134</v>
+        <v>0.158</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.0, 212.18476534934166]</t>
+          <t>[0.0, 250.33846159075193]</t>
         </is>
       </c>
     </row>
@@ -2798,19 +2798,19 @@
         <v>614.8908037852003</v>
       </c>
       <c r="C53" t="n">
-        <v>315.98576146226</v>
+        <v>317.7036107327959</v>
       </c>
       <c r="D53" t="n">
-        <v>0.056</v>
+        <v>0.048</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-37.51351068826034, 1185.9992864416884]</t>
+          <t>[30.303484802462343, 1230.220860009878]</t>
         </is>
       </c>
     </row>
@@ -2824,10 +2824,10 @@
         <v>-605.9516898445496</v>
       </c>
       <c r="C54" t="n">
-        <v>295.3924382493356</v>
+        <v>283.7993281023549</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[-1138.5729187406307, -54.905831130683445]</t>
+          <t>[-1149.007571563615, -81.22265849376905]</t>
         </is>
       </c>
     </row>
@@ -2850,10 +2850,10 @@
         <v>496.7034556846617</v>
       </c>
       <c r="C55" t="n">
-        <v>234.3195019749643</v>
+        <v>252.7293258092216</v>
       </c>
       <c r="D55" t="n">
-        <v>0.026</v>
+        <v>0.042</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[30.625554432593795, 917.1820026585842]</t>
+          <t>[39.67016025481679, 993.863706625765]</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
         <v>-1093.470203062709</v>
       </c>
       <c r="C56" t="n">
-        <v>261.4363400916017</v>
+        <v>242.6160078470262</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-1623.6348713978941, -595.032988093028]</t>
+          <t>[-1532.8886936902745, -577.1808545056547]</t>
         </is>
       </c>
     </row>
@@ -2954,10 +2954,10 @@
         <v>60.41412960477746</v>
       </c>
       <c r="C59" t="n">
-        <v>484.1149209301156</v>
+        <v>482.4651249430502</v>
       </c>
       <c r="D59" t="n">
-        <v>0.904</v>
+        <v>0.92</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[-975.27040472365, 950.375803628889]</t>
+          <t>[-865.5206813106868, 1049.6698505135578]</t>
         </is>
       </c>
     </row>
@@ -3006,10 +3006,10 @@
         <v>-402.4409397377263</v>
       </c>
       <c r="C61" t="n">
-        <v>352.5386787674972</v>
+        <v>356.8562273291664</v>
       </c>
       <c r="D61" t="n">
-        <v>0.252</v>
+        <v>0.27</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-1084.1724399797642, 284.3244444560322]</t>
+          <t>[-1098.2056845438929, 278.43492676225844]</t>
         </is>
       </c>
     </row>
@@ -3032,10 +3032,10 @@
         <v>297.0957223162715</v>
       </c>
       <c r="C62" t="n">
-        <v>279.9101893790483</v>
+        <v>284.6703022787752</v>
       </c>
       <c r="D62" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[-270.0455142793042, 828.8636941389764]</t>
+          <t>[-278.0654804876391, 829.9549440159936]</t>
         </is>
       </c>
     </row>
@@ -3058,10 +3058,10 @@
         <v>270.1146342314162</v>
       </c>
       <c r="C63" t="n">
-        <v>231.759572385821</v>
+        <v>237.9461400282388</v>
       </c>
       <c r="D63" t="n">
-        <v>0.252</v>
+        <v>0.27</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[-181.08132239382599, 714.2874665273921]</t>
+          <t>[-173.31122984320297, 719.4037353950183]</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
         <v>-788.6613638944169</v>
       </c>
       <c r="C64" t="n">
-        <v>226.1821480181324</v>
+        <v>214.3927826773444</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[-1238.7584375281237, -315.2012874224979]</t>
+          <t>[-1204.12512150152, -344.19979360285885]</t>
         </is>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
         <v>579.9322657197032</v>
       </c>
       <c r="C67" t="n">
-        <v>384.6952667167662</v>
+        <v>379.9795318652152</v>
       </c>
       <c r="D67" t="n">
-        <v>0.12</v>
+        <v>0.126</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[-113.46968331942665, 1324.6639521580437]</t>
+          <t>[-255.63983137178374, 1252.773071813384]</t>
         </is>
       </c>
     </row>
@@ -3188,10 +3188,10 @@
         <v>1643.710975597814</v>
       </c>
       <c r="C68" t="n">
-        <v>593.2842806986434</v>
+        <v>578.2158578989846</v>
       </c>
       <c r="D68" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[373.76452925836014, 2809.567866438482]</t>
+          <t>[541.5297241790234, 2684.2116565259603]</t>
         </is>
       </c>
     </row>
@@ -3214,10 +3214,10 @@
         <v>-380.8610365316063</v>
       </c>
       <c r="C69" t="n">
-        <v>504.6956392649864</v>
+        <v>494.038526551213</v>
       </c>
       <c r="D69" t="n">
-        <v>0.468</v>
+        <v>0.47</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-1352.5041464083479, 598.175838721198]</t>
+          <t>[-1395.4783814770808, 559.7722774868386]</t>
         </is>
       </c>
     </row>
@@ -3240,10 +3240,10 @@
         <v>624.8671844221487</v>
       </c>
       <c r="C70" t="n">
-        <v>518.6457964594757</v>
+        <v>535.9814443901224</v>
       </c>
       <c r="D70" t="n">
-        <v>0.236</v>
+        <v>0.242</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[-354.6035367445144, 1569.9526031131595]</t>
+          <t>[-394.25750783696014, 1677.0544685232308]</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
         <v>2290.847914199599</v>
       </c>
       <c r="C71" t="n">
-        <v>371.02981130406</v>
+        <v>376.7261406787</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[1546.6198489470794, 2998.0321231700955]</t>
+          <t>[1546.091761404648, 2992.3228792435507]</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3292,10 @@
         <v>-211.1814429890639</v>
       </c>
       <c r="C72" t="n">
-        <v>443.9206167928735</v>
+        <v>430.2543845841612</v>
       </c>
       <c r="D72" t="n">
-        <v>0.634</v>
+        <v>0.6</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-1081.6010247474958, 674.0931743937736]</t>
+          <t>[-1140.3216403266683, 599.6333696345512]</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
         <v>-2290.847914199599</v>
       </c>
       <c r="C73" t="n">
-        <v>371.0298113040597</v>
+        <v>376.7261406787001</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-2998.0321231700973, -1546.6198489470767]</t>
+          <t>[-2992.322879243545, -1546.091761404647]</t>
         </is>
       </c>
     </row>
@@ -3344,10 +3344,10 @@
         <v>-211.1814429890664</v>
       </c>
       <c r="C74" t="n">
-        <v>443.9206167928735</v>
+        <v>430.2543845841612</v>
       </c>
       <c r="D74" t="n">
-        <v>0.634</v>
+        <v>0.6</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-1081.6010247474978, 674.0931743937717]</t>
+          <t>[-1140.3216403266688, 599.6333696345498]</t>
         </is>
       </c>
     </row>
@@ -3370,10 +3370,10 @@
         <v>-127.8325604692105</v>
       </c>
       <c r="C75" t="n">
-        <v>740.5730952490309</v>
+        <v>717.0243190118011</v>
       </c>
       <c r="D75" t="n">
-        <v>0.87</v>
+        <v>0.862</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-1534.5186645334836, 1310.1040393972103]</t>
+          <t>[-1552.8957582310197, 1201.1450718299884]</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
         <v>14.4376885113376</v>
       </c>
       <c r="C76" t="n">
-        <v>727.5570087253649</v>
+        <v>750.501810493113</v>
       </c>
       <c r="D76" t="n">
         <v>0.986</v>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-1396.6505424081752, 1488.6722875140315]</t>
+          <t>[-1525.7280823536473, 1445.609571813019]</t>
         </is>
       </c>
     </row>
@@ -3422,10 +3422,10 @@
         <v>-98.52666136833008</v>
       </c>
       <c r="C77" t="n">
-        <v>773.9625827488002</v>
+        <v>746.2925433915996</v>
       </c>
       <c r="D77" t="n">
-        <v>0.908</v>
+        <v>0.902</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-1597.2494056546554, 1368.8180452491733]</t>
+          <t>[-1396.584198440322, 1361.1853428826396]</t>
         </is>
       </c>
     </row>
@@ -3448,10 +3448,10 @@
         <v>-40.20918758927506</v>
       </c>
       <c r="C78" t="n">
-        <v>725.7404680912673</v>
+        <v>724.7670241791284</v>
       </c>
       <c r="D78" t="n">
-        <v>0.97</v>
+        <v>0.962</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-1445.715953281554, 1419.6685320034383]</t>
+          <t>[-1500.217650457913, 1307.5363744406536]</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3474,10 @@
         <v>499.1580342968279</v>
       </c>
       <c r="C79" t="n">
-        <v>694.5151725798419</v>
+        <v>701.6137582002225</v>
       </c>
       <c r="D79" t="n">
-        <v>0.462</v>
+        <v>0.478</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[-854.0043527572285, 1826.7533868344924]</t>
+          <t>[-894.7319297805229, 1776.9306791935128]</t>
         </is>
       </c>
     </row>
@@ -3500,10 +3500,10 @@
         <v>319.9503393954711</v>
       </c>
       <c r="C80" t="n">
-        <v>824.8629548161628</v>
+        <v>818.8580805262812</v>
       </c>
       <c r="D80" t="n">
-        <v>0.72</v>
+        <v>0.678</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-1303.9834510680362, 1989.0378168470002]</t>
+          <t>[-1240.4968810144094, 1921.948426030846]</t>
         </is>
       </c>
     </row>
@@ -3526,10 +3526,10 @@
         <v>-137.6446496199349</v>
       </c>
       <c r="C81" t="n">
-        <v>787.8289863638461</v>
+        <v>743.0285080900339</v>
       </c>
       <c r="D81" t="n">
-        <v>0.874</v>
+        <v>0.878</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-1692.3464582037705, 1374.9075967520798]</t>
+          <t>[-1629.1508418541625, 1343.9158155218788]</t>
         </is>
       </c>
     </row>
@@ -3552,10 +3552,10 @@
         <v>-114.6722601495619</v>
       </c>
       <c r="C82" t="n">
-        <v>719.7058274287049</v>
+        <v>753.7072769766945</v>
       </c>
       <c r="D82" t="n">
-        <v>0.848</v>
+        <v>0.866</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-1561.90121884059, 1307.5765264898969]</t>
+          <t>[-1612.519719131053, 1338.4209459447093]</t>
         </is>
       </c>
     </row>
@@ -3578,10 +3578,10 @@
         <v>-454.2952192044123</v>
       </c>
       <c r="C83" t="n">
-        <v>720.3700019753135</v>
+        <v>686.3317899034166</v>
       </c>
       <c r="D83" t="n">
-        <v>0.532</v>
+        <v>0.512</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-1919.1802298259236, 933.8168827984241]</t>
+          <t>[-1753.7436671276923, 956.6843816023639]</t>
         </is>
       </c>
     </row>
@@ -3604,10 +3604,10 @@
         <v>102.9937060908886</v>
       </c>
       <c r="C84" t="n">
-        <v>791.4600648252057</v>
+        <v>803.1782355773952</v>
       </c>
       <c r="D84" t="n">
-        <v>0.92</v>
+        <v>0.886</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-1439.773698111808, 1557.7395435007209]</t>
+          <t>[-1335.4858233361713, 1669.5947612728482]</t>
         </is>
       </c>
     </row>

--- a/examples/eCommerce_feature_info.xlsx
+++ b/examples/eCommerce_feature_info.xlsx
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.273524768737927</v>
+        <v>1.155035200948479</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07241520826551938</v>
+        <v>0.1392630860927823</v>
       </c>
     </row>
     <row r="3">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6554277167649099</v>
+        <v>0.6006442788801216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09787197446857357</v>
+        <v>0.03860380784005595</v>
       </c>
     </row>
     <row r="4">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2800610630929664</v>
+        <v>0.2785016862175703</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04207522510091247</v>
+        <v>0.04745269309488711</v>
       </c>
     </row>
     <row r="5">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1391208357886453</v>
+        <v>0.1716517063402739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02556119051398171</v>
+        <v>0.02878169844020548</v>
       </c>
     </row>
     <row r="6">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01114835010354227</v>
+        <v>0.01425722510301259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008736781563812935</v>
+        <v>0.008216339050863466</v>
       </c>
     </row>
     <row r="7">
@@ -754,23 +754,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004863079704306483</v>
+        <v>0.009412684082792121</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005368923258962931</v>
+        <v>0.004045847108228143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002157609969710994</v>
+        <v>0.002312455831636706</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00278398997757125</v>
+        <v>0.002803803438957767</v>
       </c>
     </row>
     <row r="9">
@@ -780,23 +780,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001942477797997055</v>
+        <v>0.00145939446120944</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002053173791002122</v>
+        <v>0.002038085875285803</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001657711184397836</v>
+        <v>0.0006176830357589091</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002597078271564359</v>
+        <v>0.002615408191220848</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.280137529767546</v>
+        <v>1.255717448633118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09363502384005511</v>
+        <v>0.05493972097708213</v>
       </c>
     </row>
     <row r="3">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6366047059558049</v>
+        <v>0.6366780762658075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04574232606615709</v>
+        <v>0.04569263333001623</v>
       </c>
     </row>
     <row r="4">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2929221263665492</v>
+        <v>0.2612781991942967</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03062579383129101</v>
+        <v>0.03626318856368621</v>
       </c>
     </row>
     <row r="5">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1504660820783812</v>
+        <v>0.1656364090907701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01279699505591037</v>
+        <v>0.03299217017943609</v>
       </c>
     </row>
     <row r="6">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01244187697567132</v>
+        <v>0.01209726897651453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007643447725996006</v>
+        <v>0.002297161160824425</v>
       </c>
     </row>
     <row r="7">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008291758990134923</v>
+        <v>0.00561855044665005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003385458600307663</v>
+        <v>0.003145492745524292</v>
       </c>
     </row>
     <row r="8">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001434590031272776</v>
+        <v>0.001680472323028437</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002278699945759024</v>
+        <v>0.002905406609610306</v>
       </c>
     </row>
     <row r="9">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004933335774797154</v>
+        <v>0.0005650883994476885</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00102222973911366</v>
+        <v>0.001330631260193938</v>
       </c>
     </row>
     <row r="10">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0001522089246931202</v>
+        <v>0.0001677741289587642</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002351259740228771</v>
+        <v>0.002867905521840848</v>
       </c>
     </row>
   </sheetData>
@@ -991,27 +991,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2091522525100028</v>
+        <v>0.2091701189368592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06841687228647787</v>
+        <v>0.02711457405744993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.177581743353924</v>
+        <v>0.1789090688171307</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02903033535146909</v>
+        <v>0.04244752217349392</v>
       </c>
     </row>
     <row r="4">
@@ -1021,23 +1021,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07308443021711546</v>
+        <v>0.07563196351941567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02857846520394071</v>
+        <v>0.02389484879723457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02842597474754567</v>
+        <v>0.03114356549108661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02430322424129512</v>
+        <v>0.01244788574935343</v>
       </c>
     </row>
     <row r="6">
@@ -1047,23 +1047,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0281385230452323</v>
+        <v>0.02530500733179532</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02228344899808097</v>
+        <v>0.01748109323907645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02419387397752924</v>
+        <v>0.01540456497062317</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01390904533068789</v>
+        <v>0.0261767670971157</v>
       </c>
     </row>
     <row r="8">
@@ -1073,36 +1073,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02099286954988797</v>
+        <v>0.008464815716398788</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01662817884653118</v>
+        <v>0.02353691033829168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01428447305818608</v>
+        <v>0.007977809921107859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008886097691698853</v>
+        <v>0.01053142014838067</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.007534073254410046</v>
+        <v>0.006669498705349897</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01312046583831987</v>
+        <v>0.004833964709420051</v>
       </c>
     </row>
   </sheetData>
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3222797601167818</v>
+        <v>0.2990702599011789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02873656625467434</v>
+        <v>0.04300465647796945</v>
       </c>
     </row>
     <row r="3">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07481670909394414</v>
+        <v>0.06402592242546146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02911914190964181</v>
+        <v>0.01431755185472545</v>
       </c>
     </row>
     <row r="4">
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03610369871297201</v>
+        <v>0.035567935630141</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01365963828425629</v>
+        <v>0.01129711507454956</v>
       </c>
     </row>
     <row r="5">
@@ -1187,49 +1187,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03317233810071041</v>
+        <v>0.03452279283777308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009009793748115492</v>
+        <v>0.01163477061758766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweekcos</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02087499513006221</v>
+        <v>0.02822144568074438</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02087612834878007</v>
+        <v>0.009561102155545316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01910748785205001</v>
+        <v>0.02731616931351068</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01988175893089993</v>
+        <v>0.01088012337113854</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01471104737892865</v>
+        <v>0.02351165773268258</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007686237505111879</v>
+        <v>0.02309485267946445</v>
       </c>
     </row>
     <row r="9">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01034106608717698</v>
+        <v>0.007234553538481014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01608381534854614</v>
+        <v>0.01217175355668387</v>
       </c>
     </row>
     <row r="10">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009206027309926456</v>
+        <v>0.003967484438961222</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01090278422857759</v>
+        <v>0.01417044165655609</v>
       </c>
     </row>
   </sheetData>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003216332975825243</v>
+        <v>0.0003095031332084553</v>
       </c>
       <c r="C2" t="n">
-        <v>4.566715192619536e-05</v>
+        <v>3.785409072510928e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.430844499069835e-05</v>
+        <v>8.134870955021079e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>6.316039190084372e-06</v>
+        <v>1.532865067082411e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1327,88 +1327,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.606265754507511e-05</v>
+        <v>5.086090858332781e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>1.310112679536609e-05</v>
+        <v>1.918407153403025e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.899088867958199e-05</v>
+        <v>1.316708627059349e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>3.345713657478988e-05</v>
+        <v>6.404470100730475e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.828275782314037e-05</v>
+        <v>1.030542180253669e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>7.023198687285785e-06</v>
+        <v>2.859854545529045e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.387490645984541e-06</v>
+        <v>9.663625668387964e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>1.043590577815601e-05</v>
+        <v>2.441234679713113e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.601046221733071e-06</v>
+        <v>6.438687239418428e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>8.268846644478354e-07</v>
+        <v>6.388100408030056e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>dayofweekcos</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.735316429358647e-07</v>
+        <v>3.178354477917367e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>1.448590253799544e-06</v>
+        <v>2.515619761940887e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.23576511626311e-05</v>
+        <v>-3.8361092746797e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>2.338272120559225e-05</v>
+        <v>7.173281483033978e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1472,10 +1472,10 @@
         <v>515.0750576034154</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.255100628674</v>
+        <v>1202.427853282621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.708</v>
+        <v>0.658</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-1798.044614390663, 2912.310168730801]</t>
+          <t>[-1732.101142308695, 2944.4204303419274]</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
         <v>22.65412425856411</v>
       </c>
       <c r="C3" t="n">
-        <v>60.68721207517242</v>
+        <v>55.74481876878999</v>
       </c>
       <c r="D3" t="n">
         <v>0.64</v>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-86.68207169425176, 164.4391755719883]</t>
+          <t>[-77.57760410027694, 135.96620725687188]</t>
         </is>
       </c>
     </row>
@@ -1524,10 +1524,10 @@
         <v>-8.594452395364391</v>
       </c>
       <c r="C4" t="n">
-        <v>70.77294182634094</v>
+        <v>67.7896670607058</v>
       </c>
       <c r="D4" t="n">
-        <v>0.906</v>
+        <v>0.888</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-129.76798383718426, 153.11622753414528]</t>
+          <t>[-144.9224282566816, 124.23679628995104]</t>
         </is>
       </c>
     </row>
@@ -1550,10 +1550,10 @@
         <v>-55.80029369721267</v>
       </c>
       <c r="C5" t="n">
-        <v>54.55199830004853</v>
+        <v>56.64892476533833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.342</v>
+        <v>0.26</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-171.0290175562618, 26.4562779701482]</t>
+          <t>[-192.90803598889786, 39.737925841500825]</t>
         </is>
       </c>
     </row>
@@ -1576,10 +1576,10 @@
         <v>48.44447797676496</v>
       </c>
       <c r="C6" t="n">
-        <v>49.667217538876</v>
+        <v>46.60111340917761</v>
       </c>
       <c r="D6" t="n">
-        <v>0.154</v>
+        <v>0.146</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[0.0, 162.6610787037628]</t>
+          <t>[0.0, 148.07958143555072]</t>
         </is>
       </c>
     </row>
@@ -1602,10 +1602,10 @@
         <v>-14.81779181202579</v>
       </c>
       <c r="C7" t="n">
-        <v>22.41540374405217</v>
+        <v>28.23793655856219</v>
       </c>
       <c r="D7" t="n">
-        <v>0.294</v>
+        <v>0.638</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-70.66690617007416, 16.43146370800585]</t>
+          <t>[-84.69547464151151, 18.40883324140738]</t>
         </is>
       </c>
     </row>
@@ -1758,10 +1758,10 @@
         <v>-168.7779043649494</v>
       </c>
       <c r="C13" t="n">
-        <v>151.2996403255255</v>
+        <v>153.5019646129625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.164</v>
+        <v>0.158</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-495.41897606720966, 0.0]</t>
+          <t>[-487.7510684790258, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1784,10 +1784,10 @@
         <v>3.181183761164196</v>
       </c>
       <c r="C14" t="n">
-        <v>22.75164805535757</v>
+        <v>24.9133412519061</v>
       </c>
       <c r="D14" t="n">
-        <v>0.594</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-41.67508604498846, 54.33764763439481]</t>
+          <t>[-52.40782493750081, 62.758955764618676]</t>
         </is>
       </c>
     </row>
@@ -1810,10 +1810,10 @@
         <v>58.65248641972787</v>
       </c>
       <c r="C15" t="n">
-        <v>61.96356659714451</v>
+        <v>61.72851960943106</v>
       </c>
       <c r="D15" t="n">
-        <v>0.496</v>
+        <v>0.526</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.0, 210.39963553091803]</t>
+          <t>[0.0, 203.08771803379307]</t>
         </is>
       </c>
     </row>
@@ -1888,10 +1888,10 @@
         <v>230.7983276336033</v>
       </c>
       <c r="C18" t="n">
-        <v>188.547647906461</v>
+        <v>189.0045505603343</v>
       </c>
       <c r="D18" t="n">
-        <v>0.122</v>
+        <v>0.116</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[0.0, 637.4025717215109]</t>
+          <t>[0.0, 669.4075843990183]</t>
         </is>
       </c>
     </row>
@@ -1966,10 +1966,10 @@
         <v>-70.33417079411304</v>
       </c>
       <c r="C21" t="n">
-        <v>69.34653097933453</v>
+        <v>66.64329888510726</v>
       </c>
       <c r="D21" t="n">
-        <v>0.208</v>
+        <v>0.188</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-240.65719457956754, 21.472168820725138]</t>
+          <t>[-229.84513469897763, 13.309861658490842]</t>
         </is>
       </c>
     </row>
@@ -1992,10 +1992,10 @@
         <v>186.3958472026663</v>
       </c>
       <c r="C22" t="n">
-        <v>257.1365993580937</v>
+        <v>231.4091345158743</v>
       </c>
       <c r="D22" t="n">
-        <v>0.508</v>
+        <v>0.41</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-183.95519636071475, 761.2923183982186]</t>
+          <t>[-167.79209657605088, 715.2475744583688]</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2018,10 @@
         <v>-51.34474510097267</v>
       </c>
       <c r="C23" t="n">
-        <v>53.22081504388208</v>
+        <v>50.77841965751388</v>
       </c>
       <c r="D23" t="n">
-        <v>0.152</v>
+        <v>0.158</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-182.85599254271693, 0.0]</t>
+          <t>[-161.6977500222838, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2070,10 +2070,10 @@
         <v>-96.37355254619062</v>
       </c>
       <c r="C25" t="n">
-        <v>88.17345324817011</v>
+        <v>92.67306482858818</v>
       </c>
       <c r="D25" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-296.11396066024463, 0.0]</t>
+          <t>[-314.0864599818565, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2096,10 +2096,10 @@
         <v>-117.5960417853465</v>
       </c>
       <c r="C26" t="n">
-        <v>93.97734940111161</v>
+        <v>93.04936115060616</v>
       </c>
       <c r="D26" t="n">
-        <v>0.116</v>
+        <v>0.126</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-305.7831981011815, 0.0]</t>
+          <t>[-320.9232606782889, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2122,10 +2122,10 @@
         <v>245.1068663925456</v>
       </c>
       <c r="C27" t="n">
-        <v>188.8646404783926</v>
+        <v>181.4370691052488</v>
       </c>
       <c r="D27" t="n">
-        <v>0.114</v>
+        <v>0.124</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[0.0, 659.8580194236742]</t>
+          <t>[0.0, 612.9908329810607]</t>
         </is>
       </c>
     </row>
@@ -2148,10 +2148,10 @@
         <v>-200.1455735013607</v>
       </c>
       <c r="C28" t="n">
-        <v>171.0114227630227</v>
+        <v>174.8782403049187</v>
       </c>
       <c r="D28" t="n">
-        <v>0.152</v>
+        <v>0.164</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-580.4967477684941, 0.0]</t>
+          <t>[-573.3926337093715, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
         <v>119.9377543981747</v>
       </c>
       <c r="C31" t="n">
-        <v>119.6954189296213</v>
+        <v>119.308188422118</v>
       </c>
       <c r="D31" t="n">
         <v>0.178</v>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[0.0, 396.1462399321228]</t>
+          <t>[0.0, 379.1201424974569]</t>
         </is>
       </c>
     </row>
@@ -2252,10 +2252,10 @@
         <v>6.869511719321902</v>
       </c>
       <c r="C32" t="n">
-        <v>21.44404005719547</v>
+        <v>20.97536399711995</v>
       </c>
       <c r="D32" t="n">
-        <v>0.482</v>
+        <v>0.452</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-28.44154174244447, 62.81893160791795]</t>
+          <t>[-28.445520725046652, 51.977314442124886]</t>
         </is>
       </c>
     </row>
@@ -2408,10 +2408,10 @@
         <v>-773.0399754234578</v>
       </c>
       <c r="C38" t="n">
-        <v>476.2410654249954</v>
+        <v>489.4822904881551</v>
       </c>
       <c r="D38" t="n">
-        <v>0.106</v>
+        <v>0.112</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-1664.6182905842388, 205.41922490024984]</t>
+          <t>[-1737.6806823151348, 153.96005620820569]</t>
         </is>
       </c>
     </row>
@@ -2434,10 +2434,10 @@
         <v>273.837184027478</v>
       </c>
       <c r="C39" t="n">
-        <v>334.4701129226075</v>
+        <v>336.3200507254134</v>
       </c>
       <c r="D39" t="n">
-        <v>0.398</v>
+        <v>0.418</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-364.89543801112427, 947.2315614258971]</t>
+          <t>[-407.4181811687159, 910.3504153739108]</t>
         </is>
       </c>
     </row>
@@ -2460,10 +2460,10 @@
         <v>-381.9316011929113</v>
       </c>
       <c r="C40" t="n">
-        <v>460.9458807022011</v>
+        <v>453.0547246445051</v>
       </c>
       <c r="D40" t="n">
-        <v>0.418</v>
+        <v>0.392</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-1353.1824731676752, 475.5884139571177]</t>
+          <t>[-1260.766932018431, 487.51184447971275]</t>
         </is>
       </c>
     </row>
@@ -2486,10 +2486,10 @@
         <v>846.3253439322249</v>
       </c>
       <c r="C41" t="n">
-        <v>571.4544301284365</v>
+        <v>589.7677342868097</v>
       </c>
       <c r="D41" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-267.5693810498243, 2025.300052954119]</t>
+          <t>[-355.98997205681496, 1949.2765560398132]</t>
         </is>
       </c>
     </row>
@@ -2512,10 +2512,10 @@
         <v>426.8684606004104</v>
       </c>
       <c r="C42" t="n">
-        <v>536.2214977132792</v>
+        <v>546.4012663422136</v>
       </c>
       <c r="D42" t="n">
-        <v>0.424</v>
+        <v>0.454</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-686.2803686708952, 1451.8814140247748]</t>
+          <t>[-619.3404460665247, 1385.926249262885]</t>
         </is>
       </c>
     </row>
@@ -2538,10 +2538,10 @@
         <v>-228.4314092535711</v>
       </c>
       <c r="C43" t="n">
-        <v>208.3658055366746</v>
+        <v>219.1787745704285</v>
       </c>
       <c r="D43" t="n">
-        <v>0.128</v>
+        <v>0.14</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-691.9299162470359, 0.0]</t>
+          <t>[-728.5046808055756, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2564,10 @@
         <v>134.6858674791933</v>
       </c>
       <c r="C44" t="n">
-        <v>124.4901421045095</v>
+        <v>132.0334366513527</v>
       </c>
       <c r="D44" t="n">
-        <v>0.154</v>
+        <v>0.516</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.0, 421.9088605100922]</t>
+          <t>[0.0, 466.6823851641901]</t>
         </is>
       </c>
     </row>
@@ -2590,10 +2590,10 @@
         <v>69.81140080702318</v>
       </c>
       <c r="C45" t="n">
-        <v>68.93944703263621</v>
+        <v>67.62170320757001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.166</v>
+        <v>0.172</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[0.0, 236.01860970893094]</t>
+          <t>[0.0, 229.4706751872243]</t>
         </is>
       </c>
     </row>
@@ -2616,10 +2616,10 @@
         <v>49.40150220930711</v>
       </c>
       <c r="C46" t="n">
-        <v>48.34725996877822</v>
+        <v>45.80774109535256</v>
       </c>
       <c r="D46" t="n">
-        <v>0.162</v>
+        <v>0.134</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.0, 157.1420890506929]</t>
+          <t>[0.0, 154.92773747712678]</t>
         </is>
       </c>
     </row>
@@ -2668,10 +2668,10 @@
         <v>-51.35760405921771</v>
       </c>
       <c r="C48" t="n">
-        <v>52.46966090860085</v>
+        <v>57.16480299053688</v>
       </c>
       <c r="D48" t="n">
-        <v>0.15</v>
+        <v>0.518</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[-181.35615316889923, 0.0]</t>
+          <t>[-184.45753760148435, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2694,10 +2694,10 @@
         <v>-5.594522612567842</v>
       </c>
       <c r="C49" t="n">
-        <v>25.54757790219096</v>
+        <v>22.35835775139384</v>
       </c>
       <c r="D49" t="n">
-        <v>0.892</v>
+        <v>0.486</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[-75.85717050526497, 38.104948905208985]</t>
+          <t>[-64.85172172201649, 34.5709976326071]</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
         <v>79.23406158657589</v>
       </c>
       <c r="C50" t="n">
-        <v>75.88641931398728</v>
+        <v>77.58856967889278</v>
       </c>
       <c r="D50" t="n">
         <v>0.158</v>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.0, 250.33846159075193]</t>
+          <t>[0.0, 275.59062447737426]</t>
         </is>
       </c>
     </row>
@@ -2798,10 +2798,10 @@
         <v>614.8908037852003</v>
       </c>
       <c r="C53" t="n">
-        <v>317.7036107327959</v>
+        <v>290.9806612210942</v>
       </c>
       <c r="D53" t="n">
-        <v>0.048</v>
+        <v>0.036</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[30.303484802462343, 1230.220860009878]</t>
+          <t>[28.87742862423682, 1207.069746288934]</t>
         </is>
       </c>
     </row>
@@ -2824,10 +2824,10 @@
         <v>-605.9516898445496</v>
       </c>
       <c r="C54" t="n">
-        <v>283.7993281023549</v>
+        <v>284.7556601005833</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[-1149.007571563615, -81.22265849376905]</t>
+          <t>[-1198.0495569169927, -79.90016775062465]</t>
         </is>
       </c>
     </row>
@@ -2850,10 +2850,10 @@
         <v>496.7034556846617</v>
       </c>
       <c r="C55" t="n">
-        <v>252.7293258092216</v>
+        <v>238.5927460476826</v>
       </c>
       <c r="D55" t="n">
-        <v>0.042</v>
+        <v>0.036</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[39.67016025481679, 993.863706625765]</t>
+          <t>[7.576419686802771, 956.7539914531578]</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
         <v>-1093.470203062709</v>
       </c>
       <c r="C56" t="n">
-        <v>242.6160078470262</v>
+        <v>263.7839889709179</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-1532.8886936902745, -577.1808545056547]</t>
+          <t>[-1567.123584667229, -553.8487293889013]</t>
         </is>
       </c>
     </row>
@@ -2954,10 +2954,10 @@
         <v>60.41412960477746</v>
       </c>
       <c r="C59" t="n">
-        <v>482.4651249430502</v>
+        <v>489.3988777620029</v>
       </c>
       <c r="D59" t="n">
-        <v>0.92</v>
+        <v>0.906</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[-865.5206813106868, 1049.6698505135578]</t>
+          <t>[-816.5858286578297, 1002.0022279292707]</t>
         </is>
       </c>
     </row>
@@ -3006,10 +3006,10 @@
         <v>-402.4409397377263</v>
       </c>
       <c r="C61" t="n">
-        <v>356.8562273291664</v>
+        <v>347.5253797881429</v>
       </c>
       <c r="D61" t="n">
-        <v>0.27</v>
+        <v>0.268</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-1098.2056845438929, 278.43492676225844]</t>
+          <t>[-1025.4140543860426, 269.0701835067324]</t>
         </is>
       </c>
     </row>
@@ -3032,10 +3032,10 @@
         <v>297.0957223162715</v>
       </c>
       <c r="C62" t="n">
-        <v>284.6703022787752</v>
+        <v>279.8305630522532</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[-278.0654804876391, 829.9549440159936]</t>
+          <t>[-287.7275571072733, 830.3433872831688]</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
         <v>270.1146342314162</v>
       </c>
       <c r="C63" t="n">
-        <v>237.9461400282388</v>
+        <v>243.0625604946184</v>
       </c>
       <c r="D63" t="n">
         <v>0.27</v>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[-173.31122984320297, 719.4037353950183]</t>
+          <t>[-198.44215310558724, 714.7997337561321]</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
         <v>-788.6613638944169</v>
       </c>
       <c r="C64" t="n">
-        <v>214.3927826773444</v>
+        <v>215.679842789997</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[-1204.12512150152, -344.19979360285885]</t>
+          <t>[-1166.663565400977, -340.03552384369914]</t>
         </is>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
         <v>579.9322657197032</v>
       </c>
       <c r="C67" t="n">
-        <v>379.9795318652152</v>
+        <v>384.5770609161224</v>
       </c>
       <c r="D67" t="n">
-        <v>0.126</v>
+        <v>0.132</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[-255.63983137178374, 1252.773071813384]</t>
+          <t>[-163.53755781331486, 1289.704885933645]</t>
         </is>
       </c>
     </row>
@@ -3188,19 +3188,19 @@
         <v>1643.710975597814</v>
       </c>
       <c r="C68" t="n">
-        <v>578.2158578989846</v>
+        <v>590.1970982710924</v>
       </c>
       <c r="D68" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[541.5297241790234, 2684.2116565259603]</t>
+          <t>[546.5410469684432, 2914.441141514757]</t>
         </is>
       </c>
     </row>
@@ -3214,10 +3214,10 @@
         <v>-380.8610365316063</v>
       </c>
       <c r="C69" t="n">
-        <v>494.038526551213</v>
+        <v>476.5290570363865</v>
       </c>
       <c r="D69" t="n">
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-1395.4783814770808, 559.7722774868386]</t>
+          <t>[-1296.7304334575597, 548.4733136616869]</t>
         </is>
       </c>
     </row>
@@ -3240,10 +3240,10 @@
         <v>624.8671844221487</v>
       </c>
       <c r="C70" t="n">
-        <v>535.9814443901224</v>
+        <v>518.428979117036</v>
       </c>
       <c r="D70" t="n">
-        <v>0.242</v>
+        <v>0.216</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[-394.25750783696014, 1677.0544685232308]</t>
+          <t>[-479.4849736267072, 1623.22804123188]</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
         <v>2290.847914199599</v>
       </c>
       <c r="C71" t="n">
-        <v>376.7261406787</v>
+        <v>368.2049847489648</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[1546.091761404648, 2992.3228792435507]</t>
+          <t>[1535.8816416523232, 3000.070760441052]</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3292,10 @@
         <v>-211.1814429890639</v>
       </c>
       <c r="C72" t="n">
-        <v>430.2543845841612</v>
+        <v>432.4856967035703</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6</v>
+        <v>0.628</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-1140.3216403266683, 599.6333696345512]</t>
+          <t>[-1016.5758786814631, 689.0597153218384]</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
         <v>-2290.847914199599</v>
       </c>
       <c r="C73" t="n">
-        <v>376.7261406787001</v>
+        <v>368.2049847489645</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-2992.322879243545, -1546.091761404647]</t>
+          <t>[-3000.0707604410427, -1535.8816416523212]</t>
         </is>
       </c>
     </row>
@@ -3344,10 +3344,10 @@
         <v>-211.1814429890664</v>
       </c>
       <c r="C74" t="n">
-        <v>430.2543845841612</v>
+        <v>432.4856967035704</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6</v>
+        <v>0.628</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-1140.3216403266688, 599.6333696345498]</t>
+          <t>[-1016.5758786814656, 689.0597153218359]</t>
         </is>
       </c>
     </row>
@@ -3370,10 +3370,10 @@
         <v>-127.8325604692105</v>
       </c>
       <c r="C75" t="n">
-        <v>717.0243190118011</v>
+        <v>748.8800481852394</v>
       </c>
       <c r="D75" t="n">
-        <v>0.862</v>
+        <v>0.87</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-1552.8957582310197, 1201.1450718299884]</t>
+          <t>[-1632.4804445068576, 1325.4884659895295]</t>
         </is>
       </c>
     </row>
@@ -3396,10 +3396,10 @@
         <v>14.4376885113376</v>
       </c>
       <c r="C76" t="n">
-        <v>750.501810493113</v>
+        <v>752.1311123047584</v>
       </c>
       <c r="D76" t="n">
-        <v>0.986</v>
+        <v>0.978</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-1525.7280823536473, 1445.609571813019]</t>
+          <t>[-1429.3339351228283, 1481.457594557764]</t>
         </is>
       </c>
     </row>
@@ -3422,10 +3422,10 @@
         <v>-98.52666136833008</v>
       </c>
       <c r="C77" t="n">
-        <v>746.2925433915996</v>
+        <v>753.5136318741168</v>
       </c>
       <c r="D77" t="n">
-        <v>0.902</v>
+        <v>0.89</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-1396.584198440322, 1361.1853428826396]</t>
+          <t>[-1657.6580048555725, 1317.827196850709]</t>
         </is>
       </c>
     </row>
@@ -3448,7 +3448,7 @@
         <v>-40.20918758927506</v>
       </c>
       <c r="C78" t="n">
-        <v>724.7670241791284</v>
+        <v>721.9285189392874</v>
       </c>
       <c r="D78" t="n">
         <v>0.962</v>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-1500.217650457913, 1307.5363744406536]</t>
+          <t>[-1537.6358083004438, 1379.6599613833837]</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3474,10 @@
         <v>499.1580342968279</v>
       </c>
       <c r="C79" t="n">
-        <v>701.6137582002225</v>
+        <v>689.7002233281448</v>
       </c>
       <c r="D79" t="n">
-        <v>0.478</v>
+        <v>0.454</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[-894.7319297805229, 1776.9306791935128]</t>
+          <t>[-874.1263559690508, 1925.396007094818]</t>
         </is>
       </c>
     </row>
@@ -3500,10 +3500,10 @@
         <v>319.9503393954711</v>
       </c>
       <c r="C80" t="n">
-        <v>818.8580805262812</v>
+        <v>799.1216259053955</v>
       </c>
       <c r="D80" t="n">
-        <v>0.678</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-1240.4968810144094, 1921.948426030846]</t>
+          <t>[-1263.8257711212964, 1850.5371938635994]</t>
         </is>
       </c>
     </row>
@@ -3526,10 +3526,10 @@
         <v>-137.6446496199349</v>
       </c>
       <c r="C81" t="n">
-        <v>743.0285080900339</v>
+        <v>720.8689646383831</v>
       </c>
       <c r="D81" t="n">
-        <v>0.878</v>
+        <v>0.824</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-1629.1508418541625, 1343.9158155218788]</t>
+          <t>[-1514.976008882494, 1275.329534539101]</t>
         </is>
       </c>
     </row>
@@ -3552,10 +3552,10 @@
         <v>-114.6722601495619</v>
       </c>
       <c r="C82" t="n">
-        <v>753.7072769766945</v>
+        <v>742.8498757889153</v>
       </c>
       <c r="D82" t="n">
-        <v>0.866</v>
+        <v>0.88</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-1612.519719131053, 1338.4209459447093]</t>
+          <t>[-1658.6170481129793, 1282.4464650191735]</t>
         </is>
       </c>
     </row>
@@ -3578,10 +3578,10 @@
         <v>-454.2952192044123</v>
       </c>
       <c r="C83" t="n">
-        <v>686.3317899034166</v>
+        <v>668.5637543239078</v>
       </c>
       <c r="D83" t="n">
-        <v>0.512</v>
+        <v>0.474</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-1753.7436671276923, 956.6843816023639]</t>
+          <t>[-1751.9497676443375, 896.9187784456994]</t>
         </is>
       </c>
     </row>
@@ -3604,10 +3604,10 @@
         <v>102.9937060908886</v>
       </c>
       <c r="C84" t="n">
-        <v>803.1782355773952</v>
+        <v>816.494708376525</v>
       </c>
       <c r="D84" t="n">
-        <v>0.886</v>
+        <v>0.908</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-1335.4858233361713, 1669.5947612728482]</t>
+          <t>[-1434.959263503969, 1676.833068385563]</t>
         </is>
       </c>
     </row>

--- a/examples/eCommerce_feature_info.xlsx
+++ b/examples/eCommerce_feature_info.xlsx
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.155035200948479</v>
+        <v>1.331421631660536</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1392630860927823</v>
+        <v>0.08199149004379894</v>
       </c>
     </row>
     <row r="3">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6006442788801216</v>
+        <v>0.6541718205787396</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03860380784005595</v>
+        <v>0.06524529890010182</v>
       </c>
     </row>
     <row r="4">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2785016862175703</v>
+        <v>0.3008266226346351</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04745269309488711</v>
+        <v>0.03609301707292639</v>
       </c>
     </row>
     <row r="5">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1716517063402739</v>
+        <v>0.1415646482630591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02878169844020548</v>
+        <v>0.02650476068662526</v>
       </c>
     </row>
     <row r="6">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01425722510301259</v>
+        <v>0.01602536908272967</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008216339050863466</v>
+        <v>0.003765976714020567</v>
       </c>
     </row>
     <row r="7">
@@ -754,23 +754,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009412684082792121</v>
+        <v>0.008329868981042132</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004045847108228143</v>
+        <v>0.006081961104473801</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002312455831636706</v>
+        <v>0.003092151579581892</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002803803438957767</v>
+        <v>0.001477328720126499</v>
       </c>
     </row>
     <row r="9">
@@ -780,23 +780,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00145939446120944</v>
+        <v>0.001820456608886367</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002038085875285803</v>
+        <v>0.001760196514668389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006176830357589091</v>
+        <v>-0.0003941779216517061</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002615408191220848</v>
+        <v>0.001963088708659437</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.255717448633118</v>
+        <v>1.268937570615355</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05493972097708213</v>
+        <v>0.05255996197708903</v>
       </c>
     </row>
     <row r="3">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6366780762658075</v>
+        <v>0.629086365509557</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04569263333001623</v>
+        <v>0.05442836916801477</v>
       </c>
     </row>
     <row r="4">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2612781991942967</v>
+        <v>0.2701860877406869</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03626318856368621</v>
+        <v>0.05048782300232514</v>
       </c>
     </row>
     <row r="5">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1656364090907701</v>
+        <v>0.1697132847977418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03299217017943609</v>
+        <v>0.04517224891347435</v>
       </c>
     </row>
     <row r="6">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01209726897651453</v>
+        <v>0.01684091485144339</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002297161160824425</v>
+        <v>0.006263302003293447</v>
       </c>
     </row>
     <row r="7">
@@ -907,49 +907,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00561855044665005</v>
+        <v>0.006171679333242208</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003145492745524292</v>
+        <v>0.009086515397747144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001680472323028437</v>
+        <v>0.002601151569560223</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002905406609610306</v>
+        <v>0.002313477553869205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005650883994476885</v>
+        <v>0.00176818253924178</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001330631260193938</v>
+        <v>0.002430203417113371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0001677741289587642</v>
+        <v>7.843454141982509e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002867905521840848</v>
+        <v>0.003079931362324463</v>
       </c>
     </row>
   </sheetData>
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2091701189368592</v>
+        <v>0.2218110014764178</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02711457405744993</v>
+        <v>0.0278400506546791</v>
       </c>
     </row>
     <row r="3">
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1789090688171307</v>
+        <v>0.201327109248721</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04244752217349392</v>
+        <v>0.03703373800403251</v>
       </c>
     </row>
     <row r="4">
@@ -1021,49 +1021,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07563196351941567</v>
+        <v>0.05981464887039203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02389484879723457</v>
+        <v>0.044054029447539</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03114356549108661</v>
+        <v>0.02116386635690932</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01244788574935343</v>
+        <v>0.03175450365056606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02530500733179532</v>
+        <v>0.0198470627750043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01748109323907645</v>
+        <v>0.01358342002924434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01540456497062317</v>
+        <v>0.01696392262905944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0261767670971157</v>
+        <v>0.01320147690877321</v>
       </c>
     </row>
     <row r="8">
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008464815716398788</v>
+        <v>0.016690263243415</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02353691033829168</v>
+        <v>0.02611315627948006</v>
       </c>
     </row>
     <row r="9">
@@ -1086,23 +1086,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007977809921107859</v>
+        <v>0.009691891843686217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01053142014838067</v>
+        <v>0.009881817870916741</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006669498705349897</v>
+        <v>0.008519834471021582</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004833964709420051</v>
+        <v>0.01643481478709046</v>
       </c>
     </row>
   </sheetData>
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2990702599011789</v>
+        <v>0.2786614802426963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04300465647796945</v>
+        <v>0.02707809158597385</v>
       </c>
     </row>
     <row r="3">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06402592242546146</v>
+        <v>0.06446670963630574</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01431755185472545</v>
+        <v>0.03881282216176772</v>
       </c>
     </row>
     <row r="4">
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.035567935630141</v>
+        <v>0.04519396627080559</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01129711507454956</v>
+        <v>0.01627459548680493</v>
       </c>
     </row>
     <row r="5">
@@ -1187,49 +1187,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03452279283777308</v>
+        <v>0.03944561270965748</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01163477061758766</v>
+        <v>0.01133579800448398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02822144568074438</v>
+        <v>0.03117404008354068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009561102155545316</v>
+        <v>0.006320461093926036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweekcos</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02731616931351068</v>
+        <v>0.02113865176082186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01088012337113854</v>
+        <v>0.0106557340546874</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02351165773268258</v>
+        <v>0.01450974027760938</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02309485267946445</v>
+        <v>0.01776401480735336</v>
       </c>
     </row>
     <row r="9">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007234553538481014</v>
+        <v>0.007198331578535178</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01217175355668387</v>
+        <v>0.008413187618739737</v>
       </c>
     </row>
     <row r="10">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003967484438961222</v>
+        <v>-0.002207318771005329</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01417044165655609</v>
+        <v>0.01389429405361702</v>
       </c>
     </row>
   </sheetData>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003095031332084553</v>
+        <v>0.0003170077548419137</v>
       </c>
       <c r="C2" t="n">
-        <v>3.785409072510928e-05</v>
+        <v>8.370935977430568e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.134870955021079e-05</v>
+        <v>5.976959822659999e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>1.532865067082411e-05</v>
+        <v>7.53352785465389e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1327,88 +1327,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.086090858332781e-05</v>
+        <v>3.222580285671129e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>1.918407153403025e-05</v>
+        <v>2.360566744586317e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.316708627059349e-05</v>
+        <v>2.019773448678208e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>6.404470100730475e-06</v>
+        <v>1.19159001365109e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.030542180253669e-05</v>
+        <v>1.307259075167266e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>2.859854545529045e-05</v>
+        <v>5.331367080484366e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.663625668387964e-06</v>
+        <v>6.746432995674568e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>2.441234679713113e-05</v>
+        <v>9.480096181085917e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>dayofweekcos</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.438687239418428e-06</v>
+        <v>2.387483621468789e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>6.388100408030056e-06</v>
+        <v>3.369569741902091e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.178354477917367e-06</v>
+        <v>-1.009107901683848e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>2.515619761940887e-06</v>
+        <v>1.345778394055558e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.8361092746797e-08</v>
+        <v>-6.608302306920777e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>7.173281483033978e-07</v>
+        <v>1.936821839775982e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1472,10 +1472,10 @@
         <v>515.0750576034154</v>
       </c>
       <c r="C2" t="n">
-        <v>1202.427853282621</v>
+        <v>1181.583791297557</v>
       </c>
       <c r="D2" t="n">
-        <v>0.658</v>
+        <v>0.662</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-1732.101142308695, 2944.4204303419274]</t>
+          <t>[-1765.504776046227, 2846.9880995835665]</t>
         </is>
       </c>
     </row>
@@ -1498,10 +1498,10 @@
         <v>22.65412425856411</v>
       </c>
       <c r="C3" t="n">
-        <v>55.74481876878999</v>
+        <v>58.17202559818481</v>
       </c>
       <c r="D3" t="n">
-        <v>0.64</v>
+        <v>0.642</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-77.57760410027694, 135.96620725687188]</t>
+          <t>[-78.39823306610296, 154.2615041908988]</t>
         </is>
       </c>
     </row>
@@ -1524,10 +1524,10 @@
         <v>-8.594452395364391</v>
       </c>
       <c r="C4" t="n">
-        <v>67.7896670607058</v>
+        <v>70.22113988495181</v>
       </c>
       <c r="D4" t="n">
-        <v>0.888</v>
+        <v>0.898</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-144.9224282566816, 124.23679628995104]</t>
+          <t>[-155.13879329366227, 141.36502997168458]</t>
         </is>
       </c>
     </row>
@@ -1550,10 +1550,10 @@
         <v>-55.80029369721267</v>
       </c>
       <c r="C5" t="n">
-        <v>56.64892476533833</v>
+        <v>55.30079642165671</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26</v>
+        <v>0.258</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-192.90803598889786, 39.737925841500825]</t>
+          <t>[-180.41270616773926, 38.84257451664167]</t>
         </is>
       </c>
     </row>
@@ -1576,10 +1576,10 @@
         <v>48.44447797676496</v>
       </c>
       <c r="C6" t="n">
-        <v>46.60111340917761</v>
+        <v>47.21561458508464</v>
       </c>
       <c r="D6" t="n">
-        <v>0.146</v>
+        <v>0.136</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[0.0, 148.07958143555072]</t>
+          <t>[0.0, 173.43317290308852]</t>
         </is>
       </c>
     </row>
@@ -1602,10 +1602,10 @@
         <v>-14.81779181202579</v>
       </c>
       <c r="C7" t="n">
-        <v>28.23793655856219</v>
+        <v>24.40855999561337</v>
       </c>
       <c r="D7" t="n">
-        <v>0.638</v>
+        <v>0.3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-84.69547464151151, 18.40883324140738]</t>
+          <t>[-78.13446500887747, 14.882563413611608]</t>
         </is>
       </c>
     </row>
@@ -1758,10 +1758,10 @@
         <v>-168.7779043649494</v>
       </c>
       <c r="C13" t="n">
-        <v>153.5019646129625</v>
+        <v>167.7916592452859</v>
       </c>
       <c r="D13" t="n">
-        <v>0.158</v>
+        <v>0.164</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-487.7510684790258, 0.0]</t>
+          <t>[-552.7078134154319, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1784,10 +1784,10 @@
         <v>3.181183761164196</v>
       </c>
       <c r="C14" t="n">
-        <v>24.9133412519061</v>
+        <v>23.70825571385881</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-52.40782493750081, 62.758955764618676]</t>
+          <t>[-32.87381428012951, 58.218229696125405]</t>
         </is>
       </c>
     </row>
@@ -1810,10 +1810,10 @@
         <v>58.65248641972787</v>
       </c>
       <c r="C15" t="n">
-        <v>61.72851960943106</v>
+        <v>58.91782366050691</v>
       </c>
       <c r="D15" t="n">
-        <v>0.526</v>
+        <v>0.146</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.0, 203.08771803379307]</t>
+          <t>[0.0, 206.6559375306486]</t>
         </is>
       </c>
     </row>
@@ -1888,10 +1888,10 @@
         <v>230.7983276336033</v>
       </c>
       <c r="C18" t="n">
-        <v>189.0045505603343</v>
+        <v>173.5289292850588</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116</v>
+        <v>0.104</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[0.0, 669.4075843990183]</t>
+          <t>[0.0, 584.9547079585462]</t>
         </is>
       </c>
     </row>
@@ -1966,10 +1966,10 @@
         <v>-70.33417079411304</v>
       </c>
       <c r="C21" t="n">
-        <v>66.64329888510726</v>
+        <v>65.4422624673649</v>
       </c>
       <c r="D21" t="n">
-        <v>0.188</v>
+        <v>0.212</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-229.84513469897763, 13.309861658490842]</t>
+          <t>[-225.449817694831, 17.30725728816075]</t>
         </is>
       </c>
     </row>
@@ -1992,10 +1992,10 @@
         <v>186.3958472026663</v>
       </c>
       <c r="C22" t="n">
-        <v>231.4091345158743</v>
+        <v>233.3823946102082</v>
       </c>
       <c r="D22" t="n">
-        <v>0.41</v>
+        <v>0.408</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-167.79209657605088, 715.2475744583688]</t>
+          <t>[-168.40334712509502, 707.0248332174492]</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2018,10 @@
         <v>-51.34474510097267</v>
       </c>
       <c r="C23" t="n">
-        <v>50.77841965751388</v>
+        <v>53.4777846876983</v>
       </c>
       <c r="D23" t="n">
-        <v>0.158</v>
+        <v>0.172</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-161.6977500222838, 0.0]</t>
+          <t>[-183.73703689714154, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2070,10 +2070,10 @@
         <v>-96.37355254619062</v>
       </c>
       <c r="C25" t="n">
-        <v>92.67306482858818</v>
+        <v>91.31245639003134</v>
       </c>
       <c r="D25" t="n">
-        <v>0.156</v>
+        <v>0.162</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-314.0864599818565, 0.0]</t>
+          <t>[-298.15822929169667, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2096,10 +2096,10 @@
         <v>-117.5960417853465</v>
       </c>
       <c r="C26" t="n">
-        <v>93.04936115060616</v>
+        <v>93.99319080768808</v>
       </c>
       <c r="D26" t="n">
-        <v>0.126</v>
+        <v>0.134</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-320.9232606782889, 0.0]</t>
+          <t>[-318.06593586775784, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2122,10 +2122,10 @@
         <v>245.1068663925456</v>
       </c>
       <c r="C27" t="n">
-        <v>181.4370691052488</v>
+        <v>182.5482580436415</v>
       </c>
       <c r="D27" t="n">
-        <v>0.124</v>
+        <v>0.102</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[0.0, 612.9908329810607]</t>
+          <t>[0.0, 668.60794415137]</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
         <v>-200.1455735013607</v>
       </c>
       <c r="C28" t="n">
-        <v>174.8782403049187</v>
+        <v>186.4140588164769</v>
       </c>
       <c r="D28" t="n">
         <v>0.164</v>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-573.3926337093715, 0.0]</t>
+          <t>[-600.6102663889135, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2226,10 +2226,10 @@
         <v>119.9377543981747</v>
       </c>
       <c r="C31" t="n">
-        <v>119.308188422118</v>
+        <v>106.5774330631869</v>
       </c>
       <c r="D31" t="n">
-        <v>0.178</v>
+        <v>0.146</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[0.0, 379.1201424974569]</t>
+          <t>[0.0, 376.44598574300335]</t>
         </is>
       </c>
     </row>
@@ -2252,10 +2252,10 @@
         <v>6.869511719321902</v>
       </c>
       <c r="C32" t="n">
-        <v>20.97536399711995</v>
+        <v>21.48040793439588</v>
       </c>
       <c r="D32" t="n">
-        <v>0.452</v>
+        <v>0.468</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-28.445520725046652, 51.977314442124886]</t>
+          <t>[-39.0813640838547, 53.90647444218298]</t>
         </is>
       </c>
     </row>
@@ -2408,10 +2408,10 @@
         <v>-773.0399754234578</v>
       </c>
       <c r="C38" t="n">
-        <v>489.4822904881551</v>
+        <v>471.9907635782665</v>
       </c>
       <c r="D38" t="n">
-        <v>0.112</v>
+        <v>0.102</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-1737.6806823151348, 153.96005620820569]</t>
+          <t>[-1674.0660417240776, 189.94098217403427]</t>
         </is>
       </c>
     </row>
@@ -2434,10 +2434,10 @@
         <v>273.837184027478</v>
       </c>
       <c r="C39" t="n">
-        <v>336.3200507254134</v>
+        <v>349.6472101340853</v>
       </c>
       <c r="D39" t="n">
-        <v>0.418</v>
+        <v>0.438</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-407.4181811687159, 910.3504153739108]</t>
+          <t>[-412.17174319772516, 945.6898919491773]</t>
         </is>
       </c>
     </row>
@@ -2460,10 +2460,10 @@
         <v>-381.9316011929113</v>
       </c>
       <c r="C40" t="n">
-        <v>453.0547246445051</v>
+        <v>449.7548971599497</v>
       </c>
       <c r="D40" t="n">
-        <v>0.392</v>
+        <v>0.386</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-1260.766932018431, 487.51184447971275]</t>
+          <t>[-1316.678325166039, 476.5820619645273]</t>
         </is>
       </c>
     </row>
@@ -2486,19 +2486,19 @@
         <v>846.3253439322249</v>
       </c>
       <c r="C41" t="n">
-        <v>589.7677342868097</v>
+        <v>549.9247645955011</v>
       </c>
       <c r="D41" t="n">
-        <v>0.15</v>
+        <v>0.098</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-355.98997205681496, 1949.2765560398132]</t>
+          <t>[-141.51897980944693, 1978.7616826703138]</t>
         </is>
       </c>
     </row>
@@ -2512,10 +2512,10 @@
         <v>426.8684606004104</v>
       </c>
       <c r="C42" t="n">
-        <v>546.4012663422136</v>
+        <v>534.9623892529174</v>
       </c>
       <c r="D42" t="n">
-        <v>0.454</v>
+        <v>0.442</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-619.3404460665247, 1385.926249262885]</t>
+          <t>[-622.5772862893805, 1396.8771811371598]</t>
         </is>
       </c>
     </row>
@@ -2538,10 +2538,10 @@
         <v>-228.4314092535711</v>
       </c>
       <c r="C43" t="n">
-        <v>219.1787745704285</v>
+        <v>203.905418281764</v>
       </c>
       <c r="D43" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-728.5046808055756, 0.0]</t>
+          <t>[-666.5561479603125, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2564,10 @@
         <v>134.6858674791933</v>
       </c>
       <c r="C44" t="n">
-        <v>132.0334366513527</v>
+        <v>132.6644172436171</v>
       </c>
       <c r="D44" t="n">
-        <v>0.516</v>
+        <v>0.154</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.0, 466.6823851641901]</t>
+          <t>[0.0, 473.83239591662834]</t>
         </is>
       </c>
     </row>
@@ -2590,10 +2590,10 @@
         <v>69.81140080702318</v>
       </c>
       <c r="C45" t="n">
-        <v>67.62170320757001</v>
+        <v>71.75560116814667</v>
       </c>
       <c r="D45" t="n">
-        <v>0.172</v>
+        <v>0.164</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[0.0, 229.4706751872243]</t>
+          <t>[0.0, 240.99290938595666]</t>
         </is>
       </c>
     </row>
@@ -2616,10 +2616,10 @@
         <v>49.40150220930711</v>
       </c>
       <c r="C46" t="n">
-        <v>45.80774109535256</v>
+        <v>47.48333987263009</v>
       </c>
       <c r="D46" t="n">
-        <v>0.134</v>
+        <v>0.144</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.0, 154.92773747712678]</t>
+          <t>[0.0, 168.76358282871246]</t>
         </is>
       </c>
     </row>
@@ -2668,10 +2668,10 @@
         <v>-51.35760405921771</v>
       </c>
       <c r="C48" t="n">
-        <v>57.16480299053688</v>
+        <v>47.34576720047865</v>
       </c>
       <c r="D48" t="n">
-        <v>0.518</v>
+        <v>0.13</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[-184.45753760148435, 0.0]</t>
+          <t>[-160.7438070414952, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2694,10 +2694,10 @@
         <v>-5.594522612567842</v>
       </c>
       <c r="C49" t="n">
-        <v>22.35835775139384</v>
+        <v>26.43168680354974</v>
       </c>
       <c r="D49" t="n">
-        <v>0.486</v>
+        <v>0.518</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[-64.85172172201649, 34.5709976326071]</t>
+          <t>[-75.75330212594781, 45.8461817721604]</t>
         </is>
       </c>
     </row>
@@ -2720,10 +2720,10 @@
         <v>79.23406158657589</v>
       </c>
       <c r="C50" t="n">
-        <v>77.58856967889278</v>
+        <v>74.50353463814614</v>
       </c>
       <c r="D50" t="n">
-        <v>0.158</v>
+        <v>0.15</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.0, 275.59062447737426]</t>
+          <t>[0.0, 252.5106272577421]</t>
         </is>
       </c>
     </row>
@@ -2798,10 +2798,10 @@
         <v>614.8908037852003</v>
       </c>
       <c r="C53" t="n">
-        <v>290.9806612210942</v>
+        <v>308.1045240500785</v>
       </c>
       <c r="D53" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[28.87742862423682, 1207.069746288934]</t>
+          <t>[29.766798568616302, 1195.1987341935424]</t>
         </is>
       </c>
     </row>
@@ -2824,10 +2824,10 @@
         <v>-605.9516898445496</v>
       </c>
       <c r="C54" t="n">
-        <v>284.7556601005833</v>
+        <v>292.5683000174442</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03</v>
+        <v>0.044</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[-1198.0495569169927, -79.90016775062465]</t>
+          <t>[-1197.6257908822565, 1.1944877132562948]</t>
         </is>
       </c>
     </row>
@@ -2850,10 +2850,10 @@
         <v>496.7034556846617</v>
       </c>
       <c r="C55" t="n">
-        <v>238.5927460476826</v>
+        <v>233.8655257103929</v>
       </c>
       <c r="D55" t="n">
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[7.576419686802771, 956.7539914531578]</t>
+          <t>[12.306575443869942, 926.7701953817894]</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
         <v>-1093.470203062709</v>
       </c>
       <c r="C56" t="n">
-        <v>263.7839889709179</v>
+        <v>255.4793768684803</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-1567.123584667229, -553.8487293889013]</t>
+          <t>[-1580.407601444355, -568.0030878722401]</t>
         </is>
       </c>
     </row>
@@ -2954,10 +2954,10 @@
         <v>60.41412960477746</v>
       </c>
       <c r="C59" t="n">
-        <v>489.3988777620029</v>
+        <v>460.6979994853292</v>
       </c>
       <c r="D59" t="n">
-        <v>0.906</v>
+        <v>0.89</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[-816.5858286578297, 1002.0022279292707]</t>
+          <t>[-790.0883656093838, 966.0399464730383]</t>
         </is>
       </c>
     </row>
@@ -3006,10 +3006,10 @@
         <v>-402.4409397377263</v>
       </c>
       <c r="C61" t="n">
-        <v>347.5253797881429</v>
+        <v>363.8429155962661</v>
       </c>
       <c r="D61" t="n">
-        <v>0.268</v>
+        <v>0.294</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-1025.4140543860426, 269.0701835067324]</t>
+          <t>[-1086.5366599805766, 286.6827827042919]</t>
         </is>
       </c>
     </row>
@@ -3032,10 +3032,10 @@
         <v>297.0957223162715</v>
       </c>
       <c r="C62" t="n">
-        <v>279.8305630522532</v>
+        <v>292.9965571631784</v>
       </c>
       <c r="D62" t="n">
-        <v>0.27</v>
+        <v>0.318</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[-287.7275571072733, 830.3433872831688]</t>
+          <t>[-262.3814132983473, 845.8413197792377]</t>
         </is>
       </c>
     </row>
@@ -3058,10 +3058,10 @@
         <v>270.1146342314162</v>
       </c>
       <c r="C63" t="n">
-        <v>243.0625604946184</v>
+        <v>234.6470846671292</v>
       </c>
       <c r="D63" t="n">
-        <v>0.27</v>
+        <v>0.254</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[-198.44215310558724, 714.7997337561321]</t>
+          <t>[-205.85724723977876, 688.71113590618]</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
         <v>-788.6613638944169</v>
       </c>
       <c r="C64" t="n">
-        <v>215.679842789997</v>
+        <v>211.0623251003411</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[-1166.663565400977, -340.03552384369914]</t>
+          <t>[-1168.6160419399425, -359.62939922331014]</t>
         </is>
       </c>
     </row>
@@ -3162,10 +3162,10 @@
         <v>579.9322657197032</v>
       </c>
       <c r="C67" t="n">
-        <v>384.5770609161224</v>
+        <v>393.6907188402749</v>
       </c>
       <c r="D67" t="n">
-        <v>0.132</v>
+        <v>0.134</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[-163.53755781331486, 1289.704885933645]</t>
+          <t>[-178.66347976746857, 1308.3537198339277]</t>
         </is>
       </c>
     </row>
@@ -3188,19 +3188,19 @@
         <v>1643.710975597814</v>
       </c>
       <c r="C68" t="n">
-        <v>590.1970982710924</v>
+        <v>581.9150699850169</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[546.5410469684432, 2914.441141514757]</t>
+          <t>[606.1476945813672, 2800.3172971883987]</t>
         </is>
       </c>
     </row>
@@ -3214,10 +3214,10 @@
         <v>-380.8610365316063</v>
       </c>
       <c r="C69" t="n">
-        <v>476.5290570363865</v>
+        <v>467.6327049215926</v>
       </c>
       <c r="D69" t="n">
-        <v>0.41</v>
+        <v>0.394</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-1296.7304334575597, 548.4733136616869]</t>
+          <t>[-1228.6105660731846, 576.5105563275872]</t>
         </is>
       </c>
     </row>
@@ -3240,10 +3240,10 @@
         <v>624.8671844221487</v>
       </c>
       <c r="C70" t="n">
-        <v>518.428979117036</v>
+        <v>551.6611718961088</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216</v>
+        <v>0.238</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[-479.4849736267072, 1623.22804123188]</t>
+          <t>[-501.76152462740595, 1651.8672578355345]</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
         <v>2290.847914199599</v>
       </c>
       <c r="C71" t="n">
-        <v>368.2049847489648</v>
+        <v>377.7179438124251</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[1535.8816416523232, 3000.070760441052]</t>
+          <t>[1528.696109512975, 2968.0307525760154]</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3292,10 @@
         <v>-211.1814429890639</v>
       </c>
       <c r="C72" t="n">
-        <v>432.4856967035703</v>
+        <v>425.8653844468635</v>
       </c>
       <c r="D72" t="n">
-        <v>0.628</v>
+        <v>0.588</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-1016.5758786814631, 689.0597153218384]</t>
+          <t>[-1024.7876762057838, 655.9168439255396]</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
         <v>-2290.847914199599</v>
       </c>
       <c r="C73" t="n">
-        <v>368.2049847489645</v>
+        <v>377.7179438124253</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-3000.0707604410427, -1535.8816416523212]</t>
+          <t>[-2968.0307525760154, -1528.6961095129764]</t>
         </is>
       </c>
     </row>
@@ -3344,10 +3344,10 @@
         <v>-211.1814429890664</v>
       </c>
       <c r="C74" t="n">
-        <v>432.4856967035704</v>
+        <v>425.8653844468633</v>
       </c>
       <c r="D74" t="n">
-        <v>0.628</v>
+        <v>0.588</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-1016.5758786814656, 689.0597153218359]</t>
+          <t>[-1024.7876762057838, 655.916843925539]</t>
         </is>
       </c>
     </row>
@@ -3370,10 +3370,10 @@
         <v>-127.8325604692105</v>
       </c>
       <c r="C75" t="n">
-        <v>748.8800481852394</v>
+        <v>679.8184262655849</v>
       </c>
       <c r="D75" t="n">
-        <v>0.87</v>
+        <v>0.876</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-1632.4804445068576, 1325.4884659895295]</t>
+          <t>[-1434.445318666937, 1210.0157980889246]</t>
         </is>
       </c>
     </row>
@@ -3396,10 +3396,10 @@
         <v>14.4376885113376</v>
       </c>
       <c r="C76" t="n">
-        <v>752.1311123047584</v>
+        <v>713.9935241711212</v>
       </c>
       <c r="D76" t="n">
-        <v>0.978</v>
+        <v>0.98</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-1429.3339351228283, 1481.457594557764]</t>
+          <t>[-1302.8908971774717, 1511.184668458]</t>
         </is>
       </c>
     </row>
@@ -3422,10 +3422,10 @@
         <v>-98.52666136833008</v>
       </c>
       <c r="C77" t="n">
-        <v>753.5136318741168</v>
+        <v>762.8191540319053</v>
       </c>
       <c r="D77" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-1657.6580048555725, 1317.827196850709]</t>
+          <t>[-1715.4184561180946, 1317.5982508130205]</t>
         </is>
       </c>
     </row>
@@ -3448,10 +3448,10 @@
         <v>-40.20918758927506</v>
       </c>
       <c r="C78" t="n">
-        <v>721.9285189392874</v>
+        <v>718.7367532506746</v>
       </c>
       <c r="D78" t="n">
-        <v>0.962</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-1537.6358083004438, 1379.6599613833837]</t>
+          <t>[-1474.72519867653, 1296.2029641304205]</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3474,10 @@
         <v>499.1580342968279</v>
       </c>
       <c r="C79" t="n">
-        <v>689.7002233281448</v>
+        <v>656.0507246280297</v>
       </c>
       <c r="D79" t="n">
-        <v>0.454</v>
+        <v>0.44</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[-874.1263559690508, 1925.396007094818]</t>
+          <t>[-862.6861697916265, 1729.8618917925282]</t>
         </is>
       </c>
     </row>
@@ -3500,10 +3500,10 @@
         <v>319.9503393954711</v>
       </c>
       <c r="C80" t="n">
-        <v>799.1216259053955</v>
+        <v>820.1864785213537</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-1263.8257711212964, 1850.5371938635994]</t>
+          <t>[-1374.6421004301653, 1877.6856591473388]</t>
         </is>
       </c>
     </row>
@@ -3526,10 +3526,10 @@
         <v>-137.6446496199349</v>
       </c>
       <c r="C81" t="n">
-        <v>720.8689646383831</v>
+        <v>735.2267355529882</v>
       </c>
       <c r="D81" t="n">
-        <v>0.824</v>
+        <v>0.832</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-1514.976008882494, 1275.329534539101]</t>
+          <t>[-1530.8205932838514, 1329.2211858624719]</t>
         </is>
       </c>
     </row>
@@ -3552,10 +3552,10 @@
         <v>-114.6722601495619</v>
       </c>
       <c r="C82" t="n">
-        <v>742.8498757889153</v>
+        <v>702.2789324435125</v>
       </c>
       <c r="D82" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-1658.6170481129793, 1282.4464650191735]</t>
+          <t>[-1420.4474266892412, 1306.5382678034462]</t>
         </is>
       </c>
     </row>
@@ -3578,10 +3578,10 @@
         <v>-454.2952192044123</v>
       </c>
       <c r="C83" t="n">
-        <v>668.5637543239078</v>
+        <v>710.9908818884542</v>
       </c>
       <c r="D83" t="n">
-        <v>0.474</v>
+        <v>0.522</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-1751.9497676443375, 896.9187784456994]</t>
+          <t>[-1864.3377700100377, 998.6054909549102]</t>
         </is>
       </c>
     </row>
@@ -3604,10 +3604,10 @@
         <v>102.9937060908886</v>
       </c>
       <c r="C84" t="n">
-        <v>816.494708376525</v>
+        <v>793.5228349308219</v>
       </c>
       <c r="D84" t="n">
-        <v>0.908</v>
+        <v>0.904</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-1434.959263503969, 1676.833068385563]</t>
+          <t>[-1505.5261694202431, 1584.6729070749361]</t>
         </is>
       </c>
     </row>

--- a/examples/eCommerce_feature_info.xlsx
+++ b/examples/eCommerce_feature_info.xlsx
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.331421631660536</v>
+        <v>1.33211935907011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08199149004379894</v>
+        <v>0.1452164424417973</v>
       </c>
     </row>
     <row r="3">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6541718205787396</v>
+        <v>0.6353124856223349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06524529890010182</v>
+        <v>0.04809281981391188</v>
       </c>
     </row>
     <row r="4">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3008266226346351</v>
+        <v>0.2575086128840463</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03609301707292639</v>
+        <v>0.03342767312458431</v>
       </c>
     </row>
     <row r="5">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1415646482630591</v>
+        <v>0.1646343049713844</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02650476068662526</v>
+        <v>0.01331534689056707</v>
       </c>
     </row>
     <row r="6">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01602536908272967</v>
+        <v>0.01416081996019347</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003765976714020567</v>
+        <v>0.002852851049849466</v>
       </c>
     </row>
     <row r="7">
@@ -754,49 +754,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008329868981042132</v>
+        <v>0.006972626706399154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006081961104473801</v>
+        <v>0.004452390744722447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.003092151579581892</v>
+        <v>0.00254112933878472</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001477328720126499</v>
+        <v>0.002005892531726625</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001820456608886367</v>
+        <v>0.0007362080251028136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001760196514668389</v>
+        <v>0.001041968717282791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0003941779216517061</v>
+        <v>-0.001773147638009176</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001963088708659437</v>
+        <v>0.00184220056203428</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.268937570615355</v>
+        <v>1.283459294609906</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05255996197708903</v>
+        <v>0.1283904497298073</v>
       </c>
     </row>
     <row r="3">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.629086365509557</v>
+        <v>0.6237864640782782</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05442836916801477</v>
+        <v>0.07422940330035602</v>
       </c>
     </row>
     <row r="4">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2701860877406869</v>
+        <v>0.2600530618994784</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05048782300232514</v>
+        <v>0.01368299568698704</v>
       </c>
     </row>
     <row r="5">
@@ -881,75 +881,75 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1697132847977418</v>
+        <v>0.166820724557951</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04517224891347435</v>
+        <v>0.0258225684936142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01684091485144339</v>
+        <v>0.01457887908851572</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006263302003293447</v>
+        <v>0.004153129451257116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweekcos</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006171679333242208</v>
+        <v>0.01329600128383823</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009086515397747144</v>
+        <v>0.00589622631726996</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002601151569560223</v>
+        <v>0.001468485279063425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002313477553869205</v>
+        <v>0.003140990987298239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00176818253924178</v>
+        <v>0.001184717138831415</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002430203417113371</v>
+        <v>0.002409483140341453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.843454141982509e-05</v>
+        <v>-0.0003532889520593274</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003079931362324463</v>
+        <v>0.002751832039603423</v>
       </c>
     </row>
   </sheetData>
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2218110014764178</v>
+        <v>0.1628594725516008</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0278400506546791</v>
+        <v>0.01887796553438568</v>
       </c>
     </row>
     <row r="3">
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.201327109248721</v>
+        <v>0.1407589226156745</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03703373800403251</v>
+        <v>0.04536454745491079</v>
       </c>
     </row>
     <row r="4">
@@ -1021,88 +1021,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05981464887039203</v>
+        <v>0.05534134663996648</v>
       </c>
       <c r="C4" t="n">
-        <v>0.044054029447539</v>
+        <v>0.02178776366583727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02116386635690932</v>
+        <v>0.0249175542028715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03175450365056606</v>
+        <v>0.01044198538093026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0198470627750043</v>
+        <v>0.007294444365926722</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01358342002924434</v>
+        <v>0.01916773635393955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01696392262905944</v>
+        <v>0.0007061004260230819</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01320147690877321</v>
+        <v>0.01228116728207983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.016690263243415</v>
+        <v>-0.004357907383154958</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02611315627948006</v>
+        <v>0.02464376526064309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009691891843686217</v>
+        <v>-0.00492833436426845</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009881817870916741</v>
+        <v>0.008320534799364246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008519834471021582</v>
+        <v>-0.008862569967559852</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01643481478709046</v>
+        <v>0.007331088609945194</v>
       </c>
     </row>
   </sheetData>
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2786614802426963</v>
+        <v>0.4518887956833181</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02707809158597385</v>
+        <v>0.05793651127455806</v>
       </c>
     </row>
     <row r="3">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06446670963630574</v>
+        <v>0.101653547144088</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03881282216176772</v>
+        <v>0.007764284952398991</v>
       </c>
     </row>
     <row r="4">
@@ -1174,62 +1174,62 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04519396627080559</v>
+        <v>0.04791464932800038</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01627459548680493</v>
+        <v>0.008086463181066893</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03944561270965748</v>
+        <v>0.03852289759395204</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01133579800448398</v>
+        <v>0.0080173842233606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03117404008354068</v>
+        <v>0.02915315651769728</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006320461093926036</v>
+        <v>0.007698628098908763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02113865176082186</v>
+        <v>0.02785244865947665</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0106557340546874</v>
+        <v>0.007104808033348051</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweekcos</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01450974027760938</v>
+        <v>0.02605357630541281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01776401480735336</v>
+        <v>0.006976477807380886</v>
       </c>
     </row>
     <row r="9">
@@ -1239,23 +1239,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007198331578535178</v>
+        <v>0.010779437822022</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008413187618739737</v>
+        <v>0.006412900024608465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.002207318771005329</v>
+        <v>0.004262019307441123</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01389429405361702</v>
+        <v>0.004361704321308786</v>
       </c>
     </row>
   </sheetData>
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003170077548419137</v>
+        <v>0.0003284427542740609</v>
       </c>
       <c r="C2" t="n">
-        <v>8.370935977430568e-06</v>
+        <v>1.494649292870597e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.976959822659999e-05</v>
+        <v>8.663014273420089e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>7.53352785465389e-06</v>
+        <v>9.11501738437872e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1327,23 +1327,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.222580285671129e-05</v>
+        <v>5.426912721784305e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>2.360566744586317e-05</v>
+        <v>1.669637183314075e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweeksin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.019773448678208e-05</v>
+        <v>3.604890924129301e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>1.19159001365109e-05</v>
+        <v>4.616928318531127e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1353,36 +1353,36 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.307259075167266e-05</v>
+        <v>1.755165763146493e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>5.331367080484366e-06</v>
+        <v>8.40832001495064e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.746432995674568e-06</v>
+        <v>1.585463553159805e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>9.480096181085917e-06</v>
+        <v>1.32644896721561e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.387483621468789e-06</v>
+        <v>1.037997283348524e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>3.369569741902091e-06</v>
+        <v>7.569572287393964e-06</v>
       </c>
     </row>
     <row r="9">
@@ -1392,23 +1392,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.009107901683848e-07</v>
+        <v>1.974033765428373e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>1.345778394055558e-06</v>
+        <v>1.702105961349997e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>dayofweekcos</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.608302306920777e-06</v>
+        <v>1.811665495488057e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>1.936821839775982e-05</v>
+        <v>4.169244343838386e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1472,10 +1472,10 @@
         <v>515.0750576034154</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.583791297557</v>
+        <v>1168.128948155065</v>
       </c>
       <c r="D2" t="n">
-        <v>0.662</v>
+        <v>0.64</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-1765.504776046227, 2846.9880995835665]</t>
+          <t>[-1666.2660546260868, 2687.2432106449614]</t>
         </is>
       </c>
     </row>
@@ -1498,10 +1498,10 @@
         <v>22.65412425856411</v>
       </c>
       <c r="C3" t="n">
-        <v>58.17202559818481</v>
+        <v>60.06870816894013</v>
       </c>
       <c r="D3" t="n">
-        <v>0.642</v>
+        <v>0.786</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-78.39823306610296, 154.2615041908988]</t>
+          <t>[-71.16268384362124, 177.15446154865487]</t>
         </is>
       </c>
     </row>
@@ -1524,10 +1524,10 @@
         <v>-8.594452395364391</v>
       </c>
       <c r="C4" t="n">
-        <v>70.22113988495181</v>
+        <v>68.59542108686567</v>
       </c>
       <c r="D4" t="n">
-        <v>0.898</v>
+        <v>0.862</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-155.13879329366227, 141.36502997168458]</t>
+          <t>[-135.14528976071117, 150.46012703107786]</t>
         </is>
       </c>
     </row>
@@ -1550,10 +1550,10 @@
         <v>-55.80029369721267</v>
       </c>
       <c r="C5" t="n">
-        <v>55.30079642165671</v>
+        <v>52.64277878135812</v>
       </c>
       <c r="D5" t="n">
-        <v>0.258</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-180.41270616773926, 38.84257451664167]</t>
+          <t>[-176.54728019202017, 29.431947177723217]</t>
         </is>
       </c>
     </row>
@@ -1576,10 +1576,10 @@
         <v>48.44447797676496</v>
       </c>
       <c r="C6" t="n">
-        <v>47.21561458508464</v>
+        <v>52.69065735376088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.136</v>
+        <v>0.496</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[0.0, 173.43317290308852]</t>
+          <t>[0.0, 195.190449595391]</t>
         </is>
       </c>
     </row>
@@ -1602,10 +1602,10 @@
         <v>-14.81779181202579</v>
       </c>
       <c r="C7" t="n">
-        <v>24.40855999561337</v>
+        <v>23.54349252195648</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>0.324</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-78.13446500887747, 14.882563413611608]</t>
+          <t>[-71.2301951393709, 19.088217468556074]</t>
         </is>
       </c>
     </row>
@@ -1758,10 +1758,10 @@
         <v>-168.7779043649494</v>
       </c>
       <c r="C13" t="n">
-        <v>167.7916592452859</v>
+        <v>155.8379010080321</v>
       </c>
       <c r="D13" t="n">
-        <v>0.164</v>
+        <v>0.15</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-552.7078134154319, 0.0]</t>
+          <t>[-522.6192600087969, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1784,10 +1784,10 @@
         <v>3.181183761164196</v>
       </c>
       <c r="C14" t="n">
-        <v>23.70825571385881</v>
+        <v>23.08112757385013</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.532</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-32.87381428012951, 58.218229696125405]</t>
+          <t>[-45.834655066129514, 59.23517135508618]</t>
         </is>
       </c>
     </row>
@@ -1810,10 +1810,10 @@
         <v>58.65248641972787</v>
       </c>
       <c r="C15" t="n">
-        <v>58.91782366050691</v>
+        <v>60.57398885476706</v>
       </c>
       <c r="D15" t="n">
-        <v>0.146</v>
+        <v>0.166</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.0, 206.6559375306486]</t>
+          <t>[0.0, 192.95849566969514]</t>
         </is>
       </c>
     </row>
@@ -1888,10 +1888,10 @@
         <v>230.7983276336033</v>
       </c>
       <c r="C18" t="n">
-        <v>173.5289292850588</v>
+        <v>181.150346736419</v>
       </c>
       <c r="D18" t="n">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[0.0, 584.9547079585462]</t>
+          <t>[0.0, 657.7958349254451]</t>
         </is>
       </c>
     </row>
@@ -1966,10 +1966,10 @@
         <v>-70.33417079411304</v>
       </c>
       <c r="C21" t="n">
-        <v>65.4422624673649</v>
+        <v>64.55308411339736</v>
       </c>
       <c r="D21" t="n">
-        <v>0.212</v>
+        <v>0.2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-225.449817694831, 17.30725728816075]</t>
+          <t>[-213.30579523718205, 16.679866705115032]</t>
         </is>
       </c>
     </row>
@@ -1992,10 +1992,10 @@
         <v>186.3958472026663</v>
       </c>
       <c r="C22" t="n">
-        <v>233.3823946102082</v>
+        <v>246.803457699189</v>
       </c>
       <c r="D22" t="n">
-        <v>0.408</v>
+        <v>0.466</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-168.40334712509502, 707.0248332174492]</t>
+          <t>[-164.50904356320345, 709.7960679705538]</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2018,10 @@
         <v>-51.34474510097267</v>
       </c>
       <c r="C23" t="n">
-        <v>53.4777846876983</v>
+        <v>50.6368010111596</v>
       </c>
       <c r="D23" t="n">
-        <v>0.172</v>
+        <v>0.16</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-183.73703689714154, 0.0]</t>
+          <t>[-162.19185109664153, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2070,10 +2070,10 @@
         <v>-96.37355254619062</v>
       </c>
       <c r="C25" t="n">
-        <v>91.31245639003134</v>
+        <v>86.91874785505239</v>
       </c>
       <c r="D25" t="n">
-        <v>0.162</v>
+        <v>0.132</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-298.15822929169667, 0.0]</t>
+          <t>[-301.0385719174884, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2096,10 +2096,10 @@
         <v>-117.5960417853465</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99319080768808</v>
+        <v>97.86512779895304</v>
       </c>
       <c r="D26" t="n">
-        <v>0.134</v>
+        <v>0.256</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-318.06593586775784, 0.0]</t>
+          <t>[-353.15601632489484, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2122,10 +2122,10 @@
         <v>245.1068663925456</v>
       </c>
       <c r="C27" t="n">
-        <v>182.5482580436415</v>
+        <v>183.7929688379907</v>
       </c>
       <c r="D27" t="n">
-        <v>0.102</v>
+        <v>0.2</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[0.0, 668.60794415137]</t>
+          <t>[0.0, 657.263381832216]</t>
         </is>
       </c>
     </row>
@@ -2148,10 +2148,10 @@
         <v>-200.1455735013607</v>
       </c>
       <c r="C28" t="n">
-        <v>186.4140588164769</v>
+        <v>179.6374918522335</v>
       </c>
       <c r="D28" t="n">
-        <v>0.164</v>
+        <v>0.138</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-600.6102663889135, 0.0]</t>
+          <t>[-609.452130298675, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2226,10 +2226,10 @@
         <v>119.9377543981747</v>
       </c>
       <c r="C31" t="n">
-        <v>106.5774330631869</v>
+        <v>107.2479399863987</v>
       </c>
       <c r="D31" t="n">
-        <v>0.146</v>
+        <v>0.14</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[0.0, 376.44598574300335]</t>
+          <t>[0.0, 374.80926036852026]</t>
         </is>
       </c>
     </row>
@@ -2252,10 +2252,10 @@
         <v>6.869511719321902</v>
       </c>
       <c r="C32" t="n">
-        <v>21.48040793439588</v>
+        <v>20.01949918492949</v>
       </c>
       <c r="D32" t="n">
-        <v>0.468</v>
+        <v>0.494</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-39.0813640838547, 53.90647444218298]</t>
+          <t>[-29.51065735681873, 51.49684331225332]</t>
         </is>
       </c>
     </row>
@@ -2408,10 +2408,10 @@
         <v>-773.0399754234578</v>
       </c>
       <c r="C38" t="n">
-        <v>471.9907635782665</v>
+        <v>474.4666944701292</v>
       </c>
       <c r="D38" t="n">
-        <v>0.102</v>
+        <v>0.106</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-1674.0660417240776, 189.94098217403427]</t>
+          <t>[-1756.106682147588, 131.2751365831317]</t>
         </is>
       </c>
     </row>
@@ -2434,10 +2434,10 @@
         <v>273.837184027478</v>
       </c>
       <c r="C39" t="n">
-        <v>349.6472101340853</v>
+        <v>327.6368996630051</v>
       </c>
       <c r="D39" t="n">
-        <v>0.438</v>
+        <v>0.418</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-412.17174319772516, 945.6898919491773]</t>
+          <t>[-373.96793619277867, 891.2251685254267]</t>
         </is>
       </c>
     </row>
@@ -2460,10 +2460,10 @@
         <v>-381.9316011929113</v>
       </c>
       <c r="C40" t="n">
-        <v>449.7548971599497</v>
+        <v>485.352952302322</v>
       </c>
       <c r="D40" t="n">
-        <v>0.386</v>
+        <v>0.424</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-1316.678325166039, 476.5820619645273]</t>
+          <t>[-1372.8413725016514, 532.768634631871]</t>
         </is>
       </c>
     </row>
@@ -2486,19 +2486,19 @@
         <v>846.3253439322249</v>
       </c>
       <c r="C41" t="n">
-        <v>549.9247645955011</v>
+        <v>583.1711480907824</v>
       </c>
       <c r="D41" t="n">
-        <v>0.098</v>
+        <v>0.146</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-141.51897980944693, 1978.7616826703138]</t>
+          <t>[-299.14604591686566, 1977.2364859702059]</t>
         </is>
       </c>
     </row>
@@ -2512,10 +2512,10 @@
         <v>426.8684606004104</v>
       </c>
       <c r="C42" t="n">
-        <v>534.9623892529174</v>
+        <v>565.4568184481536</v>
       </c>
       <c r="D42" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-622.5772862893805, 1396.8771811371598]</t>
+          <t>[-701.4131212037578, 1518.0696579508801]</t>
         </is>
       </c>
     </row>
@@ -2538,10 +2538,10 @@
         <v>-228.4314092535711</v>
       </c>
       <c r="C43" t="n">
-        <v>203.905418281764</v>
+        <v>194.0909261044644</v>
       </c>
       <c r="D43" t="n">
-        <v>0.13</v>
+        <v>0.142</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-666.5561479603125, 0.0]</t>
+          <t>[-659.9682538900536, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2564,10 @@
         <v>134.6858674791933</v>
       </c>
       <c r="C44" t="n">
-        <v>132.6644172436171</v>
+        <v>109.5691768170101</v>
       </c>
       <c r="D44" t="n">
-        <v>0.154</v>
+        <v>0.156</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.0, 473.83239591662834]</t>
+          <t>[0.0, 360.739162935514]</t>
         </is>
       </c>
     </row>
@@ -2590,10 +2590,10 @@
         <v>69.81140080702318</v>
       </c>
       <c r="C45" t="n">
-        <v>71.75560116814667</v>
+        <v>67.77889253714191</v>
       </c>
       <c r="D45" t="n">
-        <v>0.164</v>
+        <v>0.16</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[0.0, 240.99290938595666]</t>
+          <t>[0.0, 225.31230453882404]</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
         <v>49.40150220930711</v>
       </c>
       <c r="C46" t="n">
-        <v>47.48333987263009</v>
+        <v>49.35163004408631</v>
       </c>
       <c r="D46" t="n">
         <v>0.144</v>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.0, 168.76358282871246]</t>
+          <t>[0.0, 173.7939202585384]</t>
         </is>
       </c>
     </row>
@@ -2668,10 +2668,10 @@
         <v>-51.35760405921771</v>
       </c>
       <c r="C48" t="n">
-        <v>47.34576720047865</v>
+        <v>56.62413096341959</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13</v>
+        <v>0.506</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[-160.7438070414952, 0.0]</t>
+          <t>[-186.707057966078, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2694,10 +2694,10 @@
         <v>-5.594522612567842</v>
       </c>
       <c r="C49" t="n">
-        <v>26.43168680354974</v>
+        <v>22.68708513670422</v>
       </c>
       <c r="D49" t="n">
-        <v>0.518</v>
+        <v>0.506</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[-75.75330212594781, 45.8461817721604]</t>
+          <t>[-64.63455619895271, 45.34399315513255]</t>
         </is>
       </c>
     </row>
@@ -2720,10 +2720,10 @@
         <v>79.23406158657589</v>
       </c>
       <c r="C50" t="n">
-        <v>74.50353463814614</v>
+        <v>70.52407343469504</v>
       </c>
       <c r="D50" t="n">
-        <v>0.15</v>
+        <v>0.156</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.0, 252.5106272577421]</t>
+          <t>[0.0, 236.69400885913177]</t>
         </is>
       </c>
     </row>
@@ -2798,7 +2798,7 @@
         <v>614.8908037852003</v>
       </c>
       <c r="C53" t="n">
-        <v>308.1045240500785</v>
+        <v>303.8070765419269</v>
       </c>
       <c r="D53" t="n">
         <v>0.038</v>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[29.766798568616302, 1195.1987341935424]</t>
+          <t>[-1.4537993714471358, 1196.2560337492916]</t>
         </is>
       </c>
     </row>
@@ -2824,10 +2824,10 @@
         <v>-605.9516898445496</v>
       </c>
       <c r="C54" t="n">
-        <v>292.5683000174442</v>
+        <v>279.0121386849705</v>
       </c>
       <c r="D54" t="n">
-        <v>0.044</v>
+        <v>0.03</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[-1197.6257908822565, 1.1944877132562948]</t>
+          <t>[-1152.2439102661801, -54.78252960477485]</t>
         </is>
       </c>
     </row>
@@ -2850,10 +2850,10 @@
         <v>496.7034556846617</v>
       </c>
       <c r="C55" t="n">
-        <v>233.8655257103929</v>
+        <v>235.2196295539147</v>
       </c>
       <c r="D55" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[12.306575443869942, 926.7701953817894]</t>
+          <t>[48.12309583730271, 974.0153827415638]</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
         <v>-1093.470203062709</v>
       </c>
       <c r="C56" t="n">
-        <v>255.4793768684803</v>
+        <v>257.7119482261353</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-1580.407601444355, -568.0030878722401]</t>
+          <t>[-1625.5766408887314, -597.2535655364945]</t>
         </is>
       </c>
     </row>
@@ -2954,10 +2954,10 @@
         <v>60.41412960477746</v>
       </c>
       <c r="C59" t="n">
-        <v>460.6979994853292</v>
+        <v>463.8792166766806</v>
       </c>
       <c r="D59" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[-790.0883656093838, 966.0399464730383]</t>
+          <t>[-781.4597581574379, 1009.9637586329508]</t>
         </is>
       </c>
     </row>
@@ -3006,10 +3006,10 @@
         <v>-402.4409397377263</v>
       </c>
       <c r="C61" t="n">
-        <v>363.8429155962661</v>
+        <v>357.4948541781264</v>
       </c>
       <c r="D61" t="n">
-        <v>0.294</v>
+        <v>0.234</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-1086.5366599805766, 286.6827827042919]</t>
+          <t>[-1078.5753454081191, 380.81813049748723]</t>
         </is>
       </c>
     </row>
@@ -3032,10 +3032,10 @@
         <v>297.0957223162715</v>
       </c>
       <c r="C62" t="n">
-        <v>292.9965571631784</v>
+        <v>286.4893326607001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.318</v>
+        <v>0.296</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[-262.3814132983473, 845.8413197792377]</t>
+          <t>[-300.359340531146, 823.2783942933268]</t>
         </is>
       </c>
     </row>
@@ -3058,10 +3058,10 @@
         <v>270.1146342314162</v>
       </c>
       <c r="C63" t="n">
-        <v>234.6470846671292</v>
+        <v>217.4115693801518</v>
       </c>
       <c r="D63" t="n">
-        <v>0.254</v>
+        <v>0.194</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[-205.85724723977876, 688.71113590618]</t>
+          <t>[-185.33689870740017, 679.7140141846263]</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
         <v>-788.6613638944169</v>
       </c>
       <c r="C64" t="n">
-        <v>211.0623251003411</v>
+        <v>212.995976162911</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[-1168.6160419399425, -359.62939922331014]</t>
+          <t>[-1219.103811795976, -354.7821498748089]</t>
         </is>
       </c>
     </row>
@@ -3162,7 +3162,7 @@
         <v>579.9322657197032</v>
       </c>
       <c r="C67" t="n">
-        <v>393.6907188402749</v>
+        <v>380.0709890333915</v>
       </c>
       <c r="D67" t="n">
         <v>0.134</v>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[-178.66347976746857, 1308.3537198339277]</t>
+          <t>[-180.7490976810122, 1370.433108134381]</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
         <v>1643.710975597814</v>
       </c>
       <c r="C68" t="n">
-        <v>581.9150699850169</v>
+        <v>584.2573442930908</v>
       </c>
       <c r="D68" t="n">
         <v>0.002</v>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[606.1476945813672, 2800.3172971883987]</t>
+          <t>[440.7902472073842, 2773.8230406865123]</t>
         </is>
       </c>
     </row>
@@ -3214,10 +3214,10 @@
         <v>-380.8610365316063</v>
       </c>
       <c r="C69" t="n">
-        <v>467.6327049215926</v>
+        <v>469.0193001544911</v>
       </c>
       <c r="D69" t="n">
-        <v>0.394</v>
+        <v>0.426</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-1228.6105660731846, 576.5105563275872]</t>
+          <t>[-1354.968519873535, 495.7485822387947]</t>
         </is>
       </c>
     </row>
@@ -3240,10 +3240,10 @@
         <v>624.8671844221487</v>
       </c>
       <c r="C70" t="n">
-        <v>551.6611718961088</v>
+        <v>520.406068824375</v>
       </c>
       <c r="D70" t="n">
-        <v>0.238</v>
+        <v>0.246</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[-501.76152462740595, 1651.8672578355345]</t>
+          <t>[-380.8379161689444, 1653.7100515465904]</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
         <v>2290.847914199599</v>
       </c>
       <c r="C71" t="n">
-        <v>377.7179438124251</v>
+        <v>377.7838083873788</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[1528.696109512975, 2968.0307525760154]</t>
+          <t>[1569.1273303359465, 3018.5258731550202]</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3292,10 @@
         <v>-211.1814429890639</v>
       </c>
       <c r="C72" t="n">
-        <v>425.8653844468635</v>
+        <v>420.0033890143877</v>
       </c>
       <c r="D72" t="n">
-        <v>0.588</v>
+        <v>0.614</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-1024.7876762057838, 655.9168439255396]</t>
+          <t>[-1019.6740582626894, 582.8211382369191]</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
         <v>-2290.847914199599</v>
       </c>
       <c r="C73" t="n">
-        <v>377.7179438124253</v>
+        <v>377.7838083873789</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-2968.0307525760154, -1528.6961095129764]</t>
+          <t>[-3018.525873155021, -1569.1273303359483]</t>
         </is>
       </c>
     </row>
@@ -3344,10 +3344,10 @@
         <v>-211.1814429890664</v>
       </c>
       <c r="C74" t="n">
-        <v>425.8653844468633</v>
+        <v>420.0033890143876</v>
       </c>
       <c r="D74" t="n">
-        <v>0.588</v>
+        <v>0.614</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-1024.7876762057838, 655.916843925539]</t>
+          <t>[-1019.6740582626885, 582.8211382369182]</t>
         </is>
       </c>
     </row>
@@ -3370,10 +3370,10 @@
         <v>-127.8325604692105</v>
       </c>
       <c r="C75" t="n">
-        <v>679.8184262655849</v>
+        <v>731.3009963335181</v>
       </c>
       <c r="D75" t="n">
-        <v>0.876</v>
+        <v>0.86</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-1434.445318666937, 1210.0157980889246]</t>
+          <t>[-1593.9248519549174, 1181.0093508277018]</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
         <v>14.4376885113376</v>
       </c>
       <c r="C76" t="n">
-        <v>713.9935241711212</v>
+        <v>774.856000249761</v>
       </c>
       <c r="D76" t="n">
         <v>0.98</v>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-1302.8908971774717, 1511.184668458]</t>
+          <t>[-1596.7372506484576, 1603.5346915816608]</t>
         </is>
       </c>
     </row>
@@ -3422,10 +3422,10 @@
         <v>-98.52666136833008</v>
       </c>
       <c r="C77" t="n">
-        <v>762.8191540319053</v>
+        <v>736.261578860967</v>
       </c>
       <c r="D77" t="n">
-        <v>0.88</v>
+        <v>0.894</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-1715.4184561180946, 1317.5982508130205]</t>
+          <t>[-1635.9705700075694, 1276.9564222058268]</t>
         </is>
       </c>
     </row>
@@ -3448,10 +3448,10 @@
         <v>-40.20918758927506</v>
       </c>
       <c r="C78" t="n">
-        <v>718.7367532506746</v>
+        <v>710.9561478285348</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.952</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-1474.72519867653, 1296.2029641304205]</t>
+          <t>[-1556.095583258314, 1202.2675395008923]</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3474,10 @@
         <v>499.1580342968279</v>
       </c>
       <c r="C79" t="n">
-        <v>656.0507246280297</v>
+        <v>703.7041217852025</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[-862.6861697916265, 1729.8618917925282]</t>
+          <t>[-957.3013403272888, 1889.5153066854232]</t>
         </is>
       </c>
     </row>
@@ -3500,10 +3500,10 @@
         <v>319.9503393954711</v>
       </c>
       <c r="C80" t="n">
-        <v>820.1864785213537</v>
+        <v>814.2557983975753</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-1374.6421004301653, 1877.6856591473388]</t>
+          <t>[-1268.8842401398413, 1845.1616383940432]</t>
         </is>
       </c>
     </row>
@@ -3526,10 +3526,10 @@
         <v>-137.6446496199349</v>
       </c>
       <c r="C81" t="n">
-        <v>735.2267355529882</v>
+        <v>735.7868546748116</v>
       </c>
       <c r="D81" t="n">
-        <v>0.832</v>
+        <v>0.882</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-1530.8205932838514, 1329.2211858624719]</t>
+          <t>[-1528.810075308409, 1376.7980632159617]</t>
         </is>
       </c>
     </row>
@@ -3552,10 +3552,10 @@
         <v>-114.6722601495619</v>
       </c>
       <c r="C82" t="n">
-        <v>702.2789324435125</v>
+        <v>739.2582619275138</v>
       </c>
       <c r="D82" t="n">
-        <v>0.86</v>
+        <v>0.866</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-1420.4474266892412, 1306.5382678034462]</t>
+          <t>[-1551.103010177581, 1334.0166703267091]</t>
         </is>
       </c>
     </row>
@@ -3578,10 +3578,10 @@
         <v>-454.2952192044123</v>
       </c>
       <c r="C83" t="n">
-        <v>710.9908818884542</v>
+        <v>666.109752429094</v>
       </c>
       <c r="D83" t="n">
-        <v>0.522</v>
+        <v>0.504</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-1864.3377700100377, 998.6054909549102]</t>
+          <t>[-1716.7241840440934, 816.2388370454878]</t>
         </is>
       </c>
     </row>
@@ -3604,10 +3604,10 @@
         <v>102.9937060908886</v>
       </c>
       <c r="C84" t="n">
-        <v>793.5228349308219</v>
+        <v>817.7139130416044</v>
       </c>
       <c r="D84" t="n">
-        <v>0.904</v>
+        <v>0.898</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-1505.5261694202431, 1584.6729070749361]</t>
+          <t>[-1432.7436465972778, 1715.6260288729504]</t>
         </is>
       </c>
     </row>

--- a/examples/eCommerce_feature_info.xlsx
+++ b/examples/eCommerce_feature_info.xlsx
@@ -7,13 +7,19 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="arima_summary_stats" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mlr_feature_importance" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="elasticnet_feature_importance" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knn_feature_importance" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mlp_feature_importance" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="svr_feature_importance" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="silverkite_summary_stats" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hwes_summary_stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hwes_seasonal_summary_stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="arima_ma_terms_summary_stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mlr_feature_importance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="elasticnet_feature_importance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gbt_feature_importance" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knn_feature_importance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lightgbm_feature_importance" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mlp_feature_importance" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rf_feature_importance" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="svr_feature_importance" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="xgboost_feature_importance" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="silverkite_summary_stats" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,208 +448,90 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>coef</t>
+          <t>coeff</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>std err</t>
+          <t>code</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>z</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P&gt;|z|</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>[0.025</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>0.975]</t>
+          <t>optimized</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ar.L1</t>
+          <t>smoothing_level</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8659</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-12.733</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.733</v>
+        <v>0.0757143</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ar.L2</t>
+          <t>smoothing_trend</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6966</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-8.087999999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.865</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.528</v>
+        <v>0.0344156</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ar.L3</t>
+          <t>initial_level</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5995</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-6.698</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.775</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0.424</v>
+        <v>20044.29</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>l.0</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ar.L4</t>
+          <t>initial_trend</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5584</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-5.527</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.756</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ar.S.L5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.2816</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-2.692</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.487</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.077</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>ar.S.L10</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.1006</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-1.054</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.288</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.08599999999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>sigma2</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>219900000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.640000000000001e-10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.88e+17</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>220000000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>220000000</v>
+        <v>694.65</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>b.0</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -651,13 +539,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,118 +573,534 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.33211935907011</v>
+        <v>0.4265081743370857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1452164424417973</v>
+        <v>0.06786060876921238</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6353124856223349</v>
+        <v>0.03967472334323687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04809281981391188</v>
+        <v>0.006363078668130995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2575086128840463</v>
+        <v>0.02946025884037058</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03342767312458431</v>
+        <v>0.005788555228773059</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1646343049713844</v>
+        <v>0.02049876921666123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01331534689056707</v>
+        <v>0.001446495604618636</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01416081996019347</v>
+        <v>0.0170125804738414</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002852851049849466</v>
+        <v>0.001626587571426115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006972626706399154</v>
+        <v>0.01498879510618925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004452390744722447</v>
+        <v>0.002866459477449853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00254112933878472</v>
+        <v>0.01482709256917611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002005892531726625</v>
+        <v>0.00299774304891342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007362080251028136</v>
+        <v>0.01070268367343441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001041968717282791</v>
+        <v>0.001267371309613071</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.001773147638009176</v>
+        <v>0.007629090813905082</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00184220056203428</v>
+        <v>0.001323532620462488</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AR5</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.007553884231478247</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001147743096571846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AR24</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.007097114337726551</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001838928937155999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>AR21</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.007060960191032107</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.001139633650345257</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>AR4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.006431819408170036</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.004066149221866743</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>AR9</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.006221400202028904</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.001107780553041915</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>weekcos</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.00311596167107866</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.001013853786286345</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AR12</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.002741900771743122</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0004069988763895499</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>AR20</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.001708569529196025</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0003750966789952394</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>AR23</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.001662864038178835</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.000186428669202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>AR13</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.000501678196703903</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0001272141681109714</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>AR27</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0004752505660017059</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0001482598597498574</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>quartercos</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0002963186692852337</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0001713552513249316</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>AR8</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0002435799397531691</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0002068845997865887</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>AR22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0002041347072810451</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.5835892019785e-05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>weeksin</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0001925295492839707</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.672434870153613e-05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>AR10</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0001897695587257164</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.695856692050451e-05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>AR19</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0001810524156094395</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9.558536887614942e-05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>AR3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0001266598156601795</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.010269032889381e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>AR11</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0001136685178361407</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0003973672172189038</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>AR26</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0001042477350044369</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.968303616668957e-05</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0001017637433242902</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.790769447492539e-05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>monthcos</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7.062954545666855e-05</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.414899986224656e-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>AR15</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.958128112424244e-05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.709536175056025e-05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>AR18</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6.757014247062986e-05</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.845465820113792e-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_4</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4.235975964506089e-05</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.235244371706321e-05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>AR16</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9.411792731039981e-06</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.719276050732561e-05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_1</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2.254950345514928e-06</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.975316067948478e-05</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_2</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>AR17</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>quartersin</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>monthsin</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_6</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -804,13 +1108,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,118 +1142,534 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.283459294609906</v>
+        <v>0.0003606387175104864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1283904497298073</v>
+        <v>2.411840954380418e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6237864640782782</v>
+        <v>0.0001659875282211232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07422940330035602</v>
+        <v>4.447337545248059e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2600530618994784</v>
+        <v>5.872987675670238e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01368299568698704</v>
+        <v>3.193258907975632e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.166820724557951</v>
+        <v>4.023293166763864e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0258225684936142</v>
+        <v>2.907755437383756e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01457887908851572</v>
+        <v>3.525778183179895e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004153129451257116</v>
+        <v>4.525521806091357e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01329600128383823</v>
+        <v>3.097894953221214e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00589622631726996</v>
+        <v>6.538602688810205e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001468485279063425</v>
+        <v>2.22082426867054e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003140990987298239</v>
+        <v>1.166826191586994e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001184717138831415</v>
+        <v>1.675625964354666e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002409483140341453</v>
+        <v>3.555352707147584e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0003532889520593274</v>
+        <v>1.670410527245814e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002751832039603423</v>
+        <v>1.132736615139326e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AR2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.082232191600418e-05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.883089856905703e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_3</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8.352738084971278e-06</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.527841557248769e-06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>AR12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8.05061682678243e-06</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.190496095472505e-06</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>AR9</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6.973294344625458e-06</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.606714611324687e-06</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>AR23</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6.371898507895324e-06</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.54593383249772e-06</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>AR19</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6.335662985579305e-06</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.969050929961626e-07</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AR5</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5.764646832195908e-06</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.052265980409511e-06</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>AR16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5.277198531006277e-06</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.696139101194519e-06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>quartercos</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4.781336487447163e-06</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.150585869572347e-06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>weeksin</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4.569409220556153e-06</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.000720239219435e-06</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>weekcos</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4.259489404834227e-06</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.359128048194166e-06</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>AR26</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3.916740572007526e-06</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.001859212403655e-06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>AR22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3.880713791826196e-06</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7.31613970967137e-07</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>AR8</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3.293917894797716e-06</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.302784853033014e-06</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.032478010827177e-06</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.915526150002702e-06</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.761283022139182e-06</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.284818051970121e-06</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>AR15</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.432892279984443e-06</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.151316956330072e-06</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>monthsin</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.079955190652626e-06</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.051522462863887e-06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>AR20</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>8.050393689007507e-07</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.341773521319263e-07</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>monthcos</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6.934479463982512e-07</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.196952005646217e-06</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>AR17</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3.669203974876467e-07</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.664671556330505e-07</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>AR18</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.246334370819113e-07</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.653069893046175e-07</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>AR10</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7.524829208627181e-08</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7.859267122528067e-08</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>AR11</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4.334532448524442e-08</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.844251787981245e-07</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>AR24</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-4.618101545617037e-09</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.430068652342992e-08</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>AR27</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-7.91239265218735e-09</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.111000750221288e-07</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>AR13</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-3.231938565662062e-08</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.017726622618275e-06</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>quartersin</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-5.544746470853568e-08</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8.575686185437914e-07</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>AR3</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-8.45040653896234e-08</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.498180538849045e-07</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>AR4</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-9.717905791184478e-08</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.4571821047928e-07</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>AR25</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-2.140102630665552e-07</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.377318807261043e-07</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>AR6</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-7.133423279181983e-07</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5.522676300358545e-07</v>
       </c>
     </row>
   </sheetData>
@@ -957,13 +1677,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,36 +1715,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1628594725516008</v>
+        <v>0.2715783468665519</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01887796553438568</v>
+        <v>0.02320862279727876</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1407589226156745</v>
+        <v>0.2558079367518233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04536454745491079</v>
+        <v>0.02987615362598965</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>dayofweekcos</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05534134663996648</v>
+        <v>0.04659012879043136</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02178776366583727</v>
+        <v>0.002301784952172325</v>
       </c>
     </row>
     <row r="5">
@@ -1034,75 +1754,491 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0249175542028715</v>
+        <v>0.04380260556125883</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01044198538093026</v>
+        <v>0.003307490070934024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007294444365926722</v>
+        <v>0.04207493851756768</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01916773635393955</v>
+        <v>0.004911329868284492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007061004260230819</v>
+        <v>0.03018744188628053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01228116728207983</v>
+        <v>0.001229215670451545</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dayofweeksin</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.004357907383154958</v>
+        <v>0.02463058983530084</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02464376526064309</v>
+        <v>0.00256849530676181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.00492833436426845</v>
+        <v>0.02287047878774815</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008320534799364246</v>
+        <v>0.002382258412961023</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>AR17</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.02223041233896634</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00220321145264695</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AR21</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02185097806576806</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00189333728820418</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AR20</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.02111982262666006</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001854264241476235</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>AR25</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01651637696477999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.00138281189528446</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>AR5</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01649347121821705</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.002907256876477056</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>AR4</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-0.008862569967559852</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.007331088609945194</v>
+      <c r="B15" t="n">
+        <v>0.01565678710245284</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.002354628664873561</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>AR6</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01519652581544981</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.001386794102408213</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AR3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01430996487456544</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.001156063987842765</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01426892713671515</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001890934785834181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>AR9</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01049765225793537</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0009643593870127651</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>AR8</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.009076089726038373</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0009915257011703122</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>AR24</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.009066187385696178</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.002703966005081011</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>AR13</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.008775151783348867</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0009900045048557402</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>AR10</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.007923606192421096</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0002721067972028954</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>weekcos</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.007856026673225203</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.001412541893253931</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>AR26</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.007470954532238938</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0004469410247887806</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>AR18</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.007318958620647109</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0003967417376750763</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>AR22</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.006680973775488086</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0008914216099753503</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>AR27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.006514023233752319</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0005547895823198089</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>AR23</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.005826892880166956</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0003322904510329969</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>AR16</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.005609436979269966</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0003219244166707655</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>AR15</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.003736417733755193</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0003318340465382161</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>weeksin</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.003231968543537489</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0003084105668715456</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>AR11</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.003193872412463516</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0004554993314551485</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>AR19</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.002363903098302034</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.00027919652291893</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>monthcos</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0005766925180628934</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8.946655298030774e-05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>quartercos</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0004389389162884338</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.000116127750592642</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>monthsin</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_6</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_2</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_3</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_4</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>quartersin</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1110,313 +2246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>feature</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>weight</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>AR1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.4518887956833181</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05793651127455806</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>AR5</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.101653547144088</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.007764284952398991</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>AR4</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.04791464932800038</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.008086463181066893</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.03852289759395204</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0080173842233606</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>AR2</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.02915315651769728</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.007698628098908763</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>AR10</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.02785244865947665</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.007104808033348051</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>dayofweekcos</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.02605357630541281</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.006976477807380886</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>dayofweeksin</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.010779437822022</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.006412900024608465</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>AR3</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.004262019307441123</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.004361704321308786</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>feature</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>weight</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>AR1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0003284427542740609</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.494649292870597e-05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>AR5</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8.663014273420089e-05</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.11501738437872e-06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>AR10</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5.426912721784305e-05</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.669637183314075e-05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>dayofweeksin</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3.604890924129301e-05</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.616928318531127e-05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>AR4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1.755165763146493e-05</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.40832001495064e-06</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1.585463553159805e-05</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.32644896721561e-05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>AR2</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.037997283348524e-05</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.569572287393964e-06</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>AR3</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1.974033765428373e-06</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.702105961349997e-06</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>dayofweekcos</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1.811665495488057e-06</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.169244343838386e-06</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1469,22 +2299,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>515.0750576034154</v>
+        <v>16788.47627335299</v>
       </c>
       <c r="C2" t="n">
-        <v>1168.128948155065</v>
+        <v>867.114800033279</v>
       </c>
       <c r="D2" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[-1666.2660546260868, 2687.2432106449614]</t>
+          <t>[15405.40835073976, 18685.3349907125]</t>
         </is>
       </c>
     </row>
@@ -1495,13 +2325,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.65412425856411</v>
+        <v>-91.53761092591472</v>
       </c>
       <c r="C3" t="n">
-        <v>60.06870816894013</v>
+        <v>366.9988029785455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.786</v>
+        <v>0.828</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1510,7 +2340,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-71.16268384362124, 177.15446154865487]</t>
+          <t>[-986.50656482675, 561.5644296039594]</t>
         </is>
       </c>
     </row>
@@ -1521,13 +2351,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-8.594452395364391</v>
+        <v>-162.8164257652647</v>
       </c>
       <c r="C4" t="n">
-        <v>68.59542108686567</v>
+        <v>362.3226073933556</v>
       </c>
       <c r="D4" t="n">
-        <v>0.862</v>
+        <v>0.61</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1536,7 +2366,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-135.14528976071117, 150.46012703107786]</t>
+          <t>[-986.6199583677038, 476.0108169149074]</t>
         </is>
       </c>
     </row>
@@ -1547,13 +2377,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-55.80029369721267</v>
+        <v>-325.7220449438254</v>
       </c>
       <c r="C5" t="n">
-        <v>52.64277878135812</v>
+        <v>422.1885120617113</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>0.358</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1562,7 +2392,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-176.54728019202017, 29.431947177723217]</t>
+          <t>[-1223.1632394224712, 456.4121286049466]</t>
         </is>
       </c>
     </row>
@@ -1573,13 +2403,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.44447797676496</v>
+        <v>-294.9238675569628</v>
       </c>
       <c r="C6" t="n">
-        <v>52.69065735376088</v>
+        <v>478.2995702544</v>
       </c>
       <c r="D6" t="n">
-        <v>0.496</v>
+        <v>0.58</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1588,7 +2418,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[0.0, 195.190449595391]</t>
+          <t>[-1358.9076661564986, 481.52985913715537]</t>
         </is>
       </c>
     </row>
@@ -1599,13 +2429,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.81779181202579</v>
+        <v>-565.6940880776882</v>
       </c>
       <c r="C7" t="n">
-        <v>23.54349252195648</v>
+        <v>534.3982513467707</v>
       </c>
       <c r="D7" t="n">
-        <v>0.324</v>
+        <v>0.264</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1614,7 +2444,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-71.2301951393709, 19.088217468556074]</t>
+          <t>[-1792.6034774677137, 271.54594009003625]</t>
         </is>
       </c>
     </row>
@@ -1755,10 +2585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-168.7779043649494</v>
+        <v>-1369.354415763941</v>
       </c>
       <c r="C13" t="n">
-        <v>155.8379010080321</v>
+        <v>1148.659472348706</v>
       </c>
       <c r="D13" t="n">
         <v>0.15</v>
@@ -1770,7 +2600,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-522.6192600087969, 0.0]</t>
+          <t>[-3903.2782369893807, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1781,13 +2611,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.181183761164196</v>
+        <v>302.776735328544</v>
       </c>
       <c r="C14" t="n">
-        <v>23.08112757385013</v>
+        <v>311.4462813072075</v>
       </c>
       <c r="D14" t="n">
-        <v>0.532</v>
+        <v>0.184</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1796,7 +2626,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-45.834655066129514, 59.23517135508618]</t>
+          <t>[-50.67274526387143, 1056.7437131823385]</t>
         </is>
       </c>
     </row>
@@ -1807,13 +2637,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58.65248641972787</v>
+        <v>241.4216232171946</v>
       </c>
       <c r="C15" t="n">
-        <v>60.57398885476706</v>
+        <v>277.8410633953529</v>
       </c>
       <c r="D15" t="n">
-        <v>0.166</v>
+        <v>0.21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1822,7 +2652,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[0.0, 192.95849566969514]</t>
+          <t>[-91.40688772567037, 907.8203586486396]</t>
         </is>
       </c>
     </row>
@@ -1833,13 +2663,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>174.0399841998092</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>259.9714910471693</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.316</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1848,7 +2678,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-256.82717330841217, 764.6257749906085]</t>
         </is>
       </c>
     </row>
@@ -1859,13 +2689,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-316.7410838874658</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>314.3127306005373</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.134</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1874,7 +2704,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-1144.7022827591259, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1885,13 +2715,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>230.7983276336033</v>
+        <v>-680.2252465834899</v>
       </c>
       <c r="C18" t="n">
-        <v>181.150346736419</v>
+        <v>1082.775710127912</v>
       </c>
       <c r="D18" t="n">
-        <v>0.106</v>
+        <v>0.494</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1900,7 +2730,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[0.0, 657.7958349254451]</t>
+          <t>[-3116.066284214092, 1049.4168647989097]</t>
         </is>
       </c>
     </row>
@@ -1911,22 +2741,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1403.363970343245</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>815.3203223376318</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.052</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-3131.809139357926, 0.0]</t>
         </is>
       </c>
     </row>
@@ -1937,13 +2767,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-421.721630587085</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>346.2087858214463</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.156</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1952,7 +2782,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-1216.6014005031568, 72.72245885631631]</t>
         </is>
       </c>
     </row>
@@ -1963,13 +2793,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-70.33417079411304</v>
+        <v>-968.4160742487336</v>
       </c>
       <c r="C21" t="n">
-        <v>64.55308411339736</v>
+        <v>1064.729783322811</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2</v>
+        <v>0.356</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1978,7 +2808,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-213.30579523718205, 16.679866705115032]</t>
+          <t>[-3289.137296433588, 699.7215154726199]</t>
         </is>
       </c>
     </row>
@@ -1989,13 +2819,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>186.3958472026663</v>
+        <v>483.5008981719257</v>
       </c>
       <c r="C22" t="n">
-        <v>246.803457699189</v>
+        <v>969.4868486976765</v>
       </c>
       <c r="D22" t="n">
-        <v>0.466</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2004,7 +2834,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-164.50904356320345, 709.7960679705538]</t>
+          <t>[-959.1319837396109, 2755.3282972200495]</t>
         </is>
       </c>
     </row>
@@ -2015,13 +2845,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-51.34474510097267</v>
+        <v>-614.4348274974396</v>
       </c>
       <c r="C23" t="n">
-        <v>50.6368010111596</v>
+        <v>603.6877420188753</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2030,7 +2860,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-162.19185109664153, 0.0]</t>
+          <t>[-2153.646063323521, 209.8289711124837]</t>
         </is>
       </c>
     </row>
@@ -2041,13 +2871,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-142.5600254640396</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>566.750584663159</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2056,7 +2886,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-1516.4928598249066, 785.6985010574224]</t>
         </is>
       </c>
     </row>
@@ -2067,22 +2897,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-96.37355254619062</v>
+        <v>-1343.766178365504</v>
       </c>
       <c r="C25" t="n">
-        <v>86.91874785505239</v>
+        <v>904.8332965694849</v>
       </c>
       <c r="D25" t="n">
-        <v>0.132</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-301.0385719174884, 0.0]</t>
+          <t>[-3042.268634323401, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2093,22 +2923,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-117.5960417853465</v>
+        <v>-2505.411476258236</v>
       </c>
       <c r="C26" t="n">
-        <v>97.86512779895304</v>
+        <v>1437.477791015864</v>
       </c>
       <c r="D26" t="n">
-        <v>0.256</v>
+        <v>0.046</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>*</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-353.15601632489484, 0.0]</t>
+          <t>[-5408.0573378057625, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2119,13 +2949,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>245.1068663925456</v>
+        <v>-768.10748773818</v>
       </c>
       <c r="C27" t="n">
-        <v>183.7929688379907</v>
+        <v>702.8607445934304</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2</v>
+        <v>0.198</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2134,7 +2964,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[0.0, 657.263381832216]</t>
+          <t>[-2300.9808593079497, 237.97904846489837]</t>
         </is>
       </c>
     </row>
@@ -2145,13 +2975,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-200.1455735013607</v>
+        <v>-1440.38715965347</v>
       </c>
       <c r="C28" t="n">
-        <v>179.6374918522335</v>
+        <v>1128.401502942254</v>
       </c>
       <c r="D28" t="n">
-        <v>0.138</v>
+        <v>0.116</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2160,7 +2990,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-609.452130298675, 0.0]</t>
+          <t>[-3520.735713148477, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2171,13 +3001,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-243.4662646546725</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>281.7074567701387</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.192</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2186,7 +3016,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-893.8756123731991, 53.71785929135211]</t>
         </is>
       </c>
     </row>
@@ -2197,13 +3027,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>215.5963270310038</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>285.9533801682912</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.228</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2212,7 +3042,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-157.49645444993888, 892.1733419337916]</t>
         </is>
       </c>
     </row>
@@ -2223,13 +3053,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>119.9377543981747</v>
+        <v>-708.4294749777673</v>
       </c>
       <c r="C31" t="n">
-        <v>107.2479399863987</v>
+        <v>614.3930680201364</v>
       </c>
       <c r="D31" t="n">
-        <v>0.14</v>
+        <v>0.144</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2238,7 +3068,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[0.0, 374.80926036852026]</t>
+          <t>[-2005.7957891142457, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2249,13 +3079,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.869511719321902</v>
+        <v>-815.1138010026432</v>
       </c>
       <c r="C32" t="n">
-        <v>20.01949918492949</v>
+        <v>653.374525161326</v>
       </c>
       <c r="D32" t="n">
-        <v>0.494</v>
+        <v>0.128</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2264,7 +3094,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-29.51065735681873, 51.49684331225332]</t>
+          <t>[-2187.5517922462686, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2405,22 +3235,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-773.0399754234578</v>
+        <v>-4265.798696073532</v>
       </c>
       <c r="C38" t="n">
-        <v>474.4666944701292</v>
+        <v>1578.617268373267</v>
       </c>
       <c r="D38" t="n">
-        <v>0.106</v>
+        <v>0.018</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>*</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-1756.106682147588, 131.2751365831317]</t>
+          <t>[-7212.252617287005, -1357.0482897579618]</t>
         </is>
       </c>
     </row>
@@ -2431,13 +3261,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>273.837184027478</v>
+        <v>-630.7833322767724</v>
       </c>
       <c r="C39" t="n">
-        <v>327.6368996630051</v>
+        <v>1358.152068022027</v>
       </c>
       <c r="D39" t="n">
-        <v>0.418</v>
+        <v>0.666</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2446,7 +3276,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-373.96793619277867, 891.2251685254267]</t>
+          <t>[-3122.3406014183656, 1949.2094608638135]</t>
         </is>
       </c>
     </row>
@@ -2457,10 +3287,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-381.9316011929113</v>
+        <v>-1198.260720671934</v>
       </c>
       <c r="C40" t="n">
-        <v>485.352952302322</v>
+        <v>1492.562187378107</v>
       </c>
       <c r="D40" t="n">
         <v>0.424</v>
@@ -2472,7 +3302,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-1372.8413725016514, 532.768634631871]</t>
+          <t>[-4107.0301291135875, 1623.636726106066]</t>
         </is>
       </c>
     </row>
@@ -2483,13 +3313,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>846.3253439322249</v>
+        <v>-570.3969202951428</v>
       </c>
       <c r="C41" t="n">
-        <v>583.1711480907824</v>
+        <v>1935.940171222946</v>
       </c>
       <c r="D41" t="n">
-        <v>0.146</v>
+        <v>0.788</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2498,7 +3328,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-299.14604591686566, 1977.2364859702059]</t>
+          <t>[-3812.6026291946923, 3450.4610934430852]</t>
         </is>
       </c>
     </row>
@@ -2509,13 +3339,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>426.8684606004104</v>
+        <v>1575.345523600358</v>
       </c>
       <c r="C42" t="n">
-        <v>565.4568184481536</v>
+        <v>1495.214145611671</v>
       </c>
       <c r="D42" t="n">
-        <v>0.44</v>
+        <v>0.286</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2524,7 +3354,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-701.4131212037578, 1518.0696579508801]</t>
+          <t>[-1272.2422227061097, 4466.560181028143]</t>
         </is>
       </c>
     </row>
@@ -2535,13 +3365,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-228.4314092535711</v>
+        <v>112.216331757852</v>
       </c>
       <c r="C43" t="n">
-        <v>194.0909261044644</v>
+        <v>244.761707791416</v>
       </c>
       <c r="D43" t="n">
-        <v>0.142</v>
+        <v>0.774</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2550,7 +3380,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-659.9682538900536, 0.0]</t>
+          <t>[-195.79114668570594, 742.1169086236789]</t>
         </is>
       </c>
     </row>
@@ -2561,13 +3391,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>134.6858674791933</v>
+        <v>1846.89732869776</v>
       </c>
       <c r="C44" t="n">
-        <v>109.5691768170101</v>
+        <v>1447.384944964268</v>
       </c>
       <c r="D44" t="n">
-        <v>0.156</v>
+        <v>0.122</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2576,7 +3406,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.0, 360.739162935514]</t>
+          <t>[0.0, 4631.795755064172]</t>
         </is>
       </c>
     </row>
@@ -2587,13 +3417,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>69.81140080702318</v>
+        <v>1028.595768743994</v>
       </c>
       <c r="C45" t="n">
-        <v>67.77889253714191</v>
+        <v>907.5964860140862</v>
       </c>
       <c r="D45" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2602,7 +3432,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[0.0, 225.31230453882404]</t>
+          <t>[0.0, 2891.190554107323]</t>
         </is>
       </c>
     </row>
@@ -2613,13 +3443,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.40150220930711</v>
+        <v>692.4465270143851</v>
       </c>
       <c r="C46" t="n">
-        <v>49.35163004408631</v>
+        <v>653.8617362267771</v>
       </c>
       <c r="D46" t="n">
-        <v>0.144</v>
+        <v>0.142</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2628,7 +3458,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.0, 173.7939202585384]</t>
+          <t>[0.0, 2159.3087643159824]</t>
         </is>
       </c>
     </row>
@@ -2639,13 +3469,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>-197.3650304090689</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>221.7958533981218</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.236</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2654,7 +3484,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-722.5629131346313, 86.35196349428793]</t>
         </is>
       </c>
     </row>
@@ -2665,13 +3495,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-51.35760405921771</v>
+        <v>688.4702957393934</v>
       </c>
       <c r="C48" t="n">
-        <v>56.62413096341959</v>
+        <v>669.0228825251945</v>
       </c>
       <c r="D48" t="n">
-        <v>0.506</v>
+        <v>0.17</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2680,7 +3510,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[-186.707057966078, 0.0]</t>
+          <t>[0.0, 2170.018346030683]</t>
         </is>
       </c>
     </row>
@@ -2691,13 +3521,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-5.594522612567842</v>
+        <v>809.5066355778517</v>
       </c>
       <c r="C49" t="n">
-        <v>22.68708513670422</v>
+        <v>740.0604776817013</v>
       </c>
       <c r="D49" t="n">
-        <v>0.506</v>
+        <v>0.138</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2706,7 +3536,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[-64.63455619895271, 45.34399315513255]</t>
+          <t>[0.0, 2456.5256069412853]</t>
         </is>
       </c>
     </row>
@@ -2717,13 +3547,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>79.23406158657589</v>
+        <v>1578.383361230115</v>
       </c>
       <c r="C50" t="n">
-        <v>70.52407343469504</v>
+        <v>1318.991826919791</v>
       </c>
       <c r="D50" t="n">
-        <v>0.156</v>
+        <v>0.158</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2732,7 +3562,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.0, 236.69400885913177]</t>
+          <t>[0.0, 3966.727166511767]</t>
         </is>
       </c>
     </row>
@@ -2743,13 +3573,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>-453.2000806721344</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>437.4797994856664</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2758,7 +3588,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-1534.6332865098593, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2769,13 +3599,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>297.2619117628596</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>362.2419787700567</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0.538</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2784,7 +3614,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-112.40326269673176, 1147.7312793340525]</t>
         </is>
       </c>
     </row>
@@ -2795,22 +3625,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>614.8908037852003</v>
+        <v>2023.213229329201</v>
       </c>
       <c r="C53" t="n">
-        <v>303.8070765419269</v>
+        <v>436.7271279109447</v>
       </c>
       <c r="D53" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[-1.4537993714471358, 1196.2560337492916]</t>
+          <t>[1244.1312921388262, 2896.941127834976]</t>
         </is>
       </c>
     </row>
@@ -2821,13 +3651,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-605.9516898445496</v>
+        <v>515.5204138390798</v>
       </c>
       <c r="C54" t="n">
-        <v>279.0121386849705</v>
+        <v>264.4123065273375</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2836,7 +3666,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[-1152.2439102661801, -54.78252960477485]</t>
+          <t>[-15.180204220206956, 953.8473230203522]</t>
         </is>
       </c>
     </row>
@@ -2847,22 +3677,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>496.7034556846617</v>
+        <v>1529.465782754601</v>
       </c>
       <c r="C55" t="n">
-        <v>235.2196295539147</v>
+        <v>266.8163095003275</v>
       </c>
       <c r="D55" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[48.12309583730271, 974.0153827415638]</t>
+          <t>[1032.4233979935925, 2073.769514898623]</t>
         </is>
       </c>
     </row>
@@ -2873,22 +3703,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1093.470203062709</v>
+        <v>146.9128204590669</v>
       </c>
       <c r="C56" t="n">
-        <v>257.7119482261353</v>
+        <v>319.7520818669398</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.636</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>***</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-1625.5766408887314, -597.2535655364945]</t>
+          <t>[-442.4461819680556, 836.7642154188281]</t>
         </is>
       </c>
     </row>
@@ -2899,22 +3729,22 @@
         </is>
       </c>
       <c r="B57" t="n">
+        <v>-4100.65025016301</v>
+      </c>
+      <c r="C57" t="n">
+        <v>184.3997543336052</v>
+      </c>
+      <c r="D57" t="n">
         <v>0</v>
       </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-4436.840448768466, -3741.7748296853165]</t>
         </is>
       </c>
     </row>
@@ -2925,22 +3755,22 @@
         </is>
       </c>
       <c r="B58" t="n">
+        <v>-1963.765591611142</v>
+      </c>
+      <c r="C58" t="n">
+        <v>216.0090301403437</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-2377.521489706764, -1539.2771109902885]</t>
         </is>
       </c>
     </row>
@@ -2951,22 +3781,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>60.41412960477746</v>
+        <v>17818.52664329314</v>
       </c>
       <c r="C59" t="n">
-        <v>463.8792166766806</v>
+        <v>2410.602366864643</v>
       </c>
       <c r="D59" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[-781.4597581574379, 1009.9637586329508]</t>
+          <t>[12404.08622951166, 22342.305392868577]</t>
         </is>
       </c>
     </row>
@@ -2977,22 +3807,22 @@
         </is>
       </c>
       <c r="B60" t="n">
+        <v>-3883.660221996459</v>
+      </c>
+      <c r="C60" t="n">
+        <v>856.0094160193963</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-5386.022149821876, -2015.3170881995247]</t>
         </is>
       </c>
     </row>
@@ -3003,13 +3833,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-402.4409397377263</v>
+        <v>1046.728632641271</v>
       </c>
       <c r="C61" t="n">
-        <v>357.4948541781264</v>
+        <v>1998.876360981875</v>
       </c>
       <c r="D61" t="n">
-        <v>0.234</v>
+        <v>0.658</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3018,7 +3848,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-1078.5753454081191, 380.81813049748723]</t>
+          <t>[-2621.5467938802562, 4656.624259848002]</t>
         </is>
       </c>
     </row>
@@ -3029,22 +3859,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>297.0957223162715</v>
+        <v>3254.093850568087</v>
       </c>
       <c r="C62" t="n">
-        <v>286.4893326607001</v>
+        <v>1291.247424487373</v>
       </c>
       <c r="D62" t="n">
-        <v>0.296</v>
+        <v>0.012</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>*</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[-300.359340531146, 823.2783942933268]</t>
+          <t>[503.75967245812114, 5532.967269105722]</t>
         </is>
       </c>
     </row>
@@ -3055,22 +3885,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>270.1146342314162</v>
+        <v>4084.950460272969</v>
       </c>
       <c r="C63" t="n">
-        <v>217.4115693801518</v>
+        <v>1243.738502588746</v>
       </c>
       <c r="D63" t="n">
-        <v>0.194</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[-185.33689870740017, 679.7140141846263]</t>
+          <t>[1396.3527213018997, 6312.165683932932]</t>
         </is>
       </c>
     </row>
@@ -3081,22 +3911,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-788.6613638944169</v>
+        <v>5695.027791525999</v>
       </c>
       <c r="C64" t="n">
-        <v>212.995976162911</v>
+        <v>3584.342852116932</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[-1219.103811795976, -354.7821498748089]</t>
+          <t>[366.9000145075155, 13417.92584875919]</t>
         </is>
       </c>
     </row>
@@ -3107,22 +3937,22 @@
         </is>
       </c>
       <c r="B65" t="n">
+        <v>-4132.873313686068</v>
+      </c>
+      <c r="C65" t="n">
+        <v>525.3253498702577</v>
+      </c>
+      <c r="D65" t="n">
         <v>0</v>
       </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1</v>
-      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-5037.164631822559, -2992.5290598729616]</t>
         </is>
       </c>
     </row>
@@ -3133,13 +3963,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>249.2130916895967</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>668.5208440669078</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3148,7 +3978,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-1018.9238655415995, 1518.8796268783904]</t>
         </is>
       </c>
     </row>
@@ -3159,22 +3989,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>579.9322657197032</v>
+        <v>8217.44643868383</v>
       </c>
       <c r="C67" t="n">
-        <v>380.0709890333915</v>
+        <v>601.0093673620394</v>
       </c>
       <c r="D67" t="n">
-        <v>0.134</v>
+        <v>0</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[-180.7490976810122, 1370.433108134381]</t>
+          <t>[6997.203297302323, 9332.696596013648]</t>
         </is>
       </c>
     </row>
@@ -3185,22 +4015,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1643.710975597814</v>
+        <v>1173.770098474173</v>
       </c>
       <c r="C68" t="n">
-        <v>584.2573442930908</v>
+        <v>860.06227443514</v>
       </c>
       <c r="D68" t="n">
-        <v>0.002</v>
+        <v>0.188</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>**</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[440.7902472073842, 2773.8230406865123]</t>
+          <t>[-466.9462141449274, 2935.4096605835675]</t>
         </is>
       </c>
     </row>
@@ -3211,13 +4041,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-380.8610365316063</v>
+        <v>803.2121176084255</v>
       </c>
       <c r="C69" t="n">
-        <v>469.0193001544911</v>
+        <v>722.361482594639</v>
       </c>
       <c r="D69" t="n">
-        <v>0.426</v>
+        <v>0.25</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3226,7 +4056,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-1354.968519873535, 495.7485822387947]</t>
+          <t>[-530.324318570244, 2242.7740030927616]</t>
         </is>
       </c>
     </row>
@@ -3237,22 +4067,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>624.8671844221487</v>
+        <v>6111.370584599545</v>
       </c>
       <c r="C70" t="n">
-        <v>520.406068824375</v>
+        <v>745.1612682029736</v>
       </c>
       <c r="D70" t="n">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[-380.8379161689444, 1653.7100515465904]</t>
+          <t>[4745.345257755724, 7642.589034148785]</t>
         </is>
       </c>
     </row>
@@ -3263,22 +4093,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2290.847914199599</v>
+        <v>-531.2928019385158</v>
       </c>
       <c r="C71" t="n">
-        <v>377.7838083873788</v>
+        <v>345.1990913157809</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>***</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[1569.1273303359465, 3018.5258731550202]</t>
+          <t>[-1300.8952817857107, 104.59445011385036]</t>
         </is>
       </c>
     </row>
@@ -3289,13 +4119,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-211.1814429890639</v>
+        <v>-812.5780992010716</v>
       </c>
       <c r="C72" t="n">
-        <v>420.0033890143877</v>
+        <v>487.651950069069</v>
       </c>
       <c r="D72" t="n">
-        <v>0.614</v>
+        <v>0.104</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3304,7 +4134,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-1019.6740582626894, 582.8211382369191]</t>
+          <t>[-1831.2429085123304, 81.76095059472723]</t>
         </is>
       </c>
     </row>
@@ -3315,22 +4145,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-2290.847914199599</v>
+        <v>531.292801938538</v>
       </c>
       <c r="C73" t="n">
-        <v>377.7838083873789</v>
+        <v>345.1990913157773</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>***</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-3018.525873155021, -1569.1273303359483]</t>
+          <t>[-104.59445011386407, 1300.895281785704]</t>
         </is>
       </c>
     </row>
@@ -3341,13 +4171,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-211.1814429890664</v>
+        <v>-812.5780992011173</v>
       </c>
       <c r="C74" t="n">
-        <v>420.0033890143876</v>
+        <v>487.6519500690679</v>
       </c>
       <c r="D74" t="n">
-        <v>0.614</v>
+        <v>0.104</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3356,7 +4186,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-1019.6740582626885, 582.8211382369182]</t>
+          <t>[-1831.2429085123451, 81.76095059472877]</t>
         </is>
       </c>
     </row>
@@ -3367,13 +4197,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-127.8325604692105</v>
+        <v>-1309.262026740457</v>
       </c>
       <c r="C75" t="n">
-        <v>731.3009963335181</v>
+        <v>1211.956092695875</v>
       </c>
       <c r="D75" t="n">
-        <v>0.86</v>
+        <v>0.256</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3382,7 +4212,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-1593.9248519549174, 1181.0093508277018]</t>
+          <t>[-3938.233791110604, 900.2399887998972]</t>
         </is>
       </c>
     </row>
@@ -3393,13 +4223,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>14.4376885113376</v>
+        <v>-42.02048447960585</v>
       </c>
       <c r="C76" t="n">
-        <v>774.856000249761</v>
+        <v>881.3598897395213</v>
       </c>
       <c r="D76" t="n">
-        <v>0.98</v>
+        <v>0.956</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3408,7 +4238,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-1596.7372506484576, 1603.5346915816608]</t>
+          <t>[-1768.05552837699, 1779.52856437821]</t>
         </is>
       </c>
     </row>
@@ -3419,13 +4249,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-98.52666136833008</v>
+        <v>-453.3148668215311</v>
       </c>
       <c r="C77" t="n">
-        <v>736.261578860967</v>
+        <v>955.5453072567389</v>
       </c>
       <c r="D77" t="n">
-        <v>0.894</v>
+        <v>0.626</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3434,7 +4264,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-1635.9705700075694, 1276.9564222058268]</t>
+          <t>[-2290.0808980570114, 1460.1327787193873]</t>
         </is>
       </c>
     </row>
@@ -3445,13 +4275,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-40.20918758927506</v>
+        <v>-282.6548861615873</v>
       </c>
       <c r="C78" t="n">
-        <v>710.9561478285348</v>
+        <v>1256.585398636701</v>
       </c>
       <c r="D78" t="n">
-        <v>0.952</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3460,7 +4290,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-1556.095583258314, 1202.2675395008923]</t>
+          <t>[-2942.2954715594697, 2137.0426445124263]</t>
         </is>
       </c>
     </row>
@@ -3471,22 +4301,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>499.1580342968279</v>
+        <v>2485.804494523773</v>
       </c>
       <c r="C79" t="n">
-        <v>703.7041217852025</v>
+        <v>1313.925678342416</v>
       </c>
       <c r="D79" t="n">
-        <v>0.48</v>
+        <v>0.054</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[-957.3013403272888, 1889.5153066854232]</t>
+          <t>[227.1733677235983, 5188.622292264323]</t>
         </is>
       </c>
     </row>
@@ -3497,13 +4327,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>319.9503393954711</v>
+        <v>-868.6295858165531</v>
       </c>
       <c r="C80" t="n">
-        <v>814.2557983975753</v>
+        <v>909.6860768856678</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.368</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3512,7 +4342,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-1268.8842401398413, 1845.1616383940432]</t>
+          <t>[-2703.991430459222, 858.1707162909813]</t>
         </is>
       </c>
     </row>
@@ -3523,13 +4353,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-137.6446496199349</v>
+        <v>-430.846758676667</v>
       </c>
       <c r="C81" t="n">
-        <v>735.7868546748116</v>
+        <v>833.7629025316871</v>
       </c>
       <c r="D81" t="n">
-        <v>0.882</v>
+        <v>0.61</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3538,7 +4368,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-1528.810075308409, 1376.7980632159617]</t>
+          <t>[-2083.9830814095967, 1207.7614862255737]</t>
         </is>
       </c>
     </row>
@@ -3549,13 +4379,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-114.6722601495619</v>
+        <v>1416.645235611109</v>
       </c>
       <c r="C82" t="n">
-        <v>739.2582619275138</v>
+        <v>1313.637759178531</v>
       </c>
       <c r="D82" t="n">
-        <v>0.866</v>
+        <v>0.27</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3564,7 +4394,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-1551.103010177581, 1334.0166703267091]</t>
+          <t>[-905.6003893571178, 4097.533948622706]</t>
         </is>
       </c>
     </row>
@@ -3575,13 +4405,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-454.2952192044123</v>
+        <v>-1147.712198665326</v>
       </c>
       <c r="C83" t="n">
-        <v>666.109752429094</v>
+        <v>1155.056350874064</v>
       </c>
       <c r="D83" t="n">
-        <v>0.504</v>
+        <v>0.34</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3590,7 +4420,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-1716.7241840440934, 816.2388370454878]</t>
+          <t>[-3533.550047893806, 930.9565081341409]</t>
         </is>
       </c>
     </row>
@@ -3601,13 +4431,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>102.9937060908886</v>
+        <v>958.0109438623117</v>
       </c>
       <c r="C84" t="n">
-        <v>817.7139130416044</v>
+        <v>982.1324102470546</v>
       </c>
       <c r="D84" t="n">
-        <v>0.898</v>
+        <v>0.312</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3616,8 +4446,3825 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-1432.7436465972778, 1715.6260288729504]</t>
-        </is>
+          <t>[-1008.1781984594934, 2859.451182787343]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coeff</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>optimized</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>smoothing_level</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1110714</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>smoothing_trend</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>smoothing_seasonal</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1975397</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>initial_level</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>22137.727</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>l.0</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>initial_trend</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>190.31194</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>b.0</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>initial_seasons.0</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>31545.165</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>s.0</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>initial_seasons.1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1669.1152</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>s.1</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>initial_seasons.2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-911.14838</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>s.2</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>initial_seasons.3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1028.3417</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>s.3</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>initial_seasons.4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-20410.079</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>s.4</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>initial_seasons.5</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-10495.992</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>s.5</t>
+        </is>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>initial_seasons.6</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>912.82805</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>s.6</t>
+        </is>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std err</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>P&gt;|z|</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>[0.025</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>0.975]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ar.L1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0421</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.178</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ma.L1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.826</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.652</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ma.S.L7</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.801</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-15.989</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.899</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.703</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>sigma2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>292700000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.13e-10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.38e+18</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>293000000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>293000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AR1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.363599566518425</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.08222130689629165</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AR2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.093971752034311</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.07170786665093264</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AR3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8258540908496661</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05897886494597095</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>AR12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5784054067653978</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04245072120522484</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AR4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4956369513792687</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04460211305511626</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AR6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.384030335497746</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02718914680614114</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AR13</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.37436906681931</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02230223859658186</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AR5</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3317959774909672</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01731529135269045</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AR23</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3159932469014808</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01342017616923862</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_5</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3037314924940823</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.02797570931986012</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AR15</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.2942942051976831</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01765811079401087</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>AR14</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2775991236150571</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01840035262176886</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>AR11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2764212893039863</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.02278246067398807</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>AR22</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2026947052769692</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01308021033892988</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>AR24</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1983767654085926</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0289167291006481</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AR9</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1878764075560236</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01360322573139288</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>AR8</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1713313796586127</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.013243381214263</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>AR20</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1544481540791804</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0184117525641327</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>AR21</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1373140352170995</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02108909102786233</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>AR17</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1289391064435479</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.02535559836509655</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>AR10</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1258208833622158</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0131328491715386</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>AR19</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1159843786031182</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02209293611472922</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>monthcos</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1007654076899711</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01032116848089886</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>AR16</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.09772948704467237</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01439821449284009</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>AR18</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.09380496987281406</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01722326176809031</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>AR7</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.07907243900240998</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01349826889755181</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_6</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.07659440050606665</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01812215004197869</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>AR27</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.05529579307302031</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.006875151594412367</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.05472028324735141</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01482372076258612</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>weeksin</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.04636184371550078</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.006540953114412724</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>weekcos</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.04385474898205843</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.009620813290075988</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_4</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.04103171186353827</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.009851838869814758</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>AR26</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.02780116603399583</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.00778096477817523</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>AR25</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.02275319540963754</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.008957578663811099</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>AR28</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0171870984802764</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.002697913631011292</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_1</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0153355430074815</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.00414649081526672</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_2</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01176901565101343</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.00683604014434141</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>quartersin</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01108217845055695</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.001512191628511179</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_3</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.006519039540712601</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.003047560189173653</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>monthsin</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.002581515866119677</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.001779887637279956</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>quartercos</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-5.847167635348871e-05</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.000644569577823737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_5</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.02770679980819171</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001645616697914</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_6</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.006420604814130137</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.000998450526776784</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AR7</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.004930805113069958</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0004835716429592793</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>AR14</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.002609638894274502</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0002830287365676836</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AR21</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.002482668891584594</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0003147623086494489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AR28</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.002032890405706089</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0001969974573442936</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.001317971195085432</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0006374423429344804</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_4</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.001160131938378517</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0002219436644837941</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AR1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0009841690246547464</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0001531886937309919</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AR12</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0008841064211341232</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.712525719643562e-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AR2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0008477828046142167</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0003430384329594751</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>AR9</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0007166994888684108</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0001785212687296243</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>AR23</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0006491769398334179</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0001275511664140951</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_3</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0006371318459788222</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0001384577937808956</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>AR19</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0005539366042631499</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0001245630944517872</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AR26</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0004426120051558069</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0001086493794891851</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0003884941723846014</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0002225207929004933</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>AR16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.000370227337280582</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0001044294552914829</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>AR5</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0003057364674922791</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0001459644388629511</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>weekcos</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0001698128625345685</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.012704256793855e-05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>monthcos</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0001625120024294269</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0001890316234835503</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>AR6</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0001585838768523695</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.45005305296324e-05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>AR8</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0001198142911540634</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.932841561730638e-05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>AR15</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6.028044759811557e-05</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.459604309300841e-05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>AR17</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5.629598114018641e-05</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.774882563942408e-05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>quartercos</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4.658372319468196e-05</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0001299314964690508</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>AR18</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4.096343181816398e-05</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.436717717555285e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>AR22</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3.817595791688611e-05</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.457653907888066e-05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3.640352076266229e-05</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0003315816612066355</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>AR27</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3.409364155457783e-05</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.179964915461383e-06</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>AR10</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.597738958134531e-05</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.694812252195162e-05</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>AR25</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.346905663377473e-05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.664558585886645e-05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>AR11</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2.602209809565714e-06</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.248011652185303e-06</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>AR3</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.998924426538373e-06</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.100899261694562e-05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>AR13</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.771656869742344e-06</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.452225013711246e-06</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>quartersin</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5.308871527720527e-07</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.464487631692859e-05</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>AR4</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-1.830538556291117e-08</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.181707844713461e-05</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>AR20</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-1.171975874347808e-07</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.613543817179151e-06</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>AR24</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-5.480515545386311e-07</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.013372644945903e-06</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>weeksin</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-6.793466877486054e-07</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.469625890959854e-06</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>monthsin</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-1.176812402376992e-05</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.60803792640027e-06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AR1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1846643378570661</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.008494569367651243</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AR7</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1543018641679731</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01791993156193577</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AR21</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06998878046553089</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.009786085218232222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.06973767576099528</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.006952547674357689</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AR14</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0412993775499674</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.002800158216365896</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.03923938754623277</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.003546723500066273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AR2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.03510813450665888</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.004802115579557176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AR5</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01978208056250119</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.005481722323778894</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AR28</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01765324472810124</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.003287323397772606</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AR20</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01557190316801189</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001880630007345675</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AR23</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0124262861400461</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001377257570816086</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>AR13</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01184389580473302</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.001079169997629421</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>AR25</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01166327186531919</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.00131640297827173</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>AR17</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01137271988806132</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0009634905783880521</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>weekcos</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01081534720357042</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0009333666776434291</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AR6</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01024054189194439</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.002516720246848564</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>AR12</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.009550842695181116</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001324469486071492</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>AR10</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.008541044234567608</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.001961414064443585</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>AR8</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.008205263447538646</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.001122241230859776</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>AR3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.00706852215189766</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.001256866151833765</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>AR9</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.006591937367602907</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0004784927030526528</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>AR16</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.006356175702135936</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.001762159780098462</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>AR22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.006337320030103411</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.001388244044152212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>weeksin</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.006065738047893654</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0008781541517491279</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>AR24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.005738212689885591</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001649776958524547</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>AR19</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.005363465884009044</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0007914115235439874</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_1</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.004843634769714833</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0005545125431339571</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>AR27</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.003525899653933373</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0009621105441999328</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>AR4</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.002997528251328907</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0004167814784411861</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>AR15</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.002692924837865451</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.001255835460731272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>AR18</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.002467223373481819</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0004916943147185865</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_6</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.001727552967869284</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.001204463218722293</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>quartercos</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.001663459117198163</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0005395222464283717</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_3</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.001521273637817666</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0009755506428861516</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>AR26</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.001354898409033423</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0007419958404052901</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>monthsin</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.00104987079829344</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0002886417888280182</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>AR11</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.0005208144080389721</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.755513006020901e-05</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>quartersin</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_2</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_4</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>monthcos</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_5</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2086506455107489</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01938936704749409</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05577371933989872</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01449134397142931</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02838290279530065</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.001688718312481658</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01898052492813065</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01474350233870291</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.01859826497135242</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.006241673927082977</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.01543585652088073</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.007224859813815938</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AR2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.008305917856559365</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.004378478111644951</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AR7</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.005044687708046847</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.002588773040877787</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AR26</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.00377448366213502</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0008126298442026415</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AR17</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.003131532101062451</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001720588314534631</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AR19</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.002771675400334073</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.000361980346778578</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>AR12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.002298639385253209</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.00275192229354242</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>AR14</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.001886948404515087</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.001933634639772789</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>AR6</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0014989382412822</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.002862422060296555</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>AR28</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.001390701754433032</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.002945186245619274</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AR24</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.001090244847657407</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.002013188018657388</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>AR21</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.001021070590930395</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.002653833542975911</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>AR13</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.000932261080992558</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.002938236545140228</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>AR10</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6.268079616200684e-05</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.001846980171693963</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>AR1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.0002127263212060582</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.001164098411982494</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>AR9</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.001064216179995636</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.003193548893359281</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>AR15</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.00119618386622482</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.00112183353860363</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>AR20</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.00160509096933279</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.001906617097012289</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>AR5</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.001666742596017134</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.001356566825243676</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>AR23</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.001757486395936425</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001793316201185226</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>AR18</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.001879885939599069</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.001612582800915987</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>AR22</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.002180134262282652</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0021612263434649</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>monthcos</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.002319021283959821</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0155084251391261</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>AR25</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.002489053976877886</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.001487508570275892</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>AR11</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.002707190736124532</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.00267755694424398</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>AR3</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.003120621971496052</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.001177623317058411</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>AR27</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.00334145972224571</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.002205702919432617</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>AR4</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.003405585325205984</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.002335851811397502</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>AR8</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.003501742497688109</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.002099736992922304</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>quartersin</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.004322258387267209</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.003651783028914348</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>weekcos</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.004329578407038137</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.007480152816672231</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>weeksin</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.004836504601228286</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.002427269030644041</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>quartercos</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.005119991437668792</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.007699131063691964</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>AR16</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.005488112773834142</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.002902098823031505</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>monthsin</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.0118386648501424</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.007587339778099746</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.01199752485555345</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01201868732167678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AR7</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2911725004748082</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01991632488454227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AR1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1805874194313108</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.006517581257254304</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05046162522293916</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.008441437486542717</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>AR3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.04004942189324643</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003938349723962021</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.03451838123127102</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.004564967540296837</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AR6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.02943576333490034</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.003236538813067169</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AR21</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02896863258410818</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.004970802803940644</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AR5</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.02885155739583412</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.003607828906750144</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AR12</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0244792503806105</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.002559743079190265</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AR28</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02413808439672331</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005522311407474658</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AR16</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0235552749813694</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.00496841954472035</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>AR14</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02223302845148589</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.001255056881721393</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>AR4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01969416996218947</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.003841691243685138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>AR2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01940767276538382</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.003177917687411116</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>AR23</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01643742543060409</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.003270469571223315</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AR9</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.01605092055288162</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.002771020323571506</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>AR27</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.01604312531626653</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001434486322620191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>AR8</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.01492846089273365</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.001783925206929167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>AR17</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01394759047503671</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.002573712860683586</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>AR18</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.01225928800004057</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.001904450122177746</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>AR26</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01208033475711194</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.001749286698158168</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>AR10</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.01159566774431198</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.001991765254328638</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>AR13</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.00984864858614265</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.001578333403465545</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>AR24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.009831138212672563</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.001721047423037179</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>AR22</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.008972918087171423</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001458929085570029</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>AR11</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.008595478378184463</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.002125809489217593</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>AR15</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.008378577728457071</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.001837588500155114</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>AR19</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.007607130241922722</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.00143863340094769</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>AR20</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.006202614857755062</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0006039231695251721</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>weeksin</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.005495381694605594</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0007260337401789868</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>AR25</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.005420969816967713</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.0007549201645826425</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>weekcos</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.003243920791031196</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.001032592652343582</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>monthsin</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0006109725637297503</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.0001573469236827846</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>quartercos</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_1</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>quartersin</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_3</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_4</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_6</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>monthcos</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_5</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0001069796393798228</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.271457430669132e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_6</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.728399808366923e-05</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.703472900714019e-06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AR7</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3.471315107770323e-05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.938264071415308e-06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.621804349574042e-05</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.292738310144642e-06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AR21</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.529164090518954e-05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.123563451121514e-06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.503053792479726e-05</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.59868446087631e-06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_4</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.427242745985936e-05</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.082660026548715e-06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AR14</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.173552414124202e-05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.054103922820567e-06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AR28</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.130547864509502e-05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.309974969169914e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>dayofweek_1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.009188202749534e-05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.056200207970185e-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AR1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.082091912274485e-05</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.150548441861646e-06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>AR9</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.053347110109293e-05</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.678425750299721e-06</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>AR12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.955550105011923e-06</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.041919310939459e-06</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>AR23</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.277062584711615e-06</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.271301703199645e-06</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>AR2</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7.689366496332894e-06</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.336283061625171e-06</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AR19</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6.837391935476944e-06</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.178872203224723e-06</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>AR26</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4.140023721044273e-06</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.33504181871054e-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.432363948840944e-06</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.931979193478627e-06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>AR5</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3.244253111933659e-06</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.092576629873713e-06</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>AR16</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.780975379934602e-06</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.515795961110653e-06</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>AR6</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.657095763591854e-06</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.150675834760239e-07</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>monthcos</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.412067593660083e-06</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.978285991543357e-06</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>monthsin</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.211074459568252e-06</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.061996260951646e-07</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>quartercos</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.15310310656136e-06</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.078964705182624e-06</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>AR18</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.645228492641593e-06</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.056141273871273e-06</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>quartersin</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.611343864871273e-06</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.693165210050816e-06</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>AR8</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.545328025320813e-06</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.31070748733786e-07</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>weeksin</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.015197167619775e-06</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.124878284033325e-06</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>AR10</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8.877027863452014e-07</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.931062326490761e-07</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>weekcos</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7.184517760716602e-07</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.577957928082881e-06</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>AR25</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6.072005897195254e-07</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.87059742704065e-07</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>AR4</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4.430549181755339e-07</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.044745741777518e-06</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>AR15</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3.505756449584396e-07</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.47107910432185e-07</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>AR20</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2.095804355395359e-07</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8.626217232006509e-08</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>AR13</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.86581220118498e-07</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.855790691228033e-07</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>AR27</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1.170225737201491e-07</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.333874659231945e-07</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>AR17</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6.568200481282815e-08</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.780199116997505e-07</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>AR22</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-4.986714694510397e-08</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.622928493174708e-07</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>AR3</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-6.002430126272884e-08</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.655247444653706e-07</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>AR11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-8.846657544303582e-08</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.683011302906131e-07</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>AR24</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-1.710063655124827e-07</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.806837833475064e-07</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_feature_info.xlsx
+++ b/examples/eCommerce_feature_info.xlsx
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4265081743370857</v>
+        <v>0.4197102201370857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06786060876921238</v>
+        <v>0.05166098306755979</v>
       </c>
     </row>
     <row r="3">
@@ -590,23 +590,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03967472334323687</v>
+        <v>0.04594210916182726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006363078668130995</v>
+        <v>0.004134906396761632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02946025884037058</v>
+        <v>0.02718609124820026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005788555228773059</v>
+        <v>0.00278554038295312</v>
       </c>
     </row>
     <row r="5">
@@ -616,153 +616,153 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02049876921666123</v>
+        <v>0.02671944932513015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001446495604618636</v>
+        <v>0.005006381547650847</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0170125804738414</v>
+        <v>0.02341310941589074</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001626587571426115</v>
+        <v>0.006431203425011254</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01498879510618925</v>
+        <v>0.01725211887913285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002866459477449853</v>
+        <v>0.002010770597857215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01482709256917611</v>
+        <v>0.01288210716235905</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00299774304891342</v>
+        <v>0.002214249532195474</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01070268367343441</v>
+        <v>0.009455429279389605</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001267371309613071</v>
+        <v>0.00206135395352399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007629090813905082</v>
+        <v>0.008080519866481683</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001323532620462488</v>
+        <v>0.001395170839753127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007553884231478247</v>
+        <v>0.007942648015491849</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001147743096571846</v>
+        <v>0.0009233164620221707</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.007097114337726551</v>
+        <v>0.007052524344657973</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001838928937155999</v>
+        <v>0.001558303368194134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.007060960191032107</v>
+        <v>0.005851913254236241</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001139633650345257</v>
+        <v>0.001156580963416625</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006431819408170036</v>
+        <v>0.004169325522947287</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004066149221866743</v>
+        <v>0.001258667139679544</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006221400202028904</v>
+        <v>0.003339063099062023</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001107780553041915</v>
+        <v>0.0005495607954929044</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00311596167107866</v>
+        <v>0.001963852251246423</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001013853786286345</v>
+        <v>0.000315971139853185</v>
       </c>
     </row>
     <row r="17">
@@ -772,276 +772,276 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.002741900771743122</v>
+        <v>0.001906892189730902</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004069988763895499</v>
+        <v>0.0002669129556612964</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001708569529196025</v>
+        <v>0.00159476639942282</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0003750966789952394</v>
+        <v>0.0004430714356000604</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001662864038178835</v>
+        <v>0.001249989083620662</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000186428669202</v>
+        <v>0.0005467259226100906</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.000501678196703903</v>
+        <v>0.000723896368196697</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001272141681109714</v>
+        <v>0.0003302683228420463</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0004752505660017059</v>
+        <v>0.0004312290379849815</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001482598597498574</v>
+        <v>0.0004277989921669619</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0002963186692852337</v>
+        <v>0.0003837437872001636</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001713552513249316</v>
+        <v>0.0001084566203808694</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0002435799397531691</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0002068845997865887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0002041347072810451</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>9.5835892019785e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0001925295492839707</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.672434870153613e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0001897695587257164</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.695856692050451e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0001810524156094395</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>9.558536887614942e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0001266598156601795</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>7.010269032889381e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0001136685178361407</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003973672172189038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0001042477350044369</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.968303616668957e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0001017637433242902</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>6.790769447492539e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.062954545666855e-05</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>3.414899986224656e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.958128112424244e-05</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>2.709536175056025e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.757014247062986e-05</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.845465820113792e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.235975964506089e-05</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.235244371706321e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.411792731039981e-06</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1.719276050732561e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.254950345514928e-06</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>3.975316067948478e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1054,7 +1054,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1067,7 +1067,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1080,7 +1080,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1093,7 +1093,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003606387175104864</v>
+        <v>0.0003503904360716348</v>
       </c>
       <c r="C2" t="n">
-        <v>2.411840954380418e-05</v>
+        <v>2.721393953892014e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001659875282211232</v>
+        <v>0.0001628893768651718</v>
       </c>
       <c r="C3" t="n">
-        <v>4.447337545248059e-05</v>
+        <v>4.000473469578142e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.872987675670238e-05</v>
+        <v>5.668761870847305e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>3.193258907975632e-06</v>
+        <v>5.235581535249343e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.023293166763864e-05</v>
+        <v>4.089804008078346e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>2.907755437383756e-06</v>
+        <v>3.050639173229997e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.525778183179895e-05</v>
+        <v>3.358068300465256e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>4.525521806091357e-06</v>
+        <v>2.44590460928361e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.097894953221214e-05</v>
+        <v>3.220826956371603e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>6.538602688810205e-06</v>
+        <v>2.447894153152058e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1224,62 +1224,62 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.22082426867054e-05</v>
+        <v>2.802693537633516e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>1.166826191586994e-05</v>
+        <v>1.448601568072374e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.675625964354666e-05</v>
+        <v>1.80814659637818e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>3.555352707147584e-06</v>
+        <v>1.411276967982377e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.670410527245814e-05</v>
+        <v>1.587439936296953e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>1.132736615139326e-05</v>
+        <v>4.057531210165321e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.082232191600418e-05</v>
+        <v>1.117453339327668e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>1.883089856905703e-06</v>
+        <v>1.818318771386035e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.352738084971278e-06</v>
+        <v>9.796200616296601e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>4.527841557248769e-06</v>
+        <v>2.473304013027272e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1289,387 +1289,387 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.05061682678243e-06</v>
+        <v>8.533654486875263e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>1.190496095472505e-06</v>
+        <v>6.920075703764853e-07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.973294344625458e-06</v>
+        <v>6.892446750006442e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>1.606714611324687e-06</v>
+        <v>1.236022084366139e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.371898507895324e-06</v>
+        <v>6.052774055476107e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>1.54593383249772e-06</v>
+        <v>2.069470798317764e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.335662985579305e-06</v>
+        <v>5.743137373803719e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>4.969050929961626e-07</v>
+        <v>1.346875766276787e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.764646832195908e-06</v>
+        <v>5.537287370049882e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>1.052265980409511e-06</v>
+        <v>1.275583737133322e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.277198531006277e-06</v>
+        <v>4.637386731420889e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1.696139101194519e-06</v>
+        <v>1.446127893614679e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.781336487447163e-06</v>
+        <v>4.502828072050491e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>5.150585869572347e-06</v>
+        <v>2.7010918728382e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.569409220556153e-06</v>
+        <v>4.361833175137164e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>4.000720239219435e-06</v>
+        <v>4.58134698231092e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.259489404834227e-06</v>
+        <v>4.013447174733286e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>4.359128048194166e-06</v>
+        <v>1.084982745553946e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.916740572007526e-06</v>
+        <v>3.785670483003045e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>1.001859212403655e-06</v>
+        <v>2.92566907147043e-06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.880713791826196e-06</v>
+        <v>3.753536310169281e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>7.31613970967137e-07</v>
+        <v>8.543460475370441e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.293917894797716e-06</v>
+        <v>1.650843856282336e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>2.302784853033014e-06</v>
+        <v>2.764859670174342e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.032478010827177e-06</v>
+        <v>1.610818923492019e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>1.915526150002702e-06</v>
+        <v>6.750287642917589e-07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.761283022139182e-06</v>
+        <v>1.059429984762161e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>1.284818051970121e-06</v>
+        <v>2.291752769994286e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.432892279984443e-06</v>
+        <v>5.365748089403155e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>2.151316956330072e-06</v>
+        <v>1.492935873361779e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.079955190652626e-06</v>
+        <v>4.238367208753147e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>6.051522462863887e-06</v>
+        <v>2.871293793267101e-07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.050393689007507e-07</v>
+        <v>2.309553262413999e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>6.341773521319263e-07</v>
+        <v>3.444842434580729e-07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.934479463982512e-07</v>
+        <v>9.391366022626357e-08</v>
       </c>
       <c r="C30" t="n">
-        <v>4.196952005646217e-06</v>
+        <v>8.356010980171213e-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.669203974876467e-07</v>
+        <v>7.155639769607092e-08</v>
       </c>
       <c r="C31" t="n">
-        <v>4.664671556330505e-07</v>
+        <v>1.077464081345122e-06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.246334370819113e-07</v>
+        <v>2.276423680669382e-08</v>
       </c>
       <c r="C32" t="n">
-        <v>2.653069893046175e-07</v>
+        <v>1.667413328723057e-07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.524829208627181e-08</v>
+        <v>-1.091513333051353e-08</v>
       </c>
       <c r="C33" t="n">
-        <v>7.859267122528067e-08</v>
+        <v>8.2192201941426e-09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.334532448524442e-08</v>
+        <v>-1.871516515095095e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>3.844251787981245e-07</v>
+        <v>7.732112838636073e-08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-4.618101545617037e-09</v>
+        <v>-4.804057365248582e-08</v>
       </c>
       <c r="C35" t="n">
-        <v>1.430068652342992e-08</v>
+        <v>4.141298486718653e-07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-7.91239265218735e-09</v>
+        <v>-6.315624179187296e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>5.111000750221288e-07</v>
+        <v>3.923979225320406e-07</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-3.231938565662062e-08</v>
+        <v>-7.694816881453903e-08</v>
       </c>
       <c r="C37" t="n">
-        <v>1.017726622618275e-06</v>
+        <v>2.11939331778691e-07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.544746470853568e-08</v>
+        <v>-1.707605796763545e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>8.575686185437914e-07</v>
+        <v>6.584899502880477e-06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-8.45040653896234e-08</v>
+        <v>-1.876861945859787e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>1.498180538849045e-07</v>
+        <v>7.627388565223564e-07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-9.717905791184478e-08</v>
+        <v>-8.186450561442627e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>1.4571821047928e-07</v>
+        <v>2.671723784780909e-07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2.140102630665552e-07</v>
+        <v>-1.937450689348808e-06</v>
       </c>
       <c r="C41" t="n">
-        <v>3.377318807261043e-07</v>
+        <v>3.28276787531024e-06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-7.133423279181983e-07</v>
+        <v>-3.546520579744694e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>5.522676300358545e-07</v>
+        <v>3.725924522577353e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1711,66 +1711,66 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2715783468665519</v>
+        <v>0.2789486486388714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02320862279727876</v>
+        <v>0.02779134223947169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2558079367518233</v>
+        <v>0.2663646834503314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02987615362598965</v>
+        <v>0.02170658753904565</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04659012879043136</v>
+        <v>0.04699973477881651</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002301784952172325</v>
+        <v>0.005289739997305028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04380260556125883</v>
+        <v>0.04417739156191971</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003307490070934024</v>
+        <v>0.005803774390248426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04207493851756768</v>
+        <v>0.04417475945925466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004911329868284492</v>
+        <v>0.002555974198557025</v>
       </c>
     </row>
     <row r="7">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03018744188628053</v>
+        <v>0.028485108003543</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001229215670451545</v>
+        <v>0.002352366423134175</v>
       </c>
     </row>
     <row r="8">
@@ -1793,49 +1793,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02463058983530084</v>
+        <v>0.02493280532987498</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00256849530676181</v>
+        <v>0.001505772376609162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02287047878774815</v>
+        <v>0.02299521420658981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002382258412961023</v>
+        <v>0.001633789722111279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02223041233896634</v>
+        <v>0.0224744315694001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00220321145264695</v>
+        <v>0.001416359520034341</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02185097806576806</v>
+        <v>0.02166168871385592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00189333728820418</v>
+        <v>0.001312217786641095</v>
       </c>
     </row>
     <row r="12">
@@ -1845,88 +1845,88 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02111982262666006</v>
+        <v>0.02066672275759884</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001854264241476235</v>
+        <v>0.001254391996047101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01651637696477999</v>
+        <v>0.01692579501409388</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00138281189528446</v>
+        <v>0.002368860027760831</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01649347121821705</v>
+        <v>0.01605080011622941</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002907256876477056</v>
+        <v>0.001888858361212745</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01565678710245284</v>
+        <v>0.015553339673848</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002354628664873561</v>
+        <v>0.0004071745906118214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01519652581544981</v>
+        <v>0.0144084209264395</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001386794102408213</v>
+        <v>0.001165919874125788</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01430996487456544</v>
+        <v>0.01401348605536199</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001156063987842765</v>
+        <v>0.0006744421042411842</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01426892713671515</v>
+        <v>0.01342813317592628</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001890934785834181</v>
+        <v>0.0005689857537682375</v>
       </c>
     </row>
     <row r="19">
@@ -1936,114 +1936,114 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01049765225793537</v>
+        <v>0.01123922076126944</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0009643593870127651</v>
+        <v>0.0009249657816928433</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.009076089726038373</v>
+        <v>0.01052957285933371</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0009915257011703122</v>
+        <v>0.002160820004939739</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.009066187385696178</v>
+        <v>0.009050894044933467</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002703966005081011</v>
+        <v>0.0009772567329764407</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.008775151783348867</v>
+        <v>0.008785047264265277</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0009900045048557402</v>
+        <v>0.0004161737517623932</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.007923606192421096</v>
+        <v>0.008375679325974984</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0002721067972028954</v>
+        <v>0.0006365967862685381</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.007856026673225203</v>
+        <v>0.007881014675878961</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001412541893253931</v>
+        <v>0.001096967306514476</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.007470954532238938</v>
+        <v>0.007809557438224246</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004469410247887806</v>
+        <v>0.0003855720347718103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.007318958620647109</v>
+        <v>0.007602588177029146</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0003967417376750763</v>
+        <v>0.0009895542274390931</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.006680973775488086</v>
+        <v>0.007419790613250354</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0008914216099753503</v>
+        <v>0.001267490885853</v>
       </c>
     </row>
     <row r="28">
@@ -2053,36 +2053,36 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.006514023233752319</v>
+        <v>0.006380696479959513</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0005547895823198089</v>
+        <v>0.0003820411838256519</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.005826892880166956</v>
+        <v>0.005870761415232151</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003322904510329969</v>
+        <v>0.0007147372900888279</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.005609436979269966</v>
+        <v>0.005468377269232683</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0003219244166707655</v>
+        <v>0.0004135358125818238</v>
       </c>
     </row>
     <row r="31">
@@ -2092,36 +2092,36 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003736417733755193</v>
+        <v>0.00388786161437622</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0003318340465382161</v>
+        <v>0.0001856579461921645</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.003231968543537489</v>
+        <v>0.003247059619099724</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0003084105668715456</v>
+        <v>0.0002688871048024077</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.003193872412463516</v>
+        <v>0.002753475493420887</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0004554993314551485</v>
+        <v>0.0002217407549252153</v>
       </c>
     </row>
     <row r="34">
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.002363903098302034</v>
+        <v>0.002443366518458623</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00027919652291893</v>
+        <v>0.0002242929745941081</v>
       </c>
     </row>
     <row r="35">
@@ -2144,10 +2144,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0005766925180628934</v>
+        <v>0.0006634800580999523</v>
       </c>
       <c r="C35" t="n">
-        <v>8.946655298030774e-05</v>
+        <v>0.0001400945505445523</v>
       </c>
     </row>
     <row r="36">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0004389389162884338</v>
+        <v>0.0003420593852584197</v>
       </c>
       <c r="C36" t="n">
-        <v>0.000116127750592642</v>
+        <v>8.38768206126302e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2179,7 +2179,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2192,7 +2192,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2205,7 +2205,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2218,7 +2218,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2231,7 +2231,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2302,7 +2302,7 @@
         <v>16788.47627335299</v>
       </c>
       <c r="C2" t="n">
-        <v>867.114800033279</v>
+        <v>994.4274283442638</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[15405.40835073976, 18685.3349907125]</t>
+          <t>[15106.76149811575, 18942.286617125184]</t>
         </is>
       </c>
     </row>
@@ -2328,10 +2328,10 @@
         <v>-91.53761092591472</v>
       </c>
       <c r="C3" t="n">
-        <v>366.9988029785455</v>
+        <v>408.9823852567566</v>
       </c>
       <c r="D3" t="n">
-        <v>0.828</v>
+        <v>0.838</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-986.50656482675, 561.5644296039594]</t>
+          <t>[-982.509248042878, 653.8006027032163]</t>
         </is>
       </c>
     </row>
@@ -2354,10 +2354,10 @@
         <v>-162.8164257652647</v>
       </c>
       <c r="C4" t="n">
-        <v>362.3226073933556</v>
+        <v>405.7934305807902</v>
       </c>
       <c r="D4" t="n">
-        <v>0.61</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-986.6199583677038, 476.0108169149074]</t>
+          <t>[-1013.7352671215508, 640.5818033743953]</t>
         </is>
       </c>
     </row>
@@ -2380,10 +2380,10 @@
         <v>-325.7220449438254</v>
       </c>
       <c r="C5" t="n">
-        <v>422.1885120617113</v>
+        <v>460.7033181804486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.358</v>
+        <v>0.432</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1223.1632394224712, 456.4121286049466]</t>
+          <t>[-1320.092506187008, 538.9592248196278]</t>
         </is>
       </c>
     </row>
@@ -2406,10 +2406,10 @@
         <v>-294.9238675569628</v>
       </c>
       <c r="C6" t="n">
-        <v>478.2995702544</v>
+        <v>485.7088205997811</v>
       </c>
       <c r="D6" t="n">
-        <v>0.58</v>
+        <v>0.538</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-1358.9076661564986, 481.52985913715537]</t>
+          <t>[-1349.768449842572, 580.5323921838226]</t>
         </is>
       </c>
     </row>
@@ -2432,10 +2432,10 @@
         <v>-565.6940880776882</v>
       </c>
       <c r="C7" t="n">
-        <v>534.3982513467707</v>
+        <v>529.0749741205657</v>
       </c>
       <c r="D7" t="n">
-        <v>0.264</v>
+        <v>0.244</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-1792.6034774677137, 271.54594009003625]</t>
+          <t>[-1746.3045571962325, 291.3383405715842]</t>
         </is>
       </c>
     </row>
@@ -2588,10 +2588,10 @@
         <v>-1369.354415763941</v>
       </c>
       <c r="C13" t="n">
-        <v>1148.659472348706</v>
+        <v>1123.813857277778</v>
       </c>
       <c r="D13" t="n">
-        <v>0.15</v>
+        <v>0.126</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-3903.2782369893807, 0.0]</t>
+          <t>[-3538.8960492756487, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2614,10 +2614,10 @@
         <v>302.776735328544</v>
       </c>
       <c r="C14" t="n">
-        <v>311.4462813072075</v>
+        <v>300.1916579589352</v>
       </c>
       <c r="D14" t="n">
-        <v>0.184</v>
+        <v>0.166</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-50.67274526387143, 1056.7437131823385]</t>
+          <t>[-59.946700119087936, 1004.5261657926051]</t>
         </is>
       </c>
     </row>
@@ -2640,10 +2640,10 @@
         <v>241.4216232171946</v>
       </c>
       <c r="C15" t="n">
-        <v>277.8410633953529</v>
+        <v>325.3155475623811</v>
       </c>
       <c r="D15" t="n">
-        <v>0.21</v>
+        <v>0.236</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-91.40688772567037, 907.8203586486396]</t>
+          <t>[-134.98434227407824, 1076.1769855051798]</t>
         </is>
       </c>
     </row>
@@ -2666,10 +2666,10 @@
         <v>174.0399841998092</v>
       </c>
       <c r="C16" t="n">
-        <v>259.9714910471693</v>
+        <v>247.0044397147192</v>
       </c>
       <c r="D16" t="n">
-        <v>0.316</v>
+        <v>0.288</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-256.82717330841217, 764.6257749906085]</t>
+          <t>[-186.37617755448713, 776.6144675662717]</t>
         </is>
       </c>
     </row>
@@ -2692,10 +2692,10 @@
         <v>-316.7410838874658</v>
       </c>
       <c r="C17" t="n">
-        <v>314.3127306005373</v>
+        <v>335.3783739385345</v>
       </c>
       <c r="D17" t="n">
-        <v>0.134</v>
+        <v>0.16</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[-1144.7022827591259, 0.0]</t>
+          <t>[-1152.2154527207158, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2718,10 +2718,10 @@
         <v>-680.2252465834899</v>
       </c>
       <c r="C18" t="n">
-        <v>1082.775710127912</v>
+        <v>1074.006528853536</v>
       </c>
       <c r="D18" t="n">
-        <v>0.494</v>
+        <v>0.504</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-3116.066284214092, 1049.4168647989097]</t>
+          <t>[-3006.0044124291135, 1132.9516031362011]</t>
         </is>
       </c>
     </row>
@@ -2744,19 +2744,19 @@
         <v>-1403.363970343245</v>
       </c>
       <c r="C19" t="n">
-        <v>815.3203223376318</v>
+        <v>799.4055688432643</v>
       </c>
       <c r="D19" t="n">
-        <v>0.052</v>
+        <v>0.036</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-3131.809139357926, 0.0]</t>
+          <t>[-2793.3725654243876, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2770,10 +2770,10 @@
         <v>-421.721630587085</v>
       </c>
       <c r="C20" t="n">
-        <v>346.2087858214463</v>
+        <v>366.3364633771171</v>
       </c>
       <c r="D20" t="n">
-        <v>0.156</v>
+        <v>0.182</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-1216.6014005031568, 72.72245885631631]</t>
+          <t>[-1286.8345669847063, 87.42905227292177]</t>
         </is>
       </c>
     </row>
@@ -2796,10 +2796,10 @@
         <v>-968.4160742487336</v>
       </c>
       <c r="C21" t="n">
-        <v>1064.729783322811</v>
+        <v>1101.122901073831</v>
       </c>
       <c r="D21" t="n">
-        <v>0.356</v>
+        <v>0.384</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-3289.137296433588, 699.7215154726199]</t>
+          <t>[-3261.329814652389, 664.9448491308794]</t>
         </is>
       </c>
     </row>
@@ -2822,10 +2822,10 @@
         <v>483.5008981719257</v>
       </c>
       <c r="C22" t="n">
-        <v>969.4868486976765</v>
+        <v>913.8366694098971</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.594</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-959.1319837396109, 2755.3282972200495]</t>
+          <t>[-1059.1181869895768, 2374.5487193702006]</t>
         </is>
       </c>
     </row>
@@ -2848,10 +2848,10 @@
         <v>-614.4348274974396</v>
       </c>
       <c r="C23" t="n">
-        <v>603.6877420188753</v>
+        <v>593.2526869423428</v>
       </c>
       <c r="D23" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-2153.646063323521, 209.8289711124837]</t>
+          <t>[-1969.5365725295185, 216.69475094737268]</t>
         </is>
       </c>
     </row>
@@ -2874,10 +2874,10 @@
         <v>-142.5600254640396</v>
       </c>
       <c r="C24" t="n">
-        <v>566.750584663159</v>
+        <v>555.8802644535745</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.828</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-1516.4928598249066, 785.6985010574224]</t>
+          <t>[-1375.621924492169, 781.9239284194616]</t>
         </is>
       </c>
     </row>
@@ -2900,10 +2900,10 @@
         <v>-1343.766178365504</v>
       </c>
       <c r="C25" t="n">
-        <v>904.8332965694849</v>
+        <v>949.8143806098624</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.098</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-3042.268634323401, 0.0]</t>
+          <t>[-3312.420251905809, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2926,10 +2926,10 @@
         <v>-2505.411476258236</v>
       </c>
       <c r="C26" t="n">
-        <v>1437.477791015864</v>
+        <v>1445.921763514059</v>
       </c>
       <c r="D26" t="n">
-        <v>0.046</v>
+        <v>0.044</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-5408.0573378057625, 0.0]</t>
+          <t>[-5107.310583329612, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2952,10 +2952,10 @@
         <v>-768.10748773818</v>
       </c>
       <c r="C27" t="n">
-        <v>702.8607445934304</v>
+        <v>732.0156556958998</v>
       </c>
       <c r="D27" t="n">
-        <v>0.198</v>
+        <v>0.226</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[-2300.9808593079497, 237.97904846489837]</t>
+          <t>[-2477.25929202695, 270.99929195813394]</t>
         </is>
       </c>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-1440.38715965347</v>
       </c>
       <c r="C28" t="n">
-        <v>1128.401502942254</v>
+        <v>1233.937093172164</v>
       </c>
       <c r="D28" t="n">
-        <v>0.116</v>
+        <v>0.132</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-3520.735713148477, 0.0]</t>
+          <t>[-4080.9530832084483, 0.0]</t>
         </is>
       </c>
     </row>
@@ -3004,10 +3004,10 @@
         <v>-243.4662646546725</v>
       </c>
       <c r="C29" t="n">
-        <v>281.7074567701387</v>
+        <v>304.9858099668816</v>
       </c>
       <c r="D29" t="n">
-        <v>0.192</v>
+        <v>0.58</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[-893.8756123731991, 53.71785929135211]</t>
+          <t>[-1014.5361829709082, 67.52192804353628]</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
         <v>215.5963270310038</v>
       </c>
       <c r="C30" t="n">
-        <v>285.9533801682912</v>
+        <v>280.2519381730048</v>
       </c>
       <c r="D30" t="n">
         <v>0.228</v>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[-157.49645444993888, 892.1733419337916]</t>
+          <t>[-95.01607430766315, 848.7754757522268]</t>
         </is>
       </c>
     </row>
@@ -3056,10 +3056,10 @@
         <v>-708.4294749777673</v>
       </c>
       <c r="C31" t="n">
-        <v>614.3930680201364</v>
+        <v>646.4925444335954</v>
       </c>
       <c r="D31" t="n">
-        <v>0.144</v>
+        <v>0.15</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-2005.7957891142457, 0.0]</t>
+          <t>[-2024.2502599278373, 0.0]</t>
         </is>
       </c>
     </row>
@@ -3082,10 +3082,10 @@
         <v>-815.1138010026432</v>
       </c>
       <c r="C32" t="n">
-        <v>653.374525161326</v>
+        <v>667.0324844910841</v>
       </c>
       <c r="D32" t="n">
-        <v>0.128</v>
+        <v>0.112</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-2187.5517922462686, 0.0]</t>
+          <t>[-2264.3733114583592, 0.0]</t>
         </is>
       </c>
     </row>
@@ -3238,19 +3238,19 @@
         <v>-4265.798696073532</v>
       </c>
       <c r="C38" t="n">
-        <v>1578.617268373267</v>
+        <v>1546.254475467661</v>
       </c>
       <c r="D38" t="n">
-        <v>0.018</v>
+        <v>0.004</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-7212.252617287005, -1357.0482897579618]</t>
+          <t>[-7493.815748906152, -1344.5574196218056]</t>
         </is>
       </c>
     </row>
@@ -3264,10 +3264,10 @@
         <v>-630.7833322767724</v>
       </c>
       <c r="C39" t="n">
-        <v>1358.152068022027</v>
+        <v>1366.271787501146</v>
       </c>
       <c r="D39" t="n">
-        <v>0.666</v>
+        <v>0.634</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-3122.3406014183656, 1949.2094608638135]</t>
+          <t>[-3280.8640769280364, 2015.4738433772377]</t>
         </is>
       </c>
     </row>
@@ -3290,10 +3290,10 @@
         <v>-1198.260720671934</v>
       </c>
       <c r="C40" t="n">
-        <v>1492.562187378107</v>
+        <v>1543.874389796724</v>
       </c>
       <c r="D40" t="n">
-        <v>0.424</v>
+        <v>0.434</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-4107.0301291135875, 1623.636726106066]</t>
+          <t>[-4278.754699130655, 1758.3391845416804]</t>
         </is>
       </c>
     </row>
@@ -3316,10 +3316,10 @@
         <v>-570.3969202951428</v>
       </c>
       <c r="C41" t="n">
-        <v>1935.940171222946</v>
+        <v>1903.621965824751</v>
       </c>
       <c r="D41" t="n">
-        <v>0.788</v>
+        <v>0.762</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-3812.6026291946923, 3450.4610934430852]</t>
+          <t>[-3765.509664372363, 3532.204576212579]</t>
         </is>
       </c>
     </row>
@@ -3342,10 +3342,10 @@
         <v>1575.345523600358</v>
       </c>
       <c r="C42" t="n">
-        <v>1495.214145611671</v>
+        <v>1471.259134392308</v>
       </c>
       <c r="D42" t="n">
-        <v>0.286</v>
+        <v>0.272</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-1272.2422227061097, 4466.560181028143]</t>
+          <t>[-1092.1152430892657, 4504.0163227791145]</t>
         </is>
       </c>
     </row>
@@ -3368,10 +3368,10 @@
         <v>112.216331757852</v>
       </c>
       <c r="C43" t="n">
-        <v>244.761707791416</v>
+        <v>238.2918709539636</v>
       </c>
       <c r="D43" t="n">
-        <v>0.774</v>
+        <v>0.754</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-195.79114668570594, 742.1169086236789]</t>
+          <t>[-224.6192921019716, 789.8435867233928]</t>
         </is>
       </c>
     </row>
@@ -3394,10 +3394,10 @@
         <v>1846.89732869776</v>
       </c>
       <c r="C44" t="n">
-        <v>1447.384944964268</v>
+        <v>1562.712875213033</v>
       </c>
       <c r="D44" t="n">
-        <v>0.122</v>
+        <v>0.136</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.0, 4631.795755064172]</t>
+          <t>[0.0, 4808.579096646397]</t>
         </is>
       </c>
     </row>
@@ -3420,10 +3420,10 @@
         <v>1028.595768743994</v>
       </c>
       <c r="C45" t="n">
-        <v>907.5964860140862</v>
+        <v>882.500492343059</v>
       </c>
       <c r="D45" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[0.0, 2891.190554107323]</t>
+          <t>[0.0, 2839.2129834479147]</t>
         </is>
       </c>
     </row>
@@ -3446,10 +3446,10 @@
         <v>692.4465270143851</v>
       </c>
       <c r="C46" t="n">
-        <v>653.8617362267771</v>
+        <v>695.8854587124928</v>
       </c>
       <c r="D46" t="n">
-        <v>0.142</v>
+        <v>0.146</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.0, 2159.3087643159824]</t>
+          <t>[0.0, 2378.733323938066]</t>
         </is>
       </c>
     </row>
@@ -3472,10 +3472,10 @@
         <v>-197.3650304090689</v>
       </c>
       <c r="C47" t="n">
-        <v>221.7958533981218</v>
+        <v>234.6296384733279</v>
       </c>
       <c r="D47" t="n">
-        <v>0.236</v>
+        <v>0.216</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[-722.5629131346313, 86.35196349428793]</t>
+          <t>[-860.6347390303963, 100.68878137705514]</t>
         </is>
       </c>
     </row>
@@ -3498,10 +3498,10 @@
         <v>688.4702957393934</v>
       </c>
       <c r="C48" t="n">
-        <v>669.0228825251945</v>
+        <v>715.5766658228755</v>
       </c>
       <c r="D48" t="n">
-        <v>0.17</v>
+        <v>0.174</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[0.0, 2170.018346030683]</t>
+          <t>[0.0, 2311.3285380645457]</t>
         </is>
       </c>
     </row>
@@ -3524,10 +3524,10 @@
         <v>809.5066355778517</v>
       </c>
       <c r="C49" t="n">
-        <v>740.0604776817013</v>
+        <v>740.4387944194608</v>
       </c>
       <c r="D49" t="n">
-        <v>0.138</v>
+        <v>0.146</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[0.0, 2456.5256069412853]</t>
+          <t>[0.0, 2686.296489425818]</t>
         </is>
       </c>
     </row>
@@ -3550,10 +3550,10 @@
         <v>1578.383361230115</v>
       </c>
       <c r="C50" t="n">
-        <v>1318.991826919791</v>
+        <v>1345.2975577173</v>
       </c>
       <c r="D50" t="n">
-        <v>0.158</v>
+        <v>0.128</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.0, 3966.727166511767]</t>
+          <t>[0.0, 4480.168908172947]</t>
         </is>
       </c>
     </row>
@@ -3576,10 +3576,10 @@
         <v>-453.2000806721344</v>
       </c>
       <c r="C51" t="n">
-        <v>437.4797994856664</v>
+        <v>446.6979926391958</v>
       </c>
       <c r="D51" t="n">
-        <v>0.14</v>
+        <v>0.146</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[-1534.6332865098593, 0.0]</t>
+          <t>[-1535.1080420350872, 0.0]</t>
         </is>
       </c>
     </row>
@@ -3602,10 +3602,10 @@
         <v>297.2619117628596</v>
       </c>
       <c r="C52" t="n">
-        <v>362.2419787700567</v>
+        <v>385.9947210585929</v>
       </c>
       <c r="D52" t="n">
-        <v>0.538</v>
+        <v>0.21</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[-112.40326269673176, 1147.7312793340525]</t>
+          <t>[-96.38844295160318, 1329.0026235465202]</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
         <v>2023.213229329201</v>
       </c>
       <c r="C53" t="n">
-        <v>436.7271279109447</v>
+        <v>458.1643066894679</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[1244.1312921388262, 2896.941127834976]</t>
+          <t>[1233.066579325053, 2999.6174797220556]</t>
         </is>
       </c>
     </row>
@@ -3654,19 +3654,19 @@
         <v>515.5204138390798</v>
       </c>
       <c r="C54" t="n">
-        <v>264.4123065273375</v>
+        <v>269.2169245040521</v>
       </c>
       <c r="D54" t="n">
-        <v>0.038</v>
+        <v>0.062</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[-15.180204220206956, 953.8473230203522]</t>
+          <t>[-27.761997114842995, 1061.9464759638654]</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
         <v>1529.465782754601</v>
       </c>
       <c r="C55" t="n">
-        <v>266.8163095003275</v>
+        <v>280.2619372203995</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[1032.4233979935925, 2073.769514898623]</t>
+          <t>[957.7550606478621, 2023.7733917296687]</t>
         </is>
       </c>
     </row>
@@ -3706,10 +3706,10 @@
         <v>146.9128204590669</v>
       </c>
       <c r="C56" t="n">
-        <v>319.7520818669398</v>
+        <v>328.5958878805897</v>
       </c>
       <c r="D56" t="n">
-        <v>0.636</v>
+        <v>0.62</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-442.4461819680556, 836.7642154188281]</t>
+          <t>[-472.445561167072, 868.1668499803138]</t>
         </is>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
         <v>-4100.65025016301</v>
       </c>
       <c r="C57" t="n">
-        <v>184.3997543336052</v>
+        <v>191.4542533421418</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[-4436.840448768466, -3741.7748296853165]</t>
+          <t>[-4486.041869001917, -3752.5172616579393]</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
         <v>-1963.765591611142</v>
       </c>
       <c r="C58" t="n">
-        <v>216.0090301403437</v>
+        <v>240.0768030640196</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[-2377.521489706764, -1539.2771109902885]</t>
+          <t>[-2453.46000061216, -1536.1146933308937]</t>
         </is>
       </c>
     </row>
@@ -3784,7 +3784,7 @@
         <v>17818.52664329314</v>
       </c>
       <c r="C59" t="n">
-        <v>2410.602366864643</v>
+        <v>2576.463373772355</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[12404.08622951166, 22342.305392868577]</t>
+          <t>[12487.048565694016, 22697.72686636084]</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
         <v>-3883.660221996459</v>
       </c>
       <c r="C60" t="n">
-        <v>856.0094160193963</v>
+        <v>889.9770534013265</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[-5386.022149821876, -2015.3170881995247]</t>
+          <t>[-5509.738593673957, -2078.8009819147137]</t>
         </is>
       </c>
     </row>
@@ -3836,10 +3836,10 @@
         <v>1046.728632641271</v>
       </c>
       <c r="C61" t="n">
-        <v>1998.876360981875</v>
+        <v>2104.506996450384</v>
       </c>
       <c r="D61" t="n">
-        <v>0.658</v>
+        <v>0.588</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-2621.5467938802562, 4656.624259848002]</t>
+          <t>[-3165.6765926012995, 4969.305370095775]</t>
         </is>
       </c>
     </row>
@@ -3862,10 +3862,10 @@
         <v>3254.093850568087</v>
       </c>
       <c r="C62" t="n">
-        <v>1291.247424487373</v>
+        <v>1294.903059628875</v>
       </c>
       <c r="D62" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[503.75967245812114, 5532.967269105722]</t>
+          <t>[807.8634779240904, 5699.990272780695]</t>
         </is>
       </c>
     </row>
@@ -3888,7 +3888,7 @@
         <v>4084.950460272969</v>
       </c>
       <c r="C63" t="n">
-        <v>1243.738502588746</v>
+        <v>1193.595143354875</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[1396.3527213018997, 6312.165683932932]</t>
+          <t>[1693.5904694745734, 6373.276300498831]</t>
         </is>
       </c>
     </row>
@@ -3914,10 +3914,10 @@
         <v>5695.027791525999</v>
       </c>
       <c r="C64" t="n">
-        <v>3584.342852116932</v>
+        <v>3554.6700696475</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.082</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[366.9000145075155, 13417.92584875919]</t>
+          <t>[310.30674004603236, 13278.531595912174]</t>
         </is>
       </c>
     </row>
@@ -3940,7 +3940,7 @@
         <v>-4132.873313686068</v>
       </c>
       <c r="C65" t="n">
-        <v>525.3253498702577</v>
+        <v>526.2784084809514</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[-5037.164631822559, -2992.5290598729616]</t>
+          <t>[-5046.102905216494, -2985.1073048126646]</t>
         </is>
       </c>
     </row>
@@ -3966,10 +3966,10 @@
         <v>249.2130916895967</v>
       </c>
       <c r="C66" t="n">
-        <v>668.5208440669078</v>
+        <v>682.6300231250858</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[-1018.9238655415995, 1518.8796268783904]</t>
+          <t>[-1206.5764007706262, 1539.1119092051435]</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
         <v>8217.44643868383</v>
       </c>
       <c r="C67" t="n">
-        <v>601.0093673620394</v>
+        <v>668.5871183551706</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[6997.203297302323, 9332.696596013648]</t>
+          <t>[6776.3382556197175, 9521.832553510088]</t>
         </is>
       </c>
     </row>
@@ -4018,10 +4018,10 @@
         <v>1173.770098474173</v>
       </c>
       <c r="C68" t="n">
-        <v>860.06227443514</v>
+        <v>864.3294295867543</v>
       </c>
       <c r="D68" t="n">
-        <v>0.188</v>
+        <v>0.16</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[-466.9462141449274, 2935.4096605835675]</t>
+          <t>[-437.5380476612438, 3095.156379648772]</t>
         </is>
       </c>
     </row>
@@ -4044,10 +4044,10 @@
         <v>803.2121176084255</v>
       </c>
       <c r="C69" t="n">
-        <v>722.361482594639</v>
+        <v>762.077079654906</v>
       </c>
       <c r="D69" t="n">
-        <v>0.25</v>
+        <v>0.296</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-530.324318570244, 2242.7740030927616]</t>
+          <t>[-520.4158686708191, 2449.1499090494062]</t>
         </is>
       </c>
     </row>
@@ -4070,7 +4070,7 @@
         <v>6111.370584599545</v>
       </c>
       <c r="C70" t="n">
-        <v>745.1612682029736</v>
+        <v>761.6526400900274</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[4745.345257755724, 7642.589034148785]</t>
+          <t>[4577.857953932947, 7642.2150339187265]</t>
         </is>
       </c>
     </row>
@@ -4096,10 +4096,10 @@
         <v>-531.2928019385158</v>
       </c>
       <c r="C71" t="n">
-        <v>345.1990913157809</v>
+        <v>375.9296693970694</v>
       </c>
       <c r="D71" t="n">
-        <v>0.12</v>
+        <v>0.158</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[-1300.8952817857107, 104.59445011385036]</t>
+          <t>[-1285.6307593554839, 160.7381175697081]</t>
         </is>
       </c>
     </row>
@@ -4122,7 +4122,7 @@
         <v>-812.5780992010716</v>
       </c>
       <c r="C72" t="n">
-        <v>487.651950069069</v>
+        <v>532.5253242765938</v>
       </c>
       <c r="D72" t="n">
         <v>0.104</v>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-1831.2429085123304, 81.76095059472723]</t>
+          <t>[-1816.0418034898394, 232.73480703605426]</t>
         </is>
       </c>
     </row>
@@ -4148,10 +4148,10 @@
         <v>531.292801938538</v>
       </c>
       <c r="C73" t="n">
-        <v>345.1990913157773</v>
+        <v>375.9296693970673</v>
       </c>
       <c r="D73" t="n">
-        <v>0.12</v>
+        <v>0.158</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-104.59445011386407, 1300.895281785704]</t>
+          <t>[-160.73811756970866, 1285.6307593555134]</t>
         </is>
       </c>
     </row>
@@ -4174,7 +4174,7 @@
         <v>-812.5780992011173</v>
       </c>
       <c r="C74" t="n">
-        <v>487.6519500690679</v>
+        <v>532.5253242765914</v>
       </c>
       <c r="D74" t="n">
         <v>0.104</v>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-1831.2429085123451, 81.76095059472877]</t>
+          <t>[-1816.041803489828, 232.73480703606182]</t>
         </is>
       </c>
     </row>
@@ -4200,10 +4200,10 @@
         <v>-1309.262026740457</v>
       </c>
       <c r="C75" t="n">
-        <v>1211.956092695875</v>
+        <v>1237.31113406436</v>
       </c>
       <c r="D75" t="n">
-        <v>0.256</v>
+        <v>0.298</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-3938.233791110604, 900.2399887998972]</t>
+          <t>[-3825.9592322640847, 875.2220397841157]</t>
         </is>
       </c>
     </row>
@@ -4226,10 +4226,10 @@
         <v>-42.02048447960585</v>
       </c>
       <c r="C76" t="n">
-        <v>881.3598897395213</v>
+        <v>935.2513478906516</v>
       </c>
       <c r="D76" t="n">
-        <v>0.956</v>
+        <v>0.96</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-1768.05552837699, 1779.52856437821]</t>
+          <t>[-1737.2165420797837, 1737.8703767608024]</t>
         </is>
       </c>
     </row>
@@ -4252,10 +4252,10 @@
         <v>-453.3148668215311</v>
       </c>
       <c r="C77" t="n">
-        <v>955.5453072567389</v>
+        <v>962.4199979933641</v>
       </c>
       <c r="D77" t="n">
-        <v>0.626</v>
+        <v>0.63</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-2290.0808980570114, 1460.1327787193873]</t>
+          <t>[-2301.6335894775075, 1489.6539282483122]</t>
         </is>
       </c>
     </row>
@@ -4278,10 +4278,10 @@
         <v>-282.6548861615873</v>
       </c>
       <c r="C78" t="n">
-        <v>1256.585398636701</v>
+        <v>1389.566302703341</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-2942.2954715594697, 2137.0426445124263]</t>
+          <t>[-3376.3550172830032, 2040.8653195368806]</t>
         </is>
       </c>
     </row>
@@ -4304,19 +4304,19 @@
         <v>2485.804494523773</v>
       </c>
       <c r="C79" t="n">
-        <v>1313.925678342416</v>
+        <v>1270.241690443524</v>
       </c>
       <c r="D79" t="n">
-        <v>0.054</v>
+        <v>0.046</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[227.1733677235983, 5188.622292264323]</t>
+          <t>[167.49201048223313, 5140.901222357086]</t>
         </is>
       </c>
     </row>
@@ -4330,10 +4330,10 @@
         <v>-868.6295858165531</v>
       </c>
       <c r="C80" t="n">
-        <v>909.6860768856678</v>
+        <v>974.95028667178</v>
       </c>
       <c r="D80" t="n">
-        <v>0.368</v>
+        <v>0.352</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-2703.991430459222, 858.1707162909813]</t>
+          <t>[-2979.0484647758362, 914.0479495565925]</t>
         </is>
       </c>
     </row>
@@ -4356,10 +4356,10 @@
         <v>-430.846758676667</v>
       </c>
       <c r="C81" t="n">
-        <v>833.7629025316871</v>
+        <v>931.1578686570446</v>
       </c>
       <c r="D81" t="n">
-        <v>0.61</v>
+        <v>0.646</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-2083.9830814095967, 1207.7614862255737]</t>
+          <t>[-2360.666987324861, 1136.4835044606775]</t>
         </is>
       </c>
     </row>
@@ -4382,10 +4382,10 @@
         <v>1416.645235611109</v>
       </c>
       <c r="C82" t="n">
-        <v>1313.637759178531</v>
+        <v>1363.418546827009</v>
       </c>
       <c r="D82" t="n">
-        <v>0.27</v>
+        <v>0.314</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-905.6003893571178, 4097.533948622706]</t>
+          <t>[-972.8054322691239, 4277.0030251076005]</t>
         </is>
       </c>
     </row>
@@ -4408,10 +4408,10 @@
         <v>-1147.712198665326</v>
       </c>
       <c r="C83" t="n">
-        <v>1155.056350874064</v>
+        <v>1135.189167969114</v>
       </c>
       <c r="D83" t="n">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-3533.550047893806, 930.9565081341409]</t>
+          <t>[-3295.2461854602525, 866.1900524348773]</t>
         </is>
       </c>
     </row>
@@ -4434,10 +4434,10 @@
         <v>958.0109438623117</v>
       </c>
       <c r="C84" t="n">
-        <v>982.1324102470546</v>
+        <v>953.0554006996283</v>
       </c>
       <c r="D84" t="n">
-        <v>0.312</v>
+        <v>0.336</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-1008.1781984594934, 2859.451182787343]</t>
+          <t>[-927.3806246079407, 2601.8802470086025]</t>
         </is>
       </c>
     </row>
@@ -4896,10 +4896,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.363599566518425</v>
+        <v>1.333120735199074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08222130689629165</v>
+        <v>0.0429589874244217</v>
       </c>
     </row>
     <row r="3">
@@ -4909,10 +4909,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.093971752034311</v>
+        <v>1.060874859493189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07170786665093264</v>
+        <v>0.03597511989753595</v>
       </c>
     </row>
     <row r="4">
@@ -4922,10 +4922,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8258540908496661</v>
+        <v>0.8265554756212602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05897886494597095</v>
+        <v>0.07297166111028741</v>
       </c>
     </row>
     <row r="5">
@@ -4935,10 +4935,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5784054067653978</v>
+        <v>0.5741993865210945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04245072120522484</v>
+        <v>0.04619142453422911</v>
       </c>
     </row>
     <row r="6">
@@ -4948,10 +4948,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4956369513792687</v>
+        <v>0.4828270114412437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04460211305511626</v>
+        <v>0.02652596574751957</v>
       </c>
     </row>
     <row r="7">
@@ -4961,10 +4961,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.384030335497746</v>
+        <v>0.426246178512007</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02718914680614114</v>
+        <v>0.05093379193172853</v>
       </c>
     </row>
     <row r="8">
@@ -4974,23 +4974,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.37436906681931</v>
+        <v>0.3893728300493032</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02230223859658186</v>
+        <v>0.03808962560774973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3317959774909672</v>
+        <v>0.3366675958894333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01731529135269045</v>
+        <v>0.02470048893803798</v>
       </c>
     </row>
     <row r="10">
@@ -5000,62 +5000,62 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3159932469014808</v>
+        <v>0.3321012307755725</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01342017616923862</v>
+        <v>0.02428866570442968</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3037314924940823</v>
+        <v>0.3234597404985651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02797570931986012</v>
+        <v>0.02345626480150037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2942942051976831</v>
+        <v>0.2915529004594324</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01765811079401087</v>
+        <v>0.02259495191928983</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2775991236150571</v>
+        <v>0.2790435854044552</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01840035262176886</v>
+        <v>0.02483680372499214</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2764212893039863</v>
+        <v>0.2779487228583249</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02278246067398807</v>
+        <v>0.01606321416793485</v>
       </c>
     </row>
     <row r="15">
@@ -5065,36 +5065,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2026947052769692</v>
+        <v>0.2142063380729486</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01308021033892988</v>
+        <v>0.02191195497890449</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1983767654085926</v>
+        <v>0.1933467608335609</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0289167291006481</v>
+        <v>0.02124860572682773</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1878764075560236</v>
+        <v>0.1911354197340866</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01360322573139288</v>
+        <v>0.01872460280518176</v>
       </c>
     </row>
     <row r="18">
@@ -5104,10 +5104,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1713313796586127</v>
+        <v>0.1590216461933658</v>
       </c>
       <c r="C18" t="n">
-        <v>0.013243381214263</v>
+        <v>0.0168983567281297</v>
       </c>
     </row>
     <row r="19">
@@ -5117,101 +5117,101 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1544481540791804</v>
+        <v>0.135525089400768</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0184117525641327</v>
+        <v>0.01075975303776969</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1373140352170995</v>
+        <v>0.1336925474255671</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02108909102786233</v>
+        <v>0.01650261707751643</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1289391064435479</v>
+        <v>0.1218338649020985</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02535559836509655</v>
+        <v>0.0263767806342308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1258208833622158</v>
+        <v>0.1198578801596811</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0131328491715386</v>
+        <v>0.0054967322963125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1159843786031182</v>
+        <v>0.1163907420553183</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02209293611472922</v>
+        <v>0.02060221105083049</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1007654076899711</v>
+        <v>0.1079667160185965</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01032116848089886</v>
+        <v>0.01601280175420074</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.09772948704467237</v>
+        <v>0.09316733744659778</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01439821449284009</v>
+        <v>0.01825393080812288</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.09380496987281406</v>
+        <v>0.09050205525147792</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01722326176809031</v>
+        <v>0.0143742718309971</v>
       </c>
     </row>
     <row r="27">
@@ -5221,10 +5221,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.07907243900240998</v>
+        <v>0.07464758655109396</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01349826889755181</v>
+        <v>0.01191471042736286</v>
       </c>
     </row>
     <row r="28">
@@ -5234,75 +5234,75 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07659440050606665</v>
+        <v>0.06721294882912225</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01812215004197869</v>
+        <v>0.01059129544705259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.05529579307302031</v>
+        <v>0.05173279696014974</v>
       </c>
       <c r="C29" t="n">
-        <v>0.006875151594412367</v>
+        <v>0.01012180151952656</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.05472028324735141</v>
+        <v>0.05064547690459744</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01482372076258612</v>
+        <v>0.01434066139027519</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04636184371550078</v>
+        <v>0.04977029382263474</v>
       </c>
       <c r="C31" t="n">
-        <v>0.006540953114412724</v>
+        <v>0.006850188891958623</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.04385474898205843</v>
+        <v>0.03812188366701152</v>
       </c>
       <c r="C32" t="n">
-        <v>0.009620813290075988</v>
+        <v>0.006226527911891961</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04103171186353827</v>
+        <v>0.03555099261331396</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009851838869814758</v>
+        <v>0.01042965780210199</v>
       </c>
     </row>
     <row r="34">
@@ -5312,10 +5312,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02780116603399583</v>
+        <v>0.0318654665634321</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00778096477817523</v>
+        <v>0.006357122687208647</v>
       </c>
     </row>
     <row r="35">
@@ -5325,49 +5325,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02275319540963754</v>
+        <v>0.0262304515238164</v>
       </c>
       <c r="C35" t="n">
-        <v>0.008957578663811099</v>
+        <v>0.008480263390815099</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0171870984802764</v>
+        <v>0.02059120241143744</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002697913631011292</v>
+        <v>0.004835974857155777</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0153355430074815</v>
+        <v>0.01518113357251027</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00414649081526672</v>
+        <v>0.00269635503284068</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01176901565101343</v>
+        <v>0.01472521328857492</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00683604014434141</v>
+        <v>0.003839313917693701</v>
       </c>
     </row>
     <row r="39">
@@ -5377,10 +5377,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01108217845055695</v>
+        <v>0.01097343007824672</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001512191628511179</v>
+        <v>0.001671793557875543</v>
       </c>
     </row>
     <row r="40">
@@ -5390,10 +5390,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.006519039540712601</v>
+        <v>0.003855596450092902</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003047560189173653</v>
+        <v>0.002204168605880113</v>
       </c>
     </row>
     <row r="41">
@@ -5403,10 +5403,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.002581515866119677</v>
+        <v>0.001198331698166211</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001779887637279956</v>
+        <v>0.001863146576388419</v>
       </c>
     </row>
     <row r="42">
@@ -5416,10 +5416,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-5.847167635348871e-05</v>
+        <v>0.0004711399176490883</v>
       </c>
       <c r="C42" t="n">
-        <v>0.000644569577823737</v>
+        <v>0.0005104713591593732</v>
       </c>
     </row>
   </sheetData>
@@ -5465,10 +5465,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02770679980819171</v>
+        <v>0.0290782174517672</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001645616697914</v>
+        <v>0.002878035354592855</v>
       </c>
     </row>
     <row r="3">
@@ -5478,10 +5478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006420604814130137</v>
+        <v>0.006657603868342754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000998450526776784</v>
+        <v>0.00174381947177152</v>
       </c>
     </row>
     <row r="4">
@@ -5491,36 +5491,36 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004930805113069958</v>
+        <v>0.00438373365271596</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004835716429592793</v>
+        <v>0.0003553784068771151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002609638894274502</v>
+        <v>0.002658397285750014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002830287365676836</v>
+        <v>0.0004336312182172049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002482668891584594</v>
+        <v>0.00251379667839926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003147623086494489</v>
+        <v>0.0001655159299147976</v>
       </c>
     </row>
     <row r="7">
@@ -5530,88 +5530,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002032890405706089</v>
+        <v>0.001863622820080435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001969974573442936</v>
+        <v>0.0001794273797926247</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001317971195085432</v>
+        <v>0.00121174627209435</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006374423429344804</v>
+        <v>0.0001539832364847615</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001160131938378517</v>
+        <v>0.0009253571402812133</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002219436644837941</v>
+        <v>0.0002345059652154729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0009841690246547464</v>
+        <v>0.0008768706206244037</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001531886937309919</v>
+        <v>0.0007223235654382922</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0008841064211341232</v>
+        <v>0.0008114668979225748</v>
       </c>
       <c r="C11" t="n">
-        <v>7.712525719643562e-05</v>
+        <v>0.0001098501764142121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0008477828046142167</v>
+        <v>0.000746452882208537</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003430384329594751</v>
+        <v>0.0003801024298504798</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0007166994888684108</v>
+        <v>0.0006598740634553568</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001785212687296243</v>
+        <v>0.0006682365710535882</v>
       </c>
     </row>
     <row r="14">
@@ -5621,36 +5621,36 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0006491769398334179</v>
+        <v>0.0006356441598124541</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001275511664140951</v>
+        <v>0.0001223640706568779</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006371318459788222</v>
+        <v>0.0006173539099549874</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001384577937808956</v>
+        <v>0.0001653467551135173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0005539366042631499</v>
+        <v>0.0005727720182611362</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001245630944517872</v>
+        <v>0.0001104075720328032</v>
       </c>
     </row>
     <row r="17">
@@ -5660,23 +5660,23 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0004426120051558069</v>
+        <v>0.0005004347900392058</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001086493794891851</v>
+        <v>0.0001877498687242055</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0003884941723846014</v>
+        <v>0.000326557631591573</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0002225207929004933</v>
+        <v>8.902697750424165e-05</v>
       </c>
     </row>
     <row r="19">
@@ -5686,218 +5686,218 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000370227337280582</v>
+        <v>0.000306705151604314</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001044294552914829</v>
+        <v>0.0001418425906072432</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0003057364674922791</v>
+        <v>0.0002452973198237895</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001459644388629511</v>
+        <v>0.0001120835725349156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0001698128625345685</v>
+        <v>0.0001595474205311032</v>
       </c>
       <c r="C21" t="n">
-        <v>8.012704256793855e-05</v>
+        <v>0.0002598702039410699</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0001625120024294269</v>
+        <v>0.0001372617192468395</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001890316234835503</v>
+        <v>0.000125137352671971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0001585838768523695</v>
+        <v>0.000104057800598234</v>
       </c>
       <c r="C23" t="n">
-        <v>9.45005305296324e-05</v>
+        <v>5.253946745298969e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0001198142911540634</v>
+        <v>7.900891316281466e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>8.932841561730638e-05</v>
+        <v>0.0003169347284704188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.028044759811557e-05</v>
+        <v>7.73432498986093e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>3.459604309300841e-05</v>
+        <v>0.0004336406069707911</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.629598114018641e-05</v>
+        <v>5.937080035549603e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>1.774882563942408e-05</v>
+        <v>2.94326543647932e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.658372319468196e-05</v>
+        <v>4.240659673528935e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001299314964690508</v>
+        <v>2.523285341187091e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.096343181816398e-05</v>
+        <v>1.807901214734287e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>2.436717717555285e-05</v>
+        <v>9.121049061431322e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.817595791688611e-05</v>
+        <v>1.017259117817027e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>1.457653907888066e-05</v>
+        <v>2.789631904540096e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.640352076266229e-05</v>
+        <v>4.018865077770606e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0003315816612066355</v>
+        <v>2.419413072595896e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.409364155457783e-05</v>
+        <v>1.816487427053204e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>5.179964915461383e-06</v>
+        <v>5.806346553899958e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.597738958134531e-05</v>
+        <v>1.648982987112468e-06</v>
       </c>
       <c r="C32" t="n">
-        <v>2.694812252195162e-05</v>
+        <v>9.723092505890826e-06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.346905663377473e-05</v>
+        <v>1.510720944120081e-06</v>
       </c>
       <c r="C33" t="n">
-        <v>2.664558585886645e-05</v>
+        <v>3.191425081880389e-06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.602209809565714e-06</v>
+        <v>9.112177457470949e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>5.248011652185303e-06</v>
+        <v>1.730188798631544e-06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.998924426538373e-06</v>
+        <v>8.53691328361883e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>1.100899261694562e-05</v>
+        <v>5.535144662836648e-06</v>
       </c>
     </row>
     <row r="36">
@@ -5907,23 +5907,23 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.771656869742344e-06</v>
+        <v>5.706589647047622e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>2.452225013711246e-06</v>
+        <v>2.630886609969587e-06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.308871527720527e-07</v>
+        <v>4.07103688049304e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>1.464487631692859e-05</v>
+        <v>3.91370899154973e-06</v>
       </c>
     </row>
     <row r="38">
@@ -5933,10 +5933,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.830538556291117e-08</v>
+        <v>-9.185547652501569e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>2.181707844713461e-05</v>
+        <v>1.223157820532857e-05</v>
       </c>
     </row>
     <row r="39">
@@ -5946,49 +5946,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.171975874347808e-07</v>
+        <v>-1.039799982049949e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>1.613543817179151e-06</v>
+        <v>2.02414943110282e-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-5.480515545386311e-07</v>
+        <v>-3.068070345890739e-06</v>
       </c>
       <c r="C40" t="n">
-        <v>3.013372644945903e-06</v>
+        <v>2.352468777238467e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.793466877486054e-07</v>
+        <v>-3.18462346511339e-06</v>
       </c>
       <c r="C41" t="n">
-        <v>1.469625890959854e-06</v>
+        <v>4.684373815517804e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.176812402376992e-05</v>
+        <v>-6.680708141448833e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>7.60803792640027e-06</v>
+        <v>0.0001460286036717828</v>
       </c>
     </row>
   </sheetData>
@@ -6034,10 +6034,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1846643378570661</v>
+        <v>0.2163077750535209</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008494569367651243</v>
+        <v>0.03111850763913773</v>
       </c>
     </row>
     <row r="3">
@@ -6047,23 +6047,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1543018641679731</v>
+        <v>0.1091658195927618</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01791993156193577</v>
+        <v>0.01016267731851976</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06998878046553089</v>
+        <v>0.08502696818467448</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009786085218232222</v>
+        <v>0.009359843563504736</v>
       </c>
     </row>
     <row r="5">
@@ -6073,10 +6073,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06973767576099528</v>
+        <v>0.07301532788310885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006952547674357689</v>
+        <v>0.008172638264242454</v>
       </c>
     </row>
     <row r="6">
@@ -6086,23 +6086,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0412993775499674</v>
+        <v>0.04891661220742662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002800158216365896</v>
+        <v>0.003695853777149162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03923938754623277</v>
+        <v>0.03091571098328958</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003546723500066273</v>
+        <v>0.005076610617173459</v>
       </c>
     </row>
     <row r="8">
@@ -6112,400 +6112,400 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03510813450665888</v>
+        <v>0.03036013893780149</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004802115579557176</v>
+        <v>0.003435280565513352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01978208056250119</v>
+        <v>0.02819431426352343</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005481722323778894</v>
+        <v>0.00462848312935549</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01765324472810124</v>
+        <v>0.02311572627380027</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003287323397772606</v>
+        <v>0.003387365820341779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01557190316801189</v>
+        <v>0.02180073063303549</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001880630007345675</v>
+        <v>0.003487693275395008</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0124262861400461</v>
+        <v>0.0206220848179093</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001377257570816086</v>
+        <v>0.006589779074631651</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01184389580473302</v>
+        <v>0.01504221831138921</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001079169997629421</v>
+        <v>0.002901572654359435</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01166327186531919</v>
+        <v>0.01446857760161102</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00131640297827173</v>
+        <v>0.001052610366091555</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01137271988806132</v>
+        <v>0.0137916051514726</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0009634905783880521</v>
+        <v>0.001270621221648355</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01081534720357042</v>
+        <v>0.01335211206235682</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0009333666776434291</v>
+        <v>0.002438249065993773</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01024054189194439</v>
+        <v>0.01030754388167827</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002516720246848564</v>
+        <v>0.001839695231884762</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.009550842695181116</v>
+        <v>0.008033939939509072</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001324469486071492</v>
+        <v>0.001723171752582951</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.008541044234567608</v>
+        <v>0.006575979169348822</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001961414064443585</v>
+        <v>0.001094137071772381</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.008205263447538646</v>
+        <v>0.006357298709033876</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001122241230859776</v>
+        <v>0.0008665344301748714</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.00706852215189766</v>
+        <v>0.006007348977028859</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001256866151833765</v>
+        <v>0.0005792046912879865</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.006591937367602907</v>
+        <v>0.00553471410558326</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004784927030526528</v>
+        <v>0.0006800498177448799</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.006356175702135936</v>
+        <v>0.005272977405407886</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001762159780098462</v>
+        <v>0.001023171183318015</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.006337320030103411</v>
+        <v>0.004859819471327386</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001388244044152212</v>
+        <v>0.001030142509593834</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.006065738047893654</v>
+        <v>0.004811596839973964</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0008781541517491279</v>
+        <v>0.0008257702903463443</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005738212689885591</v>
+        <v>0.004563266864196769</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001649776958524547</v>
+        <v>0.001602833542507999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.005363465884009044</v>
+        <v>0.004331829493541694</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0007914115235439874</v>
+        <v>0.0005989272910087351</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.004843634769714833</v>
+        <v>0.003995708221728988</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0005545125431339571</v>
+        <v>0.0005718572760954533</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003525899653933373</v>
+        <v>0.003016191761086162</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0009621105441999328</v>
+        <v>0.0006797897679188621</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002997528251328907</v>
+        <v>0.002755070264069115</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0004167814784411861</v>
+        <v>0.0006817537279393471</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002692924837865451</v>
+        <v>0.002326324307800332</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001255835460731272</v>
+        <v>0.0005225200608201543</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002467223373481819</v>
+        <v>0.001762616274385031</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0004916943147185865</v>
+        <v>0.0005727088158879116</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001727552967869284</v>
+        <v>0.001581519523893227</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001204463218722293</v>
+        <v>0.0004824829076546868</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001663459117198163</v>
+        <v>0.001361282752206439</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0005395222464283717</v>
+        <v>0.0004119054235193258</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001521273637817666</v>
+        <v>0.0008629763808766455</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0009755506428861516</v>
+        <v>0.0003100759850903619</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.001354898409033423</v>
+        <v>0.000830681055855731</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0007419958404052901</v>
+        <v>0.0005225600827277054</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.00104987079829344</v>
+        <v>0.0002197314951102314</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0002886417888280182</v>
+        <v>0.0001601850107372036</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0005208144080389721</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>5.755513006020901e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6524,7 +6524,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -6537,7 +6537,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -6550,7 +6550,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -6603,10 +6603,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2086506455107489</v>
+        <v>0.2114983920779756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01938936704749409</v>
+        <v>0.01214621576218909</v>
       </c>
     </row>
     <row r="3">
@@ -6616,10 +6616,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05577371933989872</v>
+        <v>0.04014309906579898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01449134397142931</v>
+        <v>0.01057498407001574</v>
       </c>
     </row>
     <row r="4">
@@ -6629,23 +6629,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02838290279530065</v>
+        <v>0.02682029167283375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001688718312481658</v>
+        <v>0.003058403211643431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01898052492813065</v>
+        <v>0.02519229604486397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01474350233870291</v>
+        <v>0.00890925045612289</v>
       </c>
     </row>
     <row r="6">
@@ -6655,23 +6655,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01859826497135242</v>
+        <v>0.02338729920918794</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006241673927082977</v>
+        <v>0.01366752194483098</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01543585652088073</v>
+        <v>0.02068872454834496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007224859813815938</v>
+        <v>0.01386633801362809</v>
       </c>
     </row>
     <row r="8">
@@ -6681,10 +6681,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008305917856559365</v>
+        <v>0.008846612092340278</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004378478111644951</v>
+        <v>0.004550325311059465</v>
       </c>
     </row>
     <row r="9">
@@ -6694,23 +6694,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005044687708046847</v>
+        <v>0.007930051577362551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002588773040877787</v>
+        <v>0.001703203678503381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00377448366213502</v>
+        <v>0.002734450615726303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008126298442026415</v>
+        <v>0.001487481650940358</v>
       </c>
     </row>
     <row r="11">
@@ -6720,10 +6720,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003131532101062451</v>
+        <v>0.00232648713768071</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001720588314534631</v>
+        <v>0.002020774018428349</v>
       </c>
     </row>
     <row r="12">
@@ -6733,10 +6733,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002771675400334073</v>
+        <v>0.00216387285954438</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000361980346778578</v>
+        <v>0.0007971255091972097</v>
       </c>
     </row>
     <row r="13">
@@ -6746,62 +6746,62 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002298639385253209</v>
+        <v>0.001969637884891107</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00275192229354242</v>
+        <v>0.001851321998566396</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001886948404515087</v>
+        <v>0.001685149757122129</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001933634639772789</v>
+        <v>0.002563862785893959</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0014989382412822</v>
+        <v>0.001605655275290907</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002862422060296555</v>
+        <v>0.002049730548411156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001390701754433032</v>
+        <v>0.001293030960441288</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002945186245619274</v>
+        <v>0.002775462363902212</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001090244847657407</v>
+        <v>0.001044187751242021</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002013188018657388</v>
+        <v>0.002512636656912355</v>
       </c>
     </row>
     <row r="18">
@@ -6811,114 +6811,114 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001021070590930395</v>
+        <v>0.0008059066509253032</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002653833542975911</v>
+        <v>0.004193548880652595</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000932261080992558</v>
+        <v>2.601871555159008e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002938236545140228</v>
+        <v>0.002109429430196558</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.268079616200684e-05</v>
+        <v>-0.0002457628799462874</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001846980171693963</v>
+        <v>0.00111100333982411</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0002127263212060582</v>
+        <v>-0.0004465817824152563</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001164098411982494</v>
+        <v>0.002472950133101655</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.001064216179995636</v>
+        <v>-0.0008967962811111452</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003193548893359281</v>
+        <v>0.001486366128476574</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.00119618386622482</v>
+        <v>-0.001039307340060813</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00112183353860363</v>
+        <v>0.002312589865783546</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.00160509096933279</v>
+        <v>-0.0010732734582376</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001906617097012289</v>
+        <v>0.002413621954874428</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001666742596017134</v>
+        <v>-0.001159093127238186</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001356566825243676</v>
+        <v>0.00154437379874176</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.001757486395936425</v>
+        <v>-0.001547913247758559</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001793316201185226</v>
+        <v>0.002661059256700756</v>
       </c>
     </row>
     <row r="27">
@@ -6928,127 +6928,127 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.001879885939599069</v>
+        <v>-0.001891304301251506</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001612582800915987</v>
+        <v>0.002207324988041482</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.002180134262282652</v>
+        <v>-0.00190371631106705</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0021612263434649</v>
+        <v>0.001663356668013439</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.002319021283959821</v>
+        <v>-0.002217623798715596</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0155084251391261</v>
+        <v>0.001435774355197084</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.002489053976877886</v>
+        <v>-0.002325367045235627</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001487508570275892</v>
+        <v>0.01201406522984012</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.002707190736124532</v>
+        <v>-0.002442727121275512</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00267755694424398</v>
+        <v>0.006965073041976935</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.003120621971496052</v>
+        <v>-0.002496879142142494</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001177623317058411</v>
+        <v>0.001683014147838038</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.00334145972224571</v>
+        <v>-0.003020021989466781</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002205702919432617</v>
+        <v>0.009856757977341916</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.003405585325205984</v>
+        <v>-0.003134333202437212</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002335851811397502</v>
+        <v>0.001049235659376548</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.003501742497688109</v>
+        <v>-0.003175717345528173</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002099736992922304</v>
+        <v>0.001826193555762619</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.004322258387267209</v>
+        <v>-0.00385553504522762</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003651783028914348</v>
+        <v>0.002758574699740838</v>
       </c>
     </row>
     <row r="37">
@@ -7058,75 +7058,75 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.004329578407038137</v>
+        <v>-0.00426342445293737</v>
       </c>
       <c r="C37" t="n">
-        <v>0.007480152816672231</v>
+        <v>0.01735311512794629</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.004836504601228286</v>
+        <v>-0.004268772523517583</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002427269030644041</v>
+        <v>0.001469876426474945</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.005119991437668792</v>
+        <v>-0.006013879960436164</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007699131063691964</v>
+        <v>0.003208176463421475</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.005488112773834142</v>
+        <v>-0.006763945897938916</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002902098823031505</v>
+        <v>0.004799291052932656</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.0118386648501424</v>
+        <v>-0.008230315393360055</v>
       </c>
       <c r="C41" t="n">
-        <v>0.007587339778099746</v>
+        <v>0.004189050467570511</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.01199752485555345</v>
+        <v>-0.008443308120974713</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01201868732167678</v>
+        <v>0.005725394407197122</v>
       </c>
     </row>
   </sheetData>
@@ -7172,10 +7172,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2911725004748082</v>
+        <v>0.2934826842497914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01991632488454227</v>
+        <v>0.03571641131491859</v>
       </c>
     </row>
     <row r="3">
@@ -7185,10 +7185,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1805874194313108</v>
+        <v>0.1825303156619957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006517581257254304</v>
+        <v>0.01948651030597512</v>
       </c>
     </row>
     <row r="4">
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05046162522293916</v>
+        <v>0.0562394283606731</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008441437486542717</v>
+        <v>0.005235079538517516</v>
       </c>
     </row>
     <row r="5">
@@ -7211,10 +7211,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04004942189324643</v>
+        <v>0.04301470686823732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003938349723962021</v>
+        <v>0.005675623793384424</v>
       </c>
     </row>
     <row r="6">
@@ -7224,49 +7224,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03451838123127102</v>
+        <v>0.03237847757267942</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004564967540296837</v>
+        <v>0.002536988685533832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02943576333490034</v>
+        <v>0.03173947772295101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003236538813067169</v>
+        <v>0.004148569326418186</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02896863258410818</v>
+        <v>0.0300216239274552</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004970802803940644</v>
+        <v>0.002849045677289774</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02885155739583412</v>
+        <v>0.03001039073952898</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003607828906750144</v>
+        <v>0.002054113012733213</v>
       </c>
     </row>
     <row r="10">
@@ -7276,62 +7276,62 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0244792503806105</v>
+        <v>0.02579910842845865</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002559743079190265</v>
+        <v>0.002412600562535219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02413808439672331</v>
+        <v>0.02469193092279873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005522311407474658</v>
+        <v>0.00625763937120829</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0235552749813694</v>
+        <v>0.02189925803202821</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00496841954472035</v>
+        <v>0.003591388456807644</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02223302845148589</v>
+        <v>0.02104788356380851</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001255056881721393</v>
+        <v>0.001030950491383684</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01969416996218947</v>
+        <v>0.02037610716329288</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003841691243685138</v>
+        <v>0.002716470401811664</v>
       </c>
     </row>
     <row r="15">
@@ -7341,114 +7341,114 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01940767276538382</v>
+        <v>0.01886800315778137</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003177917687411116</v>
+        <v>0.001391170508261802</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01643742543060409</v>
+        <v>0.01545704789052789</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003270469571223315</v>
+        <v>0.000992726630963346</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01605092055288162</v>
+        <v>0.01457378200650765</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002771020323571506</v>
+        <v>0.000805233627608381</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01604312531626653</v>
+        <v>0.01347664459711722</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001434486322620191</v>
+        <v>0.001742576709788049</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01492846089273365</v>
+        <v>0.01330735812944095</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001783925206929167</v>
+        <v>0.003336990526784255</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01394759047503671</v>
+        <v>0.01301309300296785</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002573712860683586</v>
+        <v>0.0035586132141039</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01225928800004057</v>
+        <v>0.01286646508046789</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001904450122177746</v>
+        <v>0.003011465105371951</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01208033475711194</v>
+        <v>0.01063406520357826</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001749286698158168</v>
+        <v>0.002581705466304963</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01159566774431198</v>
+        <v>0.01051112226133471</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001991765254328638</v>
+        <v>0.002266733264055207</v>
       </c>
     </row>
     <row r="24">
@@ -7458,75 +7458,75 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00984864858614265</v>
+        <v>0.01024074391685716</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001578333403465545</v>
+        <v>0.0006619009030296544</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009831138212672563</v>
+        <v>0.009984880330860157</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001721047423037179</v>
+        <v>0.001606966237087708</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.008972918087171423</v>
+        <v>0.009848705642181609</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001458929085570029</v>
+        <v>0.001361637445347969</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.008595478378184463</v>
+        <v>0.009157363208358161</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002125809489217593</v>
+        <v>0.001994817263965406</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.008378577728457071</v>
+        <v>0.008351075865717839</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001837588500155114</v>
+        <v>0.001500275154912478</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.007607130241922722</v>
+        <v>0.007446441054764085</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00143863340094769</v>
+        <v>0.0009852039217970261</v>
       </c>
     </row>
     <row r="30">
@@ -7536,36 +7536,36 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.006202614857755062</v>
+        <v>0.006671487674333854</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0006039231695251721</v>
+        <v>0.0006242967519856498</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.005495381694605594</v>
+        <v>0.005334990703058273</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0007260337401789868</v>
+        <v>0.0008715782939413943</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.005420969816967713</v>
+        <v>0.005150061069506107</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0007549201645826425</v>
+        <v>0.0007578268020313969</v>
       </c>
     </row>
     <row r="33">
@@ -7575,10 +7575,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.003243920791031196</v>
+        <v>0.003391029961561509</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001032592652343582</v>
+        <v>0.0008124366372505085</v>
       </c>
     </row>
     <row r="34">
@@ -7588,10 +7588,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0006109725637297503</v>
+        <v>0.0007033282052325562</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0001573469236827846</v>
+        <v>0.0001774427373266763</v>
       </c>
     </row>
     <row r="35">
@@ -7741,10 +7741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0001069796393798228</v>
+        <v>0.0001173961354122621</v>
       </c>
       <c r="C2" t="n">
-        <v>1.271457430669132e-05</v>
+        <v>1.292455483808985e-05</v>
       </c>
     </row>
     <row r="3">
@@ -7754,10 +7754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.728399808366923e-05</v>
+        <v>5.816470479631519e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>9.703472900714019e-06</v>
+        <v>1.181669006410836e-05</v>
       </c>
     </row>
     <row r="4">
@@ -7767,10 +7767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.471315107770323e-05</v>
+        <v>3.523162103427069e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>2.938264071415308e-06</v>
+        <v>4.124733866947234e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7780,62 +7780,62 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.621804349574042e-05</v>
+        <v>2.755981760862447e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>5.292738310144642e-06</v>
+        <v>5.33164178054693e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.529164090518954e-05</v>
+        <v>2.432303668480351e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>2.123563451121514e-06</v>
+        <v>3.668920609531047e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.503053792479726e-05</v>
+        <v>2.270847546164134e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>6.59868446087631e-06</v>
+        <v>3.597554614791408e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.427242745985936e-05</v>
+        <v>2.259021413162365e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>8.082660026548715e-06</v>
+        <v>1.4598329885825e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.173552414124202e-05</v>
+        <v>2.130871675829482e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>3.054103922820567e-06</v>
+        <v>8.567081342752031e-06</v>
       </c>
     </row>
     <row r="10">
@@ -7845,23 +7845,23 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.130547864509502e-05</v>
+        <v>2.026977757658699e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>5.309974969169914e-06</v>
+        <v>3.02432540605542e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.009188202749534e-05</v>
+        <v>1.773623869025798e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>1.056200207970185e-05</v>
+        <v>6.15170846739322e-06</v>
       </c>
     </row>
     <row r="12">
@@ -7871,10 +7871,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.082091912274485e-05</v>
+        <v>1.184334666928244e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>3.150548441861646e-06</v>
+        <v>1.365533227768358e-06</v>
       </c>
     </row>
     <row r="13">
@@ -7884,10 +7884,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.053347110109293e-05</v>
+        <v>1.016411164393993e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>2.678425750299721e-06</v>
+        <v>2.608147514158053e-06</v>
       </c>
     </row>
     <row r="14">
@@ -7897,36 +7897,36 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.955550105011923e-06</v>
+        <v>9.862177209196688e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>3.041919310939459e-06</v>
+        <v>1.969993829783112e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.277062584711615e-06</v>
+        <v>8.2198628950092e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>3.271301703199645e-06</v>
+        <v>1.876265119523603e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.689366496332894e-06</v>
+        <v>8.203579767362968e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>2.336283061625171e-06</v>
+        <v>1.808048282881301e-06</v>
       </c>
     </row>
     <row r="17">
@@ -7936,10 +7936,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.837391935476944e-06</v>
+        <v>5.891034917038241e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.178872203224723e-06</v>
+        <v>1.976441435562505e-06</v>
       </c>
     </row>
     <row r="18">
@@ -7949,23 +7949,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.140023721044273e-06</v>
+        <v>5.883952384611035e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>8.33504181871054e-07</v>
+        <v>1.827180863202248e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.432363948840944e-06</v>
+        <v>4.159808438508605e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>3.931979193478627e-06</v>
+        <v>1.773658062011876e-06</v>
       </c>
     </row>
     <row r="20">
@@ -7975,23 +7975,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.244253111933659e-06</v>
+        <v>3.976109624703739e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>1.092576629873713e-06</v>
+        <v>1.229837008915596e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.780975379934602e-06</v>
+        <v>3.564479143314259e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>1.515795961110653e-06</v>
+        <v>1.9369604189782e-06</v>
       </c>
     </row>
     <row r="22">
@@ -8001,23 +8001,23 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.657095763591854e-06</v>
+        <v>3.425051083194575e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>6.150675834760239e-07</v>
+        <v>1.021705707059582e-06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.412067593660083e-06</v>
+        <v>2.376042598495332e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>1.978285991543357e-06</v>
+        <v>9.656528909475236e-07</v>
       </c>
     </row>
     <row r="24">
@@ -8027,192 +8027,192 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.211074459568252e-06</v>
+        <v>2.046776108333148e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>7.061996260951646e-07</v>
+        <v>1.127253907291786e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.15310310656136e-06</v>
+        <v>1.214911699998211e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>1.078964705182624e-06</v>
+        <v>8.102166039919372e-07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.645228492641593e-06</v>
+        <v>1.171050064341372e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>2.056141273871273e-06</v>
+        <v>4.077308339263483e-07</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.611343864871273e-06</v>
+        <v>1.07027179230279e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>2.693165210050816e-06</v>
+        <v>1.112166099519993e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.545328025320813e-06</v>
+        <v>8.765280948619392e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>4.31070748733786e-07</v>
+        <v>3.45740727303864e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.015197167619775e-06</v>
+        <v>7.629348831361682e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>1.124878284033325e-06</v>
+        <v>1.243037307552399e-06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.877027863452014e-07</v>
+        <v>6.182937203558225e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>6.931062326490761e-07</v>
+        <v>1.2705846874526e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.184517760716602e-07</v>
+        <v>4.362064446095104e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>1.577957928082881e-06</v>
+        <v>7.508496831846737e-07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.072005897195254e-07</v>
+        <v>3.553054320537541e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>1.87059742704065e-07</v>
+        <v>2.581678737562148e-06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.430549181755339e-07</v>
+        <v>2.050754961846479e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>1.044745741777518e-06</v>
+        <v>3.535065097759039e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.505756449584396e-07</v>
+        <v>1.275232658137781e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>1.47107910432185e-07</v>
+        <v>1.087412866330563e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.095804355395359e-07</v>
+        <v>1.193938594656885e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>8.626217232006509e-08</v>
+        <v>1.404596896332207e-07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.86581220118498e-07</v>
+        <v>9.907355269511697e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>1.855790691228033e-07</v>
+        <v>6.904209999252805e-08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.170225737201491e-07</v>
+        <v>6.185984768869446e-08</v>
       </c>
       <c r="C37" t="n">
-        <v>1.333874659231945e-07</v>
+        <v>1.353496575346384e-07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.568200481282815e-08</v>
+        <v>5.924312920235763e-08</v>
       </c>
       <c r="C38" t="n">
-        <v>1.780199116997505e-07</v>
+        <v>3.424911215791976e-07</v>
       </c>
     </row>
     <row r="39">
@@ -8222,49 +8222,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-4.986714694510397e-08</v>
+        <v>-8.197575507296051e-10</v>
       </c>
       <c r="C39" t="n">
-        <v>1.622928493174708e-07</v>
+        <v>1.000714064318817e-07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-6.002430126272884e-08</v>
+        <v>-3.128603349722426e-08</v>
       </c>
       <c r="C40" t="n">
-        <v>1.655247444653706e-07</v>
+        <v>1.346909689577553e-07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-8.846657544303582e-08</v>
+        <v>-2.003573829956196e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>1.683011302906131e-07</v>
+        <v>1.64024113201405e-07</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.710063655124827e-07</v>
+        <v>-2.440854709018225e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>1.806837833475064e-07</v>
+        <v>1.682025778262237e-07</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_feature_info.xlsx
+++ b/examples/eCommerce_feature_info.xlsx
@@ -577,10 +577,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4197102201370857</v>
+        <v>0.4247152342202482</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05166098306755979</v>
+        <v>0.07581205329917387</v>
       </c>
     </row>
     <row r="3">
@@ -590,23 +590,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04594210916182726</v>
+        <v>0.04020018614716305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004134906396761632</v>
+        <v>0.006845837982052286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02718609124820026</v>
+        <v>0.02920556130021163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00278554038295312</v>
+        <v>0.005487856961204183</v>
       </c>
     </row>
     <row r="5">
@@ -616,114 +616,114 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02671944932513015</v>
+        <v>0.02172598256958094</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005006381547650847</v>
+        <v>0.003188815046728096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02341310941589074</v>
+        <v>0.01521289412379105</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006431203425011254</v>
+        <v>0.002771429356951193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01725211887913285</v>
+        <v>0.01417131534641778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002010770597857215</v>
+        <v>0.002424723166117949</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01288210716235905</v>
+        <v>0.0122809672448607</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002214249532195474</v>
+        <v>0.0009179441176187822</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009455429279389605</v>
+        <v>0.009525783906640384</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00206135395352399</v>
+        <v>0.001673100629327601</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008080519866481683</v>
+        <v>0.007770187982876808</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001395170839753127</v>
+        <v>0.000864656685583622</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007942648015491849</v>
+        <v>0.007254313058104889</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009233164620221707</v>
+        <v>0.001767121386151316</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.007052524344657973</v>
+        <v>0.00680262953344879</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001558303368194134</v>
+        <v>0.0009383228550551978</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.005851913254236241</v>
+        <v>0.006405303529450679</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001156580963416625</v>
+        <v>0.00263051415770229</v>
       </c>
     </row>
     <row r="14">
@@ -733,153 +733,153 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.004169325522947287</v>
+        <v>0.006165048487814117</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001258667139679544</v>
+        <v>0.0005259232529503189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003339063099062023</v>
+        <v>0.004088157378863233</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005495607954929044</v>
+        <v>0.0005168552896421106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001963852251246423</v>
+        <v>0.002482676456243449</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000315971139853185</v>
+        <v>0.0004259581890551875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001906892189730902</v>
+        <v>0.001990215466187029</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002669129556612964</v>
+        <v>0.0005699651621974289</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00159476639942282</v>
+        <v>0.001717327521140377</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004430714356000604</v>
+        <v>0.0002648257556477564</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001249989083620662</v>
+        <v>0.001016427262940645</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005467259226100906</v>
+        <v>0.0001675384066419107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.000723896368196697</v>
+        <v>0.0008791941336899978</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0003302683228420463</v>
+        <v>0.0002829216989230979</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0004312290379849815</v>
+        <v>0.0004480009129077089</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004277989921669619</v>
+        <v>0.0001214212352767416</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0003837437872001636</v>
+        <v>0.0004131438553213629</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001084566203808694</v>
+        <v>0.0002706454134124719</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.0003133917696838573</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.0001860159232677683</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.0003032819392300601</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8.975871694494497e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.0002804308271017409</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>6.207103452542779e-05</v>
       </c>
     </row>
     <row r="26">
@@ -889,62 +889,62 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.0002437478101253054</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.000393869618839169</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.0001634193201803136</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>4.295481542165654e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.0001429383827870945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>4.666895932738545e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.0001373388907374595</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>8.665207370295449e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.0001087729634156931</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>6.788396367674069e-05</v>
       </c>
     </row>
     <row r="31">
@@ -954,75 +954,75 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>9.163183002725006e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.466205576064238e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>7.148909877314757e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3.995114454565373e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>6.596390953335085e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1.80836467950929e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>5.651162128825771e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>4.803941646552094e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>5.524609038287664e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2.342250852594969e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>5.199386276548701e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1.814927513843457e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>4.766035195433726e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2.271399354797555e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1054,7 +1054,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1067,7 +1067,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1080,7 +1080,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1093,7 +1093,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003503904360716348</v>
+        <v>0.0003283027484660028</v>
       </c>
       <c r="C2" t="n">
-        <v>2.721393953892014e-05</v>
+        <v>3.732567623952407e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001628893768651718</v>
+        <v>0.0001393481367653049</v>
       </c>
       <c r="C3" t="n">
-        <v>4.000473469578142e-05</v>
+        <v>4.519427532539586e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.668761870847305e-05</v>
+        <v>6.035287866001937e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>5.235581535249343e-06</v>
+        <v>2.530083488475382e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1185,49 +1185,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.089804008078346e-05</v>
+        <v>4.001585404096452e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>3.050639173229997e-06</v>
+        <v>7.085651715229561e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.358068300465256e-05</v>
+        <v>3.885814394561926e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>2.44590460928361e-06</v>
+        <v>1.115925536338324e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.220826956371603e-05</v>
+        <v>3.681903213763605e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>2.447894153152058e-06</v>
+        <v>5.757582551752407e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.802693537633516e-05</v>
+        <v>2.863533732453405e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>1.448601568072374e-05</v>
+        <v>6.22859387955722e-06</v>
       </c>
     </row>
     <row r="9">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.80814659637818e-05</v>
+        <v>2.290392277335407e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.411276967982377e-05</v>
+        <v>1.064573684357711e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1250,322 +1250,322 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.587439936296953e-05</v>
+        <v>1.309265555184957e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>4.057531210165321e-06</v>
+        <v>2.095960369564525e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.117453339327668e-05</v>
+        <v>1.155374212618021e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>1.818318771386035e-06</v>
+        <v>5.269681958084733e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.796200616296601e-06</v>
+        <v>1.153628369849891e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>2.473304013027272e-06</v>
+        <v>7.035632680411142e-07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.533654486875263e-06</v>
+        <v>1.092827038688959e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>6.920075703764853e-07</v>
+        <v>1.786622158385751e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.892446750006442e-06</v>
+        <v>7.745794020941333e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>1.236022084366139e-06</v>
+        <v>1.949813728337438e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.052774055476107e-06</v>
+        <v>7.432727114364823e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>2.069470798317764e-07</v>
+        <v>8.0265156715606e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.743137373803719e-06</v>
+        <v>7.185705007817233e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>1.346875766276787e-06</v>
+        <v>5.968795281284004e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.537287370049882e-06</v>
+        <v>6.535193948442597e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>1.275583737133322e-06</v>
+        <v>6.399819640799813e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.637386731420889e-06</v>
+        <v>5.07014538650985e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1.446127893614679e-06</v>
+        <v>1.605725493574546e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.502828072050491e-06</v>
+        <v>4.974220841713617e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>2.7010918728382e-06</v>
+        <v>1.103658456469784e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.361833175137164e-06</v>
+        <v>4.484881359045901e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>4.58134698231092e-06</v>
+        <v>2.256685819248044e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.013447174733286e-06</v>
+        <v>4.463530361364931e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>1.084982745553946e-06</v>
+        <v>1.845316839257913e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.785670483003045e-06</v>
+        <v>3.835465777557445e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>2.92566907147043e-06</v>
+        <v>1.696440546644389e-06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.753536310169281e-06</v>
+        <v>2.271508598106209e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>8.543460475370441e-06</v>
+        <v>2.259782825706471e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.650843856282336e-06</v>
+        <v>2.220327570379155e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>2.764859670174342e-06</v>
+        <v>2.074413032166574e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.610818923492019e-06</v>
+        <v>2.116165541066195e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>6.750287642917589e-07</v>
+        <v>4.483442014205408e-07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.059429984762161e-06</v>
+        <v>1.509212843808783e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>2.291752769994286e-06</v>
+        <v>2.115298770050713e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.365748089403155e-07</v>
+        <v>7.402430907799129e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>1.492935873361779e-06</v>
+        <v>7.046367638802077e-07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.238367208753147e-07</v>
+        <v>2.981842846416782e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>2.871293793267101e-07</v>
+        <v>1.033684129795905e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.309553262413999e-07</v>
+        <v>1.622471759610278e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>3.444842434580729e-07</v>
+        <v>1.886916092012988e-07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.391366022626357e-08</v>
+        <v>1.316189693678638e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>8.356010980171213e-08</v>
+        <v>6.720339545894561e-07</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.155639769607092e-08</v>
+        <v>1.227487226529433e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>1.077464081345122e-06</v>
+        <v>7.643115767003562e-08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.276423680669382e-08</v>
+        <v>5.931558635374756e-08</v>
       </c>
       <c r="C32" t="n">
-        <v>1.667413328723057e-07</v>
+        <v>1.176593742675251e-07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1.091513333051353e-08</v>
+        <v>2.58156544141741e-08</v>
       </c>
       <c r="C33" t="n">
-        <v>8.2192201941426e-09</v>
+        <v>2.913862229791172e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.871516515095095e-08</v>
+        <v>-5.951710857488024e-09</v>
       </c>
       <c r="C34" t="n">
-        <v>7.732112838636073e-08</v>
+        <v>6.32758162113223e-09</v>
       </c>
     </row>
     <row r="35">
@@ -1575,88 +1575,88 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-4.804057365248582e-08</v>
+        <v>-9.021392344266133e-09</v>
       </c>
       <c r="C35" t="n">
-        <v>4.141298486718653e-07</v>
+        <v>3.148813723798769e-07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-6.315624179187296e-08</v>
+        <v>-3.554360324731221e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>3.923979225320406e-07</v>
+        <v>5.710897744426517e-07</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-7.694816881453903e-08</v>
+        <v>-5.148918437392069e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>2.11939331778691e-07</v>
+        <v>5.174137898423309e-07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.707605796763545e-07</v>
+        <v>-5.455006351073877e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>6.584899502880477e-06</v>
+        <v>5.522242775839976e-07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.876861945859787e-07</v>
+        <v>-6.369647108428467e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>7.627388565223564e-07</v>
+        <v>9.793622612404427e-07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-8.186450561442627e-07</v>
+        <v>-7.623299387304883e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>2.671723784780909e-07</v>
+        <v>5.006274258543426e-06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.937450689348808e-06</v>
+        <v>-1.657528416920684e-06</v>
       </c>
       <c r="C41" t="n">
-        <v>3.28276787531024e-06</v>
+        <v>1.599016154347553e-06</v>
       </c>
     </row>
     <row r="42">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-3.546520579744694e-06</v>
+        <v>-1.750482897833194e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>3.725924522577353e-06</v>
+        <v>5.939993479795324e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1711,66 +1711,66 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2789486486388714</v>
+        <v>0.2609571964635989</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02779134223947169</v>
+        <v>0.01209835356409555</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2663646834503314</v>
+        <v>0.2530369463340925</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02170658753904565</v>
+        <v>0.01708525432095758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04699973477881651</v>
+        <v>0.04368468133637242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005289739997305028</v>
+        <v>0.004243950003320365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04417739156191971</v>
+        <v>0.04116710915168853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005803774390248426</v>
+        <v>0.004913230102941493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04417475945925466</v>
+        <v>0.03938222121710074</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002555974198557025</v>
+        <v>0.00407908272186639</v>
       </c>
     </row>
     <row r="7">
@@ -1780,36 +1780,36 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.028485108003543</v>
+        <v>0.03092178088547528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002352366423134175</v>
+        <v>0.00156289491964791</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02493280532987498</v>
+        <v>0.0245669799064506</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001505772376609162</v>
+        <v>0.001853008604713035</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02299521420658981</v>
+        <v>0.02437195492870079</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001633789722111279</v>
+        <v>0.002434049323893935</v>
       </c>
     </row>
     <row r="10">
@@ -1819,23 +1819,23 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0224744315694001</v>
+        <v>0.02266850302414904</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001416359520034341</v>
+        <v>0.002368652737423977</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02166168871385592</v>
+        <v>0.02225892018175961</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001312217786641095</v>
+        <v>0.001642221486452529</v>
       </c>
     </row>
     <row r="12">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02066672275759884</v>
+        <v>0.02056965685241865</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001254391996047101</v>
+        <v>0.001213624681884448</v>
       </c>
     </row>
     <row r="13">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01692579501409388</v>
+        <v>0.0174314437052675</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002368860027760831</v>
+        <v>0.001886174688460621</v>
       </c>
     </row>
     <row r="14">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01605080011622941</v>
+        <v>0.01657351956083379</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001888858361212745</v>
+        <v>0.002733464133708115</v>
       </c>
     </row>
     <row r="15">
@@ -1884,36 +1884,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.015553339673848</v>
+        <v>0.0157179479147105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004071745906118214</v>
+        <v>0.001042605561687424</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0144084209264395</v>
+        <v>0.01563028905467385</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001165919874125788</v>
+        <v>0.001934002909646102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01401348605536199</v>
+        <v>0.01342459075979254</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0006744421042411842</v>
+        <v>0.001232862555120605</v>
       </c>
     </row>
     <row r="18">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01342813317592628</v>
+        <v>0.01294965059189934</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005689857537682375</v>
+        <v>0.0004962569150912085</v>
       </c>
     </row>
     <row r="19">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01123922076126944</v>
+        <v>0.0108142122705946</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0009249657816928433</v>
+        <v>0.0008503448130642889</v>
       </c>
     </row>
     <row r="20">
@@ -1949,75 +1949,75 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01052957285933371</v>
+        <v>0.01037863495938394</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002160820004939739</v>
+        <v>0.001621498190419007</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.009050894044933467</v>
+        <v>0.008865742109734143</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0009772567329764407</v>
+        <v>0.0002698804651383855</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.008785047264265277</v>
+        <v>0.0086962285499665</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0004161737517623932</v>
+        <v>0.001541195406128935</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.008375679325974984</v>
+        <v>0.008611244489371894</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0006365967862685381</v>
+        <v>0.000776437263951989</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.007881014675878961</v>
+        <v>0.007850424018075518</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001096967306514476</v>
+        <v>0.0004742458398236585</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.007809557438224246</v>
+        <v>0.007757888603659202</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0003855720347718103</v>
+        <v>0.0005962769407482532</v>
       </c>
     </row>
     <row r="26">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.007602588177029146</v>
+        <v>0.007329779686927784</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0009895542274390931</v>
+        <v>0.0007766176224742612</v>
       </c>
     </row>
     <row r="27">
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.007419790613250354</v>
+        <v>0.007182915046485138</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001267490885853</v>
+        <v>0.001056051960998171</v>
       </c>
     </row>
     <row r="28">
@@ -2053,36 +2053,36 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.006380696479959513</v>
+        <v>0.006369139941572311</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0003820411838256519</v>
+        <v>0.000581544823292692</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.005870761415232151</v>
+        <v>0.00575608293059493</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0007147372900888279</v>
+        <v>0.0004422385799160127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.005468377269232683</v>
+        <v>0.005687712213570895</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0004135358125818238</v>
+        <v>0.0004012198779540696</v>
       </c>
     </row>
     <row r="31">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.00388786161437622</v>
+        <v>0.003865569765608079</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001856579461921645</v>
+        <v>0.0005408953643083156</v>
       </c>
     </row>
     <row r="32">
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.003247059619099724</v>
+        <v>0.0029839443934363</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0002688871048024077</v>
+        <v>0.0001853056073966591</v>
       </c>
     </row>
     <row r="33">
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.002753475493420887</v>
+        <v>0.002604699293144441</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002217407549252153</v>
+        <v>0.0002720443738276251</v>
       </c>
     </row>
     <row r="34">
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.002443366518458623</v>
+        <v>0.002248889331531867</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002242929745941081</v>
+        <v>9.391951943874022e-05</v>
       </c>
     </row>
     <row r="35">
@@ -2144,10 +2144,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0006634800580999523</v>
+        <v>0.0005570241842753453</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0001400945505445523</v>
+        <v>0.0001140898951151045</v>
       </c>
     </row>
     <row r="36">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0003420593852584197</v>
+        <v>0.0004503491568550455</v>
       </c>
       <c r="C36" t="n">
-        <v>8.38768206126302e-05</v>
+        <v>0.0001020753178758473</v>
       </c>
     </row>
     <row r="37">
@@ -2302,7 +2302,7 @@
         <v>16788.47627335299</v>
       </c>
       <c r="C2" t="n">
-        <v>994.4274283442638</v>
+        <v>928.0559748977249</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[15106.76149811575, 18942.286617125184]</t>
+          <t>[15253.986659897046, 18918.797718270973]</t>
         </is>
       </c>
     </row>
@@ -2328,10 +2328,10 @@
         <v>-91.53761092591472</v>
       </c>
       <c r="C3" t="n">
-        <v>408.9823852567566</v>
+        <v>400.8517485064399</v>
       </c>
       <c r="D3" t="n">
-        <v>0.838</v>
+        <v>0.764</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-982.509248042878, 653.8006027032163]</t>
+          <t>[-1012.0835915990853, 664.2574368426667]</t>
         </is>
       </c>
     </row>
@@ -2354,10 +2354,10 @@
         <v>-162.8164257652647</v>
       </c>
       <c r="C4" t="n">
-        <v>405.7934305807902</v>
+        <v>391.2878659390162</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.624</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-1013.7352671215508, 640.5818033743953]</t>
+          <t>[-983.6213057509567, 591.8615684168606]</t>
         </is>
       </c>
     </row>
@@ -2380,10 +2380,10 @@
         <v>-325.7220449438254</v>
       </c>
       <c r="C5" t="n">
-        <v>460.7033181804486</v>
+        <v>417.8414886001514</v>
       </c>
       <c r="D5" t="n">
-        <v>0.432</v>
+        <v>0.374</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1320.092506187008, 538.9592248196278]</t>
+          <t>[-1173.0160688126957, 529.1648891488818]</t>
         </is>
       </c>
     </row>
@@ -2406,10 +2406,10 @@
         <v>-294.9238675569628</v>
       </c>
       <c r="C6" t="n">
-        <v>485.7088205997811</v>
+        <v>486.4243866347623</v>
       </c>
       <c r="D6" t="n">
-        <v>0.538</v>
+        <v>0.596</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-1349.768449842572, 580.5323921838226]</t>
+          <t>[-1288.943885416297, 550.7610520787567]</t>
         </is>
       </c>
     </row>
@@ -2432,10 +2432,10 @@
         <v>-565.6940880776882</v>
       </c>
       <c r="C7" t="n">
-        <v>529.0749741205657</v>
+        <v>558.2588729463642</v>
       </c>
       <c r="D7" t="n">
-        <v>0.244</v>
+        <v>0.288</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-1746.3045571962325, 291.3383405715842]</t>
+          <t>[-1846.282494600563, 374.23753448883286]</t>
         </is>
       </c>
     </row>
@@ -2588,10 +2588,10 @@
         <v>-1369.354415763941</v>
       </c>
       <c r="C13" t="n">
-        <v>1123.813857277778</v>
+        <v>1155.277232763062</v>
       </c>
       <c r="D13" t="n">
-        <v>0.126</v>
+        <v>0.144</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-3538.8960492756487, 0.0]</t>
+          <t>[-3856.338709435722, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2614,10 +2614,10 @@
         <v>302.776735328544</v>
       </c>
       <c r="C14" t="n">
-        <v>300.1916579589352</v>
+        <v>321.9453381520605</v>
       </c>
       <c r="D14" t="n">
-        <v>0.166</v>
+        <v>0.182</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-59.946700119087936, 1004.5261657926051]</t>
+          <t>[-18.935407824031408, 1025.2357480025262]</t>
         </is>
       </c>
     </row>
@@ -2640,10 +2640,10 @@
         <v>241.4216232171946</v>
       </c>
       <c r="C15" t="n">
-        <v>325.3155475623811</v>
+        <v>288.0412083057199</v>
       </c>
       <c r="D15" t="n">
-        <v>0.236</v>
+        <v>0.232</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-134.98434227407824, 1076.1769855051798]</t>
+          <t>[-76.08000585519767, 938.0108529797864]</t>
         </is>
       </c>
     </row>
@@ -2666,10 +2666,10 @@
         <v>174.0399841998092</v>
       </c>
       <c r="C16" t="n">
-        <v>247.0044397147192</v>
+        <v>277.2259621206777</v>
       </c>
       <c r="D16" t="n">
-        <v>0.288</v>
+        <v>0.326</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-186.37617755448713, 776.6144675662717]</t>
+          <t>[-227.9392324619165, 854.7853818971889]</t>
         </is>
       </c>
     </row>
@@ -2692,10 +2692,10 @@
         <v>-316.7410838874658</v>
       </c>
       <c r="C17" t="n">
-        <v>335.3783739385345</v>
+        <v>336.6970102401405</v>
       </c>
       <c r="D17" t="n">
-        <v>0.16</v>
+        <v>0.176</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[-1152.2154527207158, 0.0]</t>
+          <t>[-1055.689314398718, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2718,10 +2718,10 @@
         <v>-680.2252465834899</v>
       </c>
       <c r="C18" t="n">
-        <v>1074.006528853536</v>
+        <v>1093.287981553724</v>
       </c>
       <c r="D18" t="n">
-        <v>0.504</v>
+        <v>0.536</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-3006.0044124291135, 1132.9516031362011]</t>
+          <t>[-2957.6264058628944, 1096.826625686826]</t>
         </is>
       </c>
     </row>
@@ -2744,19 +2744,19 @@
         <v>-1403.363970343245</v>
       </c>
       <c r="C19" t="n">
-        <v>799.4055688432643</v>
+        <v>855.0007213264865</v>
       </c>
       <c r="D19" t="n">
-        <v>0.036</v>
+        <v>0.054</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-2793.3725654243876, 0.0]</t>
+          <t>[-3087.3610840588008, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2770,10 +2770,10 @@
         <v>-421.721630587085</v>
       </c>
       <c r="C20" t="n">
-        <v>366.3364633771171</v>
+        <v>350.6524047443406</v>
       </c>
       <c r="D20" t="n">
-        <v>0.182</v>
+        <v>0.162</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-1286.8345669847063, 87.42905227292177]</t>
+          <t>[-1263.4622169212912, 39.92888940625613]</t>
         </is>
       </c>
     </row>
@@ -2796,10 +2796,10 @@
         <v>-968.4160742487336</v>
       </c>
       <c r="C21" t="n">
-        <v>1101.122901073831</v>
+        <v>1052.19022261413</v>
       </c>
       <c r="D21" t="n">
-        <v>0.384</v>
+        <v>0.38</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-3261.329814652389, 664.9448491308794]</t>
+          <t>[-3069.0674701259395, 632.2141703004645]</t>
         </is>
       </c>
     </row>
@@ -2822,10 +2822,10 @@
         <v>483.5008981719257</v>
       </c>
       <c r="C22" t="n">
-        <v>913.8366694098971</v>
+        <v>909.7777965421368</v>
       </c>
       <c r="D22" t="n">
-        <v>0.594</v>
+        <v>0.608</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-1059.1181869895768, 2374.5487193702006]</t>
+          <t>[-1091.06699609191, 2350.7525232117396]</t>
         </is>
       </c>
     </row>
@@ -2848,10 +2848,10 @@
         <v>-614.4348274974396</v>
       </c>
       <c r="C23" t="n">
-        <v>593.2526869423428</v>
+        <v>607.567786724583</v>
       </c>
       <c r="D23" t="n">
-        <v>0.21</v>
+        <v>0.176</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-1969.5365725295185, 216.69475094737268]</t>
+          <t>[-2053.1769311260377, 159.50716218494574]</t>
         </is>
       </c>
     </row>
@@ -2874,10 +2874,10 @@
         <v>-142.5600254640396</v>
       </c>
       <c r="C24" t="n">
-        <v>555.8802644535745</v>
+        <v>586.3345611438084</v>
       </c>
       <c r="D24" t="n">
-        <v>0.828</v>
+        <v>0.834</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-1375.621924492169, 781.9239284194616]</t>
+          <t>[-1542.8315529974846, 934.2755408367038]</t>
         </is>
       </c>
     </row>
@@ -2900,10 +2900,10 @@
         <v>-1343.766178365504</v>
       </c>
       <c r="C25" t="n">
-        <v>949.8143806098624</v>
+        <v>894.081637365676</v>
       </c>
       <c r="D25" t="n">
-        <v>0.098</v>
+        <v>0.074</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-3312.420251905809, 0.0]</t>
+          <t>[-3047.159448191257, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2926,10 +2926,10 @@
         <v>-2505.411476258236</v>
       </c>
       <c r="C26" t="n">
-        <v>1445.921763514059</v>
+        <v>1474.769158089975</v>
       </c>
       <c r="D26" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-5107.310583329612, 0.0]</t>
+          <t>[-5018.3037559153745, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2952,10 +2952,10 @@
         <v>-768.10748773818</v>
       </c>
       <c r="C27" t="n">
-        <v>732.0156556958998</v>
+        <v>689.2783719379298</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226</v>
+        <v>0.218</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[-2477.25929202695, 270.99929195813394]</t>
+          <t>[-2075.4064152002265, 309.25645827013557]</t>
         </is>
       </c>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-1440.38715965347</v>
       </c>
       <c r="C28" t="n">
-        <v>1233.937093172164</v>
+        <v>1266.971833734289</v>
       </c>
       <c r="D28" t="n">
-        <v>0.132</v>
+        <v>0.14</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-4080.9530832084483, 0.0]</t>
+          <t>[-4063.084610001276, 0.0]</t>
         </is>
       </c>
     </row>
@@ -3004,10 +3004,10 @@
         <v>-243.4662646546725</v>
       </c>
       <c r="C29" t="n">
-        <v>304.9858099668816</v>
+        <v>293.8940964231725</v>
       </c>
       <c r="D29" t="n">
-        <v>0.58</v>
+        <v>0.198</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[-1014.5361829709082, 67.52192804353628]</t>
+          <t>[-975.6910851630303, 105.1019565627133]</t>
         </is>
       </c>
     </row>
@@ -3030,10 +3030,10 @@
         <v>215.5963270310038</v>
       </c>
       <c r="C30" t="n">
-        <v>280.2519381730048</v>
+        <v>298.9239720295374</v>
       </c>
       <c r="D30" t="n">
-        <v>0.228</v>
+        <v>0.246</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[-95.01607430766315, 848.7754757522268]</t>
+          <t>[-181.7606031938698, 982.317747511758]</t>
         </is>
       </c>
     </row>
@@ -3056,10 +3056,10 @@
         <v>-708.4294749777673</v>
       </c>
       <c r="C31" t="n">
-        <v>646.4925444335954</v>
+        <v>675.5617749885338</v>
       </c>
       <c r="D31" t="n">
-        <v>0.15</v>
+        <v>0.166</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-2024.2502599278373, 0.0]</t>
+          <t>[-2114.968784971146, 0.0]</t>
         </is>
       </c>
     </row>
@@ -3082,10 +3082,10 @@
         <v>-815.1138010026432</v>
       </c>
       <c r="C32" t="n">
-        <v>667.0324844910841</v>
+        <v>687.04866353549</v>
       </c>
       <c r="D32" t="n">
-        <v>0.112</v>
+        <v>0.128</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-2264.3733114583592, 0.0]</t>
+          <t>[-2109.909115021297, 0.0]</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
         <v>-4265.798696073532</v>
       </c>
       <c r="C38" t="n">
-        <v>1546.254475467661</v>
+        <v>1580.440897864595</v>
       </c>
       <c r="D38" t="n">
         <v>0.004</v>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-7493.815748906152, -1344.5574196218056]</t>
+          <t>[-7354.015710053868, -1090.908748410399]</t>
         </is>
       </c>
     </row>
@@ -3264,10 +3264,10 @@
         <v>-630.7833322767724</v>
       </c>
       <c r="C39" t="n">
-        <v>1366.271787501146</v>
+        <v>1377.453307167781</v>
       </c>
       <c r="D39" t="n">
-        <v>0.634</v>
+        <v>0.666</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-3280.8640769280364, 2015.4738433772377]</t>
+          <t>[-3177.031219405316, 2346.88813551197]</t>
         </is>
       </c>
     </row>
@@ -3290,10 +3290,10 @@
         <v>-1198.260720671934</v>
       </c>
       <c r="C40" t="n">
-        <v>1543.874389796724</v>
+        <v>1395.458020445561</v>
       </c>
       <c r="D40" t="n">
-        <v>0.434</v>
+        <v>0.394</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-4278.754699130655, 1758.3391845416804]</t>
+          <t>[-3974.9163336059355, 1527.5885729399674]</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
         <v>-570.3969202951428</v>
       </c>
       <c r="C41" t="n">
-        <v>1903.621965824751</v>
+        <v>1927.424974222629</v>
       </c>
       <c r="D41" t="n">
         <v>0.762</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-3765.509664372363, 3532.204576212579]</t>
+          <t>[-4167.687673618771, 3505.0070627487385]</t>
         </is>
       </c>
     </row>
@@ -3342,10 +3342,10 @@
         <v>1575.345523600358</v>
       </c>
       <c r="C42" t="n">
-        <v>1471.259134392308</v>
+        <v>1464.788995149837</v>
       </c>
       <c r="D42" t="n">
-        <v>0.272</v>
+        <v>0.258</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-1092.1152430892657, 4504.0163227791145]</t>
+          <t>[-1160.2651515910443, 4488.018968896746]</t>
         </is>
       </c>
     </row>
@@ -3368,10 +3368,10 @@
         <v>112.216331757852</v>
       </c>
       <c r="C43" t="n">
-        <v>238.2918709539636</v>
+        <v>244.5776352147575</v>
       </c>
       <c r="D43" t="n">
-        <v>0.754</v>
+        <v>0.798</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-224.6192921019716, 789.8435867233928]</t>
+          <t>[-261.20401690423785, 724.5107081827344]</t>
         </is>
       </c>
     </row>
@@ -3394,10 +3394,10 @@
         <v>1846.89732869776</v>
       </c>
       <c r="C44" t="n">
-        <v>1562.712875213033</v>
+        <v>1470.377148251241</v>
       </c>
       <c r="D44" t="n">
-        <v>0.136</v>
+        <v>0.106</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.0, 4808.579096646397]</t>
+          <t>[0.0, 4796.957859986862]</t>
         </is>
       </c>
     </row>
@@ -3420,10 +3420,10 @@
         <v>1028.595768743994</v>
       </c>
       <c r="C45" t="n">
-        <v>882.500492343059</v>
+        <v>888.7772551202968</v>
       </c>
       <c r="D45" t="n">
-        <v>0.14</v>
+        <v>0.144</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[0.0, 2839.2129834479147]</t>
+          <t>[0.0, 2904.779481596549]</t>
         </is>
       </c>
     </row>
@@ -3446,10 +3446,10 @@
         <v>692.4465270143851</v>
       </c>
       <c r="C46" t="n">
-        <v>695.8854587124928</v>
+        <v>684.9333267996996</v>
       </c>
       <c r="D46" t="n">
-        <v>0.146</v>
+        <v>0.172</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.0, 2378.733323938066]</t>
+          <t>[0.0, 2208.4947947380992]</t>
         </is>
       </c>
     </row>
@@ -3472,10 +3472,10 @@
         <v>-197.3650304090689</v>
       </c>
       <c r="C47" t="n">
-        <v>234.6296384733279</v>
+        <v>226.930752590455</v>
       </c>
       <c r="D47" t="n">
-        <v>0.216</v>
+        <v>0.186</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[-860.6347390303963, 100.68878137705514]</t>
+          <t>[-715.1203025597116, 87.62377524585608]</t>
         </is>
       </c>
     </row>
@@ -3498,10 +3498,10 @@
         <v>688.4702957393934</v>
       </c>
       <c r="C48" t="n">
-        <v>715.5766658228755</v>
+        <v>637.3883782881254</v>
       </c>
       <c r="D48" t="n">
-        <v>0.174</v>
+        <v>0.152</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[0.0, 2311.3285380645457]</t>
+          <t>[0.0, 2075.508604389664]</t>
         </is>
       </c>
     </row>
@@ -3524,10 +3524,10 @@
         <v>809.5066355778517</v>
       </c>
       <c r="C49" t="n">
-        <v>740.4387944194608</v>
+        <v>739.3506833164204</v>
       </c>
       <c r="D49" t="n">
-        <v>0.146</v>
+        <v>0.148</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[0.0, 2686.296489425818]</t>
+          <t>[0.0, 2385.186511149107]</t>
         </is>
       </c>
     </row>
@@ -3550,10 +3550,10 @@
         <v>1578.383361230115</v>
       </c>
       <c r="C50" t="n">
-        <v>1345.2975577173</v>
+        <v>1290.43198294814</v>
       </c>
       <c r="D50" t="n">
-        <v>0.128</v>
+        <v>0.116</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.0, 4480.168908172947]</t>
+          <t>[0.0, 4184.380212909357]</t>
         </is>
       </c>
     </row>
@@ -3576,10 +3576,10 @@
         <v>-453.2000806721344</v>
       </c>
       <c r="C51" t="n">
-        <v>446.6979926391958</v>
+        <v>450.3492270815528</v>
       </c>
       <c r="D51" t="n">
-        <v>0.146</v>
+        <v>0.148</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[-1535.1080420350872, 0.0]</t>
+          <t>[-1537.7623586248787, 0.0]</t>
         </is>
       </c>
     </row>
@@ -3602,10 +3602,10 @@
         <v>297.2619117628596</v>
       </c>
       <c r="C52" t="n">
-        <v>385.9947210585929</v>
+        <v>359.024546843299</v>
       </c>
       <c r="D52" t="n">
-        <v>0.21</v>
+        <v>0.242</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[-96.38844295160318, 1329.0026235465202]</t>
+          <t>[-151.78353320887607, 1155.3594721520053]</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
         <v>2023.213229329201</v>
       </c>
       <c r="C53" t="n">
-        <v>458.1643066894679</v>
+        <v>463.7935393482114</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[1233.066579325053, 2999.6174797220556]</t>
+          <t>[1177.9620162478402, 2926.4484599339316]</t>
         </is>
       </c>
     </row>
@@ -3654,19 +3654,19 @@
         <v>515.5204138390798</v>
       </c>
       <c r="C54" t="n">
-        <v>269.2169245040521</v>
+        <v>255.210155859313</v>
       </c>
       <c r="D54" t="n">
-        <v>0.062</v>
+        <v>0.04</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[-27.761997114842995, 1061.9464759638654]</t>
+          <t>[-1.4093853665587086, 973.8480125653008]</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
         <v>1529.465782754601</v>
       </c>
       <c r="C55" t="n">
-        <v>280.2619372203995</v>
+        <v>262.4606651721451</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[957.7550606478621, 2023.7733917296687]</t>
+          <t>[1009.0696377141257, 2010.807550527979]</t>
         </is>
       </c>
     </row>
@@ -3706,10 +3706,10 @@
         <v>146.9128204590669</v>
       </c>
       <c r="C56" t="n">
-        <v>328.5958878805897</v>
+        <v>355.6837347922449</v>
       </c>
       <c r="D56" t="n">
-        <v>0.62</v>
+        <v>0.658</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-472.445561167072, 868.1668499803138]</t>
+          <t>[-438.3176226679981, 919.980591965538]</t>
         </is>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
         <v>-4100.65025016301</v>
       </c>
       <c r="C57" t="n">
-        <v>191.4542533421418</v>
+        <v>205.1492335255714</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[-4486.041869001917, -3752.5172616579393]</t>
+          <t>[-4531.734829485247, -3751.173457300482]</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
         <v>-1963.765591611142</v>
       </c>
       <c r="C58" t="n">
-        <v>240.0768030640196</v>
+        <v>235.7402100336725</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[-2453.46000061216, -1536.1146933308937]</t>
+          <t>[-2470.328722652395, -1539.4491762079226]</t>
         </is>
       </c>
     </row>
@@ -3784,7 +3784,7 @@
         <v>17818.52664329314</v>
       </c>
       <c r="C59" t="n">
-        <v>2576.463373772355</v>
+        <v>2343.712330379017</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[12487.048565694016, 22697.72686636084]</t>
+          <t>[13231.951176156948, 22355.494025187174]</t>
         </is>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
         <v>-3883.660221996459</v>
       </c>
       <c r="C60" t="n">
-        <v>889.9770534013265</v>
+        <v>794.7742100348443</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[-5509.738593673957, -2078.8009819147137]</t>
+          <t>[-5252.342582391006, -2248.426108081061]</t>
         </is>
       </c>
     </row>
@@ -3836,10 +3836,10 @@
         <v>1046.728632641271</v>
       </c>
       <c r="C61" t="n">
-        <v>2104.506996450384</v>
+        <v>2073.755271629716</v>
       </c>
       <c r="D61" t="n">
-        <v>0.588</v>
+        <v>0.638</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-3165.6765926012995, 4969.305370095775]</t>
+          <t>[-3011.1053682141037, 4935.510007113241]</t>
         </is>
       </c>
     </row>
@@ -3862,10 +3862,10 @@
         <v>3254.093850568087</v>
       </c>
       <c r="C62" t="n">
-        <v>1294.903059628875</v>
+        <v>1273.228009112445</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[807.8634779240904, 5699.990272780695]</t>
+          <t>[620.9406387331345, 5563.467281109745]</t>
         </is>
       </c>
     </row>
@@ -3888,7 +3888,7 @@
         <v>4084.950460272969</v>
       </c>
       <c r="C63" t="n">
-        <v>1193.595143354875</v>
+        <v>1248.108695241893</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[1693.5904694745734, 6373.276300498831]</t>
+          <t>[1596.7825776662125, 6384.172376284484]</t>
         </is>
       </c>
     </row>
@@ -3914,10 +3914,10 @@
         <v>5695.027791525999</v>
       </c>
       <c r="C64" t="n">
-        <v>3554.6700696475</v>
+        <v>3566.335780412331</v>
       </c>
       <c r="D64" t="n">
-        <v>0.082</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[310.30674004603236, 13278.531595912174]</t>
+          <t>[124.21322450180247, 13124.470886828938]</t>
         </is>
       </c>
     </row>
@@ -3940,7 +3940,7 @@
         <v>-4132.873313686068</v>
       </c>
       <c r="C65" t="n">
-        <v>526.2784084809514</v>
+        <v>511.0737081168922</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[-5046.102905216494, -2985.1073048126646]</t>
+          <t>[-5022.560954683491, -2964.2501626571284]</t>
         </is>
       </c>
     </row>
@@ -3966,10 +3966,10 @@
         <v>249.2130916895967</v>
       </c>
       <c r="C66" t="n">
-        <v>682.6300231250858</v>
+        <v>651.1031994981396</v>
       </c>
       <c r="D66" t="n">
-        <v>0.73</v>
+        <v>0.708</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[-1206.5764007706262, 1539.1119092051435]</t>
+          <t>[-1048.160219298554, 1495.346718722141]</t>
         </is>
       </c>
     </row>
@@ -3992,7 +3992,7 @@
         <v>8217.44643868383</v>
       </c>
       <c r="C67" t="n">
-        <v>668.5871183551706</v>
+        <v>640.140354872931</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[6776.3382556197175, 9521.832553510088]</t>
+          <t>[6912.966615128071, 9470.087707056206]</t>
         </is>
       </c>
     </row>
@@ -4018,10 +4018,10 @@
         <v>1173.770098474173</v>
       </c>
       <c r="C68" t="n">
-        <v>864.3294295867543</v>
+        <v>938.7322143401412</v>
       </c>
       <c r="D68" t="n">
-        <v>0.16</v>
+        <v>0.222</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[-437.5380476612438, 3095.156379648772]</t>
+          <t>[-720.3620204326795, 2908.007961151917]</t>
         </is>
       </c>
     </row>
@@ -4044,10 +4044,10 @@
         <v>803.2121176084255</v>
       </c>
       <c r="C69" t="n">
-        <v>762.077079654906</v>
+        <v>774.7003389983863</v>
       </c>
       <c r="D69" t="n">
-        <v>0.296</v>
+        <v>0.318</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-520.4158686708191, 2449.1499090494062]</t>
+          <t>[-610.5805154200939, 2340.2643661650927]</t>
         </is>
       </c>
     </row>
@@ -4070,7 +4070,7 @@
         <v>6111.370584599545</v>
       </c>
       <c r="C70" t="n">
-        <v>761.6526400900274</v>
+        <v>748.7415268434263</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[4577.857953932947, 7642.2150339187265]</t>
+          <t>[4848.700573923141, 7670.882566150293]</t>
         </is>
       </c>
     </row>
@@ -4096,10 +4096,10 @@
         <v>-531.2928019385158</v>
       </c>
       <c r="C71" t="n">
-        <v>375.9296693970694</v>
+        <v>372.3053883425853</v>
       </c>
       <c r="D71" t="n">
-        <v>0.158</v>
+        <v>0.17</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[-1285.6307593554839, 160.7381175697081]</t>
+          <t>[-1366.1455984494241, 94.42486072632568]</t>
         </is>
       </c>
     </row>
@@ -4122,10 +4122,10 @@
         <v>-812.5780992010716</v>
       </c>
       <c r="C72" t="n">
-        <v>532.5253242765938</v>
+        <v>516.6151145971628</v>
       </c>
       <c r="D72" t="n">
-        <v>0.104</v>
+        <v>0.13</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-1816.0418034898394, 232.73480703605426]</t>
+          <t>[-1835.239936610792, 238.1086340794997]</t>
         </is>
       </c>
     </row>
@@ -4148,10 +4148,10 @@
         <v>531.292801938538</v>
       </c>
       <c r="C73" t="n">
-        <v>375.9296693970673</v>
+        <v>372.3053883425836</v>
       </c>
       <c r="D73" t="n">
-        <v>0.158</v>
+        <v>0.17</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-160.73811756970866, 1285.6307593555134]</t>
+          <t>[-94.42486072632639, 1366.1455984494191]</t>
         </is>
       </c>
     </row>
@@ -4174,10 +4174,10 @@
         <v>-812.5780992011173</v>
       </c>
       <c r="C74" t="n">
-        <v>532.5253242765914</v>
+        <v>516.6151145971627</v>
       </c>
       <c r="D74" t="n">
-        <v>0.104</v>
+        <v>0.13</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-1816.041803489828, 232.73480703606182]</t>
+          <t>[-1835.2399366107898, 238.1086340795065]</t>
         </is>
       </c>
     </row>
@@ -4200,10 +4200,10 @@
         <v>-1309.262026740457</v>
       </c>
       <c r="C75" t="n">
-        <v>1237.31113406436</v>
+        <v>1171.764161584532</v>
       </c>
       <c r="D75" t="n">
-        <v>0.298</v>
+        <v>0.26</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-3825.9592322640847, 875.2220397841157]</t>
+          <t>[-3729.088280320855, 797.0715191367293]</t>
         </is>
       </c>
     </row>
@@ -4226,10 +4226,10 @@
         <v>-42.02048447960585</v>
       </c>
       <c r="C76" t="n">
-        <v>935.2513478906516</v>
+        <v>965.2003398802608</v>
       </c>
       <c r="D76" t="n">
-        <v>0.96</v>
+        <v>0.954</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-1737.2165420797837, 1737.8703767608024]</t>
+          <t>[-1951.872682328696, 1832.5323393581125]</t>
         </is>
       </c>
     </row>
@@ -4252,7 +4252,7 @@
         <v>-453.3148668215311</v>
       </c>
       <c r="C77" t="n">
-        <v>962.4199979933641</v>
+        <v>962.3144403049032</v>
       </c>
       <c r="D77" t="n">
         <v>0.63</v>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-2301.6335894775075, 1489.6539282483122]</t>
+          <t>[-2461.19787257031, 1227.720213208554]</t>
         </is>
       </c>
     </row>
@@ -4278,10 +4278,10 @@
         <v>-282.6548861615873</v>
       </c>
       <c r="C78" t="n">
-        <v>1389.566302703341</v>
+        <v>1327.392416369486</v>
       </c>
       <c r="D78" t="n">
-        <v>0.876</v>
+        <v>0.852</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-3376.3550172830032, 2040.8653195368806]</t>
+          <t>[-2862.950046447452, 2226.2755153882854]</t>
         </is>
       </c>
     </row>
@@ -4304,19 +4304,19 @@
         <v>2485.804494523773</v>
       </c>
       <c r="C79" t="n">
-        <v>1270.241690443524</v>
+        <v>1391.122044683179</v>
       </c>
       <c r="D79" t="n">
-        <v>0.046</v>
+        <v>0.074</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[167.49201048223313, 5140.901222357086]</t>
+          <t>[199.36756358972585, 5411.959639079352]</t>
         </is>
       </c>
     </row>
@@ -4330,10 +4330,10 @@
         <v>-868.6295858165531</v>
       </c>
       <c r="C80" t="n">
-        <v>974.95028667178</v>
+        <v>926.8686077913898</v>
       </c>
       <c r="D80" t="n">
-        <v>0.352</v>
+        <v>0.378</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-2979.0484647758362, 914.0479495565925]</t>
+          <t>[-2702.2200310529756, 679.921515905156]</t>
         </is>
       </c>
     </row>
@@ -4356,10 +4356,10 @@
         <v>-430.846758676667</v>
       </c>
       <c r="C81" t="n">
-        <v>931.1578686570446</v>
+        <v>948.7323819960205</v>
       </c>
       <c r="D81" t="n">
-        <v>0.646</v>
+        <v>0.648</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-2360.666987324861, 1136.4835044606775]</t>
+          <t>[-2300.5258737571658, 1436.867227592621]</t>
         </is>
       </c>
     </row>
@@ -4382,10 +4382,10 @@
         <v>1416.645235611109</v>
       </c>
       <c r="C82" t="n">
-        <v>1363.418546827009</v>
+        <v>1319.659238623212</v>
       </c>
       <c r="D82" t="n">
-        <v>0.314</v>
+        <v>0.264</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-972.8054322691239, 4277.0030251076005]</t>
+          <t>[-912.1705569719734, 4312.799576916926]</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
         <v>-1147.712198665326</v>
       </c>
       <c r="C83" t="n">
-        <v>1135.189167969114</v>
+        <v>1149.837280869355</v>
       </c>
       <c r="D83" t="n">
         <v>0.336</v>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-3295.2461854602525, 866.1900524348773]</t>
+          <t>[-3404.8528269170465, 1054.9974861656713]</t>
         </is>
       </c>
     </row>
@@ -4434,10 +4434,10 @@
         <v>958.0109438623117</v>
       </c>
       <c r="C84" t="n">
-        <v>953.0554006996283</v>
+        <v>996.4527517668529</v>
       </c>
       <c r="D84" t="n">
-        <v>0.336</v>
+        <v>0.354</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-927.3806246079407, 2601.8802470086025]</t>
+          <t>[-930.466840990638, 2903.4631423669643]</t>
         </is>
       </c>
     </row>
@@ -4896,10 +4896,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.333120735199074</v>
+        <v>1.314571877745403</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0429589874244217</v>
+        <v>0.07561611336972844</v>
       </c>
     </row>
     <row r="3">
@@ -4909,10 +4909,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.060874859493189</v>
+        <v>1.021714644171447</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03597511989753595</v>
+        <v>0.03074167189568109</v>
       </c>
     </row>
     <row r="4">
@@ -4922,10 +4922,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8265554756212602</v>
+        <v>0.8637289347769602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07297166111028741</v>
+        <v>0.06995590413339428</v>
       </c>
     </row>
     <row r="5">
@@ -4935,10 +4935,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5741993865210945</v>
+        <v>0.5697344782620102</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04619142453422911</v>
+        <v>0.02812408155725918</v>
       </c>
     </row>
     <row r="6">
@@ -4948,10 +4948,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4828270114412437</v>
+        <v>0.4820844229101771</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02652596574751957</v>
+        <v>0.07383500985691831</v>
       </c>
     </row>
     <row r="7">
@@ -4961,10 +4961,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.426246178512007</v>
+        <v>0.3746754883669788</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05093379193172853</v>
+        <v>0.04323240916948595</v>
       </c>
     </row>
     <row r="8">
@@ -4974,23 +4974,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3893728300493032</v>
+        <v>0.3691896775759217</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03808962560774973</v>
+        <v>0.03260833216437065</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3366675958894333</v>
+        <v>0.3543403953213937</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02470048893803798</v>
+        <v>0.01415574445905988</v>
       </c>
     </row>
     <row r="10">
@@ -5000,36 +5000,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3321012307755725</v>
+        <v>0.3265484010242942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02428866570442968</v>
+        <v>0.0322627333276219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3234597404985651</v>
+        <v>0.3057668711827352</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02345626480150037</v>
+        <v>0.01330387083885597</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2915529004594324</v>
+        <v>0.2811620028460593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02259495191928983</v>
+        <v>0.02684667535451965</v>
       </c>
     </row>
     <row r="13">
@@ -5039,23 +5039,23 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2790435854044552</v>
+        <v>0.2750558452869815</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02483680372499214</v>
+        <v>0.02871661787575797</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2779487228583249</v>
+        <v>0.2589137527172493</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01606321416793485</v>
+        <v>0.02395874703085088</v>
       </c>
     </row>
     <row r="15">
@@ -5065,10 +5065,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2142063380729486</v>
+        <v>0.2149794514998604</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02191195497890449</v>
+        <v>0.007147090237504226</v>
       </c>
     </row>
     <row r="16">
@@ -5078,36 +5078,36 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1933467608335609</v>
+        <v>0.2022757032617675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02124860572682773</v>
+        <v>0.01824285296894052</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1911354197340866</v>
+        <v>0.1934574807716219</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01872460280518176</v>
+        <v>0.02433885319521554</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1590216461933658</v>
+        <v>0.1870256642009522</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0168983567281297</v>
+        <v>0.01616058497047149</v>
       </c>
     </row>
     <row r="19">
@@ -5117,75 +5117,75 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.135525089400768</v>
+        <v>0.1700434939255406</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01075975303776969</v>
+        <v>0.01799501089312618</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1336925474255671</v>
+        <v>0.1265051331445396</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01650261707751643</v>
+        <v>0.01083194610552984</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1218338649020985</v>
+        <v>0.1250316790060087</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0263767806342308</v>
+        <v>0.009618109806816173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1198578801596811</v>
+        <v>0.1207240554848985</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0054967322963125</v>
+        <v>0.01530736110442475</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1163907420553183</v>
+        <v>0.1138835151907734</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02060221105083049</v>
+        <v>0.0133479616561732</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1079667160185965</v>
+        <v>0.1124146834128646</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01601280175420074</v>
+        <v>0.003895863135403721</v>
       </c>
     </row>
     <row r="25">
@@ -5195,36 +5195,36 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.09316733744659778</v>
+        <v>0.09869716848930346</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01825393080812288</v>
+        <v>0.01698281936976615</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.09050205525147792</v>
+        <v>0.08754351275146784</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0143742718309971</v>
+        <v>0.01247520799052905</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.07464758655109396</v>
+        <v>0.0790750636894435</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01191471042736286</v>
+        <v>0.01355911310565619</v>
       </c>
     </row>
     <row r="28">
@@ -5234,10 +5234,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.06721294882912225</v>
+        <v>0.07069140358432113</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01059129544705259</v>
+        <v>0.01280738168575503</v>
       </c>
     </row>
     <row r="29">
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.05173279696014974</v>
+        <v>0.05104245540299235</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01012180151952656</v>
+        <v>0.01137097067213039</v>
       </c>
     </row>
     <row r="30">
@@ -5260,49 +5260,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.05064547690459744</v>
+        <v>0.04733657128914914</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01434066139027519</v>
+        <v>0.008628584379146461</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04977029382263474</v>
+        <v>0.0460789326639444</v>
       </c>
       <c r="C31" t="n">
-        <v>0.006850188891958623</v>
+        <v>0.007124879003090898</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03812188366701152</v>
+        <v>0.03292500374845573</v>
       </c>
       <c r="C32" t="n">
-        <v>0.006226527911891961</v>
+        <v>0.007699044635249635</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.03555099261331396</v>
+        <v>0.03225178845441281</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01042965780210199</v>
+        <v>0.00506139733982551</v>
       </c>
     </row>
     <row r="34">
@@ -5312,10 +5312,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0318654665634321</v>
+        <v>0.03024792995624528</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006357122687208647</v>
+        <v>0.004412698003090147</v>
       </c>
     </row>
     <row r="35">
@@ -5325,10 +5325,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0262304515238164</v>
+        <v>0.02157078814687568</v>
       </c>
       <c r="C35" t="n">
-        <v>0.008480263390815099</v>
+        <v>0.005311022862254677</v>
       </c>
     </row>
     <row r="36">
@@ -5338,10 +5338,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02059120241143744</v>
+        <v>0.02036364543993321</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004835974857155777</v>
+        <v>0.00455175637553447</v>
       </c>
     </row>
     <row r="37">
@@ -5351,10 +5351,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01518113357251027</v>
+        <v>0.01902712913050943</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00269635503284068</v>
+        <v>0.004587432821999987</v>
       </c>
     </row>
     <row r="38">
@@ -5364,10 +5364,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01472521328857492</v>
+        <v>0.01627364628572982</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003839313917693701</v>
+        <v>0.002985389065213334</v>
       </c>
     </row>
     <row r="39">
@@ -5377,10 +5377,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01097343007824672</v>
+        <v>0.01198619347874115</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001671793557875543</v>
+        <v>0.003850417659229989</v>
       </c>
     </row>
     <row r="40">
@@ -5390,10 +5390,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.003855596450092902</v>
+        <v>0.004485816482559857</v>
       </c>
       <c r="C40" t="n">
-        <v>0.002204168605880113</v>
+        <v>0.003412365406528942</v>
       </c>
     </row>
     <row r="41">
@@ -5403,10 +5403,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.001198331698166211</v>
+        <v>0.002350654489905857</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001863146576388419</v>
+        <v>0.001689951679126601</v>
       </c>
     </row>
     <row r="42">
@@ -5416,10 +5416,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0004711399176490883</v>
+        <v>0.000156963438147617</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0005104713591593732</v>
+        <v>0.0003337269514632135</v>
       </c>
     </row>
   </sheetData>
@@ -5465,10 +5465,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0290782174517672</v>
+        <v>0.02806238368130183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002878035354592855</v>
+        <v>0.001243382192039179</v>
       </c>
     </row>
     <row r="3">
@@ -5478,10 +5478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006657603868342754</v>
+        <v>0.007066706196915407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00174381947177152</v>
+        <v>0.001100422937673873</v>
       </c>
     </row>
     <row r="4">
@@ -5491,36 +5491,36 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00438373365271596</v>
+        <v>0.004760736035312995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003553784068771151</v>
+        <v>0.0004234233611769353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002658397285750014</v>
+        <v>0.002491285884754801</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004336312182172049</v>
+        <v>0.0001879139581804848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00251379667839926</v>
+        <v>0.002458667100950329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001655159299147976</v>
+        <v>0.0003345596830351831</v>
       </c>
     </row>
     <row r="7">
@@ -5530,10 +5530,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001863622820080435</v>
+        <v>0.002063356621019486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001794273797926247</v>
+        <v>0.000225628951474364</v>
       </c>
     </row>
     <row r="8">
@@ -5543,75 +5543,75 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00121174627209435</v>
+        <v>0.001189794108622477</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001539832364847615</v>
+        <v>0.0002602558682648517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0009253571402812133</v>
+        <v>0.001072426495891765</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002345059652154729</v>
+        <v>0.0004696259045942935</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0008768706206244037</v>
+        <v>0.001048845071674554</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007223235654382922</v>
+        <v>0.0002409678408191553</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0008114668979225748</v>
+        <v>0.001022729135066514</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001098501764142121</v>
+        <v>0.0003945727488594506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.000746452882208537</v>
+        <v>0.0009868247535599784</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003801024298504798</v>
+        <v>0.000301898922897848</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006598740634553568</v>
+        <v>0.0007967968546115367</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006682365710535882</v>
+        <v>0.0001965364903430891</v>
       </c>
     </row>
     <row r="14">
@@ -5621,23 +5621,23 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0006356441598124541</v>
+        <v>0.00077077577537501</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001223640706568779</v>
+        <v>0.00019722879934706</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006173539099549874</v>
+        <v>0.0007249061626371401</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001653467551135173</v>
+        <v>0.0008769382714544215</v>
       </c>
     </row>
     <row r="16">
@@ -5647,36 +5647,36 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0005727720182611362</v>
+        <v>0.0006204894695839069</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001104075720328032</v>
+        <v>0.000179462849287063</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0005004347900392058</v>
+        <v>0.0004473756452417543</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001877498687242055</v>
+        <v>0.0003741256078344042</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.000326557631591573</v>
+        <v>0.0003676550163277615</v>
       </c>
       <c r="C18" t="n">
-        <v>8.902697750424165e-05</v>
+        <v>9.555435003758116e-05</v>
       </c>
     </row>
     <row r="19">
@@ -5686,49 +5686,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000306705151604314</v>
+        <v>0.0002816278056237964</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001418425906072432</v>
+        <v>8.389451493969439e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0002452973198237895</v>
+        <v>0.0002575742881939069</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001120835725349156</v>
+        <v>9.376320723388952e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0001595474205311032</v>
+        <v>0.0002178892613041272</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0002598702039410699</v>
+        <v>0.0001014250346077023</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0001372617192468395</v>
+        <v>0.0001775271349483409</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000125137352671971</v>
+        <v>8.177499811663251e-05</v>
       </c>
     </row>
     <row r="23">
@@ -5738,10 +5738,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.000104057800598234</v>
+        <v>0.0001332350880528077</v>
       </c>
       <c r="C23" t="n">
-        <v>5.253946745298969e-05</v>
+        <v>4.901803278204413e-05</v>
       </c>
     </row>
     <row r="24">
@@ -5751,244 +5751,244 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.900891316281466e-05</v>
+        <v>0.0001263618229680574</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0003169347284704188</v>
+        <v>0.0001920018001232661</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.73432498986093e-05</v>
+        <v>0.0001204764654181068</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004336406069707911</v>
+        <v>0.000136655732205739</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.937080035549603e-05</v>
+        <v>4.168247573692608e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>2.94326543647932e-05</v>
+        <v>0.0001746239247068129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.240659673528935e-05</v>
+        <v>3.801753379757411e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>2.523285341187091e-05</v>
+        <v>1.618374876902997e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.807901214734287e-05</v>
+        <v>2.772118037310811e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>9.121049061431322e-06</v>
+        <v>5.096266588688115e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.017259117817027e-05</v>
+        <v>2.636450809627711e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>2.789631904540096e-05</v>
+        <v>1.466386430013592e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.018865077770606e-06</v>
+        <v>2.213076715174012e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>2.419413072595896e-05</v>
+        <v>5.50610716376204e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.816487427053204e-06</v>
+        <v>1.510920677361138e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>5.806346553899958e-05</v>
+        <v>1.489863687204303e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.648982987112468e-06</v>
+        <v>1.487945144582614e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>9.723092505890826e-06</v>
+        <v>1.275737688432458e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.510720944120081e-06</v>
+        <v>1.418232033891797e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>3.191425081880389e-06</v>
+        <v>1.229292869731816e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.112177457470949e-07</v>
+        <v>1.045853987309275e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>1.730188798631544e-06</v>
+        <v>3.290891171472765e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.53691328361883e-07</v>
+        <v>8.477879876211958e-06</v>
       </c>
       <c r="C35" t="n">
-        <v>5.535144662836648e-06</v>
+        <v>8.245149727533167e-06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.706589647047622e-07</v>
+        <v>2.940672338191952e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>2.630886609969587e-06</v>
+        <v>6.442215110619396e-06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.07103688049304e-07</v>
+        <v>1.412000262623892e-06</v>
       </c>
       <c r="C37" t="n">
-        <v>3.91370899154973e-06</v>
+        <v>4.88292734452117e-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-9.185547652501569e-07</v>
+        <v>7.703491993860112e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>1.223157820532857e-05</v>
+        <v>1.509859841599441e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.039799982049949e-06</v>
+        <v>6.368887773833265e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>2.02414943110282e-06</v>
+        <v>2.880889585280263e-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-3.068070345890739e-06</v>
+        <v>4.762725076545849e-08</v>
       </c>
       <c r="C40" t="n">
-        <v>2.352468777238467e-05</v>
+        <v>1.074239875202474e-06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-3.18462346511339e-06</v>
+        <v>-9.929366661776129e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>4.684373815517804e-05</v>
+        <v>2.784983617169062e-06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-6.680708141448833e-06</v>
+        <v>-1.812593389751705e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0001460286036717828</v>
+        <v>2.233064515320824e-05</v>
       </c>
     </row>
   </sheetData>
@@ -6034,10 +6034,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2163077750535209</v>
+        <v>0.1945126712527064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03111850763913773</v>
+        <v>0.01931123828177844</v>
       </c>
     </row>
     <row r="3">
@@ -6047,62 +6047,62 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1091658195927618</v>
+        <v>0.09653002892073526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01016267731851976</v>
+        <v>0.0121314198087296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08502696818467448</v>
+        <v>0.07151749590970513</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009359843563504736</v>
+        <v>0.008849154375947365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07301532788310885</v>
+        <v>0.0682703733564283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008172638264242454</v>
+        <v>0.004184681993291336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04891661220742662</v>
+        <v>0.05099194956198112</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003695853777149162</v>
+        <v>0.004935960780257842</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03091571098328958</v>
+        <v>0.04436952840500423</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005076610617173459</v>
+        <v>0.004323162186658103</v>
       </c>
     </row>
     <row r="8">
@@ -6112,101 +6112,101 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03036013893780149</v>
+        <v>0.03174793116975638</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003435280565513352</v>
+        <v>0.002296891997108171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02819431426352343</v>
+        <v>0.025720745883772</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00462848312935549</v>
+        <v>0.002457990062644939</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02311572627380027</v>
+        <v>0.01744091035332127</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003387365820341779</v>
+        <v>0.002987965347164981</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02180073063303549</v>
+        <v>0.01718637146260029</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003487693275395008</v>
+        <v>0.002837942354949558</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0206220848179093</v>
+        <v>0.01520238744899833</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006589779074631651</v>
+        <v>0.001384925229779815</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01504221831138921</v>
+        <v>0.01418169524537998</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002901572654359435</v>
+        <v>0.00133198540087457</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01446857760161102</v>
+        <v>0.01333600695492676</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001052610366091555</v>
+        <v>0.001692991573296329</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0137916051514726</v>
+        <v>0.01206058097066482</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001270621221648355</v>
+        <v>0.001797080214822583</v>
       </c>
     </row>
     <row r="16">
@@ -6216,218 +6216,218 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01335211206235682</v>
+        <v>0.01115432780332433</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002438249065993773</v>
+        <v>0.0006406727022773273</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01030754388167827</v>
+        <v>0.01071375924160007</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001839695231884762</v>
+        <v>0.001914079767372538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.008033939939509072</v>
+        <v>0.01021281840008834</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001723171752582951</v>
+        <v>0.002937502042293369</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006575979169348822</v>
+        <v>0.008392097534846488</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001094137071772381</v>
+        <v>0.001383359627600466</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.006357298709033876</v>
+        <v>0.008365049700511662</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0008665344301748714</v>
+        <v>0.001539290529782603</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.006007348977028859</v>
+        <v>0.008181492758203124</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005792046912879865</v>
+        <v>0.001600685620661255</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00553471410558326</v>
+        <v>0.008126709111225127</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0006800498177448799</v>
+        <v>0.00158766658887848</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.005272977405407886</v>
+        <v>0.007819742341136093</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001023171183318015</v>
+        <v>0.001419773955435563</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.004859819471327386</v>
+        <v>0.007131090468536949</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001030142509593834</v>
+        <v>0.001936451215371207</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.004811596839973964</v>
+        <v>0.006578698747815248</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0008257702903463443</v>
+        <v>0.0014247298299007</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.004563266864196769</v>
+        <v>0.006451382779619807</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001602833542507999</v>
+        <v>0.001461627025755199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004331829493541694</v>
+        <v>0.006321418676985102</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0005989272910087351</v>
+        <v>0.001765455239428286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.003995708221728988</v>
+        <v>0.005305464293537487</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0005718572760954533</v>
+        <v>0.0005847343902360595</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003016191761086162</v>
+        <v>0.004933173357407017</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0006797897679188621</v>
+        <v>0.001580487606237976</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002755070264069115</v>
+        <v>0.004466330920430295</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0006817537279393471</v>
+        <v>0.0008230408848666596</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002326324307800332</v>
+        <v>0.003451591165630141</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0005225200608201543</v>
+        <v>0.001021110606376042</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001762616274385031</v>
+        <v>0.002981535072546992</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0005727088158879116</v>
+        <v>0.0003544799392107901</v>
       </c>
     </row>
     <row r="33">
@@ -6437,36 +6437,36 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001581519523893227</v>
+        <v>0.002955971091154064</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0004824829076546868</v>
+        <v>0.0002799229559348673</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001361282752206439</v>
+        <v>0.002838239245274488</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0004119054235193258</v>
+        <v>0.0005231643169158294</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0008629763808766455</v>
+        <v>0.001264115814298639</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0003100759850903619</v>
+        <v>0.0004306660359994465</v>
       </c>
     </row>
     <row r="36">
@@ -6476,55 +6476,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.000830681055855731</v>
+        <v>0.0007421834012504957</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0005225600827277054</v>
+        <v>0.000319424365799896</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0002197314951102314</v>
+        <v>0.0007081012537631714</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0001601850107372036</v>
+        <v>0.000357510318760552</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.0001365132088073873</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.226192564342715e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>7.142256466914354e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.000936943729683135</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -6537,7 +6537,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -6550,7 +6550,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -6603,10 +6603,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2114983920779756</v>
+        <v>0.2344471185884625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01214621576218909</v>
+        <v>0.02232893866756278</v>
       </c>
     </row>
     <row r="3">
@@ -6616,10 +6616,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04014309906579898</v>
+        <v>0.05160565095715024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01057498407001574</v>
+        <v>0.007613264571013145</v>
       </c>
     </row>
     <row r="4">
@@ -6629,140 +6629,140 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02682029167283375</v>
+        <v>0.03192989363265644</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003058403211643431</v>
+        <v>0.009737576560016538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02519229604486397</v>
+        <v>0.02040305861308684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00890925045612289</v>
+        <v>0.01192323681155977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02338729920918794</v>
+        <v>0.01972893040165531</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01366752194483098</v>
+        <v>0.009478034471611338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02068872454834496</v>
+        <v>0.01911658594608734</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01386633801362809</v>
+        <v>0.002284650749861287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008846612092340278</v>
+        <v>0.007735458050289035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004550325311059465</v>
+        <v>0.001213104956357334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007930051577362551</v>
+        <v>0.006247432918156282</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001703203678503381</v>
+        <v>0.002829422279863111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002734450615726303</v>
+        <v>0.002464237836471162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001487481650940358</v>
+        <v>0.000850675045006796</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00232648713768071</v>
+        <v>0.002248718754053125</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002020774018428349</v>
+        <v>0.001855863863543447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00216387285954438</v>
+        <v>0.001893936704187094</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007971255091972097</v>
+        <v>0.002338491577560917</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001969637884891107</v>
+        <v>0.00160050243079084</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001851321998566396</v>
+        <v>0.003645990864226578</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001685149757122129</v>
+        <v>0.001541137266148862</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002563862785893959</v>
+        <v>0.0005797164528712938</v>
       </c>
     </row>
     <row r="15">
@@ -6772,361 +6772,361 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001605655275290907</v>
+        <v>0.001510710329128062</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002049730548411156</v>
+        <v>0.001331351380840079</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001293030960441288</v>
+        <v>0.001188418253179324</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002775462363902212</v>
+        <v>0.001170442304707698</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001044187751242021</v>
+        <v>0.001143504251464167</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002512636656912355</v>
+        <v>0.002619183487100756</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0008059066509253032</v>
+        <v>0.0008403234224775513</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004193548880652595</v>
+        <v>0.003557184567925152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.601871555159008e-05</v>
+        <v>0.0002736616755214971</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002109429430196558</v>
+        <v>0.003072423097373342</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0002457628799462874</v>
+        <v>0.0002618791666380016</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00111100333982411</v>
+        <v>0.0017558203947458</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0004465817824152563</v>
+        <v>-0.0001506580749006448</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002472950133101655</v>
+        <v>0.001589167748391112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0008967962811111452</v>
+        <v>-0.001097242929146769</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001486366128476574</v>
+        <v>0.001690972872966082</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001039307340060813</v>
+        <v>-0.001167821437240235</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002312589865783546</v>
+        <v>0.001657564051193896</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.0010732734582376</v>
+        <v>-0.001467289195623356</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002413621954874428</v>
+        <v>0.006276597391583949</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001159093127238186</v>
+        <v>-0.001496364809291251</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00154437379874176</v>
+        <v>0.002168430462301569</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.001547913247758559</v>
+        <v>-0.001563742387082656</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002661059256700756</v>
+        <v>0.002622940730905132</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.001891304301251506</v>
+        <v>-0.001874506230252138</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002207324988041482</v>
+        <v>0.00197661970655773</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.00190371631106705</v>
+        <v>-0.001966750443048282</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001663356668013439</v>
+        <v>0.00181223626540555</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.002217623798715596</v>
+        <v>-0.001996460896435903</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001435774355197084</v>
+        <v>0.0007208550459690256</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.002325367045235627</v>
+        <v>-0.00220416554721905</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01201406522984012</v>
+        <v>0.001303990509638001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.002442727121275512</v>
+        <v>-0.00258349879302453</v>
       </c>
       <c r="C31" t="n">
-        <v>0.006965073041976935</v>
+        <v>0.01118870742175614</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.002496879142142494</v>
+        <v>-0.002703819724803957</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001683014147838038</v>
+        <v>0.001161977634049135</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.003020021989466781</v>
+        <v>-0.00270795380549993</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009856757977341916</v>
+        <v>0.004073103265943834</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.003134333202437212</v>
+        <v>-0.002745128179093137</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001049235659376548</v>
+        <v>0.00119273342020443</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.003175717345528173</v>
+        <v>-0.003038100968494639</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001826193555762619</v>
+        <v>0.00303215816671175</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.00385553504522762</v>
+        <v>-0.003083721465910671</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002758574699740838</v>
+        <v>0.01761949488837259</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.00426342445293737</v>
+        <v>-0.003793985435825564</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01735311512794629</v>
+        <v>0.000869332232415537</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.004268772523517583</v>
+        <v>-0.005630206682779182</v>
       </c>
       <c r="C38" t="n">
-        <v>0.001469876426474945</v>
+        <v>0.002207203062768203</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.006013879960436164</v>
+        <v>-0.008871596084289468</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003208176463421475</v>
+        <v>0.005665595094861241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.006763945897938916</v>
+        <v>-0.009153244774182289</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004799291052932656</v>
+        <v>0.006204311105466435</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.008230315393360055</v>
+        <v>-0.01011865641316869</v>
       </c>
       <c r="C41" t="n">
-        <v>0.004189050467570511</v>
+        <v>0.006431425238999536</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.008443308120974713</v>
+        <v>-0.01252475397606509</v>
       </c>
       <c r="C42" t="n">
-        <v>0.005725394407197122</v>
+        <v>0.002754539497596626</v>
       </c>
     </row>
   </sheetData>
@@ -7172,10 +7172,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2934826842497914</v>
+        <v>0.274278858368883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03571641131491859</v>
+        <v>0.01535353256676414</v>
       </c>
     </row>
     <row r="3">
@@ -7185,10 +7185,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1825303156619957</v>
+        <v>0.1863786511474715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01948651030597512</v>
+        <v>0.01081406155380967</v>
       </c>
     </row>
     <row r="4">
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0562394283606731</v>
+        <v>0.05233740144324088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005235079538517516</v>
+        <v>0.004751824653760681</v>
       </c>
     </row>
     <row r="5">
@@ -7211,62 +7211,62 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04301470686823732</v>
+        <v>0.0438553120496231</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005675623793384424</v>
+        <v>0.008662008433834642</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03237847757267942</v>
+        <v>0.03415026382757318</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002536988685533832</v>
+        <v>0.00779054822111195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03173947772295101</v>
+        <v>0.03293388004351474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004148569326418186</v>
+        <v>0.005384534443197591</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0300216239274552</v>
+        <v>0.03135741283501146</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002849045677289774</v>
+        <v>0.003091629356680261</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03001039073952898</v>
+        <v>0.02932190150869305</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002054113012733213</v>
+        <v>0.003751879098962897</v>
       </c>
     </row>
     <row r="10">
@@ -7276,36 +7276,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02579910842845865</v>
+        <v>0.0253574052621202</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002412600562535219</v>
+        <v>0.003060891488507449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02469193092279873</v>
+        <v>0.02401399003341664</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00625763937120829</v>
+        <v>0.001538770208057944</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02189925803202821</v>
+        <v>0.02296309540054904</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003591388456807644</v>
+        <v>0.004329673126066146</v>
       </c>
     </row>
     <row r="13">
@@ -7315,153 +7315,153 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02104788356380851</v>
+        <v>0.02018722210335178</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001030950491383684</v>
+        <v>0.003044721713158163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02037610716329288</v>
+        <v>0.01958533064472909</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002716470401811664</v>
+        <v>0.003702388288604102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01886800315778137</v>
+        <v>0.01817125374100701</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001391170508261802</v>
+        <v>0.003214530912732522</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01545704789052789</v>
+        <v>0.0172209440347294</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000992726630963346</v>
+        <v>0.001356426409417184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01457378200650765</v>
+        <v>0.01688865005639022</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000805233627608381</v>
+        <v>0.003498347275385728</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01347664459711722</v>
+        <v>0.01502320361879621</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001742576709788049</v>
+        <v>0.003392559239390071</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01330735812944095</v>
+        <v>0.0139835701470822</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003336990526784255</v>
+        <v>0.003623007093748785</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01301309300296785</v>
+        <v>0.01389512857568014</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0035586132141039</v>
+        <v>0.002574728075696861</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01286646508046789</v>
+        <v>0.0112184974117139</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003011465105371951</v>
+        <v>0.001663135784502251</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01063406520357826</v>
+        <v>0.01115670839605893</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002581705466304963</v>
+        <v>0.001990664335876458</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01051112226133471</v>
+        <v>0.01086335830042946</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002266733264055207</v>
+        <v>0.003353690120210898</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01024074391685716</v>
+        <v>0.01009801130186538</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0006619009030296544</v>
+        <v>0.005331421821014055</v>
       </c>
     </row>
     <row r="25">
@@ -7471,23 +7471,23 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009984880330860157</v>
+        <v>0.00961967945292248</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001606966237087708</v>
+        <v>0.002380115149218571</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009848705642181609</v>
+        <v>0.009277778458880092</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001361637445347969</v>
+        <v>0.002019978082254996</v>
       </c>
     </row>
     <row r="27">
@@ -7497,36 +7497,36 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009157363208358161</v>
+        <v>0.008127832028151816</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001994817263965406</v>
+        <v>0.001334901405106933</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.008351075865717839</v>
+        <v>0.007999898085045466</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001500275154912478</v>
+        <v>0.001339812902649362</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.007446441054764085</v>
+        <v>0.006712133812481258</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0009852039217970261</v>
+        <v>0.00169049384100525</v>
       </c>
     </row>
     <row r="30">
@@ -7536,10 +7536,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.006671487674333854</v>
+        <v>0.00608265271948989</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0006242967519856498</v>
+        <v>0.001701715843365644</v>
       </c>
     </row>
     <row r="31">
@@ -7549,10 +7549,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.005334990703058273</v>
+        <v>0.005429143425909477</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0008715782939413943</v>
+        <v>0.001191005794992954</v>
       </c>
     </row>
     <row r="32">
@@ -7562,10 +7562,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.005150061069506107</v>
+        <v>0.005005936609710382</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0007578268020313969</v>
+        <v>0.0009750892358741188</v>
       </c>
     </row>
     <row r="33">
@@ -7575,10 +7575,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.003391029961561509</v>
+        <v>0.003199693114398916</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0008124366372505085</v>
+        <v>0.0008210901849307785</v>
       </c>
     </row>
     <row r="34">
@@ -7588,10 +7588,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0007033282052325562</v>
+        <v>0.000524181803013768</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0001774427373266763</v>
+        <v>0.0002152266347728796</v>
       </c>
     </row>
     <row r="35">
@@ -7741,10 +7741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0001173961354122621</v>
+        <v>0.0001139740012101154</v>
       </c>
       <c r="C2" t="n">
-        <v>1.292455483808985e-05</v>
+        <v>8.432713455511632e-06</v>
       </c>
     </row>
     <row r="3">
@@ -7754,10 +7754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.816470479631519e-05</v>
+        <v>5.683752834317879e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>1.181669006410836e-05</v>
+        <v>4.79593675753837e-06</v>
       </c>
     </row>
     <row r="4">
@@ -7767,101 +7767,101 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.523162103427069e-05</v>
+        <v>3.497819379827405e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>4.124733866947234e-06</v>
+        <v>4.157578201417215e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.755981760862447e-05</v>
+        <v>2.697897872079302e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>5.33164178054693e-06</v>
+        <v>7.115911984035263e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.432303668480351e-05</v>
+        <v>2.394383748960394e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>3.668920609531047e-06</v>
+        <v>2.321843434361869e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.270847546164134e-05</v>
+        <v>2.326086717165943e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>3.597554614791408e-06</v>
+        <v>2.211005070552415e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.259021413162365e-05</v>
+        <v>2.073005095253322e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>1.4598329885825e-06</v>
+        <v>6.597214744615216e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.130871675829482e-05</v>
+        <v>1.908155197356543e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>8.567081342752031e-06</v>
+        <v>3.781968051823587e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.026977757658699e-05</v>
+        <v>1.505774114045621e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>3.02432540605542e-06</v>
+        <v>6.049871811095682e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.773623869025798e-05</v>
+        <v>1.418199906657591e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>6.15170846739322e-06</v>
+        <v>1.339119618537505e-05</v>
       </c>
     </row>
     <row r="12">
@@ -7871,49 +7871,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.184334666928244e-05</v>
+        <v>1.276827957004123e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>1.365533227768358e-06</v>
+        <v>2.480218548985951e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.016411164393993e-05</v>
+        <v>1.208165879038603e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>2.608147514158053e-06</v>
+        <v>2.299472091878174e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.862177209196688e-06</v>
+        <v>9.058080665447221e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>1.969993829783112e-06</v>
+        <v>1.798430673130307e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.2198628950092e-06</v>
+        <v>8.598991471631124e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>1.876265119523603e-06</v>
+        <v>1.012794254861232e-06</v>
       </c>
     </row>
     <row r="16">
@@ -7923,10 +7923,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.203579767362968e-06</v>
+        <v>8.546000640663465e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>1.808048282881301e-06</v>
+        <v>3.080108813890152e-06</v>
       </c>
     </row>
     <row r="17">
@@ -7936,10 +7936,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.891034917038241e-06</v>
+        <v>7.131864491016771e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>1.976441435562505e-06</v>
+        <v>1.52763353565668e-06</v>
       </c>
     </row>
     <row r="18">
@@ -7949,10 +7949,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.883952384611035e-06</v>
+        <v>5.832613352474425e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1.827180863202248e-06</v>
+        <v>1.372196451729638e-06</v>
       </c>
     </row>
     <row r="19">
@@ -7962,36 +7962,36 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.159808438508605e-06</v>
+        <v>4.283349657452362e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>1.773658062011876e-06</v>
+        <v>1.756492853691637e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.976109624703739e-06</v>
+        <v>4.209946676381193e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>1.229837008915596e-06</v>
+        <v>1.58518135319376e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.564479143314259e-06</v>
+        <v>3.738563547583951e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>1.9369604189782e-06</v>
+        <v>2.133674425369237e-06</v>
       </c>
     </row>
     <row r="22">
@@ -8001,23 +8001,23 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.425051083194575e-06</v>
+        <v>2.567358837168854e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>1.021705707059582e-06</v>
+        <v>7.791539175294745e-07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.376042598495332e-06</v>
+        <v>2.365155608119451e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>9.656528909475236e-07</v>
+        <v>2.305934905048959e-06</v>
       </c>
     </row>
     <row r="24">
@@ -8027,75 +8027,75 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.046776108333148e-06</v>
+        <v>1.812314834026552e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>1.127253907291786e-06</v>
+        <v>5.894895783610403e-07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.214911699998211e-06</v>
+        <v>1.744025963246187e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>8.102166039919372e-07</v>
+        <v>1.288805000818577e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.171050064341372e-06</v>
+        <v>1.314320776346634e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>4.077308339263483e-07</v>
+        <v>2.011028828264563e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.07027179230279e-06</v>
+        <v>1.176222390730786e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>1.112166099519993e-06</v>
+        <v>1.559722372594396e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.765280948619392e-07</v>
+        <v>1.133154088828192e-06</v>
       </c>
       <c r="C28" t="n">
-        <v>3.45740727303864e-06</v>
+        <v>7.79949335808885e-07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.629348831361682e-07</v>
+        <v>7.664982195176862e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>1.243037307552399e-06</v>
+        <v>3.918718742623205e-06</v>
       </c>
     </row>
     <row r="30">
@@ -8105,10 +8105,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.182937203558225e-07</v>
+        <v>6.149624105056262e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>1.2705846874526e-06</v>
+        <v>5.877088410100002e-07</v>
       </c>
     </row>
     <row r="31">
@@ -8118,10 +8118,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.362064446095104e-07</v>
+        <v>4.372592934398511e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>7.508496831846737e-07</v>
+        <v>8.657984710149252e-07</v>
       </c>
     </row>
     <row r="32">
@@ -8131,114 +8131,114 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.553054320537541e-07</v>
+        <v>4.346236083030419e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>2.581678737562148e-06</v>
+        <v>2.538377235722811e-06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.050754961846479e-07</v>
+        <v>2.599933508484753e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>3.535065097759039e-07</v>
+        <v>2.097691359183816e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.275232658137781e-07</v>
+        <v>2.248463348841767e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>1.087412866330563e-07</v>
+        <v>4.078468728197651e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193938594656885e-07</v>
+        <v>2.236311015479942e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>1.404596896332207e-07</v>
+        <v>1.844500389922433e-07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.907355269511697e-08</v>
+        <v>1.439324005758635e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>6.904209999252805e-08</v>
+        <v>1.02533174483082e-07</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.185984768869446e-08</v>
+        <v>1.15649328913392e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>1.353496575346384e-07</v>
+        <v>1.146931248918351e-07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.924312920235763e-08</v>
+        <v>5.413115475860764e-08</v>
       </c>
       <c r="C38" t="n">
-        <v>3.424911215791976e-07</v>
+        <v>1.558022424169744e-07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-8.197575507296051e-10</v>
+        <v>2.902516365033137e-08</v>
       </c>
       <c r="C39" t="n">
-        <v>1.000714064318817e-07</v>
+        <v>1.480424527219587e-07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-3.128603349722426e-08</v>
+        <v>-1.670104166073827e-08</v>
       </c>
       <c r="C40" t="n">
-        <v>1.346909689577553e-07</v>
+        <v>2.320462600336704e-07</v>
       </c>
     </row>
     <row r="41">
@@ -8248,23 +8248,23 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2.003573829956196e-07</v>
+        <v>-1.388072038199795e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>1.64024113201405e-07</v>
+        <v>1.011278349640801e-07</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-2.440854709018225e-07</v>
+        <v>-1.50172417079375e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>1.682025778262237e-07</v>
+        <v>1.635956678807536e-07</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_feature_info.xlsx
+++ b/examples/eCommerce_feature_info.xlsx
@@ -62,6 +62,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -77,74 +78,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -469,7 +402,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0757143</v>
+        <v>0.2407143</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -487,7 +420,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0344156</v>
+        <v>0.2177891</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -505,7 +438,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20044.29</v>
+        <v>15478.52</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -523,7 +456,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>694.65</v>
+        <v>15764.77</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -577,10 +510,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4247152342202482</v>
+        <v>0.3963971342066251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07581205329917387</v>
+        <v>0.05664101729700532</v>
       </c>
     </row>
     <row r="3">
@@ -590,10 +523,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04020018614716305</v>
+        <v>0.03882822141465044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006845837982052286</v>
+        <v>0.007772696837232726</v>
       </c>
     </row>
     <row r="4">
@@ -603,10 +536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02920556130021163</v>
+        <v>0.03045702496572786</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005487856961204183</v>
+        <v>0.005678006441154274</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +549,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02172598256958094</v>
+        <v>0.01868469667660562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003188815046728096</v>
+        <v>0.001812140807960162</v>
       </c>
     </row>
     <row r="6">
@@ -629,10 +562,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01521289412379105</v>
+        <v>0.01632847141260827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002771429356951193</v>
+        <v>0.001766712570844641</v>
       </c>
     </row>
     <row r="7">
@@ -642,10 +575,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01417131534641778</v>
+        <v>0.01251819307986517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002424723166117949</v>
+        <v>0.002320455929242288</v>
       </c>
     </row>
     <row r="8">
@@ -655,10 +588,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0122809672448607</v>
+        <v>0.01191458762363953</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009179441176187822</v>
+        <v>0.001995132769250855</v>
       </c>
     </row>
     <row r="9">
@@ -668,380 +601,380 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009525783906640384</v>
+        <v>0.009378648561031943</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001673100629327601</v>
+        <v>0.001729076455091766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007770187982876808</v>
+        <v>0.008518651334551163</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000864656685583622</v>
+        <v>0.001603749628165449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007254313058104889</v>
+        <v>0.008026001071496669</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001767121386151316</v>
+        <v>0.001528499201936862</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00680262953344879</v>
+        <v>0.008025392254530273</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009383228550551978</v>
+        <v>0.00179220998111022</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.006405303529450679</v>
+        <v>0.007276537050576804</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00263051415770229</v>
+        <v>0.0008249852431006303</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006165048487814117</v>
+        <v>0.006076379408877597</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005259232529503189</v>
+        <v>0.002175447820588718</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004088157378863233</v>
+        <v>0.005059286725750867</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005168552896421106</v>
+        <v>0.001839935425270642</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.002482676456243449</v>
+        <v>0.002567219512470764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004259581890551875</v>
+        <v>0.0004231165368901458</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001990215466187029</v>
+        <v>0.001906842491102845</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005699651621974289</v>
+        <v>0.0002565478548602075</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001717327521140377</v>
+        <v>0.001386901746027203</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0002648257556477564</v>
+        <v>0.0003110614623629785</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001016427262940645</v>
+        <v>0.001048664015393763</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001675384066419107</v>
+        <v>0.0006445171339577392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0008791941336899978</v>
+        <v>0.0009793503916685653</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0002829216989230979</v>
+        <v>0.0002511445516327296</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0004480009129077089</v>
+        <v>0.0008157967608327876</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001214212352767416</v>
+        <v>0.000266401849421621</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0004131438553213629</v>
+        <v>0.0007437733793334677</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002706454134124719</v>
+        <v>7.354914757489285e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0003133917696838573</v>
+        <v>0.0006868134800503744</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0001860159232677683</v>
+        <v>7.169672394879403e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0003032819392300601</v>
+        <v>0.0002543534303913741</v>
       </c>
       <c r="C24" t="n">
-        <v>8.975871694494497e-05</v>
+        <v>0.0001204103085761492</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0002804308271017409</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>6.207103452542779e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0002437478101253054</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000393869618839169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0001634193201803136</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>4.295481542165654e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0001429383827870945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>4.666895932738545e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0001373388907374595</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>8.665207370295449e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0001087729634156931</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>6.788396367674069e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.163183002725006e-05</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.466205576064238e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.148909877314757e-05</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>3.995114454565373e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.596390953335085e-05</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.80836467950929e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.651162128825771e-05</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>4.803941646552094e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.524609038287664e-05</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.342250852594969e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.199386276548701e-05</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1.814927513843457e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.766035195433726e-05</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.271399354797555e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1054,7 +987,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1067,7 +1000,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1080,7 +1013,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1093,7 +1026,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1146,10 +1079,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003283027484660028</v>
+        <v>0.000367736454855816</v>
       </c>
       <c r="C2" t="n">
-        <v>3.732567623952407e-05</v>
+        <v>5.21018528542923e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1159,10 +1092,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001393481367653049</v>
+        <v>0.0001969216904892601</v>
       </c>
       <c r="C3" t="n">
-        <v>4.519427532539586e-05</v>
+        <v>3.539981031585177e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1172,10 +1105,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.035287866001937e-05</v>
+        <v>6.347143580383019e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>2.530083488475382e-06</v>
+        <v>4.42802244690413e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1185,62 +1118,62 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.001585404096452e-05</v>
+        <v>3.804193913024001e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>7.085651715229561e-06</v>
+        <v>4.044875644344334e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.885814394561926e-05</v>
+        <v>3.327544684448291e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.115925536338324e-05</v>
+        <v>2.879027669612926e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.681903213763605e-05</v>
+        <v>3.197042790281657e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>5.757582551752407e-06</v>
+        <v>2.272562840522519e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.863533732453405e-05</v>
+        <v>2.003054452783815e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>6.22859387955722e-06</v>
+        <v>6.447896301488454e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.290392277335407e-05</v>
+        <v>1.476471632324561e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.064573684357711e-05</v>
+        <v>6.085820313814961e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1250,49 +1183,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.309265555184957e-05</v>
+        <v>1.326996101971289e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>2.095960369564525e-06</v>
+        <v>5.205589144584383e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.155374212618021e-05</v>
+        <v>1.265470839753036e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>5.269681958084733e-06</v>
+        <v>1.934355241005686e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.153628369849891e-05</v>
+        <v>1.125185392782946e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>7.035632680411142e-07</v>
+        <v>2.595826972765088e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.092827038688959e-05</v>
+        <v>8.853864213831385e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>1.786622158385751e-06</v>
+        <v>1.50969704550242e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1302,10 +1235,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.745794020941333e-06</v>
+        <v>7.818440777995761e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>1.949813728337438e-06</v>
+        <v>2.53558438193233e-06</v>
       </c>
     </row>
     <row r="15">
@@ -1315,75 +1248,75 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.432727114364823e-06</v>
+        <v>7.235556273244015e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>8.0265156715606e-07</v>
+        <v>1.605761916432451e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.185705007817233e-06</v>
+        <v>6.956734160512568e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>5.968795281284004e-06</v>
+        <v>3.132293373314447e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.535193948442597e-06</v>
+        <v>6.49193348878363e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>6.399819640799813e-06</v>
+        <v>1.1221975339292e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.07014538650985e-06</v>
+        <v>5.111668382173917e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1.605725493574546e-06</v>
+        <v>2.144716346406691e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.974220841713617e-06</v>
+        <v>4.999667233596128e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>1.103658456469784e-06</v>
+        <v>7.801518772884527e-07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.484881359045901e-06</v>
+        <v>4.571840551070849e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>2.256685819248044e-06</v>
+        <v>1.615373086562539e-06</v>
       </c>
     </row>
     <row r="21">
@@ -1393,166 +1326,166 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.463530361364931e-06</v>
+        <v>4.19545428704815e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>1.845316839257913e-06</v>
+        <v>1.913596702856708e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.835465777557445e-06</v>
+        <v>3.889262787426517e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>1.696440546644389e-06</v>
+        <v>8.897782727148933e-07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.271508598106209e-06</v>
+        <v>3.46987295287704e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>2.259782825706471e-06</v>
+        <v>4.379129186154292e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.220327570379155e-06</v>
+        <v>3.463827342509163e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>2.074413032166574e-06</v>
+        <v>5.279148211850767e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.116165541066195e-06</v>
+        <v>3.389196633474256e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>4.483442014205408e-07</v>
+        <v>5.813338844576786e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.509212843808783e-06</v>
+        <v>2.386458937841951e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>2.115298770050713e-06</v>
+        <v>2.462564045732581e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.402430907799129e-07</v>
+        <v>2.022718295346948e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>7.046367638802077e-07</v>
+        <v>1.311965021971872e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.981842846416782e-07</v>
+        <v>1.279330161940706e-06</v>
       </c>
       <c r="C28" t="n">
-        <v>1.033684129795905e-06</v>
+        <v>7.733905700460422e-07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.622471759610278e-07</v>
+        <v>8.050871944220717e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>1.886916092012988e-07</v>
+        <v>4.885347776548031e-06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.316189693678638e-07</v>
+        <v>4.363633796078403e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>6.720339545894561e-07</v>
+        <v>6.065093609295058e-07</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.227487226529433e-07</v>
+        <v>3.102089520368167e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>7.643115767003562e-08</v>
+        <v>5.257879654232993e-07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.931558635374756e-08</v>
+        <v>2.272487061638628e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>1.176593742675251e-07</v>
+        <v>8.861731711085996e-07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.58156544141741e-08</v>
+        <v>1.516489893216288e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>2.913862229791172e-07</v>
+        <v>1.129103005692517e-07</v>
       </c>
     </row>
     <row r="34">
@@ -1562,114 +1495,114 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-5.951710857488024e-09</v>
+        <v>1.826372786339903e-09</v>
       </c>
       <c r="C34" t="n">
-        <v>6.32758162113223e-09</v>
+        <v>7.740869660488958e-09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-9.021392344266133e-09</v>
+        <v>-3.808581450215343e-09</v>
       </c>
       <c r="C35" t="n">
-        <v>3.148813723798769e-07</v>
+        <v>8.979795199817392e-08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-3.554360324731221e-07</v>
+        <v>-1.559833360254004e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>5.710897744426517e-07</v>
+        <v>1.261083952270835e-07</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-5.148918437392069e-07</v>
+        <v>-4.273538016796863e-08</v>
       </c>
       <c r="C37" t="n">
-        <v>5.174137898423309e-07</v>
+        <v>3.278587525766345e-07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.455006351073877e-07</v>
+        <v>-1.096973947234403e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>5.522242775839976e-07</v>
+        <v>1.893640694142432e-07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-6.369647108428467e-07</v>
+        <v>-1.919697020458244e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>9.793622612404427e-07</v>
+        <v>7.669648938342024e-07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-7.623299387304883e-07</v>
+        <v>-5.081375974658186e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>5.006274258543426e-06</v>
+        <v>1.647615261331101e-07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.657528416920684e-06</v>
+        <v>-8.018636540985114e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>1.599016154347553e-06</v>
+        <v>8.611088752317984e-07</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.750482897833194e-06</v>
+        <v>-2.671784089569585e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>5.939993479795324e-06</v>
+        <v>1.254618656377885e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1711,27 +1644,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2609571964635989</v>
+        <v>0.2741468611973035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01209835356409555</v>
+        <v>0.0205657798442613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2530369463340925</v>
+        <v>0.2649485276767503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01708525432095758</v>
+        <v>0.01017646182884483</v>
       </c>
     </row>
     <row r="4">
@@ -1741,10 +1674,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04368468133637242</v>
+        <v>0.04620114672395863</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004243950003320365</v>
+        <v>0.003696653952144893</v>
       </c>
     </row>
     <row r="5">
@@ -1754,10 +1687,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04116710915168853</v>
+        <v>0.04610460431648997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004913230102941493</v>
+        <v>0.006744633366995573</v>
       </c>
     </row>
     <row r="6">
@@ -1767,10 +1700,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03938222121710074</v>
+        <v>0.04113112966577639</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00407908272186639</v>
+        <v>0.004131423576565862</v>
       </c>
     </row>
     <row r="7">
@@ -1780,10 +1713,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03092178088547528</v>
+        <v>0.03019676674023726</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00156289491964791</v>
+        <v>0.00133873008802009</v>
       </c>
     </row>
     <row r="8">
@@ -1793,114 +1726,114 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0245669799064506</v>
+        <v>0.02320567578817707</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001853008604713035</v>
+        <v>0.001273591036810784</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02437195492870079</v>
+        <v>0.02270144686763522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002434049323893935</v>
+        <v>0.001836856623485282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02266850302414904</v>
+        <v>0.0222750193312075</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002368652737423977</v>
+        <v>0.002229914864728662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02225892018175961</v>
+        <v>0.02050426778465693</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001642221486452529</v>
+        <v>0.0007822547612897035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02056965685241865</v>
+        <v>0.02005475779886541</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001213624681884448</v>
+        <v>0.001147316766165348</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0174314437052675</v>
+        <v>0.01791580375841133</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001886174688460621</v>
+        <v>0.002228180406142301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01657351956083379</v>
+        <v>0.01752376177635602</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002733464133708115</v>
+        <v>0.002481514753797842</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0157179479147105</v>
+        <v>0.01679506453609041</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001042605561687424</v>
+        <v>0.000414460897259328</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01563028905467385</v>
+        <v>0.01615526862327772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001934002909646102</v>
+        <v>0.001239037598023496</v>
       </c>
     </row>
     <row r="17">
@@ -1910,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01342459075979254</v>
+        <v>0.01457567296906792</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001232862555120605</v>
+        <v>0.00171171462235511</v>
       </c>
     </row>
     <row r="18">
@@ -1923,10 +1856,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01294965059189934</v>
+        <v>0.01359817279309379</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004962569150912085</v>
+        <v>0.0003750765282172774</v>
       </c>
     </row>
     <row r="19">
@@ -1936,10 +1869,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0108142122705946</v>
+        <v>0.01059137655447566</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0008503448130642889</v>
+        <v>0.001078920117552915</v>
       </c>
     </row>
     <row r="20">
@@ -1949,49 +1882,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01037863495938394</v>
+        <v>0.01000762254877461</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001621498190419007</v>
+        <v>0.00231269947347934</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.008865742109734143</v>
+        <v>0.00841079357942609</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0002698804651383855</v>
+        <v>0.0005666104012110677</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0086962285499665</v>
+        <v>0.008353353228351046</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001541195406128935</v>
+        <v>0.0005076431462031161</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.008611244489371894</v>
+        <v>0.007708273752669759</v>
       </c>
       <c r="C23" t="n">
-        <v>0.000776437263951989</v>
+        <v>0.0008687509992863632</v>
       </c>
     </row>
     <row r="24">
@@ -2001,23 +1934,23 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.007850424018075518</v>
+        <v>0.007565081832552512</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004742458398236585</v>
+        <v>0.0001453764668725324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.007757888603659202</v>
+        <v>0.007167194020272749</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005962769407482532</v>
+        <v>0.0008243707150596676</v>
       </c>
     </row>
     <row r="26">
@@ -2027,10 +1960,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.007329779686927784</v>
+        <v>0.006976805245344631</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0007766176224742612</v>
+        <v>0.0006172392906435763</v>
       </c>
     </row>
     <row r="27">
@@ -2040,10 +1973,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.007182915046485138</v>
+        <v>0.006881354907214909</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001056051960998171</v>
+        <v>0.0008223755709525056</v>
       </c>
     </row>
     <row r="28">
@@ -2053,10 +1986,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.006369139941572311</v>
+        <v>0.006488787336501267</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000581544823292692</v>
+        <v>0.0003539969162384705</v>
       </c>
     </row>
     <row r="29">
@@ -2066,10 +1999,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00575608293059493</v>
+        <v>0.006063422005798636</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0004422385799160127</v>
+        <v>0.0004510666520290366</v>
       </c>
     </row>
     <row r="30">
@@ -2079,10 +2012,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.005687712213570895</v>
+        <v>0.005638925259104232</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0004012198779540696</v>
+        <v>0.000577096646835155</v>
       </c>
     </row>
     <row r="31">
@@ -2092,36 +2025,36 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003865569765608079</v>
+        <v>0.00363807464485657</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0005408953643083156</v>
+        <v>0.0003342233499156699</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0029839443934363</v>
+        <v>0.002989938895005784</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001853056073966591</v>
+        <v>0.0002877431775733088</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.002604699293144441</v>
+        <v>0.0029474929680396</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002720443738276251</v>
+        <v>0.0003011079325426845</v>
       </c>
     </row>
     <row r="34">
@@ -2131,10 +2064,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.002248889331531867</v>
+        <v>0.002295455473785513</v>
       </c>
       <c r="C34" t="n">
-        <v>9.391951943874022e-05</v>
+        <v>0.0002150442108171254</v>
       </c>
     </row>
     <row r="35">
@@ -2144,10 +2077,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0005570241842753453</v>
+        <v>0.0005689793203966786</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0001140898951151045</v>
+        <v>5.165886972700041e-05</v>
       </c>
     </row>
     <row r="36">
@@ -2157,10 +2090,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0004503491568550455</v>
+        <v>0.0004211374072150997</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0001020753178758473</v>
+        <v>9.238134754577846e-05</v>
       </c>
     </row>
     <row r="37">
@@ -2252,7 +2185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2299,10 +2232,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16788.47627335299</v>
+        <v>16791.42373427651</v>
       </c>
       <c r="C2" t="n">
-        <v>928.0559748977249</v>
+        <v>874.7633607322605</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2314,7 +2247,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[15253.986659897046, 18918.797718270973]</t>
+          <t>[15358.572300359549, 18802.160432755038]</t>
         </is>
       </c>
     </row>
@@ -2325,13 +2258,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-91.53761092591472</v>
+        <v>-89.95422393596843</v>
       </c>
       <c r="C3" t="n">
-        <v>400.8517485064399</v>
+        <v>376.8943965256112</v>
       </c>
       <c r="D3" t="n">
-        <v>0.764</v>
+        <v>0.774</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2340,7 +2273,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-1012.0835915990853, 664.2574368426667]</t>
+          <t>[-883.2242076253771, 635.5220636071465]</t>
         </is>
       </c>
     </row>
@@ -2351,13 +2284,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-162.8164257652647</v>
+        <v>-161.459273517115</v>
       </c>
       <c r="C4" t="n">
-        <v>391.2878659390162</v>
+        <v>390.6557385376696</v>
       </c>
       <c r="D4" t="n">
-        <v>0.624</v>
+        <v>0.63</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2366,7 +2299,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-983.6213057509567, 591.8615684168606]</t>
+          <t>[-938.5839614331845, 630.8698804865498]</t>
         </is>
       </c>
     </row>
@@ -2377,13 +2310,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-325.7220449438254</v>
+        <v>-324.3952101077678</v>
       </c>
       <c r="C5" t="n">
-        <v>417.8414886001514</v>
+        <v>443.2129454012879</v>
       </c>
       <c r="D5" t="n">
-        <v>0.374</v>
+        <v>0.394</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2392,7 +2325,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1173.0160688126957, 529.1648891488818]</t>
+          <t>[-1303.9294771558307, 440.98836542537754]</t>
         </is>
       </c>
     </row>
@@ -2403,13 +2336,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-294.9238675569628</v>
+        <v>-293.5496083084469</v>
       </c>
       <c r="C6" t="n">
-        <v>486.4243866347623</v>
+        <v>458.3641244755553</v>
       </c>
       <c r="D6" t="n">
-        <v>0.596</v>
+        <v>0.534</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2418,7 +2351,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-1288.943885416297, 550.7610520787567]</t>
+          <t>[-1227.6565507537143, 510.31560931697516]</t>
         </is>
       </c>
     </row>
@@ -2429,13 +2362,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-565.6940880776882</v>
+        <v>-565.469273512419</v>
       </c>
       <c r="C7" t="n">
-        <v>558.2588729463642</v>
+        <v>515.2557645282607</v>
       </c>
       <c r="D7" t="n">
-        <v>0.288</v>
+        <v>0.242</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2444,7 +2377,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-1846.282494600563, 374.23753448883286]</t>
+          <t>[-1587.665593084772, 359.40206466356454]</t>
         </is>
       </c>
     </row>
@@ -2581,17 +2514,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Good Friday'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Easter Monday [England, Wales, Northern Ireland]'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1369.354415763941</v>
+        <v>-1244.086607932517</v>
       </c>
       <c r="C13" t="n">
-        <v>1155.277232763062</v>
+        <v>1011.084201447662</v>
       </c>
       <c r="D13" t="n">
-        <v>0.144</v>
+        <v>0.138</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2600,24 +2533,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-3856.338709435722, 0.0]</t>
+          <t>[-3255.386705847795, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Good Friday_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Easter Monday [England, Wales, Northern Ireland]_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.776735328544</v>
+        <v>-300.7654787761812</v>
       </c>
       <c r="C14" t="n">
-        <v>321.9453381520605</v>
+        <v>314.1212911009313</v>
       </c>
       <c r="D14" t="n">
-        <v>0.182</v>
+        <v>0.172</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2626,24 +2559,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-18.935407824031408, 1025.2357480025262]</t>
+          <t>[-1090.4236060241549, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Good Friday_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Easter Monday [England, Wales, Northern Ireland]_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>241.4216232171946</v>
+        <v>163.0799016410335</v>
       </c>
       <c r="C15" t="n">
-        <v>288.0412083057199</v>
+        <v>253.961959352078</v>
       </c>
       <c r="D15" t="n">
-        <v>0.232</v>
+        <v>0.306</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2652,24 +2585,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-76.08000585519767, 938.0108529797864]</t>
+          <t>[-212.31880198426737, 824.0638923006964]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Good Friday_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Easter Monday [England, Wales, Northern Ireland]_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>174.0399841998092</v>
+        <v>56.3091969861301</v>
       </c>
       <c r="C16" t="n">
-        <v>277.2259621206777</v>
+        <v>296.1686661609435</v>
       </c>
       <c r="D16" t="n">
-        <v>0.326</v>
+        <v>0.522</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2678,24 +2611,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-227.9392324619165, 854.7853818971889]</t>
+          <t>[-529.7036592491763, 716.9338055024157]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Good Friday_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Easter Monday [England, Wales, Northern Ireland]_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-316.7410838874658</v>
+        <v>144.4601546998753</v>
       </c>
       <c r="C17" t="n">
-        <v>336.6970102401405</v>
+        <v>264.0117212338763</v>
       </c>
       <c r="D17" t="n">
-        <v>0.176</v>
+        <v>0.352</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2704,24 +2637,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[-1055.689314398718, 0.0]</t>
+          <t>[-263.9044974184757, 764.726273165939]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Independence Day'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Good Friday'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-680.2252465834899</v>
+        <v>-1371.56897012804</v>
       </c>
       <c r="C18" t="n">
-        <v>1093.287981553724</v>
+        <v>1124.758921199158</v>
       </c>
       <c r="D18" t="n">
-        <v>0.536</v>
+        <v>0.124</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2730,50 +2663,50 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-2957.6264058628944, 1096.826625686826]</t>
+          <t>[-3670.1991568382573, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Independence Day_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Good Friday_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1403.363970343245</v>
+        <v>300.3017963100873</v>
       </c>
       <c r="C19" t="n">
-        <v>855.0007213264865</v>
+        <v>290.6605038635337</v>
       </c>
       <c r="D19" t="n">
-        <v>0.054</v>
+        <v>0.17</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-3087.3610840588008, 0.0]</t>
+          <t>[-68.91825899596097, 967.3918109213889]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Independence Day_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Good Friday_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-421.721630587085</v>
+        <v>240.74258678951</v>
       </c>
       <c r="C20" t="n">
-        <v>350.6524047443406</v>
+        <v>283.0594822111848</v>
       </c>
       <c r="D20" t="n">
-        <v>0.162</v>
+        <v>0.242</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2782,24 +2715,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-1263.4622169212912, 39.92888940625613]</t>
+          <t>[-151.448781651354, 947.5208273380176]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Independence Day_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Good Friday_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-968.4160742487336</v>
+        <v>163.0799016410309</v>
       </c>
       <c r="C21" t="n">
-        <v>1052.19022261413</v>
+        <v>253.9619593520778</v>
       </c>
       <c r="D21" t="n">
-        <v>0.38</v>
+        <v>0.306</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2808,24 +2741,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-3069.0674701259395, 632.2141703004645]</t>
+          <t>[-212.31880198426737, 824.0638923006987]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Independence Day_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Good Friday_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>483.5008981719257</v>
+        <v>-300.7654787761834</v>
       </c>
       <c r="C22" t="n">
-        <v>909.7777965421368</v>
+        <v>314.1212911009314</v>
       </c>
       <c r="D22" t="n">
-        <v>0.608</v>
+        <v>0.172</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2834,24 +2767,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-1091.06699609191, 2350.7525232117396]</t>
+          <t>[-1090.4236060241558, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Labor Day'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Independence Day'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-614.4348274974396</v>
+        <v>-683.7703120099054</v>
       </c>
       <c r="C23" t="n">
-        <v>607.567786724583</v>
+        <v>1094.236530186874</v>
       </c>
       <c r="D23" t="n">
-        <v>0.176</v>
+        <v>0.512</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2860,102 +2793,102 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-2053.1769311260377, 159.50716218494574]</t>
+          <t>[-3006.0991900501076, 1048.231907152146]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Labor Day_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Independence Day_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-142.5600254640396</v>
+        <v>-1403.911501198429</v>
       </c>
       <c r="C24" t="n">
-        <v>586.3345611438084</v>
+        <v>819.1802897769794</v>
       </c>
       <c r="D24" t="n">
-        <v>0.834</v>
+        <v>0.05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-1542.8315529974846, 934.2755408367038]</t>
+          <t>[-3147.630408805204, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Labor Day_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Independence Day_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1343.766178365504</v>
+        <v>-421.1532303449703</v>
       </c>
       <c r="C25" t="n">
-        <v>894.081637365676</v>
+        <v>365.8676726967205</v>
       </c>
       <c r="D25" t="n">
-        <v>0.074</v>
+        <v>0.176</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-3047.159448191257, 0.0]</t>
+          <t>[-1266.2238661630474, 48.87244732213971]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Labor Day_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Independence Day_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-2505.411476258236</v>
+        <v>-968.904769903158</v>
       </c>
       <c r="C26" t="n">
-        <v>1474.769158089975</v>
+        <v>1068.07839572804</v>
       </c>
       <c r="D26" t="n">
-        <v>0.046</v>
+        <v>0.37</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-5018.3037559153745, 0.0]</t>
+          <t>[-3344.5200512527954, 673.8470303085478]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Labor Day_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Independence Day_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-768.10748773818</v>
+        <v>484.4056345946839</v>
       </c>
       <c r="C27" t="n">
-        <v>689.2783719379298</v>
+        <v>915.3655466352185</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218</v>
+        <v>0.592</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2964,24 +2897,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[-2075.4064152002265, 309.25645827013557]</t>
+          <t>[-1132.9584864818223, 2328.8955048521666]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Memorial Day'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Labor Day'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1440.38715965347</v>
+        <v>-617.5760849830781</v>
       </c>
       <c r="C28" t="n">
-        <v>1266.971833734289</v>
+        <v>587.9225183560151</v>
       </c>
       <c r="D28" t="n">
-        <v>0.14</v>
+        <v>0.194</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2990,24 +2923,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-4063.084610001276, 0.0]</t>
+          <t>[-1861.570337992489, 209.27849448646074]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Memorial Day_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Labor Day_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-243.4662646546725</v>
+        <v>-143.5507188908906</v>
       </c>
       <c r="C29" t="n">
-        <v>293.8940964231725</v>
+        <v>578.6818962110082</v>
       </c>
       <c r="D29" t="n">
-        <v>0.198</v>
+        <v>0.876</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3016,76 +2949,76 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[-975.6910851630303, 105.1019565627133]</t>
+          <t>[-1447.0190980075429, 822.3788533481153]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Memorial Day_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Labor Day_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>215.5963270310038</v>
+        <v>-1344.07602517785</v>
       </c>
       <c r="C30" t="n">
-        <v>298.9239720295374</v>
+        <v>864.6910543111237</v>
       </c>
       <c r="D30" t="n">
-        <v>0.246</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[-181.7606031938698, 982.317747511758]</t>
+          <t>[-3235.442548550002, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Memorial Day_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Labor Day_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-708.4294749777673</v>
+        <v>-2508.719363027205</v>
       </c>
       <c r="C31" t="n">
-        <v>675.5617749885338</v>
+        <v>1410.308021060975</v>
       </c>
       <c r="D31" t="n">
-        <v>0.166</v>
+        <v>0.042</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>*</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-2114.968784971146, 0.0]</t>
+          <t>[-5056.014496698799, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Memorial Day_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Labor Day_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-815.1138010026432</v>
+        <v>-766.7405189790807</v>
       </c>
       <c r="C32" t="n">
-        <v>687.04866353549</v>
+        <v>741.2192107458308</v>
       </c>
       <c r="D32" t="n">
-        <v>0.128</v>
+        <v>0.226</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3094,24 +3027,24 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-2109.909115021297, 0.0]</t>
+          <t>[-2328.4994087763694, 315.87874491472735]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_New Years Day'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Memorial Day'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>-1442.822379320156</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1205.100252866881</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.132</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3120,24 +3053,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-4026.2367731965746, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_New Years Day_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Memorial Day_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-243.5331645308964</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>304.030265624632</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.264</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3146,24 +3079,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-961.9172828221635, 133.1341538247595]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_New Years Day_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Memorial Day_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>216.40383920652</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>290.9292845763935</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0.238</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3172,24 +3105,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-130.30255681674842, 943.7323595732486]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_New Years Day_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Memorial Day_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-708.6364672247546</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>639.0290045061598</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.142</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3198,24 +3131,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-2129.3560042512477, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_New Years Day_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Memorial Day_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-814.194358881481</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>700.4774019400473</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.148</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3224,50 +3157,50 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-2194.585016824276, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Other'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_New Years Day'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-4265.798696073532</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1580.440897864595</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>**</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-7354.015710053868, -1090.908748410399]</t>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Other_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_New Years Day_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-630.7833322767724</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1377.453307167781</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.666</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3276,24 +3209,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-3177.031219405316, 2346.88813551197]</t>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Other_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_New Years Day_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1198.260720671934</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1395.458020445561</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.394</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3302,24 +3235,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-3974.9163336059355, 1527.5885729399674]</t>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Other_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_New Years Day_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-570.3969202951428</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1927.424974222629</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.762</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3328,24 +3261,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-4167.687673618771, 3505.0070627487385]</t>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Other_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_New Years Day_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1575.345523600358</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1464.788995149837</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.258</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3354,50 +3287,50 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-1160.2651515910443, 4488.018968896746]</t>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Thanksgiving'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Other'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.216331757852</v>
+        <v>-4244.967596858043</v>
       </c>
       <c r="C43" t="n">
-        <v>244.5776352147575</v>
+        <v>1582.92160015751</v>
       </c>
       <c r="D43" t="n">
-        <v>0.798</v>
+        <v>0.008</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>**</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-261.20401690423785, 724.5107081827344]</t>
+          <t>[-7419.300106080857, -1036.8402543562934]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Thanksgiving_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Other_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1846.89732869776</v>
+        <v>-632.7088702255472</v>
       </c>
       <c r="C44" t="n">
-        <v>1470.377148251241</v>
+        <v>1374.696338172903</v>
       </c>
       <c r="D44" t="n">
-        <v>0.106</v>
+        <v>0.642</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3406,24 +3339,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.0, 4796.957859986862]</t>
+          <t>[-3125.3305306790057, 1980.6484228256852]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Thanksgiving_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Other_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1028.595768743994</v>
+        <v>-1207.78208647187</v>
       </c>
       <c r="C45" t="n">
-        <v>888.7772551202968</v>
+        <v>1359.5483003551</v>
       </c>
       <c r="D45" t="n">
-        <v>0.144</v>
+        <v>0.37</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3432,24 +3365,24 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[0.0, 2904.779481596549]</t>
+          <t>[-3977.4074068442937, 1226.826255435408]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Thanksgiving_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Other_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>692.4465270143851</v>
+        <v>-550.4172606069949</v>
       </c>
       <c r="C46" t="n">
-        <v>684.9333267996996</v>
+        <v>1884.68935561604</v>
       </c>
       <c r="D46" t="n">
-        <v>0.172</v>
+        <v>0.75</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3458,24 +3391,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.0, 2208.4947947380992]</t>
+          <t>[-4023.9536356662074, 3511.929252585535]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Thanksgiving_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Other_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-197.3650304090689</v>
+        <v>1566.519409130026</v>
       </c>
       <c r="C47" t="n">
-        <v>226.930752590455</v>
+        <v>1481.554942308562</v>
       </c>
       <c r="D47" t="n">
-        <v>0.186</v>
+        <v>0.272</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3484,24 +3417,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[-715.1203025597116, 87.62377524585608]</t>
+          <t>[-1470.7081103689059, 4323.286462498431]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Veterans Day'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Thanksgiving'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>688.4702957393934</v>
+        <v>112.9086004335666</v>
       </c>
       <c r="C48" t="n">
-        <v>637.3883782881254</v>
+        <v>248.5289158508177</v>
       </c>
       <c r="D48" t="n">
-        <v>0.152</v>
+        <v>0.756</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3510,24 +3443,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[0.0, 2075.508604389664]</t>
+          <t>[-246.3623678112332, 793.1560484913989]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Veterans Day_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Thanksgiving_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>809.5066355778517</v>
+        <v>1847.578955497948</v>
       </c>
       <c r="C49" t="n">
-        <v>739.3506833164204</v>
+        <v>1517.085739532546</v>
       </c>
       <c r="D49" t="n">
-        <v>0.148</v>
+        <v>0.136</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3536,24 +3469,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[0.0, 2385.186511149107]</t>
+          <t>[0.0, 4710.711352318257]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Veterans Day_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Thanksgiving_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1578.383361230115</v>
+        <v>1029.49790156031</v>
       </c>
       <c r="C50" t="n">
-        <v>1290.43198294814</v>
+        <v>888.1110312889505</v>
       </c>
       <c r="D50" t="n">
-        <v>0.116</v>
+        <v>0.152</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3562,24 +3495,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.0, 4184.380212909357]</t>
+          <t>[0.0, 2822.5459976503794]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Veterans Day_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Thanksgiving_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-453.2000806721344</v>
+        <v>692.9376194094024</v>
       </c>
       <c r="C51" t="n">
-        <v>450.3492270815528</v>
+        <v>697.563656204936</v>
       </c>
       <c r="D51" t="n">
-        <v>0.148</v>
+        <v>0.172</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3588,24 +3521,24 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[-1537.7623586248787, 0.0]</t>
+          <t>[-1.6840375886219485, 2287.637622101784]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Veterans Day_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Thanksgiving_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>297.2619117628596</v>
+        <v>-197.025533576155</v>
       </c>
       <c r="C52" t="n">
-        <v>359.024546843299</v>
+        <v>209.6962796009353</v>
       </c>
       <c r="D52" t="n">
-        <v>0.242</v>
+        <v>0.206</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3614,102 +3547,102 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[-151.78353320887607, 1155.3594721520053]</t>
+          <t>[-671.7339167046119, 82.77254525420244]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.2-Tue]</t>
+          <t>C(Q('events_Veterans Day'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2023.213229329201</v>
+        <v>687.4139024804314</v>
       </c>
       <c r="C53" t="n">
-        <v>463.7935393482114</v>
+        <v>690.2263704505639</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>***</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[1177.9620162478402, 2926.4484599339316]</t>
+          <t>[0.0, 2448.3039363308435]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.3-Wed]</t>
+          <t>C(Q('events_Veterans Day_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>515.5204138390798</v>
+        <v>810.2487270492167</v>
       </c>
       <c r="C54" t="n">
-        <v>255.210155859313</v>
+        <v>693.8477485516941</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04</v>
+        <v>0.114</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[-1.4093853665587086, 973.8480125653008]</t>
+          <t>[0.0, 2326.461425590014]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.4-Thu]</t>
+          <t>C(Q('events_Veterans Day_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1529.465782754601</v>
+        <v>1580.338822767616</v>
       </c>
       <c r="C55" t="n">
-        <v>262.4606651721451</v>
+        <v>1281.053601463185</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>***</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[1009.0696377141257, 2010.807550527979]</t>
+          <t>[0.0, 4216.173972540207]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.5-Fri]</t>
+          <t>C(Q('events_Veterans Day_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>146.9128204590669</v>
+        <v>-454.4366258500983</v>
       </c>
       <c r="C56" t="n">
-        <v>355.6837347922449</v>
+        <v>457.4677787860487</v>
       </c>
       <c r="D56" t="n">
-        <v>0.658</v>
+        <v>0.152</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3718,47 +3651,47 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-438.3176226679981, 919.980591965538]</t>
+          <t>[-1598.7657093595797, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.6-Sat]</t>
+          <t>C(Q('events_Veterans Day_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-4100.65025016301</v>
+        <v>297.5410272056975</v>
       </c>
       <c r="C57" t="n">
-        <v>205.1492335255714</v>
+        <v>321.1105321004489</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>***</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[-4531.734829485247, -3751.173457300482]</t>
+          <t>[-32.07649864237175, 1010.1374802694543]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.7-Sun]</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.2-Tue]</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1963.765591611142</v>
+        <v>2021.979855624526</v>
       </c>
       <c r="C58" t="n">
-        <v>235.7402100336725</v>
+        <v>437.9597629791602</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3770,47 +3703,47 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[-2470.328722652395, -1539.4491762079226]</t>
+          <t>[1164.764955959771, 2950.7587996648217]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>ct1</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.3-Wed]</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>17818.52664329314</v>
+        <v>513.9923868009033</v>
       </c>
       <c r="C59" t="n">
-        <v>2343.712330379017</v>
+        <v>253.4787989889674</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[13231.951176156948, 22355.494025187174]</t>
+          <t>[3.9998614758648996, 984.5141737595927]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>is_weekend[T.True]:ct1</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.4-Thu]</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-3883.660221996459</v>
+        <v>1528.755804751543</v>
       </c>
       <c r="C60" t="n">
-        <v>794.7742100348443</v>
+        <v>281.6078327978803</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3822,24 +3755,24 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[-5252.342582391006, -2248.426108081061]</t>
+          <t>[1002.0730521009076, 2077.8678271472813]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.2-Tue]:ct1</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.5-Fri]</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1046.728632641271</v>
+        <v>146.3004101456014</v>
       </c>
       <c r="C61" t="n">
-        <v>2073.755271629716</v>
+        <v>347.7733812753066</v>
       </c>
       <c r="D61" t="n">
-        <v>0.638</v>
+        <v>0.68</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3848,47 +3781,47 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-3011.1053682141037, 4935.510007113241]</t>
+          <t>[-422.17372284043284, 931.310434571696]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.3-Wed]:ct1</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.6-Sat]</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3254.093850568087</v>
+        <v>-4101.626359576308</v>
       </c>
       <c r="C62" t="n">
-        <v>1273.228009112445</v>
+        <v>193.9117192323359</v>
       </c>
       <c r="D62" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[620.9406387331345, 5563.467281109745]</t>
+          <t>[-4517.518735461262, -3744.186085213244]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.4-Thu]:ct1</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.7-Sun]</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4084.950460272969</v>
+        <v>-1962.63509535682</v>
       </c>
       <c r="C63" t="n">
-        <v>1248.108695241893</v>
+        <v>221.3031398661723</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3900,47 +3833,47 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[1596.7825776662125, 6384.172376284484]</t>
+          <t>[-2400.8759256371454, -1552.4893131197762]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.5-Fri]:ct1</t>
+          <t>ct1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5695.027791525999</v>
+        <v>17813.53840780448</v>
       </c>
       <c r="C64" t="n">
-        <v>3566.335780412331</v>
+        <v>2411.899836141843</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08599999999999999</v>
+        <v>0</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[124.21322450180247, 13124.470886828938]</t>
+          <t>[12844.757084098792, 22252.52324958165]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.6-Sat]:ct1</t>
+          <t>is_weekend[T.True]:ct1</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-4132.873313686068</v>
+        <v>-3882.06466957468</v>
       </c>
       <c r="C65" t="n">
-        <v>511.0737081168922</v>
+        <v>855.3549909464548</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3952,24 +3885,24 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[-5022.560954683491, -2964.2501626571284]</t>
+          <t>[-5392.643955474896, -2027.1347891018343]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.7-Sun]:ct1</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.2-Tue]:ct1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>249.2130916895967</v>
+        <v>1047.416609180699</v>
       </c>
       <c r="C66" t="n">
-        <v>651.1031994981396</v>
+        <v>1981.987690953207</v>
       </c>
       <c r="D66" t="n">
-        <v>0.708</v>
+        <v>0.592</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3978,99 +3911,99 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[-1048.160219298554, 1495.346718722141]</t>
+          <t>[-2855.4513585983445, 4825.512020381895]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>sin1_tow_weekly</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.3-Wed]:ct1</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>8217.44643868383</v>
+        <v>3254.998075187169</v>
       </c>
       <c r="C67" t="n">
-        <v>640.140354872931</v>
+        <v>1284.363881977255</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[6912.966615128071, 9470.087707056206]</t>
+          <t>[617.3272804808305, 5508.0142939461675]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>cos1_tow_weekly</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.4-Thu]:ct1</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1173.770098474173</v>
+        <v>4085.499813373709</v>
       </c>
       <c r="C68" t="n">
-        <v>938.7322143401412</v>
+        <v>1226.389400561075</v>
       </c>
       <c r="D68" t="n">
-        <v>0.222</v>
+        <v>0.002</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>**</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[-720.3620204326795, 2908.007961151917]</t>
+          <t>[1772.8997293345449, 6379.306538499679]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>sin2_tow_weekly</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.5-Fri]:ct1</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>803.2121176084255</v>
+        <v>5696.562202973104</v>
       </c>
       <c r="C69" t="n">
-        <v>774.7003389983863</v>
+        <v>3718.942292775075</v>
       </c>
       <c r="D69" t="n">
-        <v>0.318</v>
+        <v>0.082</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-610.5805154200939, 2340.2643661650927]</t>
+          <t>[182.02352437303347, 14047.999522075026]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>cos2_tow_weekly</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.6-Sat]:ct1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6111.370584599545</v>
+        <v>-4130.631078793916</v>
       </c>
       <c r="C70" t="n">
-        <v>748.7415268434263</v>
+        <v>522.2724089770709</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -4082,24 +4015,24 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[4848.700573923141, 7670.882566150293]</t>
+          <t>[-5021.8403297059795, -2889.034518268927]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>sin3_tow_weekly</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.7-Sun]:ct1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-531.2928019385158</v>
+        <v>248.5664092192204</v>
       </c>
       <c r="C71" t="n">
-        <v>372.3053883425853</v>
+        <v>644.3762856585075</v>
       </c>
       <c r="D71" t="n">
-        <v>0.17</v>
+        <v>0.716</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4108,50 +4041,50 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[-1366.1455984494241, 94.42486072632568]</t>
+          <t>[-971.9080287153604, 1502.0452282179072]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>cos3_tow_weekly</t>
+          <t>sin1_tow_weekly</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-812.5780992010716</v>
+        <v>8215.017877797711</v>
       </c>
       <c r="C72" t="n">
-        <v>516.6151145971628</v>
+        <v>615.3375678915501</v>
       </c>
       <c r="D72" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-1835.239936610792, 238.1086340794997]</t>
+          <t>[7020.627580672351, 9418.783075358644]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>sin4_tow_weekly</t>
+          <t>cos1_tow_weekly</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>531.292801938538</v>
+        <v>1179.384011138143</v>
       </c>
       <c r="C73" t="n">
-        <v>372.3053883425836</v>
+        <v>879.9626529815151</v>
       </c>
       <c r="D73" t="n">
-        <v>0.17</v>
+        <v>0.188</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -4160,24 +4093,24 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-94.42486072632639, 1366.1455984494191]</t>
+          <t>[-618.1251682955583, 2778.319643366679]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>cos4_tow_weekly</t>
+          <t>sin2_tow_weekly</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-812.5780992011173</v>
+        <v>801.2232643787985</v>
       </c>
       <c r="C74" t="n">
-        <v>516.6151145971627</v>
+        <v>773.7349559220839</v>
       </c>
       <c r="D74" t="n">
-        <v>0.13</v>
+        <v>0.304</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4186,50 +4119,50 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-1835.2399366107898, 238.1086340795065]</t>
+          <t>[-540.8657562418673, 2350.976757804225]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>sin1_toq_quarterly</t>
+          <t>cos2_tow_weekly</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1309.262026740457</v>
+        <v>6116.754532558709</v>
       </c>
       <c r="C75" t="n">
-        <v>1171.764161584532</v>
+        <v>753.4590286136443</v>
       </c>
       <c r="D75" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-3729.088280320855, 797.0715191367293]</t>
+          <t>[4715.000446553442, 7647.686059068079]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>cos1_toq_quarterly</t>
+          <t>sin3_tow_weekly</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-42.02048447960585</v>
+        <v>-531.9820615641327</v>
       </c>
       <c r="C76" t="n">
-        <v>965.2003398802608</v>
+        <v>378.4188209248338</v>
       </c>
       <c r="D76" t="n">
-        <v>0.954</v>
+        <v>0.166</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4238,24 +4171,24 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-1951.872682328696, 1832.5323393581125]</t>
+          <t>[-1326.7488016443067, 147.07085895475043]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>sin2_toq_quarterly</t>
+          <t>cos3_tow_weekly</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-453.3148668215311</v>
+        <v>-809.8230520591047</v>
       </c>
       <c r="C77" t="n">
-        <v>962.3144403049032</v>
+        <v>500.5339657164682</v>
       </c>
       <c r="D77" t="n">
-        <v>0.63</v>
+        <v>0.11</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4264,24 +4197,24 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-2461.19787257031, 1227.720213208554]</t>
+          <t>[-1783.332085041205, 135.4243178912036]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>cos2_toq_quarterly</t>
+          <t>sin4_tow_weekly</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-282.6548861615873</v>
+        <v>531.9820615641471</v>
       </c>
       <c r="C78" t="n">
-        <v>1327.392416369486</v>
+        <v>378.4188209248362</v>
       </c>
       <c r="D78" t="n">
-        <v>0.852</v>
+        <v>0.166</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4290,50 +4223,50 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-2862.950046447452, 2226.2755153882854]</t>
+          <t>[-147.07085895477016, 1326.7488016442578]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>sin3_toq_quarterly</t>
+          <t>cos4_tow_weekly</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2485.804494523773</v>
+        <v>-809.823052059086</v>
       </c>
       <c r="C79" t="n">
-        <v>1391.122044683179</v>
+        <v>500.5339657164689</v>
       </c>
       <c r="D79" t="n">
-        <v>0.074</v>
+        <v>0.11</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[199.36756358972585, 5411.959639079352]</t>
+          <t>[-1783.3320850411985, 135.4243178912082]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>cos3_toq_quarterly</t>
+          <t>sin1_toq_quarterly</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-868.6295858165531</v>
+        <v>-1303.647257286306</v>
       </c>
       <c r="C80" t="n">
-        <v>926.8686077913898</v>
+        <v>1260.798089872605</v>
       </c>
       <c r="D80" t="n">
-        <v>0.378</v>
+        <v>0.29</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4342,24 +4275,24 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-2702.2200310529756, 679.921515905156]</t>
+          <t>[-3988.8216841466447, 853.7801352785435]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>sin4_toq_quarterly</t>
+          <t>cos1_toq_quarterly</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-430.846758676667</v>
+        <v>-42.503115180318</v>
       </c>
       <c r="C81" t="n">
-        <v>948.7323819960205</v>
+        <v>934.8896047591556</v>
       </c>
       <c r="D81" t="n">
-        <v>0.648</v>
+        <v>0.96</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4368,24 +4301,24 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-2300.5258737571658, 1436.867227592621]</t>
+          <t>[-1779.6015632533279, 1786.6778000907082]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>cos4_toq_quarterly</t>
+          <t>sin2_toq_quarterly</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1416.645235611109</v>
+        <v>-454.0740839249831</v>
       </c>
       <c r="C82" t="n">
-        <v>1319.659238623212</v>
+        <v>975.0677336616844</v>
       </c>
       <c r="D82" t="n">
-        <v>0.264</v>
+        <v>0.652</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4394,24 +4327,24 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-912.1705569719734, 4312.799576916926]</t>
+          <t>[-2356.3874194575938, 1504.9618485882056]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>sin5_toq_quarterly</t>
+          <t>cos2_toq_quarterly</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1147.712198665326</v>
+        <v>-287.6806275921359</v>
       </c>
       <c r="C83" t="n">
-        <v>1149.837280869355</v>
+        <v>1368.974896124186</v>
       </c>
       <c r="D83" t="n">
-        <v>0.336</v>
+        <v>0.844</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4420,33 +4353,163 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-3404.8528269170465, 1054.9974861656713]</t>
+          <t>[-3326.5779691404614, 1893.276209919416]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
+          <t>sin3_toq_quarterly</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2478.922330458459</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1344.681183710714</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[173.1766594372755, 5463.992492106882]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>cos3_toq_quarterly</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-868.1093272000714</v>
+      </c>
+      <c r="C85" t="n">
+        <v>948.5392743973586</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[-2785.1727303083267, 749.4032670984088]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>sin4_toq_quarterly</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-429.6431343060222</v>
+      </c>
+      <c r="C86" t="n">
+        <v>904.4325941358813</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[-2298.1247898016486, 1357.47278424324]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>cos4_toq_quarterly</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1422.502001038338</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1400.617571608842</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>[-1072.6885622182513, 4402.687679916322]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>sin5_toq_quarterly</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-1141.900645937371</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1217.209685121302</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[-3674.7992318633014, 1077.0501177926242]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
           <t>cos5_toq_quarterly</t>
         </is>
       </c>
-      <c r="B84" t="n">
-        <v>958.0109438623117</v>
-      </c>
-      <c r="C84" t="n">
-        <v>996.4527517668529</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="B89" t="n">
+        <v>955.8696082328186</v>
+      </c>
+      <c r="C89" t="n">
+        <v>990.0924340459887</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>[-930.466840990638, 2903.4631423669643]</t>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[-957.7521065802231, 2792.060782662651]</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4556,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1110714</v>
+        <v>0.1464286</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4529,7 +4592,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1975397</v>
+        <v>0.196978</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4547,7 +4610,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22137.727</v>
+        <v>34879.028</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4565,7 +4628,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190.31194</v>
+        <v>344.30735</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4583,7 +4646,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31545.165</v>
+        <v>-19400.508</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4601,7 +4664,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1669.1152</v>
+        <v>-3635.7378</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4619,7 +4682,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-911.14838</v>
+        <v>-2449.5778</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4637,7 +4700,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1028.3417</v>
+        <v>-12222.328</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4655,7 +4718,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-20410.079</v>
+        <v>-34879.028</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4673,7 +4736,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-10495.992</v>
+        <v>-20572.988</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4691,7 +4754,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>912.82805</v>
+        <v>-14407.638</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -4896,10 +4959,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.314571877745403</v>
+        <v>1.36691538180404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07561611336972844</v>
+        <v>0.07881716227855749</v>
       </c>
     </row>
     <row r="3">
@@ -4909,10 +4972,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.021714644171447</v>
+        <v>1.105030844775337</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03074167189568109</v>
+        <v>0.03855965971329542</v>
       </c>
     </row>
     <row r="4">
@@ -4922,10 +4985,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8637289347769602</v>
+        <v>0.8225663307929901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06995590413339428</v>
+        <v>0.0439016580385068</v>
       </c>
     </row>
     <row r="5">
@@ -4935,10 +4998,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5697344782620102</v>
+        <v>0.5507502583706193</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02812408155725918</v>
+        <v>0.04380345434719096</v>
       </c>
     </row>
     <row r="6">
@@ -4948,10 +5011,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4820844229101771</v>
+        <v>0.4781158428675996</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07383500985691831</v>
+        <v>0.03780215875868731</v>
       </c>
     </row>
     <row r="7">
@@ -4961,10 +5024,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3746754883669788</v>
+        <v>0.3952715742475691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04323240916948595</v>
+        <v>0.01750945087796631</v>
       </c>
     </row>
     <row r="8">
@@ -4974,10 +5037,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3691896775759217</v>
+        <v>0.3872994949759698</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03260833216437065</v>
+        <v>0.04957545132875112</v>
       </c>
     </row>
     <row r="9">
@@ -4987,36 +5050,36 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3543403953213937</v>
+        <v>0.3336331261536268</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01415574445905988</v>
+        <v>0.03251490349792167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3265484010242942</v>
+        <v>0.3113466915868556</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0322627333276219</v>
+        <v>0.02376206136134312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3057668711827352</v>
+        <v>0.3085384464557915</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01330387083885597</v>
+        <v>0.02968137790873615</v>
       </c>
     </row>
     <row r="12">
@@ -5026,88 +5089,88 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2811620028460593</v>
+        <v>0.2789850129531849</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02684667535451965</v>
+        <v>0.0171216630073364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2750558452869815</v>
+        <v>0.2660693551566825</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02871661787575797</v>
+        <v>0.02201600412462977</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2589137527172493</v>
+        <v>0.2637284800823929</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02395874703085088</v>
+        <v>0.01393824728366857</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2149794514998604</v>
+        <v>0.205812200583448</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007147090237504226</v>
+        <v>0.0139020210413447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2022757032617675</v>
+        <v>0.2052575764586891</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01824285296894052</v>
+        <v>0.02742333735313086</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1934574807716219</v>
+        <v>0.1809132587217363</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02433885319521554</v>
+        <v>0.01296333133212172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1870256642009522</v>
+        <v>0.1788324483438726</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01616058497047149</v>
+        <v>0.02407976115391184</v>
       </c>
     </row>
     <row r="19">
@@ -5117,75 +5180,75 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1700434939255406</v>
+        <v>0.1475743561447375</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01799501089312618</v>
+        <v>0.02437256708103559</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1265051331445396</v>
+        <v>0.1302911546321581</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01083194610552984</v>
+        <v>0.01884592775744767</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1250316790060087</v>
+        <v>0.1271252110388159</v>
       </c>
       <c r="C21" t="n">
-        <v>0.009618109806816173</v>
+        <v>0.01547225055765366</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1207240554848985</v>
+        <v>0.1239352159747082</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01530736110442475</v>
+        <v>0.01482839931608695</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1138835151907734</v>
+        <v>0.1176783428163016</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0133479616561732</v>
+        <v>0.01214732422600352</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1124146834128646</v>
+        <v>0.1115546891969708</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003895863135403721</v>
+        <v>0.0147155017029642</v>
       </c>
     </row>
     <row r="25">
@@ -5195,36 +5258,36 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.09869716848930346</v>
+        <v>0.09187999266498026</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01698281936976615</v>
+        <v>0.008937042740656129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.08754351275146784</v>
+        <v>0.09181500288886157</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01247520799052905</v>
+        <v>0.01121091668637528</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0790750636894435</v>
+        <v>0.08848522144033814</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01355911310565619</v>
+        <v>0.0156025634622027</v>
       </c>
     </row>
     <row r="28">
@@ -5234,10 +5297,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07069140358432113</v>
+        <v>0.08626354409948159</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01280738168575503</v>
+        <v>0.009279083672850153</v>
       </c>
     </row>
     <row r="29">
@@ -5247,10 +5310,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.05104245540299235</v>
+        <v>0.06622762644897315</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01137097067213039</v>
+        <v>0.01326052782045853</v>
       </c>
     </row>
     <row r="30">
@@ -5260,10 +5323,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.04733657128914914</v>
+        <v>0.0543571435744606</v>
       </c>
       <c r="C30" t="n">
-        <v>0.008628584379146461</v>
+        <v>0.005892355806899206</v>
       </c>
     </row>
     <row r="31">
@@ -5273,10 +5336,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0460789326639444</v>
+        <v>0.04920615360129066</v>
       </c>
       <c r="C31" t="n">
-        <v>0.007124879003090898</v>
+        <v>0.007867386641876657</v>
       </c>
     </row>
     <row r="32">
@@ -5286,10 +5349,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03292500374845573</v>
+        <v>0.04726245232253164</v>
       </c>
       <c r="C32" t="n">
-        <v>0.007699044635249635</v>
+        <v>0.01107854232654134</v>
       </c>
     </row>
     <row r="33">
@@ -5299,10 +5362,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.03225178845441281</v>
+        <v>0.03965574923140156</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00506139733982551</v>
+        <v>0.007737530995561063</v>
       </c>
     </row>
     <row r="34">
@@ -5312,62 +5375,62 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.03024792995624528</v>
+        <v>0.03283095709969637</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004412698003090147</v>
+        <v>0.0104501614003272</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02157078814687568</v>
+        <v>0.02345990575672945</v>
       </c>
       <c r="C35" t="n">
-        <v>0.005311022862254677</v>
+        <v>0.003178900533516252</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02036364543993321</v>
+        <v>0.02064305406670057</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00455175637553447</v>
+        <v>0.00620429421634552</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01902712913050943</v>
+        <v>0.01490583636009872</v>
       </c>
       <c r="C37" t="n">
-        <v>0.004587432821999987</v>
+        <v>0.004074152949500706</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01627364628572982</v>
+        <v>0.0107107535677623</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002985389065213334</v>
+        <v>0.005508853113966716</v>
       </c>
     </row>
     <row r="39">
@@ -5377,10 +5440,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01198619347874115</v>
+        <v>0.009028795669623113</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003850417659229989</v>
+        <v>0.002722530379072042</v>
       </c>
     </row>
     <row r="40">
@@ -5390,10 +5453,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.004485816482559857</v>
+        <v>0.003502116946736389</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003412365406528942</v>
+        <v>0.004379601926485374</v>
       </c>
     </row>
     <row r="41">
@@ -5403,10 +5466,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.002350654489905857</v>
+        <v>0.0002610398762280974</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001689951679126601</v>
+        <v>0.001509344825363518</v>
       </c>
     </row>
     <row r="42">
@@ -5416,10 +5479,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.000156963438147617</v>
+        <v>0.0001547095107613528</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0003337269514632135</v>
+        <v>0.0007515374282827915</v>
       </c>
     </row>
   </sheetData>
@@ -5465,10 +5528,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02806238368130183</v>
+        <v>0.02510197584510743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001243382192039179</v>
+        <v>0.002516460962932286</v>
       </c>
     </row>
     <row r="3">
@@ -5478,10 +5541,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.007066706196915407</v>
+        <v>0.006793577419698283</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001100422937673873</v>
+        <v>0.001181064340550045</v>
       </c>
     </row>
     <row r="4">
@@ -5491,10 +5554,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004760736035312995</v>
+        <v>0.004809373664542193</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004234233611769353</v>
+        <v>0.000138177778123774</v>
       </c>
     </row>
     <row r="5">
@@ -5504,10 +5567,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002491285884754801</v>
+        <v>0.00254898246246964</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001879139581804848</v>
+        <v>0.000326832265915064</v>
       </c>
     </row>
     <row r="6">
@@ -5517,10 +5580,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002458667100950329</v>
+        <v>0.002456923239736653</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003345596830351831</v>
+        <v>0.000183362299873564</v>
       </c>
     </row>
     <row r="7">
@@ -5530,101 +5593,101 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002063356621019486</v>
+        <v>0.002107615892844672</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000225628951474364</v>
+        <v>0.00024203705326207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001189794108622477</v>
+        <v>0.001700456543917728</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002602558682648517</v>
+        <v>0.0006528675121177207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001072426495891765</v>
+        <v>0.0009113646885509086</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004696259045942935</v>
+        <v>0.0001428971158080829</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001048845071674554</v>
+        <v>0.0008942176056769169</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002409678408191553</v>
+        <v>0.0001185069860100125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001022729135066514</v>
+        <v>0.0006939721332520854</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003945727488594506</v>
+        <v>0.0002682776218911784</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0009868247535599784</v>
+        <v>0.0006528281244069234</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000301898922897848</v>
+        <v>0.0001733221048629716</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0007967968546115367</v>
+        <v>0.0006452826899469688</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001965364903430891</v>
+        <v>0.0001640231410451657</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00077077577537501</v>
+        <v>0.0006311164440844896</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00019722879934706</v>
+        <v>0.0004232250206868133</v>
       </c>
     </row>
     <row r="15">
@@ -5634,23 +5697,23 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0007249061626371401</v>
+        <v>0.0006133229921678085</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008769382714544215</v>
+        <v>0.0004912805455678949</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0006204894695839069</v>
+        <v>0.0005807556538139247</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000179462849287063</v>
+        <v>0.000195878972149977</v>
       </c>
     </row>
     <row r="17">
@@ -5660,10 +5723,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0004473756452417543</v>
+        <v>0.0005604391905547956</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003741256078344042</v>
+        <v>0.0003479381113954051</v>
       </c>
     </row>
     <row r="18">
@@ -5673,10 +5736,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0003676550163277615</v>
+        <v>0.0004127988896479584</v>
       </c>
       <c r="C18" t="n">
-        <v>9.555435003758116e-05</v>
+        <v>0.0001178954391358333</v>
       </c>
     </row>
     <row r="19">
@@ -5686,10 +5749,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0002816278056237964</v>
+        <v>0.0003849267654440602</v>
       </c>
       <c r="C19" t="n">
-        <v>8.389451493969439e-05</v>
+        <v>0.0001042545069249549</v>
       </c>
     </row>
     <row r="20">
@@ -5699,10 +5762,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0002575742881939069</v>
+        <v>0.0003175290801307185</v>
       </c>
       <c r="C20" t="n">
-        <v>9.376320723388952e-05</v>
+        <v>0.0001038647322810728</v>
       </c>
     </row>
     <row r="21">
@@ -5712,283 +5775,283 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0002178892613041272</v>
+        <v>0.0002317719864149081</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001014250346077023</v>
+        <v>0.0002192303195783354</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0001775271349483409</v>
+        <v>0.0001589114505989864</v>
       </c>
       <c r="C22" t="n">
-        <v>8.177499811663251e-05</v>
+        <v>0.0001423986342060453</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0001332350880528077</v>
+        <v>0.00014865163290263</v>
       </c>
       <c r="C23" t="n">
-        <v>4.901803278204413e-05</v>
+        <v>0.0001413664483751355</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0001263618229680574</v>
+        <v>0.000139206711542994</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001920018001232661</v>
+        <v>0.0001253602604029356</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0001204764654181068</v>
+        <v>8.450630688754402e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000136655732205739</v>
+        <v>6.890268856799381e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.168247573692608e-05</v>
+        <v>5.993888096882394e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0001746239247068129</v>
+        <v>3.746480712896103e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.801753379757411e-05</v>
+        <v>5.470778538663179e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>1.618374876902997e-05</v>
+        <v>0.000119776520917077</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.772118037310811e-05</v>
+        <v>4.826447081156538e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>5.096266588688115e-05</v>
+        <v>1.039090691940496e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.636450809627711e-05</v>
+        <v>2.712986038284626e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>1.466386430013592e-05</v>
+        <v>2.11592125834797e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.213076715174012e-05</v>
+        <v>2.48440282874185e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>5.50610716376204e-06</v>
+        <v>1.73464379824286e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.510920677361138e-05</v>
+        <v>1.867317892187969e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>1.489863687204303e-05</v>
+        <v>2.372451268033403e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.487945144582614e-05</v>
+        <v>1.318473984819324e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>1.275737688432458e-05</v>
+        <v>2.527366929483625e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.418232033891797e-05</v>
+        <v>9.831904580459572e-06</v>
       </c>
       <c r="C33" t="n">
-        <v>1.229292869731816e-05</v>
+        <v>1.693377599190485e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.045853987309275e-05</v>
+        <v>9.46905503704798e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>3.290891171472765e-05</v>
+        <v>3.803618334092277e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.477879876211958e-06</v>
+        <v>4.059484438023731e-06</v>
       </c>
       <c r="C35" t="n">
-        <v>8.245149727533167e-06</v>
+        <v>9.384656995960328e-06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.940672338191952e-06</v>
+        <v>1.337438599580132e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>6.442215110619396e-06</v>
+        <v>1.428656723286236e-06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.412000262623892e-06</v>
+        <v>7.97740532210156e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>4.88292734452117e-06</v>
+        <v>2.302582143509796e-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.703491993860112e-07</v>
+        <v>1.845450512405478e-08</v>
       </c>
       <c r="C38" t="n">
-        <v>1.509859841599441e-05</v>
+        <v>3.813560661306981e-06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.368887773833265e-07</v>
+        <v>-6.524338077795733e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>2.880889585280263e-06</v>
+        <v>8.314351829182018e-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.762725076545849e-08</v>
+        <v>-8.213476996088432e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>1.074239875202474e-06</v>
+        <v>4.355413514902233e-06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-9.929366661776129e-07</v>
+        <v>-6.899280121341888e-06</v>
       </c>
       <c r="C41" t="n">
-        <v>2.784983617169062e-06</v>
+        <v>2.000186341874048e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.812593389751705e-05</v>
+        <v>-9.719148507070231e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>2.233064515320824e-05</v>
+        <v>8.326598385731285e-06</v>
       </c>
     </row>
   </sheetData>
@@ -6034,10 +6097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1945126712527064</v>
+        <v>0.1955897293180666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01931123828177844</v>
+        <v>0.01337513644793754</v>
       </c>
     </row>
     <row r="3">
@@ -6047,166 +6110,166 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09653002892073526</v>
+        <v>0.1017171286897006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0121314198087296</v>
+        <v>0.01750030813557953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07151749590970513</v>
+        <v>0.0754345187035966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008849154375947365</v>
+        <v>0.01176793290794844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0682703733564283</v>
+        <v>0.04647233582819066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004184681993291336</v>
+        <v>0.006213363596442454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05099194956198112</v>
+        <v>0.04072369772442477</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004935960780257842</v>
+        <v>0.004653875039106315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04436952840500423</v>
+        <v>0.03513669051184844</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004323162186658103</v>
+        <v>0.003868684414453584</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03174793116975638</v>
+        <v>0.02924572504317646</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002296891997108171</v>
+        <v>0.006358259892328866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.025720745883772</v>
+        <v>0.02808058629007206</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002457990062644939</v>
+        <v>0.004286134446611362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01744091035332127</v>
+        <v>0.02321355295343524</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002987965347164981</v>
+        <v>0.002180335081888877</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01718637146260029</v>
+        <v>0.02088059218645522</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002837942354949558</v>
+        <v>0.00115945014702299</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01520238744899833</v>
+        <v>0.0200413352980763</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001384925229779815</v>
+        <v>0.002754879349884122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01418169524537998</v>
+        <v>0.01781064790863047</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00133198540087457</v>
+        <v>0.002042700755080964</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01333600695492676</v>
+        <v>0.01524331461352553</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001692991573296329</v>
+        <v>0.001073825152145984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01206058097066482</v>
+        <v>0.01375600354348903</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001797080214822583</v>
+        <v>0.0018274141351581</v>
       </c>
     </row>
     <row r="16">
@@ -6216,315 +6279,315 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01115432780332433</v>
+        <v>0.01275047901994395</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0006406727022773273</v>
+        <v>0.002191594830240643</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01071375924160007</v>
+        <v>0.01212708038544568</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001914079767372538</v>
+        <v>0.001632118120181536</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01021281840008834</v>
+        <v>0.009689321781866257</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002937502042293369</v>
+        <v>0.001446784290340757</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.008392097534846488</v>
+        <v>0.009318668387614215</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001383359627600466</v>
+        <v>0.002381823044745606</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.008365049700511662</v>
+        <v>0.008937791916973725</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001539290529782603</v>
+        <v>0.004133511460391691</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.008181492758203124</v>
+        <v>0.00880864710422986</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001600685620661255</v>
+        <v>0.00133927155159048</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.008126709111225127</v>
+        <v>0.007191867711535971</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00158766658887848</v>
+        <v>0.0009984098559603605</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.007819742341136093</v>
+        <v>0.006973710559456392</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001419773955435563</v>
+        <v>0.001242400963343989</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.007131090468536949</v>
+        <v>0.00651710186846659</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001936451215371207</v>
+        <v>0.001401444837050148</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.006578698747815248</v>
+        <v>0.00630770511641412</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0014247298299007</v>
+        <v>0.001185607727303263</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.006451382779619807</v>
+        <v>0.006088986703634247</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001461627025755199</v>
+        <v>0.001016423615625221</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.006321418676985102</v>
+        <v>0.005912272607669511</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001765455239428286</v>
+        <v>0.0007385236722479792</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.005305464293537487</v>
+        <v>0.004796216947442078</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0005847343902360595</v>
+        <v>0.000394107854791767</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.004933173357407017</v>
+        <v>0.004630831127978974</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001580487606237976</v>
+        <v>0.001810703558565974</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.004466330920430295</v>
+        <v>0.003061057458029404</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0008230408848666596</v>
+        <v>0.001084190509325678</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003451591165630141</v>
+        <v>0.002995969655248265</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001021110606376042</v>
+        <v>0.0007307778560833339</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002981535072546992</v>
+        <v>0.002752903231138615</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0003544799392107901</v>
+        <v>0.00135266646172911</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.002955971091154064</v>
+        <v>0.002642581539249322</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002799229559348673</v>
+        <v>0.0005966896227041418</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.002838239245274488</v>
+        <v>0.001991836102090572</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0005231643169158294</v>
+        <v>0.0004670681840990686</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001264115814298639</v>
+        <v>0.001087901801330471</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0004306660359994465</v>
+        <v>0.0001469739992942946</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0007421834012504957</v>
+        <v>0.001018626759046692</v>
       </c>
       <c r="C36" t="n">
-        <v>0.000319424365799896</v>
+        <v>0.0002315505347898508</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0007081012537631714</v>
+        <v>0.0009349128362666992</v>
       </c>
       <c r="C37" t="n">
-        <v>0.000357510318760552</v>
+        <v>0.00032272374779719</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0001365132088073873</v>
+        <v>0.0009031501168834</v>
       </c>
       <c r="C38" t="n">
-        <v>1.226192564342715e-05</v>
+        <v>0.0005049992408669968</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.142256466914354e-05</v>
+        <v>0.0001855252801459928</v>
       </c>
       <c r="C39" t="n">
-        <v>0.000936943729683135</v>
+        <v>0.0003130976128214482</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -6537,7 +6600,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -6550,14 +6613,14 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>-2.809818467550684e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1.404909233775342e-05</v>
       </c>
     </row>
   </sheetData>
@@ -6603,10 +6666,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2344471185884625</v>
+        <v>0.2421864150828277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02232893866756278</v>
+        <v>0.03034402071102102</v>
       </c>
     </row>
     <row r="3">
@@ -6616,10 +6679,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05160565095715024</v>
+        <v>0.04598170258736811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007613264571013145</v>
+        <v>0.006454956244076206</v>
       </c>
     </row>
     <row r="4">
@@ -6629,478 +6692,478 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03192989363265644</v>
+        <v>0.02321919496056595</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009737576560016538</v>
+        <v>0.005821579948727866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02040305861308684</v>
+        <v>0.02044602421543835</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01192323681155977</v>
+        <v>0.001827447739994155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01972893040165531</v>
+        <v>0.01766500599909897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009478034471611338</v>
+        <v>0.005187490507369292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01911658594608734</v>
+        <v>0.01602018685713278</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002284650749861287</v>
+        <v>0.006185764586579192</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007735458050289035</v>
+        <v>0.008270896179010468</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001213104956357334</v>
+        <v>0.002568831338184926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.006247432918156282</v>
+        <v>0.007233986441508545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002829422279863111</v>
+        <v>0.002759725083941951</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002464237836471162</v>
+        <v>0.003936641790318185</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000850675045006796</v>
+        <v>0.003021811700371891</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002248718754053125</v>
+        <v>0.00326773597418708</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001855863863543447</v>
+        <v>0.002260680958869759</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001893936704187094</v>
+        <v>0.002840987620437918</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002338491577560917</v>
+        <v>0.00100676389857453</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00160050243079084</v>
+        <v>0.002690878777850036</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003645990864226578</v>
+        <v>0.002716499483821677</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001541137266148862</v>
+        <v>0.002603633101533487</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005797164528712938</v>
+        <v>0.00281425037473976</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001510710329128062</v>
+        <v>0.002516061233504607</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001331351380840079</v>
+        <v>0.001728360974979629</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001188418253179324</v>
+        <v>0.001876280561233212</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001170442304707698</v>
+        <v>0.002086511128936943</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001143504251464167</v>
+        <v>0.0008193822022770858</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002619183487100756</v>
+        <v>0.001530921985467462</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0008403234224775513</v>
+        <v>0.0006576326823783729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003557184567925152</v>
+        <v>0.002693534437292203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0002736616755214971</v>
+        <v>0.0004267964020233217</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003072423097373342</v>
+        <v>0.001381009004406824</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0002618791666380016</v>
+        <v>0.0001473414554442387</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0017558203947458</v>
+        <v>0.001259993261838082</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0001506580749006448</v>
+        <v>-8.495761097966348e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001589167748391112</v>
+        <v>0.003167947029433366</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.001097242929146769</v>
+        <v>-0.0001648560315735237</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001690972872966082</v>
+        <v>0.002077753559325433</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001167821437240235</v>
+        <v>-0.0007395381842457916</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001657564051193896</v>
+        <v>0.001363604035944856</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.001467289195623356</v>
+        <v>-0.0007775782669027897</v>
       </c>
       <c r="C24" t="n">
-        <v>0.006276597391583949</v>
+        <v>0.001930943491127311</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001496364809291251</v>
+        <v>-0.001015477425495504</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002168430462301569</v>
+        <v>0.002290971266005958</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.001563742387082656</v>
+        <v>-0.001805482565507677</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002622940730905132</v>
+        <v>0.001170724267299516</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.001874506230252138</v>
+        <v>-0.001826499345637278</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00197661970655773</v>
+        <v>0.001764989187045966</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.001966750443048282</v>
+        <v>-0.001892968741697643</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00181223626540555</v>
+        <v>0.0005700468410352835</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.001996460896435903</v>
+        <v>-0.001894520203060668</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0007208550459690256</v>
+        <v>0.001075107687132839</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.00220416554721905</v>
+        <v>-0.001904659646587481</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001303990509638001</v>
+        <v>0.002695485068686981</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.00258349879302453</v>
+        <v>-0.001930327027342083</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01118870742175614</v>
+        <v>0.002081146695703545</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.002703819724803957</v>
+        <v>-0.002607096616585292</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001161977634049135</v>
+        <v>0.0009308495763548919</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.00270795380549993</v>
+        <v>-0.00290702217856913</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004073103265943834</v>
+        <v>0.001475904859198232</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.002745128179093137</v>
+        <v>-0.004194005014634561</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00119273342020443</v>
+        <v>0.001764217953620566</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.003038100968494639</v>
+        <v>-0.004293350530541073</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00303215816671175</v>
+        <v>0.01530307749301894</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.003083721465910671</v>
+        <v>-0.004460716252598118</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01761949488837259</v>
+        <v>0.001862097286707595</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.003793985435825564</v>
+        <v>-0.006220932174283456</v>
       </c>
       <c r="C37" t="n">
-        <v>0.000869332232415537</v>
+        <v>0.004818238319556015</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.005630206682779182</v>
+        <v>-0.007473971287753001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002207203062768203</v>
+        <v>0.005107509057704992</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.008871596084289468</v>
+        <v>-0.00965047469201652</v>
       </c>
       <c r="C39" t="n">
-        <v>0.005665595094861241</v>
+        <v>0.01187300315685924</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.009153244774182289</v>
+        <v>-0.009727916680996485</v>
       </c>
       <c r="C40" t="n">
-        <v>0.006204311105466435</v>
+        <v>0.0125440801090153</v>
       </c>
     </row>
     <row r="41">
@@ -7110,10 +7173,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.01011865641316869</v>
+        <v>-0.01191164699170031</v>
       </c>
       <c r="C41" t="n">
-        <v>0.006431425238999536</v>
+        <v>0.004955070218438736</v>
       </c>
     </row>
     <row r="42">
@@ -7123,10 +7186,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.01252475397606509</v>
+        <v>-0.01441656001126244</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002754539497596626</v>
+        <v>0.005150033795203322</v>
       </c>
     </row>
   </sheetData>
@@ -7172,10 +7235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.274278858368883</v>
+        <v>0.2818962949312339</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01535353256676414</v>
+        <v>0.03129277433385849</v>
       </c>
     </row>
     <row r="3">
@@ -7185,10 +7248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1863786511474715</v>
+        <v>0.1958967476943901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01081406155380967</v>
+        <v>0.01511406542471457</v>
       </c>
     </row>
     <row r="4">
@@ -7198,10 +7261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05233740144324088</v>
+        <v>0.05042012948713752</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004751824653760681</v>
+        <v>0.00564956647368178</v>
       </c>
     </row>
     <row r="5">
@@ -7211,153 +7274,153 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0438553120496231</v>
+        <v>0.04559028399976141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008662008433834642</v>
+        <v>0.007165811835100825</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03415026382757318</v>
+        <v>0.03562929766095606</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00779054822111195</v>
+        <v>0.00298120554460905</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03293388004351474</v>
+        <v>0.03056967438492517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005384534443197591</v>
+        <v>0.002457811346736015</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03135741283501146</v>
+        <v>0.02847626382536037</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003091629356680261</v>
+        <v>0.001788755924594038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02932190150869305</v>
+        <v>0.0261940585958603</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003751879098962897</v>
+        <v>0.004745005575897477</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0253574052621202</v>
+        <v>0.02503600138302609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003060891488507449</v>
+        <v>0.004964605788594889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02401399003341664</v>
+        <v>0.02371476975806055</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001538770208057944</v>
+        <v>0.002892630784010055</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02296309540054904</v>
+        <v>0.02234646212857474</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004329673126066146</v>
+        <v>0.005311168583944859</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02018722210335178</v>
+        <v>0.02178040885279782</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003044721713158163</v>
+        <v>0.00219322530006761</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01958533064472909</v>
+        <v>0.02051387488995935</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003702388288604102</v>
+        <v>0.002840866778243851</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01817125374100701</v>
+        <v>0.01851591136934858</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003214530912732522</v>
+        <v>0.002348252095647901</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0172209440347294</v>
+        <v>0.01560847888783758</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001356426409417184</v>
+        <v>0.002272137650335844</v>
       </c>
     </row>
     <row r="17">
@@ -7367,88 +7430,88 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01688865005639022</v>
+        <v>0.01517236871214318</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003498347275385728</v>
+        <v>0.004362558483529713</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01502320361879621</v>
+        <v>0.0144762369053917</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003392559239390071</v>
+        <v>0.003263273362522785</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0139835701470822</v>
+        <v>0.0142241396632024</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003623007093748785</v>
+        <v>0.00218899722966564</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01389512857568014</v>
+        <v>0.01417145273839488</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002574728075696861</v>
+        <v>0.001988378375311834</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0112184974117139</v>
+        <v>0.01301778252722841</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001663135784502251</v>
+        <v>0.001122297609359111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01115670839605893</v>
+        <v>0.0124647361275553</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001990664335876458</v>
+        <v>0.002471021556545446</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01086335830042946</v>
+        <v>0.01074404275384655</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003353690120210898</v>
+        <v>0.001976961822898382</v>
       </c>
     </row>
     <row r="24">
@@ -7458,49 +7521,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01009801130186538</v>
+        <v>0.01014272677358907</v>
       </c>
       <c r="C24" t="n">
-        <v>0.005331421821014055</v>
+        <v>0.003016188731372892</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00961967945292248</v>
+        <v>0.009823725410750583</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002380115149218571</v>
+        <v>0.002723629536075256</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009277778458880092</v>
+        <v>0.009625333639285149</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002019978082254996</v>
+        <v>0.002373920313089568</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.008127832028151816</v>
+        <v>0.009081855425416152</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001334901405106933</v>
+        <v>0.002043932836813299</v>
       </c>
     </row>
     <row r="28">
@@ -7510,10 +7573,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.007999898085045466</v>
+        <v>0.008391336298760299</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001339812902649362</v>
+        <v>0.001476761907466207</v>
       </c>
     </row>
     <row r="29">
@@ -7523,10 +7586,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.006712133812481258</v>
+        <v>0.007595981598298951</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00169049384100525</v>
+        <v>0.001001635489490436</v>
       </c>
     </row>
     <row r="30">
@@ -7536,10 +7599,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00608265271948989</v>
+        <v>0.00620111268306609</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001701715843365644</v>
+        <v>0.001952579586888177</v>
       </c>
     </row>
     <row r="31">
@@ -7549,10 +7612,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.005429143425909477</v>
+        <v>0.004499616273268847</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001191005794992954</v>
+        <v>0.001055654235787212</v>
       </c>
     </row>
     <row r="32">
@@ -7562,10 +7625,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.005005936609710382</v>
+        <v>0.00442794762058456</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0009750892358741188</v>
+        <v>0.001987082370660334</v>
       </c>
     </row>
     <row r="33">
@@ -7575,10 +7638,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.003199693114398916</v>
+        <v>0.00315547652705328</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0008210901849307785</v>
+        <v>0.0007558128904159491</v>
       </c>
     </row>
     <row r="34">
@@ -7588,10 +7651,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.000524181803013768</v>
+        <v>0.0005715044158396632</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002152266347728796</v>
+        <v>0.0001004065628203976</v>
       </c>
     </row>
     <row r="35">
@@ -7741,10 +7804,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0001139740012101154</v>
+        <v>0.0001115882319850048</v>
       </c>
       <c r="C2" t="n">
-        <v>8.432713455511632e-06</v>
+        <v>1.808758108220852e-05</v>
       </c>
     </row>
     <row r="3">
@@ -7754,10 +7817,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.683752834317879e-05</v>
+        <v>6.168727079236547e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>4.79593675753837e-06</v>
+        <v>9.468351590165539e-06</v>
       </c>
     </row>
     <row r="4">
@@ -7767,49 +7830,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.497819379827405e-05</v>
+        <v>3.526430825466776e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>4.157578201417215e-06</v>
+        <v>3.332535439270887e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.697897872079302e-05</v>
+        <v>2.734339501335725e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>7.115911984035263e-06</v>
+        <v>2.320282991042547e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.394383748960394e-05</v>
+        <v>2.585752819839193e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>2.321843434361869e-06</v>
+        <v>5.044537342917368e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.326086717165943e-05</v>
+        <v>2.236546903047199e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>2.211005070552415e-06</v>
+        <v>9.305476679908682e-06</v>
       </c>
     </row>
     <row r="8">
@@ -7819,10 +7882,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.073005095253322e-05</v>
+        <v>2.075190648023195e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>6.597214744615216e-06</v>
+        <v>8.036516203584391e-06</v>
       </c>
     </row>
     <row r="9">
@@ -7832,36 +7895,36 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.908155197356543e-05</v>
+        <v>1.799450772494993e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>3.781968051823587e-06</v>
+        <v>2.28469781234872e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.505774114045621e-05</v>
+        <v>1.456799507608686e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>6.049871811095682e-06</v>
+        <v>7.148730207778923e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.418199906657591e-05</v>
+        <v>1.441736752822997e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>1.339119618537505e-05</v>
+        <v>4.909537167859637e-06</v>
       </c>
     </row>
     <row r="12">
@@ -7871,10 +7934,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.276827957004123e-05</v>
+        <v>1.148107070476634e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>2.480218548985951e-06</v>
+        <v>2.397814838660876e-06</v>
       </c>
     </row>
     <row r="13">
@@ -7884,49 +7947,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.208165879038603e-05</v>
+        <v>1.108698416061316e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>2.299472091878174e-06</v>
+        <v>2.39067932981391e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.058080665447221e-06</v>
+        <v>1.036977122472749e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>1.798430673130307e-06</v>
+        <v>1.466467465037241e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.598991471631124e-06</v>
+        <v>8.23432356646947e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>1.012794254861232e-06</v>
+        <v>2.036751726910076e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.546000640663465e-06</v>
+        <v>7.249023498978602e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>3.080108813890152e-06</v>
+        <v>1.79061646305372e-06</v>
       </c>
     </row>
     <row r="17">
@@ -7936,10 +7999,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.131864491016771e-06</v>
+        <v>6.773291987993702e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>1.52763353565668e-06</v>
+        <v>7.323270949510303e-07</v>
       </c>
     </row>
     <row r="18">
@@ -7949,10 +8012,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.832613352474425e-06</v>
+        <v>6.37521583550793e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1.372196451729638e-06</v>
+        <v>1.785465759532535e-06</v>
       </c>
     </row>
     <row r="19">
@@ -7962,257 +8025,257 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.283349657452362e-06</v>
+        <v>5.365126546319487e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>1.756492853691637e-06</v>
+        <v>7.397198589728939e-07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.209946676381193e-06</v>
+        <v>3.061819810845634e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>1.58518135319376e-06</v>
+        <v>1.402869058234572e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.738563547583951e-06</v>
+        <v>2.612628614739876e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>2.133674425369237e-06</v>
+        <v>7.312864158440595e-07</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.567358837168854e-06</v>
+        <v>2.088112019027477e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>7.791539175294745e-07</v>
+        <v>6.271497978674517e-07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.365155608119451e-06</v>
+        <v>2.057351433615295e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>2.305934905048959e-06</v>
+        <v>1.875626886927283e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.812314834026552e-06</v>
+        <v>1.800618300018542e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>5.894895783610403e-07</v>
+        <v>9.993741631994058e-07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.744025963246187e-06</v>
+        <v>1.775048812691082e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>1.288805000818577e-06</v>
+        <v>1.107376982372788e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.314320776346634e-06</v>
+        <v>1.583675178284949e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>2.011028828264563e-06</v>
+        <v>1.084404093015334e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.176222390730786e-06</v>
+        <v>1.176476593123255e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>1.559722372594396e-06</v>
+        <v>9.890838938460363e-07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.133154088828192e-06</v>
+        <v>1.032165932368656e-06</v>
       </c>
       <c r="C28" t="n">
-        <v>7.79949335808885e-07</v>
+        <v>2.273423252418671e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.664982195176862e-07</v>
+        <v>9.500404996920509e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>3.918718742623205e-06</v>
+        <v>8.518078442050706e-07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.149624105056262e-07</v>
+        <v>8.303764864159291e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>5.877088410100002e-07</v>
+        <v>5.409566349551212e-07</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.372592934398511e-07</v>
+        <v>2.971144542396331e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>8.657984710149252e-07</v>
+        <v>3.724406217683252e-07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.346236083030419e-07</v>
+        <v>2.192122482647108e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>2.538377235722811e-06</v>
+        <v>1.524176243954047e-07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.599933508484753e-07</v>
+        <v>1.86644387412116e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>2.097691359183816e-07</v>
+        <v>1.478252140182322e-06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.248463348841767e-07</v>
+        <v>1.626978253899125e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>4.078468728197651e-07</v>
+        <v>1.419022886687913e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.236311015479942e-07</v>
+        <v>1.608681853948468e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>1.844500389922433e-07</v>
+        <v>6.222311981938814e-08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.439324005758635e-07</v>
+        <v>1.565233425093737e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>1.02533174483082e-07</v>
+        <v>2.278613827345892e-07</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.15649328913392e-07</v>
+        <v>1.246677339139524e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>1.146931248918351e-07</v>
+        <v>2.405060049883704e-07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.413115475860764e-08</v>
+        <v>3.496170597472314e-09</v>
       </c>
       <c r="C38" t="n">
-        <v>1.558022424169744e-07</v>
+        <v>1.236117538013468e-07</v>
       </c>
     </row>
     <row r="39">
@@ -8222,49 +8285,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.902516365033137e-08</v>
+        <v>-2.038157598249768e-09</v>
       </c>
       <c r="C39" t="n">
-        <v>1.480424527219587e-07</v>
+        <v>8.535328986538704e-08</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.670104166073827e-08</v>
+        <v>-1.056662119136576e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>2.320462600336704e-07</v>
+        <v>7.920957557295464e-08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.388072038199795e-07</v>
+        <v>-1.407154190946613e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>1.011278349640801e-07</v>
+        <v>1.276992678501969e-07</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.50172417079375e-07</v>
+        <v>-6.352843308743417e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>1.635956678807536e-07</v>
+        <v>1.753523122135674e-06</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_feature_info.xlsx
+++ b/examples/eCommerce_feature_info.xlsx
@@ -61,7 +61,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -77,6 +76,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -419,7 +486,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0123413</v>
+        <v>0.0001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -455,7 +522,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34879.028</v>
+        <v>22137.727</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -473,7 +540,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>344.30735</v>
+        <v>190.31194</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -491,7 +558,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19400.508</v>
+        <v>31545.165</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -509,7 +576,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3635.7378</v>
+        <v>-1669.1152</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -527,7 +594,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2449.5778</v>
+        <v>-911.14838</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -545,7 +612,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-12222.328</v>
+        <v>1028.3417</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -563,7 +630,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-34879.028</v>
+        <v>-20410.079</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -581,7 +648,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-20572.988</v>
+        <v>-10495.992</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -599,7 +666,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-14407.638</v>
+        <v>912.82805</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -653,10 +720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.000381796677790458</v>
+        <v>0.0003579512794620321</v>
       </c>
       <c r="C2" t="n">
-        <v>3.551130333454663e-05</v>
+        <v>3.508417418872773e-05</v>
       </c>
     </row>
     <row r="3">
@@ -666,10 +733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001961116394019857</v>
+        <v>0.0001875918559377077</v>
       </c>
       <c r="C3" t="n">
-        <v>1.911999475641605e-05</v>
+        <v>3.987028534259011e-05</v>
       </c>
     </row>
     <row r="4">
@@ -679,36 +746,36 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.777451740318519e-05</v>
+        <v>6.410039207946916e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>3.130460850524705e-06</v>
+        <v>4.431231377756961e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.593014607210399e-05</v>
+        <v>4.381509476427681e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>1.240373335538636e-05</v>
+        <v>2.94143292478142e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.294218200859845e-05</v>
+        <v>3.915267788534571e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.856325433957378e-06</v>
+        <v>1.450607479915251e-05</v>
       </c>
     </row>
     <row r="7">
@@ -718,10 +785,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.048065713404547e-05</v>
+        <v>3.619558036263015e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>3.942641979877143e-06</v>
+        <v>2.874823782872697e-06</v>
       </c>
     </row>
     <row r="8">
@@ -731,75 +798,75 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.423470755858915e-05</v>
+        <v>3.519051821694319e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>4.134611519719017e-06</v>
+        <v>2.98116771070571e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.306939297986865e-05</v>
+        <v>1.883740213064478e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>7.505684332365427e-06</v>
+        <v>1.794007255061909e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.221123566683581e-05</v>
+        <v>1.215063429711449e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>2.861682041934699e-06</v>
+        <v>2.243302223097621e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.194057603965959e-05</v>
+        <v>1.090714870422005e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>2.486843674041009e-06</v>
+        <v>2.080510282242938e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.541923399236651e-06</v>
+        <v>1.08303913760377e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>3.395189381567966e-06</v>
+        <v>1.451070181274381e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.041487473604448e-06</v>
+        <v>1.021593223540229e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>2.226782296619757e-06</v>
+        <v>3.511979784538937e-05</v>
       </c>
     </row>
     <row r="14">
@@ -809,10 +876,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.291808001192891e-06</v>
+        <v>8.559526045459621e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>1.735011948788776e-06</v>
+        <v>9.94734177828502e-07</v>
       </c>
     </row>
     <row r="15">
@@ -822,153 +889,153 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.986050668451483e-06</v>
+        <v>7.286583242294142e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>5.70303250887582e-06</v>
+        <v>5.571737773601867e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.863112456745313e-06</v>
+        <v>6.699437493074001e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>2.60358244494503e-06</v>
+        <v>2.026439875374082e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.236914781254654e-06</v>
+        <v>5.95758500328003e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>5.694361080429139e-07</v>
+        <v>2.183528288649045e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.657765700073369e-06</v>
+        <v>5.744396769102877e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1.243665656116851e-06</v>
+        <v>5.606432436270398e-07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.518929292991359e-06</v>
+        <v>4.80037657588639e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>7.170659386165462e-06</v>
+        <v>1.479011400024125e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.435007931220426e-06</v>
+        <v>4.526665407889041e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>1.268225168428577e-06</v>
+        <v>8.934993238621266e-07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.859690603702503e-06</v>
+        <v>4.403704490618665e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>5.069745064956741e-06</v>
+        <v>3.274329173098786e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.842310472590426e-06</v>
+        <v>3.505772720435729e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>1.504405546497203e-06</v>
+        <v>4.932200807476823e-06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.822531695663045e-06</v>
+        <v>1.553723438929566e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>5.517040473107271e-06</v>
+        <v>1.676226962226715e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.480086605689436e-06</v>
+        <v>1.465214684648331e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>1.141299738212026e-06</v>
+        <v>8.478668387493019e-07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.531986824738652e-06</v>
+        <v>1.414696413704064e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>6.371479160900138e-06</v>
+        <v>2.727235714598285e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.042754143216641e-06</v>
+        <v>9.836421356990144e-07</v>
       </c>
       <c r="C26" t="n">
-        <v>2.096736703154293e-06</v>
+        <v>1.39116810316363e-06</v>
       </c>
     </row>
     <row r="27">
@@ -978,10 +1045,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.941793762762274e-07</v>
+        <v>6.919178734854369e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>3.384147136937333e-07</v>
+        <v>6.207093645215522e-07</v>
       </c>
     </row>
     <row r="28">
@@ -991,192 +1058,192 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.896448696114277e-07</v>
+        <v>5.631782940884733e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>6.944005010763754e-06</v>
+        <v>5.475693509283675e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.949934964721848e-07</v>
+        <v>4.620586834924722e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>2.301200204129005e-07</v>
+        <v>9.714338770461342e-07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.404669302791262e-07</v>
+        <v>3.703220119444239e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>1.385410096263554e-06</v>
+        <v>1.659865517802286e-07</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.033660599920495e-07</v>
+        <v>3.658181382704129e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>2.181244662986761e-07</v>
+        <v>3.601188571728896e-07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.828111611867911e-07</v>
+        <v>2.082789236190763e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>3.263584480095635e-07</v>
+        <v>1.086058696862439e-07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.439964282923256e-07</v>
+        <v>6.032475603490184e-08</v>
       </c>
       <c r="C33" t="n">
-        <v>3.194303475011741e-07</v>
+        <v>1.566688140502064e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.349347579399534e-08</v>
+        <v>3.688907717069867e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>2.427813719634392e-07</v>
+        <v>3.135962916720877e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.410174209683703e-08</v>
+        <v>3.009423710231829e-08</v>
       </c>
       <c r="C35" t="n">
-        <v>8.195488755624238e-08</v>
+        <v>1.476722067322947e-06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.539554461693626e-08</v>
+        <v>-1.679400152276855e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>1.029444579375198e-07</v>
+        <v>1.228810380208455e-08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.598854586504217e-08</v>
+        <v>-7.022400447809218e-08</v>
       </c>
       <c r="C37" t="n">
-        <v>8.965055171576435e-09</v>
+        <v>2.138382993178941e-07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.318888378509797e-07</v>
+        <v>-1.702181500196076e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>1.759890968497828e-06</v>
+        <v>3.059692838524051e-07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-2.848003295419232e-07</v>
+        <v>-3.78226780828328e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>1.096670993790557e-06</v>
+        <v>3.353276981362954e-07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-4.963010891589903e-07</v>
+        <v>-5.697093919287965e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>4.456870780065081e-07</v>
+        <v>7.650801681318767e-07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.525403796864282e-07</v>
+        <v>-1.338198133149504e-06</v>
       </c>
       <c r="C41" t="n">
-        <v>2.291289228448668e-07</v>
+        <v>1.624487853508736e-06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-2.141631224983342e-06</v>
+        <v>-3.213017953740405e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>6.34163366612781e-06</v>
+        <v>2.376943036598742e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1222,10 +1289,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2881797767859912</v>
+        <v>0.2815260869717954</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01735116427522607</v>
+        <v>0.01412827314378541</v>
       </c>
     </row>
     <row r="3">
@@ -1235,10 +1302,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2643574108842378</v>
+        <v>0.2722591007178872</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01122986876491526</v>
+        <v>0.02964575988356191</v>
       </c>
     </row>
     <row r="4">
@@ -1248,10 +1315,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06642657499248417</v>
+        <v>0.06492701243607432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004818763445123679</v>
+        <v>0.005433450906507022</v>
       </c>
     </row>
     <row r="5">
@@ -1261,10 +1328,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05246538572987398</v>
+        <v>0.05098691293884532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003964482670432735</v>
+        <v>0.002115902936571959</v>
       </c>
     </row>
     <row r="6">
@@ -1274,10 +1341,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04968508939987639</v>
+        <v>0.04994512181672996</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005555725845374941</v>
+        <v>0.002739806067705221</v>
       </c>
     </row>
     <row r="7">
@@ -1287,10 +1354,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02842721506188599</v>
+        <v>0.03022570084973657</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004477694601337889</v>
+        <v>0.003346148269780184</v>
       </c>
     </row>
     <row r="8">
@@ -1300,36 +1367,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02351651666516348</v>
+        <v>0.02751538195986352</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00190576884273721</v>
+        <v>0.002708264394717538</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02147909443330231</v>
+        <v>0.02217169409191819</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009678199119985919</v>
+        <v>0.001591078153422347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02122757221672149</v>
+        <v>0.02214953505338984</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001700082025422912</v>
+        <v>0.004222779978743517</v>
       </c>
     </row>
     <row r="11">
@@ -1339,36 +1406,36 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0210276747279327</v>
+        <v>0.02140272923744171</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001531171926824869</v>
+        <v>0.001879436471364668</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02026739218791347</v>
+        <v>0.02075269992239954</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00141009262488724</v>
+        <v>0.002951588881795535</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0198817673695584</v>
+        <v>0.0184156695893039</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000578460130275718</v>
+        <v>0.0008427129349741442</v>
       </c>
     </row>
     <row r="14">
@@ -1378,23 +1445,23 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01940701268319289</v>
+        <v>0.01811699699965092</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001843493130779509</v>
+        <v>0.001198750063723196</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.013902343486187</v>
+        <v>0.01345904904021038</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001207198408930779</v>
+        <v>0.001173910005394475</v>
       </c>
     </row>
     <row r="16">
@@ -1404,36 +1471,36 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01325007452283806</v>
+        <v>0.01338705422651025</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00136561463287843</v>
+        <v>0.001107959952186204</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01260081169638456</v>
+        <v>0.01322786603761437</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001249864495410785</v>
+        <v>0.001448710083617613</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01239096283661725</v>
+        <v>0.01312563682967531</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001223853423819215</v>
+        <v>0.001226287396692481</v>
       </c>
     </row>
     <row r="19">
@@ -1443,10 +1510,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01034086966831169</v>
+        <v>0.01142801876597996</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002278933090189009</v>
+        <v>0.001056840417034807</v>
       </c>
     </row>
     <row r="20">
@@ -1456,10 +1523,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01025628249421375</v>
+        <v>0.009795884155522128</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004494098308087777</v>
+        <v>0.0006836273898335134</v>
       </c>
     </row>
     <row r="21">
@@ -1469,10 +1536,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.009737512799087588</v>
+        <v>0.009242896978548631</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0006165288817476052</v>
+        <v>0.0005374858754889635</v>
       </c>
     </row>
     <row r="22">
@@ -1482,10 +1549,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.008245211869848968</v>
+        <v>0.008541010131668591</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00123788402487968</v>
+        <v>0.001082293712504031</v>
       </c>
     </row>
     <row r="23">
@@ -1495,62 +1562,62 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00683061521403876</v>
+        <v>0.006676026880833308</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0003423737476538958</v>
+        <v>0.0006574776027618882</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00568030687953025</v>
+        <v>0.006410004903212818</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0006582396063085233</v>
+        <v>0.0008167860998014814</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.005317165789831791</v>
+        <v>0.005744463598428151</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000917443772691786</v>
+        <v>0.0004678491779770729</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005263681831684686</v>
+        <v>0.005524007230942108</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0002034580922258922</v>
+        <v>0.0004850352908108048</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.005200156999836137</v>
+        <v>0.004815708919082629</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0001840565493249627</v>
+        <v>0.0004251091794012031</v>
       </c>
     </row>
     <row r="28">
@@ -1560,10 +1627,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.004477279766216857</v>
+        <v>0.004712719679052157</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000181698502576377</v>
+        <v>0.0002212368386167253</v>
       </c>
     </row>
     <row r="29">
@@ -1573,10 +1640,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003845606831530324</v>
+        <v>0.004207515504541149</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001264882913092777</v>
+        <v>0.0004053412259874614</v>
       </c>
     </row>
     <row r="30">
@@ -1586,10 +1653,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003536109557223699</v>
+        <v>0.003618987100459803</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002862227410274199</v>
+        <v>0.0005589269345906602</v>
       </c>
     </row>
     <row r="31">
@@ -1599,10 +1666,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003482737750413523</v>
+        <v>0.003264131999029529</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0005363502521124827</v>
+        <v>0.0003048181508813157</v>
       </c>
     </row>
     <row r="32">
@@ -1612,10 +1679,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002094342337692234</v>
+        <v>0.00224718637246919</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001195261551727105</v>
+        <v>0.0002938623329329004</v>
       </c>
     </row>
     <row r="33">
@@ -1625,36 +1692,36 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001902679902808191</v>
+        <v>0.001855928435119192</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001038910243112972</v>
+        <v>0.000264432961299784</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001364315588731468</v>
+        <v>0.001632588692527692</v>
       </c>
       <c r="C34" t="n">
-        <v>0.000287612779339253</v>
+        <v>0.000360959280992707</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001260726481124319</v>
+        <v>0.001446354316368925</v>
       </c>
       <c r="C35" t="n">
-        <v>0.000260669878365908</v>
+        <v>0.0003497920859436868</v>
       </c>
     </row>
     <row r="36">
@@ -1664,10 +1731,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0002365128899944891</v>
+        <v>0.0002269257634164079</v>
       </c>
       <c r="C36" t="n">
-        <v>4.498292415660637e-05</v>
+        <v>1.947150017681543e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1677,10 +1744,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0001176506520174314</v>
+        <v>0.0001411535639589401</v>
       </c>
       <c r="C37" t="n">
-        <v>2.808236732649399e-05</v>
+        <v>2.312623668211298e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1690,10 +1757,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.603746699882837e-05</v>
+        <v>2.405723342266963e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1.12195202525662e-05</v>
+        <v>1.514627635110182e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1759,7 +1826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1806,10 +1873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16225.71731581664</v>
+        <v>16221.8185550413</v>
       </c>
       <c r="C2" t="n">
-        <v>986.4566189823963</v>
+        <v>920.9618061989041</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1821,7 +1888,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[14342.536748470558, 18279.416490165448]</t>
+          <t>[14805.299424338913, 18295.52259888229]</t>
         </is>
       </c>
     </row>
@@ -1832,13 +1899,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.54793618190046</v>
+        <v>8.946762636263411</v>
       </c>
       <c r="C3" t="n">
-        <v>456.7867873233219</v>
+        <v>473.5411480556965</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.988</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1847,7 +1914,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-938.2382357268244, 971.1264852254442]</t>
+          <t>[-1037.804771292642, 843.2898798793678]</t>
         </is>
       </c>
     </row>
@@ -1858,13 +1925,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-45.54508613014558</v>
+        <v>-47.78871456276676</v>
       </c>
       <c r="C4" t="n">
-        <v>440.4346492206815</v>
+        <v>471.699145486693</v>
       </c>
       <c r="D4" t="n">
-        <v>0.906</v>
+        <v>0.93</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1873,7 +1940,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-1056.2696095056424, 814.1033642365422]</t>
+          <t>[-1003.4213893912722, 828.7835659929955]</t>
         </is>
       </c>
     </row>
@@ -1884,13 +1951,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-313.6006269172082</v>
+        <v>-315.6619011528302</v>
       </c>
       <c r="C5" t="n">
-        <v>500.015162845552</v>
+        <v>514.3714273427162</v>
       </c>
       <c r="D5" t="n">
-        <v>0.448</v>
+        <v>0.472</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1899,7 +1966,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1374.3427084759765, 663.2002739249596]</t>
+          <t>[-1373.1474272326116, 802.0192020316584]</t>
         </is>
       </c>
     </row>
@@ -1910,13 +1977,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-247.9078995908417</v>
+        <v>-250.2636421924595</v>
       </c>
       <c r="C6" t="n">
-        <v>563.8515731670103</v>
+        <v>535.8353267953104</v>
       </c>
       <c r="D6" t="n">
-        <v>0.672</v>
+        <v>0.668</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1925,7 +1992,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-1518.7236751931132, 711.5870427676128]</t>
+          <t>[-1433.9990914632626, 739.8580640377761]</t>
         </is>
       </c>
     </row>
@@ -1936,13 +2003,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-696.2276783783009</v>
+        <v>-696.8021189793758</v>
       </c>
       <c r="C7" t="n">
-        <v>623.6451472517024</v>
+        <v>593.0700315143973</v>
       </c>
       <c r="D7" t="n">
-        <v>0.256</v>
+        <v>0.226</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1951,7 +2018,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-1909.9427615799987, 359.40321568820434]</t>
+          <t>[-1819.1995835902271, 292.6254210778518]</t>
         </is>
       </c>
     </row>
@@ -2088,17 +2155,17 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Easter Monday [England, Wales, Northern Ireland]'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Good Friday'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1584.950676918127</v>
+        <v>-1640.323309340931</v>
       </c>
       <c r="C13" t="n">
-        <v>1280.287177108991</v>
+        <v>1313.124050059655</v>
       </c>
       <c r="D13" t="n">
-        <v>0.118</v>
+        <v>0.122</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2107,24 +2174,24 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-4198.93850795056, 0.0]</t>
+          <t>[-4141.214126406747, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Easter Monday [England, Wales, Northern Ireland]_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Good Friday_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-381.9881629445778</v>
+        <v>373.6381334363077</v>
       </c>
       <c r="C14" t="n">
-        <v>338.5429369206867</v>
+        <v>400.0278861668627</v>
       </c>
       <c r="D14" t="n">
-        <v>0.124</v>
+        <v>0.19</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2133,24 +2200,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-1063.7928537272785, 0.0]</t>
+          <t>[-18.88960329909792, 1318.098159698618]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Easter Monday [England, Wales, Northern Ireland]_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Good Friday_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>130.9900376999156</v>
+        <v>294.4642088139133</v>
       </c>
       <c r="C15" t="n">
-        <v>241.7325271372032</v>
+        <v>363.3992191952207</v>
       </c>
       <c r="D15" t="n">
-        <v>0.392</v>
+        <v>0.274</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2159,24 +2226,24 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-232.13667133183304, 730.5964019218002]</t>
+          <t>[-190.38676005850238, 1106.3258333308431]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Easter Monday [England, Wales, Northern Ireland]_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Good Friday_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.532813492998182</v>
+        <v>142.9260460884154</v>
       </c>
       <c r="C16" t="n">
-        <v>281.7059525950239</v>
+        <v>286.0683629545272</v>
       </c>
       <c r="D16" t="n">
-        <v>0.998</v>
+        <v>0.386</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2185,24 +2252,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-552.984357694942, 704.3411499276916]</t>
+          <t>[-363.39025143474385, 819.1791435749874]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Easter Monday [England, Wales, Northern Ireland]_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Good Friday_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>127.3768289850906</v>
+        <v>-406.6719843282598</v>
       </c>
       <c r="C17" t="n">
-        <v>256.5669446402749</v>
+        <v>387.4293261194849</v>
       </c>
       <c r="D17" t="n">
-        <v>0.396</v>
+        <v>0.14</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2211,24 +2278,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[-341.45317092909016, 753.0433938985627]</t>
+          <t>[-1348.614670337086, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Good Friday'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Independence Day'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1644.345707777558</v>
+        <v>-874.612146993946</v>
       </c>
       <c r="C18" t="n">
-        <v>1275.468460663359</v>
+        <v>1226.161176346068</v>
       </c>
       <c r="D18" t="n">
-        <v>0.122</v>
+        <v>0.468</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2237,50 +2304,50 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-4148.100424145863, 0.0]</t>
+          <t>[-3425.7852556062235, 1146.0499785836323]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Good Friday_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Independence Day_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>369.4369217508375</v>
+        <v>-1735.853053061536</v>
       </c>
       <c r="C19" t="n">
-        <v>382.153490070731</v>
+        <v>970.1329884035528</v>
       </c>
       <c r="D19" t="n">
-        <v>0.176</v>
+        <v>0.032</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>*</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-41.41188791075915, 1275.8204645701635]</t>
+          <t>[-3406.6756559482765, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Good Friday_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Independence Day_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>293.161706244475</v>
+        <v>-501.520120757929</v>
       </c>
       <c r="C20" t="n">
-        <v>335.7153655784958</v>
+        <v>442.0060939717949</v>
       </c>
       <c r="D20" t="n">
-        <v>0.218</v>
+        <v>0.166</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2289,24 +2356,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-59.77394161514257, 1057.0259519279307]</t>
+          <t>[-1575.3840293189367, 37.19034413451075]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Good Friday_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Independence Day_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>130.9900376999191</v>
+        <v>-1235.619124447749</v>
       </c>
       <c r="C21" t="n">
-        <v>241.7325271372036</v>
+        <v>1311.262311554502</v>
       </c>
       <c r="D21" t="n">
-        <v>0.392</v>
+        <v>0.382</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2315,24 +2382,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-232.13667133183594, 730.5964019218025]</t>
+          <t>[-3787.7164359258168, 926.9740798161278]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Good Friday_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Independence Day_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-381.9881629445746</v>
+        <v>536.551693261755</v>
       </c>
       <c r="C22" t="n">
-        <v>338.5429369206865</v>
+        <v>1159.714834643673</v>
       </c>
       <c r="D22" t="n">
-        <v>0.124</v>
+        <v>0.62</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2341,24 +2408,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-1063.7928537272744, 0.0]</t>
+          <t>[-1617.766622715359, 2903.4783906637385]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Independence Day'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Labor Day'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-880.139305021308</v>
+        <v>-629.7219649075956</v>
       </c>
       <c r="C23" t="n">
-        <v>1228.238010622148</v>
+        <v>581.408063225633</v>
       </c>
       <c r="D23" t="n">
-        <v>0.494</v>
+        <v>0.2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2367,102 +2434,102 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-3255.426876875394, 1292.8528553148035]</t>
+          <t>[-1978.9261910458686, 200.5309207165305]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Independence Day_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Labor Day_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1736.647441528073</v>
+        <v>-89.00930186573336</v>
       </c>
       <c r="C24" t="n">
-        <v>970.754687694965</v>
+        <v>575.5745969410125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.046</v>
+        <v>0.902</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>*</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-3581.805254117017, 0.0]</t>
+          <t>[-1363.0945462967711, 976.3352952983862]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Independence Day_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Labor Day_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-500.7598018069295</v>
+        <v>-1475.603930397075</v>
       </c>
       <c r="C25" t="n">
-        <v>412.5529224643066</v>
+        <v>990.260891516435</v>
       </c>
       <c r="D25" t="n">
-        <v>0.166</v>
+        <v>0.076</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-1365.878574945634, 87.83128782284912]</t>
+          <t>[-3569.7849527501266, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Independence Day_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Labor Day_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1236.54231927475</v>
+        <v>-2950.60663351319</v>
       </c>
       <c r="C26" t="n">
-        <v>1371.037756861253</v>
+        <v>1578.907614217889</v>
       </c>
       <c r="D26" t="n">
-        <v>0.388</v>
+        <v>0.04</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>*</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-4093.098938605977, 918.8753172197805]</t>
+          <t>[-5910.990927910041, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Independence Day_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Labor Day_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>537.8354622250466</v>
+        <v>-850.3643758427934</v>
       </c>
       <c r="C27" t="n">
-        <v>1048.831758030439</v>
+        <v>746.4233018197075</v>
       </c>
       <c r="D27" t="n">
-        <v>0.584</v>
+        <v>0.194</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2471,24 +2538,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[-1419.0050811092829, 2677.397732853944]</t>
+          <t>[-2376.1289785680565, 405.730174528824]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Labor Day'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Memorial Day'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-634.9210684416799</v>
+        <v>-1818.979284294032</v>
       </c>
       <c r="C28" t="n">
-        <v>598.4119583246344</v>
+        <v>1558.362465941738</v>
       </c>
       <c r="D28" t="n">
-        <v>0.212</v>
+        <v>0.132</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2497,24 +2564,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-2019.9229363595978, 217.1998799324941]</t>
+          <t>[-5118.049760399771, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Labor Day_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Memorial Day_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-90.97114845384789</v>
+        <v>-348.5214255079964</v>
       </c>
       <c r="C29" t="n">
-        <v>596.6683937053594</v>
+        <v>359.0095320506818</v>
       </c>
       <c r="D29" t="n">
-        <v>0.914</v>
+        <v>0.176</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2523,76 +2590,76 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[-1370.9434116681848, 881.6598237969293]</t>
+          <t>[-1232.3457900442145, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Labor Day_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Memorial Day_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1476.663531177394</v>
+        <v>219.6599128058833</v>
       </c>
       <c r="C30" t="n">
-        <v>994.2847587144868</v>
+        <v>289.1362356662631</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08</v>
+        <v>0.264</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[-3275.0165394731494, 0.0]</t>
+          <t>[-126.65454425487835, 912.745824786484]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Labor Day_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Memorial Day_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2956.128635138438</v>
+        <v>-934.1918871230312</v>
       </c>
       <c r="C31" t="n">
-        <v>1637.637527509755</v>
+        <v>838.6288444978509</v>
       </c>
       <c r="D31" t="n">
-        <v>0.044</v>
+        <v>0.138</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>*</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-6042.4130698395975, 0.0]</t>
+          <t>[-2849.524760474341, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Labor Day_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Memorial Day_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-848.6500732461787</v>
+        <v>-1033.842903886473</v>
       </c>
       <c r="C32" t="n">
-        <v>709.3614292324129</v>
+        <v>888.3058980614837</v>
       </c>
       <c r="D32" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2601,24 +2668,24 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-2356.673967423125, 346.7981028131247]</t>
+          <t>[-2941.750352216484, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Memorial Day'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_New Years Day'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1822.849448989509</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1508.062006837342</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.126</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2627,24 +2694,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[-4765.095801993152, 0.0]</t>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Memorial Day_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_New Years Day_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-348.5924273082925</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>351.0317059396446</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2653,24 +2720,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[-1142.907574268337, 0.0]</t>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Memorial Day_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_New Years Day_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220.8547331373366</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>273.1424822902195</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.252</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2679,24 +2746,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[-206.47054599316388, 878.1665995596858]</t>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Memorial Day_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_New Years Day_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-934.7604196484583</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>828.769056013129</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.154</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2705,24 +2772,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[-2750.7180351394813, 0.0]</t>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Memorial Day_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_New Years Day_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1032.600379669628</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>923.0877137615267</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.144</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2731,50 +2798,50 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[-3098.5079780038436, 0.0]</t>
+          <t>[0.0, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_New Years Day'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Other'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-4367.578280519683</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1621.397825197802</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.008</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>**</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-7744.548176904069, -1143.6623415409235]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_New Years Day_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Other_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-439.3598425365299</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1410.233967756363</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.764</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2783,24 +2850,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-3076.2457881696364, 2345.612513884516]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_New Years Day_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Other_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-895.2605529554834</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1453.704110834938</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.512</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2809,24 +2876,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-3949.970969861506, 1920.642841322687]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_New Years Day_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Other_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-307.3915898043502</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1839.904985268757</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.856</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2835,24 +2902,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-3925.0319791367856, 3160.5918642363567]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_New Years Day_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Other_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2026.677189091354</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1599.292090189359</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.188</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2861,50 +2928,50 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[-1405.622791292541, 5114.804223858129]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Other'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Thanksgiving'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-4340.096716926823</v>
+        <v>60.56456088347079</v>
       </c>
       <c r="C43" t="n">
-        <v>1683.799360208787</v>
+        <v>248.4870534529083</v>
       </c>
       <c r="D43" t="n">
-        <v>0.016</v>
+        <v>0.54</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>*</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-7434.4291430565245, -695.7404733019287]</t>
+          <t>[-440.11097661219026, 630.3380727139961]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Other_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Thanksgiving_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-441.2264640593586</v>
+        <v>2244.141212080592</v>
       </c>
       <c r="C44" t="n">
-        <v>1467.873264997892</v>
+        <v>1752.786047997597</v>
       </c>
       <c r="D44" t="n">
-        <v>0.77</v>
+        <v>0.108</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2913,24 +2980,24 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[-3085.9387473268966, 2391.4073261069493]</t>
+          <t>[0.0, 5576.507059005335]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Other_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Thanksgiving_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-906.3795206585854</v>
+        <v>1249.390373496088</v>
       </c>
       <c r="C45" t="n">
-        <v>1352.143969927482</v>
+        <v>1053.86246240727</v>
       </c>
       <c r="D45" t="n">
-        <v>0.498</v>
+        <v>0.132</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2939,24 +3006,24 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[-3256.3417558562983, 2176.330915043493]</t>
+          <t>[0.0, 3362.7239670887293]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Other_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Thanksgiving_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-279.7420494065781</v>
+        <v>996.1322062656325</v>
       </c>
       <c r="C46" t="n">
-        <v>1873.406469821224</v>
+        <v>898.9025671350879</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9</v>
+        <v>0.138</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2965,24 +3032,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[-3752.403884148622, 3241.274742059939]</t>
+          <t>[0.0, 3069.3778954059117]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Other_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Thanksgiving_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2018.014006857013</v>
+        <v>-256.6497011872469</v>
       </c>
       <c r="C47" t="n">
-        <v>1469.496494638449</v>
+        <v>280.4394438851232</v>
       </c>
       <c r="D47" t="n">
-        <v>0.188</v>
+        <v>0.206</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2991,24 +3058,24 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[-768.1602118266798, 4541.387817501144]</t>
+          <t>[-900.5751898308924, 74.83680203914824]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Thanksgiving'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Veterans Day'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>61.81740350485701</v>
+        <v>998.6771979587326</v>
       </c>
       <c r="C48" t="n">
-        <v>295.3930399631503</v>
+        <v>876.0921657906304</v>
       </c>
       <c r="D48" t="n">
-        <v>0.908</v>
+        <v>0.134</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3017,50 +3084,50 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[-483.6276447481819, 809.4413365144837]</t>
+          <t>[0.0, 2838.8847206049095]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Thanksgiving_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Veterans Day_minus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2245.347836525984</v>
+        <v>905.8753165930859</v>
       </c>
       <c r="C49" t="n">
-        <v>1866.951564276216</v>
+        <v>796.4339281772218</v>
       </c>
       <c r="D49" t="n">
-        <v>0.098</v>
+        <v>0.126</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[0.0, 6149.736630279144]</t>
+          <t>[0.0, 2657.3567672040244]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Thanksgiving_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Veterans Day_minus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1250.906198266065</v>
+        <v>1836.891614895217</v>
       </c>
       <c r="C50" t="n">
-        <v>1065.587306899189</v>
+        <v>1463.292302262564</v>
       </c>
       <c r="D50" t="n">
-        <v>0.148</v>
+        <v>0.114</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3069,24 +3136,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.0, 3422.150245334736]</t>
+          <t>[0.0, 4653.66689023334]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Thanksgiving_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Veterans Day_plus_1'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>997.06026678816</v>
+        <v>-581.8525834395579</v>
       </c>
       <c r="C51" t="n">
-        <v>901.2619610439394</v>
+        <v>508.6232741054681</v>
       </c>
       <c r="D51" t="n">
-        <v>0.142</v>
+        <v>0.124</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3095,24 +3162,24 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[0.0, 3002.8897280481815]</t>
+          <t>[-1808.1039189487283, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Thanksgiving_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('events_Veterans Day_plus_2'), levels=['', 'event'])[T.event]</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-256.0634498712669</v>
+        <v>300.9849296563543</v>
       </c>
       <c r="C52" t="n">
-        <v>270.4240403294844</v>
+        <v>408.2851709099538</v>
       </c>
       <c r="D52" t="n">
-        <v>0.188</v>
+        <v>0.274</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3121,102 +3188,102 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[-913.9445731300734, 60.46265490229734]</t>
+          <t>[-169.2701962867036, 1213.155663239309]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Veterans Day'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.2-Tue]</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>997.0586080802485</v>
+        <v>2068.122014804155</v>
       </c>
       <c r="C53" t="n">
-        <v>872.1971845286629</v>
+        <v>459.2209433089676</v>
       </c>
       <c r="D53" t="n">
-        <v>0.146</v>
+        <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[0.0, 2820.894587782543]</t>
+          <t>[1263.0563439559028, 3031.480061003381]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Veterans Day_minus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.3-Wed]</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>907.1730541790076</v>
+        <v>503.4838950168074</v>
       </c>
       <c r="C54" t="n">
-        <v>807.1739915159181</v>
+        <v>256.6393012171071</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144</v>
+        <v>0.058</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[0.0, 2569.739900079338]</t>
+          <t>[-16.50561768253555, 1001.0527320465342]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Veterans Day_minus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.4-Thu]</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1839.8793639558</v>
+        <v>1506.345327360888</v>
       </c>
       <c r="C55" t="n">
-        <v>1467.601844717742</v>
+        <v>268.5726442150213</v>
       </c>
       <c r="D55" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[0.0, 4768.717827652438]</t>
+          <t>[1026.1565103378193, 2114.7514745762664]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Veterans Day_plus_1'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.5-Fri]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-583.9905408105782</v>
+        <v>2.556404175517645</v>
       </c>
       <c r="C56" t="n">
-        <v>542.9748406024423</v>
+        <v>264.2257643467242</v>
       </c>
       <c r="D56" t="n">
-        <v>0.144</v>
+        <v>1</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3225,47 +3292,47 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-1852.1442537587286, 0.0]</t>
+          <t>[-535.6988620280468, 525.755897065157]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>C(Q('events_Veterans Day_plus_2'), levels=['', 'event'])[T.event]</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.6-Sat]</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>301.2831874946256</v>
+        <v>-4088.089096803415</v>
       </c>
       <c r="C57" t="n">
-        <v>396.1099605306669</v>
+        <v>199.4900083776608</v>
       </c>
       <c r="D57" t="n">
-        <v>0.274</v>
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>***</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[-224.86683054994563, 1247.5228220689828]</t>
+          <t>[-4503.313502420535, -3719.2061355511687]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.2-Tue]</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.7-Sun]</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2066.658502552669</v>
+        <v>-1921.470618609711</v>
       </c>
       <c r="C58" t="n">
-        <v>454.261898654162</v>
+        <v>226.5161277076405</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3277,47 +3344,47 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[1230.0031472668877, 3002.014499069502]</t>
+          <t>[-2382.2003922224567, -1495.0994446524887]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.3-Wed]</t>
+          <t>ct1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>501.5663529838181</v>
+        <v>18424.3578230766</v>
       </c>
       <c r="C59" t="n">
-        <v>269.6918155746758</v>
+        <v>2096.686443478339</v>
       </c>
       <c r="D59" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[-2.4848655883532023, 1023.1825895300462]</t>
+          <t>[13934.004781694919, 21863.140447054968]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.4-Thu]</t>
+          <t>is_weekend[T.True]:ct1</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1505.316130548408</v>
+        <v>-4210.103325095953</v>
       </c>
       <c r="C60" t="n">
-        <v>264.389845662725</v>
+        <v>869.6229350642318</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3329,24 +3396,24 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[1003.3229885838751, 2066.037719736431]</t>
+          <t>[-5751.140783758057, -2429.366456487528]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.5-Fri]</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.2-Tue]:ct1</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.667650453138873</v>
+        <v>993.5760858757008</v>
       </c>
       <c r="C61" t="n">
-        <v>251.50084660284</v>
+        <v>2327.50696799338</v>
       </c>
       <c r="D61" t="n">
-        <v>0.994</v>
+        <v>0.664</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3355,47 +3422,47 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-447.7576544540878, 525.1926819584154]</t>
+          <t>[-3500.033135987545, 5714.245894827957]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.6-Sat]</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.3-Wed]:ct1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-4089.197162529386</v>
+        <v>3742.277256647134</v>
       </c>
       <c r="C62" t="n">
-        <v>204.018654073383</v>
+        <v>1424.671303298853</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[-4525.19627974316, -3706.9994633612287]</t>
+          <t>[694.8626794154816, 6473.137139861483]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.7-Sun]</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.4-Thu]:ct1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1920.067813311633</v>
+        <v>4653.999844972506</v>
       </c>
       <c r="C63" t="n">
-        <v>227.0895788550335</v>
+        <v>1386.656449784</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3407,47 +3474,47 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[-2326.4156145804754, -1437.7287164454717]</t>
+          <t>[1817.2042241832291, 7260.69233017869]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>ct1</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.5-Fri]:ct1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>18416.4526515837</v>
+        <v>3995.428620587048</v>
       </c>
       <c r="C64" t="n">
-        <v>2097.095076583875</v>
+        <v>2199.592009741066</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[13927.302856912758, 22070.590994490725]</t>
+          <t>[160.3091050916645, 8531.34334288995]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>is_weekend[T.True]:ct1</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.6-Sat]:ct1</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-4207.719466646358</v>
+        <v>-4637.820067500492</v>
       </c>
       <c r="C65" t="n">
-        <v>840.2859011549477</v>
+        <v>519.8476455151725</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3459,24 +3526,24 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[-5560.0483591943985, -2424.928112491146]</t>
+          <t>[-5413.032542842837, -3397.8008971520926]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.2-Tue]:ct1</t>
+          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.7-Sun]:ct1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>994.5795822308909</v>
+        <v>427.7167424045368</v>
       </c>
       <c r="C66" t="n">
-        <v>2383.90983954848</v>
+        <v>720.9385060919834</v>
       </c>
       <c r="D66" t="n">
-        <v>0.678</v>
+        <v>0.556</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3485,99 +3552,99 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[-4157.035737964101, 5580.930563121031]</t>
+          <t>[-956.4985676170047, 1756.4998917916319]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.3-Wed]:ct1</t>
+          <t>sin1_tow_weekly</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3743.621880652659</v>
+        <v>8248.111354406359</v>
       </c>
       <c r="C67" t="n">
-        <v>1393.746634576002</v>
+        <v>629.0151607734495</v>
       </c>
       <c r="D67" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[757.0355397838114, 6318.897879497234]</t>
+          <t>[7156.593581835337, 9589.77979162168]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.4-Thu]:ct1</t>
+          <t>cos1_tow_weekly</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4655.199414714754</v>
+        <v>1458.663936539087</v>
       </c>
       <c r="C68" t="n">
-        <v>1434.463576901179</v>
+        <v>875.9612406106039</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[1798.3362986535205, 7160.656666021754]</t>
+          <t>[-186.61538797156456, 3162.36082560497]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.5-Fri]:ct1</t>
+          <t>sin2_tow_weekly</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3998.209301350353</v>
+        <v>721.6468352949161</v>
       </c>
       <c r="C69" t="n">
-        <v>1972.082625623202</v>
+        <v>741.2361398052476</v>
       </c>
       <c r="D69" t="n">
-        <v>0.032</v>
+        <v>0.33</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>*</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[315.90566459781587, 7771.595898838618]</t>
+          <t>[-667.6398423824908, 2149.921008271613]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.6-Sat]:ct1</t>
+          <t>cos2_tow_weekly</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-4634.679669966184</v>
+        <v>6066.821600559238</v>
       </c>
       <c r="C70" t="n">
-        <v>538.2672856711366</v>
+        <v>731.9975579945458</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3589,24 +3656,24 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[-5382.553364968509, -3332.2982233466428]</t>
+          <t>[4734.5653896559625, 7616.936075617453]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>C(Q('str_dow'), levels=['1-Mon', '2-Tue', '3-Wed', '4-Thu', '5-Fri', '6-Sat', '7-Sun'])[T.7-Sun]:ct1</t>
+          <t>sin3_tow_weekly</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>426.9602033198091</v>
+        <v>-392.731154470252</v>
       </c>
       <c r="C71" t="n">
-        <v>727.5204974855984</v>
+        <v>331.7394726513155</v>
       </c>
       <c r="D71" t="n">
-        <v>0.574</v>
+        <v>0.248</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3615,76 +3682,76 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[-1048.3774462500398, 1781.8855864497318]</t>
+          <t>[-1054.3585709280692, 227.68894178968594]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>sin1_tow_weekly</t>
+          <t>cos3_tow_weekly</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>8245.020260088473</v>
+        <v>-773.803277903365</v>
       </c>
       <c r="C72" t="n">
-        <v>637.5747396816871</v>
+        <v>511.8205168472565</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>***</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[7043.298615979464, 9478.59442257262]</t>
+          <t>[-1818.4863065508557, 165.9585267695225]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>cos1_tow_weekly</t>
+          <t>sin4_tow_weekly</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1466.031626406879</v>
+        <v>392.7311544702866</v>
       </c>
       <c r="C73" t="n">
-        <v>860.1386142827248</v>
+        <v>331.739472651314</v>
       </c>
       <c r="D73" t="n">
-        <v>0.094</v>
+        <v>0.248</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-127.6221540945799, 3195.19636323104]</t>
+          <t>[-227.68894178970552, 1054.3585709280196]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>sin2_tow_weekly</t>
+          <t>cos4_tow_weekly</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>719.313403746903</v>
+        <v>-773.803277903345</v>
       </c>
       <c r="C74" t="n">
-        <v>708.2804120828582</v>
+        <v>511.8205168472564</v>
       </c>
       <c r="D74" t="n">
-        <v>0.298</v>
+        <v>0.134</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3693,50 +3760,50 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-633.5010784274809, 2206.663221213323]</t>
+          <t>[-1818.4863065508325, 165.95852676951284]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>cos2_tow_weekly</t>
+          <t>sin1_toq_quarterly</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6073.36953017303</v>
+        <v>-824.5650292138297</v>
       </c>
       <c r="C75" t="n">
-        <v>770.5808753732841</v>
+        <v>923.3713955344549</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>0.358</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>***</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[4596.187982028809, 7558.662367760442]</t>
+          <t>[-2730.4702009461507, 736.9999747430799]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>sin3_tow_weekly</t>
+          <t>cos1_toq_quarterly</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-393.4788508736046</v>
+        <v>-48.22460325019548</v>
       </c>
       <c r="C76" t="n">
-        <v>308.864834809027</v>
+        <v>880.7712543467942</v>
       </c>
       <c r="D76" t="n">
-        <v>0.22</v>
+        <v>0.958</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3745,24 +3812,24 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-990.6229222693896, 124.06251698255542]</t>
+          <t>[-1769.702426223363, 1636.2895943664707]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>cos3_tow_weekly</t>
+          <t>sin2_toq_quarterly</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-770.2039690184507</v>
+        <v>-450.3057032043181</v>
       </c>
       <c r="C77" t="n">
-        <v>514.7472536324645</v>
+        <v>951.1787074185817</v>
       </c>
       <c r="D77" t="n">
-        <v>0.126</v>
+        <v>0.63</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3771,24 +3838,24 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-1795.4262838272123, 291.1860731574539]</t>
+          <t>[-2362.227216392894, 1267.3199880761872]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>sin4_tow_weekly</t>
+          <t>cos2_toq_quarterly</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>393.4788508736344</v>
+        <v>253.90699800839</v>
       </c>
       <c r="C78" t="n">
-        <v>308.864834809023</v>
+        <v>1014.078823834678</v>
       </c>
       <c r="D78" t="n">
-        <v>0.22</v>
+        <v>0.804</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3797,50 +3864,50 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-124.0625169825584, 990.6229222693943]</t>
+          <t>[-1808.305194971462, 2338.6466587416317]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>cos4_tow_weekly</t>
+          <t>sin3_toq_quarterly</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-770.2039690184383</v>
+        <v>1986.601183219399</v>
       </c>
       <c r="C79" t="n">
-        <v>514.7472536324677</v>
+        <v>1007.134818802969</v>
       </c>
       <c r="D79" t="n">
-        <v>0.126</v>
+        <v>0.046</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>*</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[-1795.4262838272548, 291.18607315745015]</t>
+          <t>[8.777848458818006, 3949.164851689625]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>sin1_toq_quarterly</t>
+          <t>cos3_toq_quarterly</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-816.4023304507397</v>
+        <v>-901.3586217426471</v>
       </c>
       <c r="C80" t="n">
-        <v>1001.206511876941</v>
+        <v>960.08136206582</v>
       </c>
       <c r="D80" t="n">
-        <v>0.416</v>
+        <v>0.34</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3849,24 +3916,24 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-2824.7398543157333, 1082.8054326480699]</t>
+          <t>[-2865.415000454213, 900.8218298125901]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>cos1_toq_quarterly</t>
+          <t>sin4_toq_quarterly</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-49.02447977292729</v>
+        <v>-502.2295697085127</v>
       </c>
       <c r="C81" t="n">
-        <v>892.5226961753563</v>
+        <v>864.9267077425162</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3875,24 +3942,24 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-1766.2763667956692, 1767.8295677210053]</t>
+          <t>[-2096.7112552413164, 1360.8112372004039]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>sin2_toq_quarterly</t>
+          <t>cos4_toq_quarterly</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-451.4998457483676</v>
+        <v>926.7198973539264</v>
       </c>
       <c r="C82" t="n">
-        <v>913.0075858192286</v>
+        <v>1031.386761375404</v>
       </c>
       <c r="D82" t="n">
-        <v>0.638</v>
+        <v>0.368</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3901,24 +3968,24 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-2281.394859154826, 1186.8710139075931]</t>
+          <t>[-1159.6875981996823, 2901.036369792819]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>cos2_toq_quarterly</t>
+          <t>sin5_toq_quarterly</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>246.7110151411845</v>
+        <v>-688.7103802012941</v>
       </c>
       <c r="C83" t="n">
-        <v>1042.376139825726</v>
+        <v>964.2368859492279</v>
       </c>
       <c r="D83" t="n">
-        <v>0.826</v>
+        <v>0.508</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3927,163 +3994,33 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-1692.6147174710766, 2505.8431538896502]</t>
+          <t>[-2474.4257079603376, 1169.5638868034002]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>sin3_toq_quarterly</t>
+          <t>cos5_toq_quarterly</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1976.453598436352</v>
+        <v>897.5764531995118</v>
       </c>
       <c r="C84" t="n">
-        <v>1019.02682694012</v>
+        <v>995.0285311814728</v>
       </c>
       <c r="D84" t="n">
-        <v>0.062</v>
+        <v>0.376</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-261.7402214790422, 3777.1316888759134]</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>cos3_toq_quarterly</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>-900.6375503405577</v>
-      </c>
-      <c r="C85" t="n">
-        <v>915.7057736822386</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.312</v>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>[-2605.6543918618236, 1053.5422987983852]</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>sin4_toq_quarterly</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>-500.5091831579241</v>
-      </c>
-      <c r="C86" t="n">
-        <v>901.4572815904804</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.578</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>[-2232.2855198482557, 1197.7482379844519]</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>cos4_toq_quarterly</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>935.1012348526898</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1028.499804333108</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>[-1112.838695350002, 2843.0460104403296]</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>sin5_toq_quarterly</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>-680.5372974233685</v>
-      </c>
-      <c r="C88" t="n">
-        <v>942.1507758382356</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>[-2522.454612492257, 1078.5334080611765]</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>cos5_toq_quarterly</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>894.3023050476194</v>
-      </c>
-      <c r="C89" t="n">
-        <v>957.3624801960622</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.376</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>[-1079.7511518099443, 2552.2380044197807]</t>
+          <t>[-1178.2664904916571, 2901.1765454729775]</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4113,7 @@
         <v>0.042</v>
       </c>
       <c r="D3" t="n">
-        <v>-20.529</v>
+        <v>-20.527</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4281,10 +4218,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.572957179694031</v>
+        <v>1.619862803639302</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1193229227958292</v>
+        <v>0.07081060141605862</v>
       </c>
     </row>
     <row r="3">
@@ -4294,10 +4231,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.346508081787499</v>
+        <v>1.351729715402216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07594432840106601</v>
+        <v>0.1274677100316966</v>
       </c>
     </row>
     <row r="4">
@@ -4307,10 +4244,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.034046035984678</v>
+        <v>0.9873685338988352</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0385690747158472</v>
+        <v>0.04941465051620245</v>
       </c>
     </row>
     <row r="5">
@@ -4320,10 +4257,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.699407746076637</v>
+        <v>0.6774283061618449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02486132759532933</v>
+        <v>0.03671352524964315</v>
       </c>
     </row>
     <row r="6">
@@ -4333,10 +4270,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5298976821760256</v>
+        <v>0.5044807105738687</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04796736688063859</v>
+        <v>0.04309818507797397</v>
       </c>
     </row>
     <row r="7">
@@ -4346,10 +4283,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4890217486458183</v>
+        <v>0.4640847902667106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02229790989320639</v>
+        <v>0.03764957516600216</v>
       </c>
     </row>
     <row r="8">
@@ -4359,10 +4296,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4565023017861257</v>
+        <v>0.4571248220628921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0315780235655756</v>
+        <v>0.01378010795456352</v>
       </c>
     </row>
     <row r="9">
@@ -4372,10 +4309,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.337130873879923</v>
+        <v>0.3586853122699182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00740613766669875</v>
+        <v>0.02094742554072889</v>
       </c>
     </row>
     <row r="10">
@@ -4385,88 +4322,88 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3075720157439087</v>
+        <v>0.291589431775025</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01292869169753983</v>
+        <v>0.02625774396387773</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2399691303181672</v>
+        <v>0.2556675829766532</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0103706927819152</v>
+        <v>0.01747101605335084</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2378157632077456</v>
+        <v>0.2250188871398934</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01930787069006125</v>
+        <v>0.01554127371659773</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2070431218014969</v>
+        <v>0.2244759387319635</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01134925402997946</v>
+        <v>0.01782360241412798</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1997181466909963</v>
+        <v>0.2221802568205119</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02148497053153148</v>
+        <v>0.01846156201997281</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1979255283499223</v>
+        <v>0.2042263849238157</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01618812958620182</v>
+        <v>0.0148718386163224</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1972040459107432</v>
+        <v>0.1880002135549835</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01480230740191567</v>
+        <v>0.01413346208468623</v>
       </c>
     </row>
     <row r="17">
@@ -4476,10 +4413,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1516018274302405</v>
+        <v>0.1632029818164549</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01747782030005301</v>
+        <v>0.01633412612468458</v>
       </c>
     </row>
     <row r="18">
@@ -4489,23 +4426,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1497804110225946</v>
+        <v>0.1577224089132178</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02309741510263954</v>
+        <v>0.01764921201986789</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1213268202800857</v>
+        <v>0.1234919468982193</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01181553208341639</v>
+        <v>0.01490608277785517</v>
       </c>
     </row>
     <row r="20">
@@ -4515,179 +4452,179 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1113030306362773</v>
+        <v>0.1114578486902846</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01796205886820607</v>
+        <v>0.02537584596754045</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1100295450334417</v>
+        <v>0.1107011790684802</v>
       </c>
       <c r="C21" t="n">
-        <v>0.008592990183585204</v>
+        <v>0.01152376365266879</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1092290382088636</v>
+        <v>0.09883511940953811</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0136633732201919</v>
+        <v>0.00891605444878554</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1061927423779276</v>
+        <v>0.0979625422481601</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0180969879509881</v>
+        <v>0.01475395325207969</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.09737311623391216</v>
+        <v>0.08755947970060729</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01559583630983575</v>
+        <v>0.008075442048083312</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.08965118998876098</v>
+        <v>0.0858305632905205</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007997527246399957</v>
+        <v>0.01067945592363032</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.08587207988348322</v>
+        <v>0.07516830491933994</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01246395905013278</v>
+        <v>0.01417694973316893</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.07209935254119926</v>
+        <v>0.07391146018930439</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0164008096810685</v>
+        <v>0.01072119243138531</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07034638207068114</v>
+        <v>0.06789719140062311</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004084890255772716</v>
+        <v>0.01852678935465894</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.06275828257055165</v>
+        <v>0.05761482096887027</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0057734378975793</v>
+        <v>0.008995268046432048</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.05580079462568701</v>
+        <v>0.05626395275438954</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01030927825611669</v>
+        <v>0.01191018562491219</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04721896170048902</v>
+        <v>0.04899689817484372</v>
       </c>
       <c r="C31" t="n">
-        <v>0.005929443482152441</v>
+        <v>0.01739886403666123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.04141558425264806</v>
+        <v>0.03953229815692849</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01272131370138696</v>
+        <v>0.01377820664705577</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.03735666546698382</v>
+        <v>0.03646441560282913</v>
       </c>
       <c r="C33" t="n">
-        <v>0.008159748180555947</v>
+        <v>0.006676812542848714</v>
       </c>
     </row>
     <row r="34">
@@ -4697,10 +4634,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.03632684433315945</v>
+        <v>0.03218048221999849</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006069504349530696</v>
+        <v>0.008322023077720238</v>
       </c>
     </row>
     <row r="35">
@@ -4710,10 +4647,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01925616409753434</v>
+        <v>0.0155996221748812</v>
       </c>
       <c r="C35" t="n">
-        <v>0.005383478939375931</v>
+        <v>0.004416445313994832</v>
       </c>
     </row>
     <row r="36">
@@ -4723,10 +4660,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01469951612857165</v>
+        <v>0.01538608506104455</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004697784501012854</v>
+        <v>0.003234784651243278</v>
       </c>
     </row>
     <row r="37">
@@ -4736,10 +4673,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01393193258943832</v>
+        <v>0.01213919423991119</v>
       </c>
       <c r="C37" t="n">
-        <v>0.004761107670815661</v>
+        <v>0.00209136844458099</v>
       </c>
     </row>
     <row r="38">
@@ -4749,36 +4686,36 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01103950834197596</v>
+        <v>0.0111909647847809</v>
       </c>
       <c r="C38" t="n">
-        <v>0.005112204810268647</v>
+        <v>0.003759770507980863</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.005764700966439306</v>
+        <v>0.004754192306114402</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002393576903399908</v>
+        <v>0.001630618464537779</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.004262547277753504</v>
+        <v>0.004524409875908697</v>
       </c>
       <c r="C40" t="n">
-        <v>0.001954719100288323</v>
+        <v>0.003224256467553223</v>
       </c>
     </row>
     <row r="41">
@@ -4788,10 +4725,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.001491213536130287</v>
+        <v>0.001301218949120919</v>
       </c>
       <c r="C41" t="n">
-        <v>0.000456456518330162</v>
+        <v>0.0007279156561689503</v>
       </c>
     </row>
     <row r="42">
@@ -4801,10 +4738,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0009621483107188133</v>
+        <v>-7.799784179034486e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0.001250750701001706</v>
+        <v>0.0006338888548634909</v>
       </c>
     </row>
   </sheetData>
@@ -4850,10 +4787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02965705282655817</v>
+        <v>0.02816772351621257</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003118713496232208</v>
+        <v>0.002378823752838678</v>
       </c>
     </row>
     <row r="3">
@@ -4863,10 +4800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.008304637792255831</v>
+        <v>0.008068841759043655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001188560345191288</v>
+        <v>0.001548016618886338</v>
       </c>
     </row>
     <row r="4">
@@ -4876,36 +4813,36 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004667879395769248</v>
+        <v>0.004872119342357739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005137666776361225</v>
+        <v>0.0007316844964420392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003145601040092161</v>
+        <v>0.002897249394414425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001994313777331356</v>
+        <v>0.000288929672230622</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00267724474387947</v>
+        <v>0.002562424506151117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003360585716912354</v>
+        <v>0.0003456910263085648</v>
       </c>
     </row>
     <row r="7">
@@ -4915,10 +4852,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002162555937746435</v>
+        <v>0.002544512255436926</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003337735886243979</v>
+        <v>0.0001820594519369826</v>
       </c>
     </row>
     <row r="8">
@@ -4928,127 +4865,127 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001739959946811531</v>
+        <v>0.002222970537388158</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007131226371464066</v>
+        <v>0.0001559806080333566</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001235146339536231</v>
+        <v>0.001097183734611762</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001304558273145376</v>
+        <v>0.0005852375234228583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001097400963094586</v>
+        <v>0.0009962142669352359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001222933089254725</v>
+        <v>0.0003040983830903781</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001096993319968309</v>
+        <v>0.0009880672840950177</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004817652970304392</v>
+        <v>0.0002940370897401245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001051337126083651</v>
+        <v>0.0008973640803870975</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002059980555389794</v>
+        <v>0.0001685892291758846</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0009540270399357676</v>
+        <v>0.0008826648140516591</v>
       </c>
       <c r="C13" t="n">
-        <v>9.416154314085779e-05</v>
+        <v>0.0001559375024823472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0007419460971145542</v>
+        <v>0.0008217558246807144</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004685183071723312</v>
+        <v>0.0002974474135933534</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0007125394993521495</v>
+        <v>0.0006743360276065813</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002217794370215678</v>
+        <v>0.0002107333087185754</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0006484722885435224</v>
+        <v>0.0006741861222193002</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001823959249241454</v>
+        <v>0.0001421105392558427</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0006251670579613178</v>
+        <v>0.0005852402270594803</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001912003857622377</v>
+        <v>0.0005538391164723319</v>
       </c>
     </row>
     <row r="18">
@@ -5058,322 +4995,322 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0004861277387362861</v>
+        <v>0.0004652450714076384</v>
       </c>
       <c r="C18" t="n">
-        <v>6.438607831130308e-05</v>
+        <v>9.142074476093303e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0003275268919918473</v>
+        <v>0.0004042967303016676</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001073509476426559</v>
+        <v>0.0002602675165243945</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.000142210423664535</v>
+        <v>0.0003550967228296731</v>
       </c>
       <c r="C20" t="n">
-        <v>6.422987111016525e-05</v>
+        <v>0.0001149514681933834</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0001244741006369843</v>
+        <v>9.589244514831562e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>8.628840192403095e-05</v>
+        <v>7.349920631291513e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0001017579680876235</v>
+        <v>7.793939468019318e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001031693815900222</v>
+        <v>0.0001422285219648464</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0001017051593750207</v>
+        <v>6.428732745453747e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>7.378427233133443e-05</v>
+        <v>3.795734439342533e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.370650645150747e-05</v>
+        <v>4.54124058321792e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>2.812639669389856e-05</v>
+        <v>4.75078252366648e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.863823175527028e-05</v>
+        <v>1.69932333362377e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>8.453491460654192e-05</v>
+        <v>4.156389226227322e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.78136618057512e-05</v>
+        <v>1.473459332392846e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0003096272208108137</v>
+        <v>3.617242927554331e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.6050026089951e-05</v>
+        <v>1.436562895134052e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>3.215043903185904e-05</v>
+        <v>3.556605627340019e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.969803492043344e-05</v>
+        <v>1.239552241931729e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>3.438047534067437e-05</v>
+        <v>1.885305882814332e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.522079712630187e-05</v>
+        <v>1.126825518031893e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>2.160496110507453e-05</v>
+        <v>1.390957526044751e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.242108680661214e-05</v>
+        <v>7.959327457762733e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>2.896502522350663e-05</v>
+        <v>1.683364392245126e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.486046330643198e-05</v>
+        <v>7.064823382796348e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>1.415802731426604e-05</v>
+        <v>0.0001027435516437201</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.442648393272794e-05</v>
+        <v>6.013385793379733e-06</v>
       </c>
       <c r="C32" t="n">
-        <v>1.790645191323556e-05</v>
+        <v>1.619201942279309e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.272960171037063e-05</v>
+        <v>5.648596247898041e-06</v>
       </c>
       <c r="C33" t="n">
-        <v>5.249052193576327e-05</v>
+        <v>1.134604188150611e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.268981437454464e-05</v>
+        <v>5.107860090669547e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>2.656745066618124e-05</v>
+        <v>1.013363282535122e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.046533026358709e-05</v>
+        <v>3.80562618267355e-06</v>
       </c>
       <c r="C35" t="n">
-        <v>1.424940651730338e-05</v>
+        <v>7.052240120610148e-06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.805392499107057e-06</v>
+        <v>1.694348278102886e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>3.534388034072686e-05</v>
+        <v>1.925424664065267e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.856649465949218e-06</v>
+        <v>1.072031968840648e-06</v>
       </c>
       <c r="C37" t="n">
-        <v>3.666884502720966e-05</v>
+        <v>9.68316637660771e-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.436271056802333e-06</v>
+        <v>-8.383457772431768e-08</v>
       </c>
       <c r="C38" t="n">
-        <v>1.75750472516875e-05</v>
+        <v>3.522901369228277e-07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.707041356269201e-07</v>
+        <v>-7.486751448126938e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>4.115840694237725e-07</v>
+        <v>1.279078651839229e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.32518046669361e-06</v>
+        <v>-1.929686427248889e-06</v>
       </c>
       <c r="C40" t="n">
-        <v>1.06927016771447e-05</v>
+        <v>7.358876839487789e-06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2.260397151609972e-06</v>
+        <v>-8.975518720943931e-06</v>
       </c>
       <c r="C41" t="n">
-        <v>9.011539581810591e-06</v>
+        <v>2.900262573353536e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-4.044162159222431e-06</v>
+        <v>-1.189176708171757e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>8.313391449687767e-06</v>
+        <v>6.64536494051537e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5419,10 +5356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2119178033000772</v>
+        <v>0.1931111206649156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01961473516099286</v>
+        <v>0.01367570199904449</v>
       </c>
     </row>
     <row r="3">
@@ -5432,10 +5369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09539967834483409</v>
+        <v>0.1002659264666066</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001242008961084314</v>
+        <v>0.005905025104881143</v>
       </c>
     </row>
     <row r="4">
@@ -5445,374 +5382,374 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07602706125628089</v>
+        <v>0.07037813822022269</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01112464841158721</v>
+        <v>0.00331462497935361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05681430463867672</v>
+        <v>0.03661600503060447</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01162216997781098</v>
+        <v>0.001809831459660065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05597302395208625</v>
+        <v>0.03646282018614173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007238949391750023</v>
+        <v>0.00291772740704765</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03632591688222182</v>
+        <v>0.03235717277218377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004803216326726681</v>
+        <v>0.006847106978973699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02909087224270954</v>
+        <v>0.0296790233706586</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00420318396389762</v>
+        <v>0.001423197972903007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0236485709630603</v>
+        <v>0.0284721720580239</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002886452347883983</v>
+        <v>0.006700005681675994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01740751313977638</v>
+        <v>0.02715552840520032</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002319225860509038</v>
+        <v>0.003143488007393243</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01669978117254713</v>
+        <v>0.02586808974131423</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002082023971411759</v>
+        <v>0.002803443228359739</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0131010616543884</v>
+        <v>0.02564163719021571</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002249991346761992</v>
+        <v>0.00121460496132682</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01252736109245185</v>
+        <v>0.02511483184826007</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007801981980493952</v>
+        <v>0.003647294802259918</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01178846165636866</v>
+        <v>0.02332159490806636</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003015825497011799</v>
+        <v>0.001420265823027293</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01176374311924791</v>
+        <v>0.01996138290956266</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001862920190773376</v>
+        <v>0.002252938554053718</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01162056764102337</v>
+        <v>0.01802282544138654</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0006753172136339809</v>
+        <v>0.002327640294834432</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.009865965330788118</v>
+        <v>0.01515859823468644</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000555645813471936</v>
+        <v>0.002004570871659072</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.009524522776040123</v>
+        <v>0.01419777800438438</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001902025870915801</v>
+        <v>0.001078875977179978</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.009469319088714623</v>
+        <v>0.01374767594262369</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004544388328233529</v>
+        <v>0.0004498502346817565</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.009119046174682888</v>
+        <v>0.01280691492167691</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001947508455875075</v>
+        <v>0.001827548499245624</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.008437825293966328</v>
+        <v>0.01245355873549456</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001882854221733219</v>
+        <v>0.001571010511507485</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.007091762785313383</v>
+        <v>0.0121919096929185</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0007168571261970118</v>
+        <v>0.0006254504936089171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.006909166621426354</v>
+        <v>0.01033715838161775</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0003670460099071141</v>
+        <v>0.001062253246151747</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.006822950984300658</v>
+        <v>0.008875187967375164</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001880026436695028</v>
+        <v>0.00268221780826473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.006526408077209589</v>
+        <v>0.008005161053698329</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001426696810244584</v>
+        <v>0.001475868790826797</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.006312614740519851</v>
+        <v>0.007386002127370239</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006738791624946806</v>
+        <v>0.0007438183821088097</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.005964909127713303</v>
+        <v>0.00628904600596829</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0009804845894789646</v>
+        <v>0.001002981949951465</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.005468778884040737</v>
+        <v>0.005841258794746862</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001116945033919556</v>
+        <v>0.0005863590632116768</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.004744737454409909</v>
+        <v>0.005113903590309388</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0007272588798864321</v>
+        <v>0.001213187174911126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002344495720055417</v>
+        <v>0.004906228693405024</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0004121188703427879</v>
+        <v>0.000489092620681567</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0019463582979931</v>
+        <v>0.003955928320646907</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0006241589731200154</v>
+        <v>0.0006554755876483058</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001779316172311529</v>
+        <v>0.003334206067411283</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0003681803045140264</v>
+        <v>0.0002161053938150966</v>
       </c>
     </row>
     <row r="33">
@@ -5822,75 +5759,75 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001614703931107742</v>
+        <v>0.002706159256146634</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0004356812456613756</v>
+        <v>0.000144089153359541</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0007637165093157039</v>
+        <v>0.002392440407140884</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002781737925621394</v>
+        <v>0.0003105900126015581</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0007046939948610609</v>
+        <v>0.002099901945964855</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0002663931325968749</v>
+        <v>0.0005426655720547151</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.000671684357458635</v>
+        <v>0.001900420015197701</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0001454452601705443</v>
+        <v>0.0007798178542358197</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0002438718436404752</v>
+        <v>0.001757084098608308</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0002333467495697136</v>
+        <v>0.0002956048031838307</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.253833462896655e-05</v>
+        <v>0.001658357728366</v>
       </c>
       <c r="C38" t="n">
-        <v>0.000123039374460494</v>
+        <v>0.0002505735931526218</v>
       </c>
     </row>
     <row r="39">
@@ -5900,36 +5837,36 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.0009560380211016684</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.0002115575625900044</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.0007324771682826192</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.0002008703603770627</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.0005195843245352494</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.846702093569153e-05</v>
       </c>
     </row>
     <row r="42">
@@ -5939,10 +5876,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>7.463100901956565e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>4.643947213390829e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5988,10 +5925,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2183892995309233</v>
+        <v>0.2335416083322618</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02793047968056177</v>
+        <v>0.02205423743892366</v>
       </c>
     </row>
     <row r="3">
@@ -6001,10 +5938,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06082921021416057</v>
+        <v>0.05424669626056884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01566130928192527</v>
+        <v>0.01401474363127482</v>
       </c>
     </row>
     <row r="4">
@@ -6014,10 +5951,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02438267540793935</v>
+        <v>0.02968400383100258</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004154732277032626</v>
+        <v>0.01169284153368367</v>
       </c>
     </row>
     <row r="5">
@@ -6027,36 +5964,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0214667074762968</v>
+        <v>0.01905066140683775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004683492314639361</v>
+        <v>0.007172734537221488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01283092397761316</v>
+        <v>0.01408370470022855</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007097470829838768</v>
+        <v>0.01105686649749749</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.009774053321163234</v>
+        <v>0.01160011146693543</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01527357875703585</v>
+        <v>0.006957170735472067</v>
       </c>
     </row>
     <row r="8">
@@ -6066,10 +6003,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007939785422563683</v>
+        <v>0.008071518431064706</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003407119855054755</v>
+        <v>0.002165171016144575</v>
       </c>
     </row>
     <row r="9">
@@ -6079,75 +6016,75 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005843943070763302</v>
+        <v>0.007421866825998324</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001811433643936982</v>
+        <v>0.002384668092972979</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005678867481247241</v>
+        <v>0.003110752674004069</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001932735880972863</v>
+        <v>0.001698672743004758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.004662812375494374</v>
+        <v>0.003020765916673662</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001846383845024047</v>
+        <v>0.001296772512113508</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.004251747780546556</v>
+        <v>0.00265542142827897</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007187037942710729</v>
+        <v>0.001827865951179301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003172519023598008</v>
+        <v>0.002423533916760867</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002052526450617133</v>
+        <v>0.002045760232731067</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00279975578198628</v>
+        <v>0.002381722263515074</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001375624604155203</v>
+        <v>0.0007830904945939408</v>
       </c>
     </row>
     <row r="15">
@@ -6157,36 +6094,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002568241747781208</v>
+        <v>0.002106219161269762</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001304596788054559</v>
+        <v>0.001159519070089746</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.002498230307675708</v>
+        <v>0.001852840613152651</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002336180115928033</v>
+        <v>0.002157045456241014</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001594796193895487</v>
+        <v>0.001636505853498638</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0007106516271791937</v>
+        <v>0.001061421838382107</v>
       </c>
     </row>
     <row r="18">
@@ -6196,231 +6133,231 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001203855619842642</v>
+        <v>0.001579962157849324</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001576863428343853</v>
+        <v>0.001220692247656119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0004360254390179508</v>
+        <v>0.0009382170550268132</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001612513085496218</v>
+        <v>0.002334747885482597</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0001001050674268811</v>
+        <v>0.0008764263706835029</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002389077425375062</v>
+        <v>0.001115468305449067</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0002305999651982083</v>
+        <v>0.0005410906426601469</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001457182579235228</v>
+        <v>0.001866520205442998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0002887866712649956</v>
+        <v>-0.0001285454675117537</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002899947595532673</v>
+        <v>0.002467567540437811</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0003130327491682961</v>
+        <v>-0.001044200489896374</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0009412867796337374</v>
+        <v>0.002570989855375861</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.001290617808290273</v>
+        <v>-0.001045360084210079</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001186763663204523</v>
+        <v>0.002262307881395652</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001431429805614637</v>
+        <v>-0.001048470812504188</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001419735511999289</v>
+        <v>0.0008370015521837046</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.001633003911273168</v>
+        <v>-0.001557076098352694</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00270963850700632</v>
+        <v>0.001797993296345191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.002070128429667806</v>
+        <v>-0.001667328802356849</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003036245500667257</v>
+        <v>0.001978940277845061</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.00222001381282757</v>
+        <v>-0.001967237076745576</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001644885701298403</v>
+        <v>0.002227857165869492</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.002276016772521627</v>
+        <v>-0.0021906316206872</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001608213191271</v>
+        <v>0.00076223912773227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.002368410191061909</v>
+        <v>-0.002312153068640232</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001803187266797384</v>
+        <v>0.002483750128919235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.002501251680633554</v>
+        <v>-0.002502772247021978</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001172228118781506</v>
+        <v>0.002696468250555068</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.003237738105157018</v>
+        <v>-0.002810447117985904</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001792415304116891</v>
+        <v>0.001736450014120817</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.003247500169176343</v>
+        <v>-0.002850713314165199</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001755171200311128</v>
+        <v>0.001461643180715818</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.003932412678849273</v>
+        <v>-0.003056246382941352</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002424854276843167</v>
+        <v>0.003071498192722988</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.004616444380569429</v>
+        <v>-0.003200619493121914</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003877574637203661</v>
+        <v>0.00223742289769555</v>
       </c>
     </row>
     <row r="36">
@@ -6430,62 +6367,62 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.0047662478185581</v>
+        <v>-0.006810299067288051</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002446944730710498</v>
+        <v>0.006128692037370525</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.005562888624235573</v>
+        <v>-0.006872279491218847</v>
       </c>
       <c r="C37" t="n">
-        <v>0.004661805518027608</v>
+        <v>0.003309339326885011</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.008879842787002334</v>
+        <v>-0.009984467215060855</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003651269213371487</v>
+        <v>0.002425494857119321</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.009115181779900273</v>
+        <v>-0.0104247578841095</v>
       </c>
       <c r="C39" t="n">
-        <v>0.006902812134372575</v>
+        <v>0.003988809516167193</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.0123952870564074</v>
+        <v>-0.01953062499563378</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01085847855722881</v>
+        <v>0.005595166330017553</v>
       </c>
     </row>
     <row r="41">
@@ -6495,10 +6432,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.02143570249687898</v>
+        <v>-0.02047795789416513</v>
       </c>
       <c r="C41" t="n">
-        <v>0.003818888370463892</v>
+        <v>0.009040836170579394</v>
       </c>
     </row>
     <row r="42">
@@ -6508,10 +6445,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.02175050468367796</v>
+        <v>-0.02387703666494527</v>
       </c>
       <c r="C42" t="n">
-        <v>0.005814133363030368</v>
+        <v>0.009079222556507737</v>
       </c>
     </row>
   </sheetData>
@@ -6557,10 +6494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2585827119337251</v>
+        <v>0.2911384058129773</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01755262368759724</v>
+        <v>0.02096683706584009</v>
       </c>
     </row>
     <row r="3">
@@ -6570,23 +6507,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1923926634289817</v>
+        <v>0.1937734513774153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01465292052598985</v>
+        <v>0.01356178847350621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0386459623852929</v>
+        <v>0.04136151473098602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003262253841614571</v>
+        <v>0.005194556114792312</v>
       </c>
     </row>
     <row r="5">
@@ -6596,205 +6533,205 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03855751345859244</v>
+        <v>0.04088623765218158</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008044179488945039</v>
+        <v>0.004767114620313857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03741987286307478</v>
+        <v>0.03919435876605801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006145656621000593</v>
+        <v>0.003303451779860174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03615321671357319</v>
+        <v>0.0348094477233097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004017043094642903</v>
+        <v>0.006740927359485449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03414690387234236</v>
+        <v>0.03431488067049424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003902763526635251</v>
+        <v>0.006001648389225422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03320877932397461</v>
+        <v>0.03030485749203502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002010111632027612</v>
+        <v>0.002806259372870546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02943088722639833</v>
+        <v>0.02911992195528073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003729046937744412</v>
+        <v>0.006167613624623465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02925473350710368</v>
+        <v>0.02835551714518607</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003730147404315755</v>
+        <v>0.002993030692813705</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02626508035483448</v>
+        <v>0.02528088348906008</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001907497131770817</v>
+        <v>0.005130566334164466</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02465858537724181</v>
+        <v>0.0231471082866032</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001869906509118177</v>
+        <v>0.002184987467280475</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02311024419423879</v>
+        <v>0.02267556098775174</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002633987460786448</v>
+        <v>0.003848560022146067</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02293873977032086</v>
+        <v>0.021516142773614</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001811960316235554</v>
+        <v>0.003139905529903357</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02208359126497532</v>
+        <v>0.01926751485769931</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004635650386295129</v>
+        <v>0.001638035251732279</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01701581546065824</v>
+        <v>0.01567130121398828</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003286294110493375</v>
+        <v>0.0009390817356058712</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0156412844901842</v>
+        <v>0.01532759279823423</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002629370703273957</v>
+        <v>0.004307121416651375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01308357240163873</v>
+        <v>0.01073904820555818</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0006989366738762409</v>
+        <v>0.001425887245111592</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01167117141044272</v>
+        <v>0.01051853105512228</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001302151755581328</v>
+        <v>0.001775231053280938</v>
       </c>
     </row>
     <row r="21">
@@ -6804,10 +6741,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.009953547469150403</v>
+        <v>0.0103303115640645</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002008471561943163</v>
+        <v>0.00142199292503318</v>
       </c>
     </row>
     <row r="22">
@@ -6817,75 +6754,75 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.009033530973066939</v>
+        <v>0.00920913212771648</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002699636667086727</v>
+        <v>0.002314437137879377</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00884975738632221</v>
+        <v>0.009137026015766381</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001740217501881259</v>
+        <v>0.001977938885154884</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.008101535792826398</v>
+        <v>0.008616679574898246</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00201858625002907</v>
+        <v>0.0008062348810433734</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.008077436901611491</v>
+        <v>0.008419554899215953</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001062857319114699</v>
+        <v>0.001283891047471626</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.007515371136168314</v>
+        <v>0.00835402589280545</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000597232084520779</v>
+        <v>0.001369620961488485</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00669659272769203</v>
+        <v>0.006272749768303676</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001555548332018794</v>
+        <v>0.001034218688774133</v>
       </c>
     </row>
     <row r="28">
@@ -6895,10 +6832,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.006127840112340044</v>
+        <v>0.005900893705531751</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000831999427497339</v>
+        <v>0.0006771634479947924</v>
       </c>
     </row>
     <row r="29">
@@ -6908,49 +6845,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003870536954000414</v>
+        <v>0.004629321554716315</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0009667513470125222</v>
+        <v>0.0007923199395894183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003680024844625796</v>
+        <v>0.003643779671085645</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0007690710860833401</v>
+        <v>0.001093993301200739</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003273499660768198</v>
+        <v>0.00355123515695519</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0002087909796450733</v>
+        <v>0.0003715464150970333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002836604848561053</v>
+        <v>0.003089581861808699</v>
       </c>
       <c r="C32" t="n">
-        <v>0.000389393610241763</v>
+        <v>0.0009396372735282642</v>
       </c>
     </row>
     <row r="33">
@@ -6960,42 +6897,42 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.00107631427293502</v>
+        <v>0.001010981220100482</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001207939467205456</v>
+        <v>0.0002746220181429238</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0009458557896324882</v>
+        <v>0.0009903490507701784</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002690988469722825</v>
+        <v>0.0002429343795085871</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0009180165060771461</v>
+        <v>0.0008460214624213203</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0002070088057484132</v>
+        <v>0.0001540347181710341</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -7008,7 +6945,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -7021,7 +6958,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -7034,7 +6971,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -7047,7 +6984,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -7060,7 +6997,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -7073,7 +7010,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -7126,10 +7063,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0001321458710503043</v>
+        <v>0.0001183562338431754</v>
       </c>
       <c r="C2" t="n">
-        <v>1.617239821830719e-05</v>
+        <v>8.426405870460679e-06</v>
       </c>
     </row>
     <row r="3">
@@ -7139,10 +7076,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.529865879845055e-05</v>
+        <v>6.263929601748596e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>9.928357617433642e-06</v>
+        <v>1.130087275857017e-05</v>
       </c>
     </row>
     <row r="4">
@@ -7152,10 +7089,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.194049844281622e-05</v>
+        <v>3.769140214355815e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>3.640613111423598e-06</v>
+        <v>4.314738721881506e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7165,10 +7102,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.761889897408998e-05</v>
+        <v>3.706846499433869e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>1.192998326125269e-05</v>
+        <v>7.555551702068165e-06</v>
       </c>
     </row>
     <row r="6">
@@ -7178,75 +7115,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.411009729443748e-05</v>
+        <v>3.024445927848341e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>5.542563820848235e-06</v>
+        <v>1.118520982381304e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.864491474534603e-05</v>
+        <v>2.664099428806299e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>1.245458045301632e-05</v>
+        <v>2.865294914310692e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.719286536594367e-05</v>
+        <v>2.441567246229681e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>2.439969602489029e-06</v>
+        <v>4.03854411491972e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.685129440327394e-05</v>
+        <v>2.307938813088661e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>7.45911621527799e-06</v>
+        <v>8.113569104340485e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.382515531791363e-05</v>
+        <v>2.082710103059604e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>3.694644021773262e-06</v>
+        <v>4.57377690774572e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.321783985599346e-05</v>
+        <v>1.524994458694806e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>3.843830400427356e-06</v>
+        <v>1.055397828182076e-05</v>
       </c>
     </row>
     <row r="12">
@@ -7256,10 +7193,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.477390334352346e-05</v>
+        <v>1.381676263350062e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>1.873043930041473e-06</v>
+        <v>2.337114799948293e-06</v>
       </c>
     </row>
     <row r="13">
@@ -7269,10 +7206,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.283503611742009e-05</v>
+        <v>1.317434686622931e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>2.225524924725837e-06</v>
+        <v>3.542748370534264e-06</v>
       </c>
     </row>
     <row r="14">
@@ -7282,101 +7219,101 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.088231185830679e-05</v>
+        <v>1.203553399815593e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>2.309078249664576e-06</v>
+        <v>1.384521275336158e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.859035489823142e-06</v>
+        <v>1.03528480263293e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>2.219901386279611e-06</v>
+        <v>2.38295135479528e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.606850850252258e-06</v>
+        <v>9.644058227520347e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>2.587260005483705e-06</v>
+        <v>3.022076349005788e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.263040500329111e-06</v>
+        <v>8.289212092060794e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>3.336205012832142e-06</v>
+        <v>2.870770436840745e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.125852674216837e-06</v>
+        <v>7.543037338009207e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1.949842121628368e-06</v>
+        <v>1.802191674941633e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.987229323041077e-06</v>
+        <v>6.491782572615179e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>9.019056909926427e-07</v>
+        <v>1.656231870697309e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.908738007447511e-06</v>
+        <v>3.687918621309017e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>1.687615346360843e-06</v>
+        <v>1.096799016577564e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.000539452096106e-06</v>
+        <v>3.356137468135678e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>1.548846157029763e-06</v>
+        <v>1.037528327322963e-06</v>
       </c>
     </row>
     <row r="22">
@@ -7386,270 +7323,270 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.961970054420448e-06</v>
+        <v>2.571297892806079e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>7.514014136588027e-07</v>
+        <v>3.302098717069901e-07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.666533854405294e-06</v>
+        <v>2.25537918578933e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>5.14872368841823e-07</v>
+        <v>3.928220059898587e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.268185923763987e-06</v>
+        <v>2.020442101002829e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>3.627202087009736e-07</v>
+        <v>1.634185879598535e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.155818739251302e-06</v>
+        <v>1.528472482670295e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>8.946283140149923e-07</v>
+        <v>5.519953349262211e-07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.135640183647091e-06</v>
+        <v>1.323035778511006e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>5.647152362674416e-07</v>
+        <v>3.79183833261415e-07</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.671088034401976e-07</v>
+        <v>1.279521477437484e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>4.920888782987544e-07</v>
+        <v>5.397479264146255e-07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.338030518695305e-07</v>
+        <v>1.121589225205888e-06</v>
       </c>
       <c r="C28" t="n">
-        <v>2.818598103906034e-07</v>
+        <v>7.361260399189324e-07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.891486466293785e-07</v>
+        <v>9.725658240533619e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>8.579920413246217e-07</v>
+        <v>2.429029731148076e-07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.545954450265512e-07</v>
+        <v>7.095563062220478e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>4.455319929084272e-07</v>
+        <v>1.138329834590656e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.14285992236907e-07</v>
+        <v>7.043048900090553e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>1.384587479115905e-06</v>
+        <v>3.71297530845653e-07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.94435268150184e-07</v>
+        <v>5.306944286465054e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>8.172381123713672e-07</v>
+        <v>1.718535777244365e-06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.493745911020696e-07</v>
+        <v>2.462678568404541e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>4.105271707760986e-07</v>
+        <v>2.640426387167766e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.391878290763927e-07</v>
+        <v>2.060916889368158e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>4.789125193012285e-07</v>
+        <v>8.675681014266305e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.18845374541543e-07</v>
+        <v>1.391534394601379e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>6.066185292277063e-08</v>
+        <v>1.801604495609999e-07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.560469784730686e-08</v>
+        <v>8.72106013183327e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>4.888697248435018e-07</v>
+        <v>4.98860012541503e-08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.093105992504121e-08</v>
+        <v>2.717769786997337e-08</v>
       </c>
       <c r="C37" t="n">
-        <v>3.001382052842105e-08</v>
+        <v>8.293600268365986e-08</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-2.537245968881052e-11</v>
+        <v>5.327563101786836e-09</v>
       </c>
       <c r="C38" t="n">
-        <v>2.004322175345536e-06</v>
+        <v>1.625834223464495e-07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-3.82790591224591e-08</v>
+        <v>-5.82639706925292e-08</v>
       </c>
       <c r="C39" t="n">
-        <v>1.240334860376291e-07</v>
+        <v>9.492753843015421e-07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-9.360326471696823e-08</v>
+        <v>-6.542325987624054e-08</v>
       </c>
       <c r="C40" t="n">
-        <v>3.774168491305763e-07</v>
+        <v>3.786715817686182e-08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.015541951643328e-07</v>
+        <v>-1.020565816745034e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>4.749478590380123e-08</v>
+        <v>5.0890911096161e-08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.345891096127261e-07</v>
+        <v>-4.264082826832549e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>9.20344953554538e-08</v>
+        <v>7.526143670748506e-07</v>
       </c>
     </row>
   </sheetData>
@@ -7695,10 +7632,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4615954761653894</v>
+        <v>0.4153276907501526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03909088389625999</v>
+        <v>0.04484066942409231</v>
       </c>
     </row>
     <row r="3">
@@ -7708,49 +7645,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0495827957757635</v>
+        <v>0.04034009603909996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002311881353297168</v>
+        <v>0.003153795596916323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03146315813144192</v>
+        <v>0.02808830984194521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00190337373214901</v>
+        <v>0.003938134693168815</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02318461871831261</v>
+        <v>0.02747268529618987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003890403632843048</v>
+        <v>0.00288090926396848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02296147415875267</v>
+        <v>0.01696241029226224</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006529389249985638</v>
+        <v>0.00368996418375869</v>
       </c>
     </row>
     <row r="7">
@@ -7760,88 +7697,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01733644603944369</v>
+        <v>0.01338758077655611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002130900562508046</v>
+        <v>0.001025267173518327</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01579307758009354</v>
+        <v>0.01165434732803545</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001588447668258021</v>
+        <v>0.0004518804774431138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009012285212602911</v>
+        <v>0.01141626550630583</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002007850795439988</v>
+        <v>0.006543011228889071</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00656415658098386</v>
+        <v>0.007772139592186367</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0007521032326295078</v>
+        <v>0.001265269217605175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.005685524408308518</v>
+        <v>0.007577619609856989</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005217043075490559</v>
+        <v>0.001322819774639484</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.003099906725486279</v>
+        <v>0.002574677392984248</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000604577043377713</v>
+        <v>0.0004879685504239267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002762912898456427</v>
+        <v>0.002509880719442759</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006952429142422465</v>
+        <v>0.0003401932372328156</v>
       </c>
     </row>
     <row r="14">
@@ -7851,10 +7788,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00220494832054865</v>
+        <v>0.002232963674204669</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004417065238330083</v>
+        <v>0.0001516327733617965</v>
       </c>
     </row>
     <row r="15">
@@ -7864,250 +7801,250 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002130394753537668</v>
+        <v>0.001679970384221119</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003588967529001138</v>
+        <v>0.0001877109389451725</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0005609338151330911</v>
+        <v>0.0009486072839239634</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00030242436452525</v>
+        <v>0.0002937707302043947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0005599634171604473</v>
+        <v>0.0005472640933981588</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001437866275656505</v>
+        <v>0.0002210793077202855</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0004910831539144622</v>
+        <v>0.0004841754188755321</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0002844716689408621</v>
+        <v>0.0003567933498316575</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0004689432423615525</v>
+        <v>0.0003552441657919125</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001970944679755833</v>
+        <v>8.055545852363179e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0004595599311747023</v>
+        <v>0.0002988055903549336</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001243280556301608</v>
+        <v>6.53442418625486e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0004290460509669636</v>
+        <v>0.0002729135507252512</v>
       </c>
       <c r="C21" t="n">
-        <v>6.38792656234868e-05</v>
+        <v>8.827888015955282e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0003383916985174818</v>
+        <v>0.0002121519358456281</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001160774906245875</v>
+        <v>0.0001079498079523856</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0002382481549813687</v>
+        <v>0.0001946577862682153</v>
       </c>
       <c r="C23" t="n">
-        <v>9.989234491949828e-05</v>
+        <v>0.0001138152578048142</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0001655534426406424</v>
+        <v>0.000181894920226644</v>
       </c>
       <c r="C24" t="n">
-        <v>4.112079687470945e-05</v>
+        <v>6.670918360326244e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0001243121042098006</v>
+        <v>0.0001487903596986362</v>
       </c>
       <c r="C25" t="n">
-        <v>2.537233435424e-05</v>
+        <v>9.33830323517773e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0001192388061287408</v>
+        <v>0.0001158175660771699</v>
       </c>
       <c r="C26" t="n">
-        <v>2.342857346791967e-05</v>
+        <v>2.15759497259212e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0001132882706619487</v>
+        <v>0.0001087019415768831</v>
       </c>
       <c r="C27" t="n">
-        <v>4.933114060813721e-05</v>
+        <v>5.509201950840279e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.357014128730686e-05</v>
+        <v>6.32892784296013e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>8.439218724640508e-06</v>
+        <v>2.251608688305907e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.458319838081202e-05</v>
+        <v>5.240586458323815e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>3.989002594982678e-05</v>
+        <v>2.825080930027808e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.140205711864795e-05</v>
+        <v>4.119128201134359e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>4.594859669185112e-05</v>
+        <v>1.821986664315911e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3.919727702947906e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.2161091649753e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>3.031367959072107e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2.406230178370536e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2.482371698155905e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>4.434637029196423e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -8120,7 +8057,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -8133,7 +8070,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -8146,7 +8083,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -8159,7 +8096,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -8172,7 +8109,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -8185,7 +8122,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -8211,7 +8148,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B42" t="n">

--- a/examples/eCommerce_feature_info.xlsx
+++ b/examples/eCommerce_feature_info.xlsx
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003579512794620321</v>
+        <v>0.0003829409832172281</v>
       </c>
       <c r="C2" t="n">
-        <v>3.508417418872773e-05</v>
+        <v>3.256050300109005e-05</v>
       </c>
     </row>
     <row r="3">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001875918559377077</v>
+        <v>0.0001938047465768644</v>
       </c>
       <c r="C3" t="n">
-        <v>3.987028534259011e-05</v>
+        <v>4.318950053848526e-05</v>
       </c>
     </row>
     <row r="4">
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.410039207946916e-05</v>
+        <v>6.062199220600028e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>4.431231377756961e-06</v>
+        <v>4.13067729945404e-06</v>
       </c>
     </row>
     <row r="5">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.381509476427681e-05</v>
+        <v>4.588304469836935e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>2.94143292478142e-06</v>
+        <v>6.369797165535688e-06</v>
       </c>
     </row>
     <row r="6">
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.915267788534571e-05</v>
+        <v>4.469458914093671e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.450607479915251e-05</v>
+        <v>9.950718000240815e-06</v>
       </c>
     </row>
     <row r="7">
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.619558036263015e-05</v>
+        <v>3.640247342011627e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>2.874823782872697e-06</v>
+        <v>4.852920650857823e-06</v>
       </c>
     </row>
     <row r="8">
@@ -798,75 +798,75 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.519051821694319e-05</v>
+        <v>3.425581743319306e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>2.98116771070571e-06</v>
+        <v>6.316580560790061e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.883740213064478e-05</v>
+        <v>2.127456297400521e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.794007255061909e-06</v>
+        <v>7.094917375189835e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.215063429711449e-05</v>
+        <v>1.863434667432884e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>2.243302223097621e-06</v>
+        <v>5.641821630366353e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.090714870422005e-05</v>
+        <v>1.19954270054734e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>2.080510282242938e-06</v>
+        <v>2.134563177573462e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.08303913760377e-05</v>
+        <v>1.02704346022886e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>1.451070181274381e-06</v>
+        <v>1.580426945970617e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.021593223540229e-05</v>
+        <v>9.276545711633943e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>3.511979784538937e-05</v>
+        <v>1.641368955859918e-06</v>
       </c>
     </row>
     <row r="14">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.559526045459621e-06</v>
+        <v>7.756848159212737e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>9.94734177828502e-07</v>
+        <v>1.879683995821835e-06</v>
       </c>
     </row>
     <row r="15">
@@ -889,75 +889,75 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.286583242294142e-06</v>
+        <v>7.656721923821053e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>5.571737773601867e-06</v>
+        <v>4.410424530806781e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.699437493074001e-06</v>
+        <v>7.192475438166923e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>2.026439875374082e-06</v>
+        <v>9.359780056572442e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.95758500328003e-06</v>
+        <v>6.552301872497779e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.183528288649045e-06</v>
+        <v>1.559592954021612e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.744396769102877e-06</v>
+        <v>5.445514697210996e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>5.606432436270398e-07</v>
+        <v>1.308565687535386e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.80037657588639e-06</v>
+        <v>4.157225695466948e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>1.479011400024125e-06</v>
+        <v>1.463072033347352e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.526665407889041e-06</v>
+        <v>3.100538205025316e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>8.934993238621266e-07</v>
+        <v>1.354690933145818e-06</v>
       </c>
     </row>
     <row r="21">
@@ -967,49 +967,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.403704490618665e-06</v>
+        <v>3.031499948713545e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>3.274329173098786e-06</v>
+        <v>4.797460743784862e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.505772720435729e-06</v>
+        <v>1.944398525433044e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>4.932200807476823e-06</v>
+        <v>2.561331174814033e-06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.553723438929566e-06</v>
+        <v>1.91409336434134e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>1.676226962226715e-06</v>
+        <v>3.638260255650532e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.465214684648331e-06</v>
+        <v>1.71739962078199e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>8.478668387493019e-07</v>
+        <v>5.494586166432785e-06</v>
       </c>
     </row>
     <row r="25">
@@ -1019,23 +1019,23 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.414696413704064e-06</v>
+        <v>1.69569895773769e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>2.727235714598285e-06</v>
+        <v>4.091846236007049e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.836421356990144e-07</v>
+        <v>1.368898641196381e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>1.39116810316363e-06</v>
+        <v>1.347937377285741e-06</v>
       </c>
     </row>
     <row r="27">
@@ -1045,23 +1045,23 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.919178734854369e-07</v>
+        <v>8.352257835575472e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>6.207093645215522e-07</v>
+        <v>2.760538106860312e-07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.631782940884733e-07</v>
+        <v>6.487534180532606e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>5.475693509283675e-06</v>
+        <v>1.563778040663221e-06</v>
       </c>
     </row>
     <row r="29">
@@ -1071,23 +1071,23 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.620586834924722e-07</v>
+        <v>4.865898899364396e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>9.714338770461342e-07</v>
+        <v>8.667065263017038e-07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.703220119444239e-07</v>
+        <v>4.4206840206229e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>1.659865517802286e-07</v>
+        <v>4.699694620436049e-06</v>
       </c>
     </row>
     <row r="31">
@@ -1097,114 +1097,114 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.658181382704129e-07</v>
+        <v>4.057639417798242e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>3.601188571728896e-07</v>
+        <v>3.82617428722892e-07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.082789236190763e-07</v>
+        <v>1.226708015611422e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>1.086058696862439e-07</v>
+        <v>3.844377805456814e-07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.032475603490184e-08</v>
+        <v>6.130466858600415e-08</v>
       </c>
       <c r="C33" t="n">
-        <v>1.566688140502064e-07</v>
+        <v>1.598271377013977e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.688907717069867e-08</v>
+        <v>-1.623215033497161e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>3.135962916720877e-07</v>
+        <v>9.004887509168762e-09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.009423710231829e-08</v>
+        <v>-1.861332155073114e-08</v>
       </c>
       <c r="C35" t="n">
-        <v>1.476722067322947e-06</v>
+        <v>1.637053706411976e-07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-1.679400152276855e-08</v>
+        <v>-8.348346951514429e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>1.228810380208455e-08</v>
+        <v>1.065776309611644e-07</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-7.022400447809218e-08</v>
+        <v>-1.449112840390398e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>2.138382993178941e-07</v>
+        <v>5.568173516797894e-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.702181500196076e-07</v>
+        <v>-1.450372071776229e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>3.059692838524051e-07</v>
+        <v>1.27890845996865e-07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-3.78226780828328e-07</v>
+        <v>-3.361336829765804e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>3.353276981362954e-07</v>
+        <v>1.018349666977242e-06</v>
       </c>
     </row>
     <row r="40">
@@ -1214,36 +1214,36 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-5.697093919287965e-07</v>
+        <v>-3.929722235174182e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>7.650801681318767e-07</v>
+        <v>1.151676436210873e-06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.338198133149504e-06</v>
+        <v>-7.784161365265163e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>1.624487853508736e-06</v>
+        <v>4.504454531187553e-07</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-3.213017953740405e-06</v>
+        <v>-1.236760218503718e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>2.376943036598742e-06</v>
+        <v>3.231234075612618e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1285,27 +1285,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2815260869717954</v>
+        <v>0.2707353970571407</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01412827314378541</v>
+        <v>0.02831128650480155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2722591007178872</v>
+        <v>0.2672584048452378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02964575988356191</v>
+        <v>0.03269212584027816</v>
       </c>
     </row>
     <row r="4">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06492701243607432</v>
+        <v>0.06483507366769567</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005433450906507022</v>
+        <v>0.004215756165493034</v>
       </c>
     </row>
     <row r="5">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05098691293884532</v>
+        <v>0.05244947709354431</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002115902936571959</v>
+        <v>0.007546793096778212</v>
       </c>
     </row>
     <row r="6">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04994512181672996</v>
+        <v>0.04907602025273648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002739806067705221</v>
+        <v>0.00455652275926748</v>
       </c>
     </row>
     <row r="7">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03022570084973657</v>
+        <v>0.02700743841700115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003346148269780184</v>
+        <v>0.002261937269880595</v>
       </c>
     </row>
     <row r="8">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02751538195986352</v>
+        <v>0.02393456863840921</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002708264394717538</v>
+        <v>0.001639724907850482</v>
       </c>
     </row>
     <row r="9">
@@ -1380,88 +1380,88 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02217169409191819</v>
+        <v>0.02239819585441929</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001591078153422347</v>
+        <v>0.001484996380227151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02214953505338984</v>
+        <v>0.02110707952562665</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004222779978743517</v>
+        <v>0.000676200459715405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02140272923744171</v>
+        <v>0.0209429417306088</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001879436471364668</v>
+        <v>0.002001602930083603</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02075269992239954</v>
+        <v>0.01840950062726374</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002951588881795535</v>
+        <v>0.002089957574664531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0184156695893039</v>
+        <v>0.01811977414543722</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0008427129349741442</v>
+        <v>0.00238719467660983</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01811699699965092</v>
+        <v>0.01757505478770855</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001198750063723196</v>
+        <v>0.002208546492008167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01345904904021038</v>
+        <v>0.01378457874972228</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001173910005394475</v>
+        <v>0.001473311981271627</v>
       </c>
     </row>
     <row r="16">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01338705422651025</v>
+        <v>0.01328019931517164</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001107959952186204</v>
+        <v>0.0009765638858169248</v>
       </c>
     </row>
     <row r="17">
@@ -1484,23 +1484,23 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01322786603761437</v>
+        <v>0.01305578016003526</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001448710083617613</v>
+        <v>0.002239564242739095</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01312563682967531</v>
+        <v>0.01210631040284149</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001226287396692481</v>
+        <v>0.0007606219657456661</v>
       </c>
     </row>
     <row r="19">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01142801876597996</v>
+        <v>0.01012501030571888</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001056840417034807</v>
+        <v>0.001148238492722489</v>
       </c>
     </row>
     <row r="20">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.009795884155522128</v>
+        <v>0.009843445216388691</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006836273898335134</v>
+        <v>0.0006189044244829174</v>
       </c>
     </row>
     <row r="21">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.009242896978548631</v>
+        <v>0.009136541901911422</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005374858754889635</v>
+        <v>0.0005293628460840193</v>
       </c>
     </row>
     <row r="22">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.008541010131668591</v>
+        <v>0.008115788461296458</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001082293712504031</v>
+        <v>0.0002145323416607102</v>
       </c>
     </row>
     <row r="23">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.006676026880833308</v>
+        <v>0.006904312388871991</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0006574776027618882</v>
+        <v>0.0004599507543746666</v>
       </c>
     </row>
     <row r="24">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.006410004903212818</v>
+        <v>0.005857902817808802</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0008167860998014814</v>
+        <v>0.001300960650831487</v>
       </c>
     </row>
     <row r="25">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.005744463598428151</v>
+        <v>0.005556064462066601</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004678491779770729</v>
+        <v>0.0003049382207812467</v>
       </c>
     </row>
     <row r="26">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005524007230942108</v>
+        <v>0.005546167732184459</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0004850352908108048</v>
+        <v>0.0004089560265028904</v>
       </c>
     </row>
     <row r="27">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004815708919082629</v>
+        <v>0.004674680320630009</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0004251091794012031</v>
+        <v>0.000687323805419804</v>
       </c>
     </row>
     <row r="28">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.004712719679052157</v>
+        <v>0.004665549085862674</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002212368386167253</v>
+        <v>0.0003169212501592498</v>
       </c>
     </row>
     <row r="29">
@@ -1640,36 +1640,36 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.004207515504541149</v>
+        <v>0.004056274694873729</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0004053412259874614</v>
+        <v>0.0003925564193663173</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003618987100459803</v>
+        <v>0.003772938814248783</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0005589269345906602</v>
+        <v>0.0001900509055778769</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003264131999029529</v>
+        <v>0.003529924299712417</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0003048181508813157</v>
+        <v>0.0002156180330994196</v>
       </c>
     </row>
     <row r="32">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.00224718637246919</v>
+        <v>0.002063125013588407</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0002938623329329004</v>
+        <v>0.0001639824680767891</v>
       </c>
     </row>
     <row r="33">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001855928435119192</v>
+        <v>0.00198506783919119</v>
       </c>
       <c r="C33" t="n">
-        <v>0.000264432961299784</v>
+        <v>0.0001056027255765994</v>
       </c>
     </row>
     <row r="34">
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001632588692527692</v>
+        <v>0.001430944882565988</v>
       </c>
       <c r="C34" t="n">
-        <v>0.000360959280992707</v>
+        <v>0.0004436696483072123</v>
       </c>
     </row>
     <row r="35">
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001446354316368925</v>
+        <v>0.001380552844129057</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0003497920859436868</v>
+        <v>0.0003733944137639445</v>
       </c>
     </row>
     <row r="36">
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0002269257634164079</v>
+        <v>0.0002425516639757319</v>
       </c>
       <c r="C36" t="n">
-        <v>1.947150017681543e-05</v>
+        <v>3.619909149182873e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0001411535639589401</v>
+        <v>0.0001286466736811764</v>
       </c>
       <c r="C37" t="n">
-        <v>2.312623668211298e-05</v>
+        <v>7.670051899746009e-06</v>
       </c>
     </row>
     <row r="38">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.405723342266963e-05</v>
+        <v>4.32036448186679e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1.514627635110182e-05</v>
+        <v>1.642579798614925e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1876,7 +1876,7 @@
         <v>16221.8185550413</v>
       </c>
       <c r="C2" t="n">
-        <v>920.9618061989041</v>
+        <v>914.1092555515601</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[14805.299424338913, 18295.52259888229]</t>
+          <t>[14715.736276547295, 18229.34386979109]</t>
         </is>
       </c>
     </row>
@@ -1902,10 +1902,10 @@
         <v>8.946762636263411</v>
       </c>
       <c r="C3" t="n">
-        <v>473.5411480556965</v>
+        <v>470.3997135272928</v>
       </c>
       <c r="D3" t="n">
-        <v>0.988</v>
+        <v>0.954</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-1037.804771292642, 843.2898798793678]</t>
+          <t>[-983.6565708670738, 889.4820558733538]</t>
         </is>
       </c>
     </row>
@@ -1928,10 +1928,10 @@
         <v>-47.78871456276676</v>
       </c>
       <c r="C4" t="n">
-        <v>471.699145486693</v>
+        <v>460.9352903092391</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-1003.4213893912722, 828.7835659929955]</t>
+          <t>[-953.4941900291528, 812.7001037637502]</t>
         </is>
       </c>
     </row>
@@ -1954,10 +1954,10 @@
         <v>-315.6619011528302</v>
       </c>
       <c r="C5" t="n">
-        <v>514.3714273427162</v>
+        <v>507.4189158823394</v>
       </c>
       <c r="D5" t="n">
-        <v>0.472</v>
+        <v>0.45</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1373.1474272326116, 802.0192020316584]</t>
+          <t>[-1267.69496875295, 737.2381746900346]</t>
         </is>
       </c>
     </row>
@@ -1980,10 +1980,10 @@
         <v>-250.2636421924595</v>
       </c>
       <c r="C6" t="n">
-        <v>535.8353267953104</v>
+        <v>545.6921196952915</v>
       </c>
       <c r="D6" t="n">
-        <v>0.668</v>
+        <v>0.644</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-1433.9990914632626, 739.8580640377761]</t>
+          <t>[-1409.2418614473872, 707.1387616999302]</t>
         </is>
       </c>
     </row>
@@ -2006,10 +2006,10 @@
         <v>-696.8021189793758</v>
       </c>
       <c r="C7" t="n">
-        <v>593.0700315143973</v>
+        <v>598.9392578609674</v>
       </c>
       <c r="D7" t="n">
-        <v>0.226</v>
+        <v>0.218</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-1819.1995835902271, 292.6254210778518]</t>
+          <t>[-1951.2950407326498, 318.1726676992497]</t>
         </is>
       </c>
     </row>
@@ -2162,10 +2162,10 @@
         <v>-1640.323309340931</v>
       </c>
       <c r="C13" t="n">
-        <v>1313.124050059655</v>
+        <v>1353.778193927374</v>
       </c>
       <c r="D13" t="n">
-        <v>0.122</v>
+        <v>0.126</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-4141.214126406747, 0.0]</t>
+          <t>[-4343.497294287628, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2188,10 +2188,10 @@
         <v>373.6381334363077</v>
       </c>
       <c r="C14" t="n">
-        <v>400.0278861668627</v>
+        <v>383.8832761827423</v>
       </c>
       <c r="D14" t="n">
-        <v>0.19</v>
+        <v>0.172</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-18.88960329909792, 1318.098159698618]</t>
+          <t>[-22.889414275599773, 1248.4740362791604]</t>
         </is>
       </c>
     </row>
@@ -2214,10 +2214,10 @@
         <v>294.4642088139133</v>
       </c>
       <c r="C15" t="n">
-        <v>363.3992191952207</v>
+        <v>366.9939963885324</v>
       </c>
       <c r="D15" t="n">
-        <v>0.274</v>
+        <v>0.248</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-190.38676005850238, 1106.3258333308431]</t>
+          <t>[-127.88621018584875, 1168.5681384027457]</t>
         </is>
       </c>
     </row>
@@ -2240,10 +2240,10 @@
         <v>142.9260460884154</v>
       </c>
       <c r="C16" t="n">
-        <v>286.0683629545272</v>
+        <v>273.5728803226015</v>
       </c>
       <c r="D16" t="n">
-        <v>0.386</v>
+        <v>0.37</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-363.39025143474385, 819.1791435749874]</t>
+          <t>[-286.60249642590645, 764.430621455661]</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
         <v>-406.6719843282598</v>
       </c>
       <c r="C17" t="n">
-        <v>387.4293261194849</v>
+        <v>376.8715219267018</v>
       </c>
       <c r="D17" t="n">
         <v>0.14</v>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[-1348.614670337086, 0.0]</t>
+          <t>[-1219.9174160369053, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2292,10 +2292,10 @@
         <v>-874.612146993946</v>
       </c>
       <c r="C18" t="n">
-        <v>1226.161176346068</v>
+        <v>1275.748770548536</v>
       </c>
       <c r="D18" t="n">
-        <v>0.468</v>
+        <v>0.46</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-3425.7852556062235, 1146.0499785836323]</t>
+          <t>[-3733.4001588457977, 1166.7028162398547]</t>
         </is>
       </c>
     </row>
@@ -2318,10 +2318,10 @@
         <v>-1735.853053061536</v>
       </c>
       <c r="C19" t="n">
-        <v>970.1329884035528</v>
+        <v>1025.720846707781</v>
       </c>
       <c r="D19" t="n">
-        <v>0.032</v>
+        <v>0.048</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-3406.6756559482765, 0.0]</t>
+          <t>[-3682.7457331411365, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2344,10 +2344,10 @@
         <v>-501.520120757929</v>
       </c>
       <c r="C20" t="n">
-        <v>442.0060939717949</v>
+        <v>384.6955677464519</v>
       </c>
       <c r="D20" t="n">
-        <v>0.166</v>
+        <v>0.12</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-1575.3840293189367, 37.19034413451075]</t>
+          <t>[-1397.0055902781405, 37.30793676095948]</t>
         </is>
       </c>
     </row>
@@ -2370,10 +2370,10 @@
         <v>-1235.619124447749</v>
       </c>
       <c r="C21" t="n">
-        <v>1311.262311554502</v>
+        <v>1327.781374536406</v>
       </c>
       <c r="D21" t="n">
-        <v>0.382</v>
+        <v>0.362</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-3787.7164359258168, 926.9740798161278]</t>
+          <t>[-3954.3118481052225, 938.9774265634273]</t>
         </is>
       </c>
     </row>
@@ -2396,10 +2396,10 @@
         <v>536.551693261755</v>
       </c>
       <c r="C22" t="n">
-        <v>1159.714834643673</v>
+        <v>1108.479821623685</v>
       </c>
       <c r="D22" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-1617.766622715359, 2903.4783906637385]</t>
+          <t>[-1418.8871719876875, 2846.9401637806723]</t>
         </is>
       </c>
     </row>
@@ -2422,10 +2422,10 @@
         <v>-629.7219649075956</v>
       </c>
       <c r="C23" t="n">
-        <v>581.408063225633</v>
+        <v>606.8230147853164</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2</v>
+        <v>0.198</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-1978.9261910458686, 200.5309207165305]</t>
+          <t>[-2101.148610668811, 233.8404448843271]</t>
         </is>
       </c>
     </row>
@@ -2448,10 +2448,10 @@
         <v>-89.00930186573336</v>
       </c>
       <c r="C24" t="n">
-        <v>575.5745969410125</v>
+        <v>606.7582216747024</v>
       </c>
       <c r="D24" t="n">
-        <v>0.902</v>
+        <v>0.762</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-1363.0945462967711, 976.3352952983862]</t>
+          <t>[-1333.3590804536343, 1096.974037958876]</t>
         </is>
       </c>
     </row>
@@ -2474,10 +2474,10 @@
         <v>-1475.603930397075</v>
       </c>
       <c r="C25" t="n">
-        <v>990.260891516435</v>
+        <v>1003.297826562383</v>
       </c>
       <c r="D25" t="n">
-        <v>0.076</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-3569.7849527501266, 0.0]</t>
+          <t>[-3434.6483746198255, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2500,10 +2500,10 @@
         <v>-2950.60663351319</v>
       </c>
       <c r="C26" t="n">
-        <v>1578.907614217889</v>
+        <v>1644.730214395894</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-5910.990927910041, 0.0]</t>
+          <t>[-6027.7035477571635, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2526,10 +2526,10 @@
         <v>-850.3643758427934</v>
       </c>
       <c r="C27" t="n">
-        <v>746.4233018197075</v>
+        <v>749.4028599642662</v>
       </c>
       <c r="D27" t="n">
-        <v>0.194</v>
+        <v>0.222</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[-2376.1289785680565, 405.730174528824]</t>
+          <t>[-2511.106540804428, 290.80790074519064]</t>
         </is>
       </c>
     </row>
@@ -2552,10 +2552,10 @@
         <v>-1818.979284294032</v>
       </c>
       <c r="C28" t="n">
-        <v>1558.362465941738</v>
+        <v>1438.773761735503</v>
       </c>
       <c r="D28" t="n">
-        <v>0.132</v>
+        <v>0.108</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-5118.049760399771, 0.0]</t>
+          <t>[-4810.402211837721, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2578,10 +2578,10 @@
         <v>-348.5214255079964</v>
       </c>
       <c r="C29" t="n">
-        <v>359.0095320506818</v>
+        <v>385.1593012636538</v>
       </c>
       <c r="D29" t="n">
-        <v>0.176</v>
+        <v>0.158</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[-1232.3457900442145, 0.0]</t>
+          <t>[-1440.3974517454826, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2604,10 +2604,10 @@
         <v>219.6599128058833</v>
       </c>
       <c r="C30" t="n">
-        <v>289.1362356662631</v>
+        <v>279.6732685144271</v>
       </c>
       <c r="D30" t="n">
-        <v>0.264</v>
+        <v>0.266</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[-126.65454425487835, 912.745824786484]</t>
+          <t>[-161.02583577640678, 873.3787423276747]</t>
         </is>
       </c>
     </row>
@@ -2630,10 +2630,10 @@
         <v>-934.1918871230312</v>
       </c>
       <c r="C31" t="n">
-        <v>838.6288444978509</v>
+        <v>754.6330255977209</v>
       </c>
       <c r="D31" t="n">
-        <v>0.138</v>
+        <v>0.118</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-2849.524760474341, 0.0]</t>
+          <t>[-2539.029437187285, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2656,10 +2656,10 @@
         <v>-1033.842903886473</v>
       </c>
       <c r="C32" t="n">
-        <v>888.3058980614837</v>
+        <v>871.3300949358484</v>
       </c>
       <c r="D32" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-2941.750352216484, 0.0]</t>
+          <t>[-2787.279819878666, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2812,19 +2812,19 @@
         <v>-4367.578280519683</v>
       </c>
       <c r="C38" t="n">
-        <v>1621.397825197802</v>
+        <v>1640.043596925526</v>
       </c>
       <c r="D38" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-7744.548176904069, -1143.6623415409235]</t>
+          <t>[-7282.351263326569, -766.3043355752268]</t>
         </is>
       </c>
     </row>
@@ -2838,10 +2838,10 @@
         <v>-439.3598425365299</v>
       </c>
       <c r="C39" t="n">
-        <v>1410.233967756363</v>
+        <v>1488.853332629079</v>
       </c>
       <c r="D39" t="n">
-        <v>0.764</v>
+        <v>0.75</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-3076.2457881696364, 2345.612513884516]</t>
+          <t>[-3273.3597114576946, 2613.2747007096787]</t>
         </is>
       </c>
     </row>
@@ -2864,10 +2864,10 @@
         <v>-895.2605529554834</v>
       </c>
       <c r="C40" t="n">
-        <v>1453.704110834938</v>
+        <v>1446.302086587606</v>
       </c>
       <c r="D40" t="n">
-        <v>0.512</v>
+        <v>0.506</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-3949.970969861506, 1920.642841322687]</t>
+          <t>[-3706.2630673010135, 2071.5325074751454]</t>
         </is>
       </c>
     </row>
@@ -2890,10 +2890,10 @@
         <v>-307.3915898043502</v>
       </c>
       <c r="C41" t="n">
-        <v>1839.904985268757</v>
+        <v>2021.9428141703</v>
       </c>
       <c r="D41" t="n">
-        <v>0.856</v>
+        <v>0.882</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-3925.0319791367856, 3160.5918642363567]</t>
+          <t>[-4162.297681976592, 3713.5168626283958]</t>
         </is>
       </c>
     </row>
@@ -2916,10 +2916,10 @@
         <v>2026.677189091354</v>
       </c>
       <c r="C42" t="n">
-        <v>1599.292090189359</v>
+        <v>1482.027167370215</v>
       </c>
       <c r="D42" t="n">
-        <v>0.188</v>
+        <v>0.16</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-1405.622791292541, 5114.804223858129]</t>
+          <t>[-849.8660002414679, 4928.1425188566145]</t>
         </is>
       </c>
     </row>
@@ -2942,10 +2942,10 @@
         <v>60.56456088347079</v>
       </c>
       <c r="C43" t="n">
-        <v>248.4870534529083</v>
+        <v>269.6693033296917</v>
       </c>
       <c r="D43" t="n">
-        <v>0.54</v>
+        <v>0.89</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-440.11097661219026, 630.3380727139961]</t>
+          <t>[-408.9059521494031, 712.0872665448446]</t>
         </is>
       </c>
     </row>
@@ -2968,10 +2968,10 @@
         <v>2244.141212080592</v>
       </c>
       <c r="C44" t="n">
-        <v>1752.786047997597</v>
+        <v>1892.342586662036</v>
       </c>
       <c r="D44" t="n">
-        <v>0.108</v>
+        <v>0.116</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.0, 5576.507059005335]</t>
+          <t>[0.0, 6428.326796684301]</t>
         </is>
       </c>
     </row>
@@ -2994,10 +2994,10 @@
         <v>1249.390373496088</v>
       </c>
       <c r="C45" t="n">
-        <v>1053.86246240727</v>
+        <v>1063.494233953339</v>
       </c>
       <c r="D45" t="n">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[0.0, 3362.7239670887293]</t>
+          <t>[0.0, 3482.7947537884497]</t>
         </is>
       </c>
     </row>
@@ -3020,10 +3020,10 @@
         <v>996.1322062656325</v>
       </c>
       <c r="C46" t="n">
-        <v>898.9025671350879</v>
+        <v>892.1290038375346</v>
       </c>
       <c r="D46" t="n">
-        <v>0.138</v>
+        <v>0.156</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.0, 3069.3778954059117]</t>
+          <t>[0.0, 2836.0358842073465]</t>
         </is>
       </c>
     </row>
@@ -3046,10 +3046,10 @@
         <v>-256.6497011872469</v>
       </c>
       <c r="C47" t="n">
-        <v>280.4394438851232</v>
+        <v>272.3920420452332</v>
       </c>
       <c r="D47" t="n">
-        <v>0.206</v>
+        <v>0.198</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[-900.5751898308924, 74.83680203914824]</t>
+          <t>[-891.8375257092564, 107.39737093971743]</t>
         </is>
       </c>
     </row>
@@ -3072,10 +3072,10 @@
         <v>998.6771979587326</v>
       </c>
       <c r="C48" t="n">
-        <v>876.0921657906304</v>
+        <v>905.8855160033577</v>
       </c>
       <c r="D48" t="n">
-        <v>0.134</v>
+        <v>0.12</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[0.0, 2838.8847206049095]</t>
+          <t>[0.0, 3084.7758125223727]</t>
         </is>
       </c>
     </row>
@@ -3098,10 +3098,10 @@
         <v>905.8753165930859</v>
       </c>
       <c r="C49" t="n">
-        <v>796.4339281772218</v>
+        <v>813.6539228916504</v>
       </c>
       <c r="D49" t="n">
-        <v>0.126</v>
+        <v>0.134</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[0.0, 2657.3567672040244]</t>
+          <t>[0.0, 2694.9100105579982]</t>
         </is>
       </c>
     </row>
@@ -3124,10 +3124,10 @@
         <v>1836.891614895217</v>
       </c>
       <c r="C50" t="n">
-        <v>1463.292302262564</v>
+        <v>1464.848929637624</v>
       </c>
       <c r="D50" t="n">
-        <v>0.114</v>
+        <v>0.118</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.0, 4653.66689023334]</t>
+          <t>[0.0, 4823.975797078765]</t>
         </is>
       </c>
     </row>
@@ -3150,10 +3150,10 @@
         <v>-581.8525834395579</v>
       </c>
       <c r="C51" t="n">
-        <v>508.6232741054681</v>
+        <v>548.3507828167213</v>
       </c>
       <c r="D51" t="n">
-        <v>0.124</v>
+        <v>0.142</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[-1808.1039189487283, 0.0]</t>
+          <t>[-1883.072948028153, 0.0]</t>
         </is>
       </c>
     </row>
@@ -3176,10 +3176,10 @@
         <v>300.9849296563543</v>
       </c>
       <c r="C52" t="n">
-        <v>408.2851709099538</v>
+        <v>405.713310830875</v>
       </c>
       <c r="D52" t="n">
-        <v>0.274</v>
+        <v>0.282</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[-169.2701962867036, 1213.155663239309]</t>
+          <t>[-205.18653002010484, 1219.412766579324]</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
         <v>2068.122014804155</v>
       </c>
       <c r="C53" t="n">
-        <v>459.2209433089676</v>
+        <v>467.2244970424993</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[1263.0563439559028, 3031.480061003381]</t>
+          <t>[1143.5323890159366, 2924.418857238983]</t>
         </is>
       </c>
     </row>
@@ -3228,10 +3228,10 @@
         <v>503.4838950168074</v>
       </c>
       <c r="C54" t="n">
-        <v>256.6393012171071</v>
+        <v>249.3728037719685</v>
       </c>
       <c r="D54" t="n">
-        <v>0.058</v>
+        <v>0.05</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[-16.50561768253555, 1001.0527320465342]</t>
+          <t>[8.936964036842141, 1001.3154099433866]</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
         <v>1506.345327360888</v>
       </c>
       <c r="C55" t="n">
-        <v>268.5726442150213</v>
+        <v>266.8809242829785</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[1026.1565103378193, 2114.7514745762664]</t>
+          <t>[1011.6971225543648, 2045.2409991184095]</t>
         </is>
       </c>
     </row>
@@ -3280,10 +3280,10 @@
         <v>2.556404175517645</v>
       </c>
       <c r="C56" t="n">
-        <v>264.2257643467242</v>
+        <v>267.7507001836378</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-535.6988620280468, 525.755897065157]</t>
+          <t>[-487.44063306416706, 559.824327371123]</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
         <v>-4088.089096803415</v>
       </c>
       <c r="C57" t="n">
-        <v>199.4900083776608</v>
+        <v>190.7099210817235</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[-4503.313502420535, -3719.2061355511687]</t>
+          <t>[-4455.061837221561, -3712.673957309317]</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
         <v>-1921.470618609711</v>
       </c>
       <c r="C58" t="n">
-        <v>226.5161277076405</v>
+        <v>231.3924747034179</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[-2382.2003922224567, -1495.0994446524887]</t>
+          <t>[-2390.793065032065, -1467.5181881842723]</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3358,7 @@
         <v>18424.3578230766</v>
       </c>
       <c r="C59" t="n">
-        <v>2096.686443478339</v>
+        <v>2067.008690625056</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[13934.004781694919, 21863.140447054968]</t>
+          <t>[13862.330787379564, 22190.32263926378]</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
         <v>-4210.103325095953</v>
       </c>
       <c r="C60" t="n">
-        <v>869.6229350642318</v>
+        <v>897.2355380571523</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[-5751.140783758057, -2429.366456487528]</t>
+          <t>[-5721.533159602085, -2332.7334138273927]</t>
         </is>
       </c>
     </row>
@@ -3410,10 +3410,10 @@
         <v>993.5760858757008</v>
       </c>
       <c r="C61" t="n">
-        <v>2327.50696799338</v>
+        <v>2238.583211223338</v>
       </c>
       <c r="D61" t="n">
-        <v>0.664</v>
+        <v>0.68</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-3500.033135987545, 5714.245894827957]</t>
+          <t>[-3869.9796106928898, 5157.370485209165]</t>
         </is>
       </c>
     </row>
@@ -3436,10 +3436,10 @@
         <v>3742.277256647134</v>
       </c>
       <c r="C62" t="n">
-        <v>1424.671303298853</v>
+        <v>1397.880732556273</v>
       </c>
       <c r="D62" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[694.8626794154816, 6473.137139861483]</t>
+          <t>[909.3417862201122, 6261.320059928663]</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
         <v>4653.999844972506</v>
       </c>
       <c r="C63" t="n">
-        <v>1386.656449784</v>
+        <v>1425.670451592227</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[1817.2042241832291, 7260.69233017869]</t>
+          <t>[1677.595479743004, 7567.558433918852]</t>
         </is>
       </c>
     </row>
@@ -3488,10 +3488,10 @@
         <v>3995.428620587048</v>
       </c>
       <c r="C64" t="n">
-        <v>2199.592009741066</v>
+        <v>2188.140005370075</v>
       </c>
       <c r="D64" t="n">
-        <v>0.054</v>
+        <v>0.062</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[160.3091050916645, 8531.34334288995]</t>
+          <t>[257.06864477775184, 8849.866023354603]</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         <v>-4637.820067500492</v>
       </c>
       <c r="C65" t="n">
-        <v>519.8476455151725</v>
+        <v>550.6010108727376</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[-5413.032542842837, -3397.8008971520926]</t>
+          <t>[-5500.6040727546915, -3368.60984518408]</t>
         </is>
       </c>
     </row>
@@ -3540,10 +3540,10 @@
         <v>427.7167424045368</v>
       </c>
       <c r="C66" t="n">
-        <v>720.9385060919834</v>
+        <v>741.3566596928598</v>
       </c>
       <c r="D66" t="n">
-        <v>0.556</v>
+        <v>0.552</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[-956.4985676170047, 1756.4998917916319]</t>
+          <t>[-1002.6646361785981, 1827.1680704572793]</t>
         </is>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
         <v>8248.111354406359</v>
       </c>
       <c r="C67" t="n">
-        <v>629.0151607734495</v>
+        <v>637.9270091163897</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[7156.593581835337, 9589.77979162168]</t>
+          <t>[7018.678174420807, 9437.431331791375]</t>
         </is>
       </c>
     </row>
@@ -3592,19 +3592,19 @@
         <v>1458.663936539087</v>
       </c>
       <c r="C68" t="n">
-        <v>875.9612406106039</v>
+        <v>884.3074761237521</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.116</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[-186.61538797156456, 3162.36082560497]</t>
+          <t>[-328.2663146627162, 3196.234749487262]</t>
         </is>
       </c>
     </row>
@@ -3618,10 +3618,10 @@
         <v>721.6468352949161</v>
       </c>
       <c r="C69" t="n">
-        <v>741.2361398052476</v>
+        <v>728.6844563697537</v>
       </c>
       <c r="D69" t="n">
-        <v>0.33</v>
+        <v>0.336</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-667.6398423824908, 2149.921008271613]</t>
+          <t>[-695.1320555337967, 2087.402566990598]</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
         <v>6066.821600559238</v>
       </c>
       <c r="C70" t="n">
-        <v>731.9975579945458</v>
+        <v>720.484781351438</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[4734.5653896559625, 7616.936075617453]</t>
+          <t>[4769.598563349068, 7540.659262007564]</t>
         </is>
       </c>
     </row>
@@ -3670,10 +3670,10 @@
         <v>-392.731154470252</v>
       </c>
       <c r="C71" t="n">
-        <v>331.7394726513155</v>
+        <v>322.0828244515354</v>
       </c>
       <c r="D71" t="n">
-        <v>0.248</v>
+        <v>0.23</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[-1054.3585709280692, 227.68894178968594]</t>
+          <t>[-1027.4015407793795, 240.05062553769784]</t>
         </is>
       </c>
     </row>
@@ -3696,10 +3696,10 @@
         <v>-773.803277903365</v>
       </c>
       <c r="C72" t="n">
-        <v>511.8205168472565</v>
+        <v>503.9325148912311</v>
       </c>
       <c r="D72" t="n">
-        <v>0.134</v>
+        <v>0.124</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-1818.4863065508557, 165.9585267695225]</t>
+          <t>[-1739.6227288215878, 273.5481924993258]</t>
         </is>
       </c>
     </row>
@@ -3722,10 +3722,10 @@
         <v>392.7311544702866</v>
       </c>
       <c r="C73" t="n">
-        <v>331.739472651314</v>
+        <v>322.0828244515353</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248</v>
+        <v>0.23</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-227.68894178970552, 1054.3585709280196]</t>
+          <t>[-240.0506255377353, 1027.4015407793167]</t>
         </is>
       </c>
     </row>
@@ -3748,10 +3748,10 @@
         <v>-773.803277903345</v>
       </c>
       <c r="C74" t="n">
-        <v>511.8205168472564</v>
+        <v>503.9325148912279</v>
       </c>
       <c r="D74" t="n">
-        <v>0.134</v>
+        <v>0.124</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-1818.4863065508325, 165.95852676951284]</t>
+          <t>[-1739.6227288215482, 273.54819249933576]</t>
         </is>
       </c>
     </row>
@@ -3774,10 +3774,10 @@
         <v>-824.5650292138297</v>
       </c>
       <c r="C75" t="n">
-        <v>923.3713955344549</v>
+        <v>962.7120960195138</v>
       </c>
       <c r="D75" t="n">
-        <v>0.358</v>
+        <v>0.396</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-2730.4702009461507, 736.9999747430799]</t>
+          <t>[-2798.978388944698, 949.7095172725626]</t>
         </is>
       </c>
     </row>
@@ -3800,10 +3800,10 @@
         <v>-48.22460325019548</v>
       </c>
       <c r="C76" t="n">
-        <v>880.7712543467942</v>
+        <v>861.597413466237</v>
       </c>
       <c r="D76" t="n">
-        <v>0.958</v>
+        <v>0.946</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-1769.702426223363, 1636.2895943664707]</t>
+          <t>[-1707.763368756408, 1669.94286177974]</t>
         </is>
       </c>
     </row>
@@ -3826,10 +3826,10 @@
         <v>-450.3057032043181</v>
       </c>
       <c r="C77" t="n">
-        <v>951.1787074185817</v>
+        <v>944.6248801109627</v>
       </c>
       <c r="D77" t="n">
-        <v>0.63</v>
+        <v>0.626</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-2362.227216392894, 1267.3199880761872]</t>
+          <t>[-2252.7279421291832, 1399.9622604914614]</t>
         </is>
       </c>
     </row>
@@ -3852,10 +3852,10 @@
         <v>253.90699800839</v>
       </c>
       <c r="C78" t="n">
-        <v>1014.078823834678</v>
+        <v>1018.962534015002</v>
       </c>
       <c r="D78" t="n">
-        <v>0.804</v>
+        <v>0.786</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-1808.305194971462, 2338.6466587416317]</t>
+          <t>[-1785.088370829439, 2122.270075899487]</t>
         </is>
       </c>
     </row>
@@ -3878,10 +3878,10 @@
         <v>1986.601183219399</v>
       </c>
       <c r="C79" t="n">
-        <v>1007.134818802969</v>
+        <v>982.5332392527245</v>
       </c>
       <c r="D79" t="n">
-        <v>0.046</v>
+        <v>0.038</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[8.777848458818006, 3949.164851689625]</t>
+          <t>[-10.184509000898823, 3794.6806184116886]</t>
         </is>
       </c>
     </row>
@@ -3904,10 +3904,10 @@
         <v>-901.3586217426471</v>
       </c>
       <c r="C80" t="n">
-        <v>960.08136206582</v>
+        <v>923.3429414453914</v>
       </c>
       <c r="D80" t="n">
-        <v>0.34</v>
+        <v>0.292</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-2865.415000454213, 900.8218298125901]</t>
+          <t>[-2671.214439721119, 887.4747019192748]</t>
         </is>
       </c>
     </row>
@@ -3930,10 +3930,10 @@
         <v>-502.2295697085127</v>
       </c>
       <c r="C81" t="n">
-        <v>864.9267077425162</v>
+        <v>863.9140029061979</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-2096.7112552413164, 1360.8112372004039]</t>
+          <t>[-2134.2546091818363, 1224.0033206809048]</t>
         </is>
       </c>
     </row>
@@ -3956,10 +3956,10 @@
         <v>926.7198973539264</v>
       </c>
       <c r="C82" t="n">
-        <v>1031.386761375404</v>
+        <v>983.8036406612283</v>
       </c>
       <c r="D82" t="n">
-        <v>0.368</v>
+        <v>0.342</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-1159.6875981996823, 2901.036369792819]</t>
+          <t>[-959.3647415166645, 3024.346060010488]</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
         <v>-688.7103802012941</v>
       </c>
       <c r="C83" t="n">
-        <v>964.2368859492279</v>
+        <v>970.6201828813352</v>
       </c>
       <c r="D83" t="n">
         <v>0.508</v>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-2474.4257079603376, 1169.5638868034002]</t>
+          <t>[-2518.403240626555, 1310.043142715242]</t>
         </is>
       </c>
     </row>
@@ -4008,10 +4008,10 @@
         <v>897.5764531995118</v>
       </c>
       <c r="C84" t="n">
-        <v>995.0285311814728</v>
+        <v>1006.228900505181</v>
       </c>
       <c r="D84" t="n">
-        <v>0.376</v>
+        <v>0.37</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-1178.2664904916571, 2901.1765454729775]</t>
+          <t>[-1040.1193546062864, 2878.6837285870356]</t>
         </is>
       </c>
     </row>
@@ -4218,10 +4218,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.619862803639302</v>
+        <v>1.608362802237098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07081060141605862</v>
+        <v>0.06475695190635157</v>
       </c>
     </row>
     <row r="3">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.351729715402216</v>
+        <v>1.3657656587335</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1274677100316966</v>
+        <v>0.05295120939484177</v>
       </c>
     </row>
     <row r="4">
@@ -4244,10 +4244,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9873685338988352</v>
+        <v>0.9769338157527756</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04941465051620245</v>
+        <v>0.03867601398108427</v>
       </c>
     </row>
     <row r="5">
@@ -4257,10 +4257,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6774283061618449</v>
+        <v>0.7296932554413001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03671352524964315</v>
+        <v>0.0376938045771727</v>
       </c>
     </row>
     <row r="6">
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5044807105738687</v>
+        <v>0.5211736856013747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04309818507797397</v>
+        <v>0.07386079425972369</v>
       </c>
     </row>
     <row r="7">
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4640847902667106</v>
+        <v>0.4891426333718081</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03764957516600216</v>
+        <v>0.01063414912099525</v>
       </c>
     </row>
     <row r="8">
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4571248220628921</v>
+        <v>0.4377299080065544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01378010795456352</v>
+        <v>0.04569616138673671</v>
       </c>
     </row>
     <row r="9">
@@ -4309,10 +4309,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3586853122699182</v>
+        <v>0.3435269289463804</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02094742554072889</v>
+        <v>0.03279131391560973</v>
       </c>
     </row>
     <row r="10">
@@ -4322,10 +4322,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.291589431775025</v>
+        <v>0.2955938752171074</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02625774396387773</v>
+        <v>0.02276064193467316</v>
       </c>
     </row>
     <row r="11">
@@ -4335,10 +4335,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2556675829766532</v>
+        <v>0.2592300289225056</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01747101605335084</v>
+        <v>0.03288084277820712</v>
       </c>
     </row>
     <row r="12">
@@ -4348,62 +4348,62 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2250188871398934</v>
+        <v>0.2231196853958595</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01554127371659773</v>
+        <v>0.02099285359217556</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2244759387319635</v>
+        <v>0.2227387426047822</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01782360241412798</v>
+        <v>0.01199203759349061</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2221802568205119</v>
+        <v>0.2184977362462134</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01846156201997281</v>
+        <v>0.01813030586399225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2042263849238157</v>
+        <v>0.2046598168537178</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0148718386163224</v>
+        <v>0.01985727398669578</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1880002135549835</v>
+        <v>0.1950302897972376</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01413346208468623</v>
+        <v>0.02189789889664937</v>
       </c>
     </row>
     <row r="17">
@@ -4413,10 +4413,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1632029818164549</v>
+        <v>0.1572028022203779</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01633412612468458</v>
+        <v>0.008722522064516935</v>
       </c>
     </row>
     <row r="18">
@@ -4426,10 +4426,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1577224089132178</v>
+        <v>0.1382147327869178</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01764921201986789</v>
+        <v>0.01878322785606968</v>
       </c>
     </row>
     <row r="19">
@@ -4439,49 +4439,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1234919468982193</v>
+        <v>0.1169527299024408</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01490608277785517</v>
+        <v>0.01333039327416542</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1114578486902846</v>
+        <v>0.1074520438743139</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02537584596754045</v>
+        <v>0.009061213545318489</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1107011790684802</v>
+        <v>0.1026108377666431</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01152376365266879</v>
+        <v>0.007223315583297832</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09883511940953811</v>
+        <v>0.09677079498457881</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00891605444878554</v>
+        <v>0.01063841338021967</v>
       </c>
     </row>
     <row r="23">
@@ -4491,36 +4491,36 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0979625422481601</v>
+        <v>0.09503433506631313</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01475395325207969</v>
+        <v>0.008957474736011098</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.08755947970060729</v>
+        <v>0.09225699551149844</v>
       </c>
       <c r="C24" t="n">
-        <v>0.008075442048083312</v>
+        <v>0.005085396225096707</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0858305632905205</v>
+        <v>0.0867036895292442</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01067945592363032</v>
+        <v>0.01007688650802899</v>
       </c>
     </row>
     <row r="26">
@@ -4530,62 +4530,62 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.07516830491933994</v>
+        <v>0.08488696792011592</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01417694973316893</v>
+        <v>0.008081068443326551</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.07391146018930439</v>
+        <v>0.07711117441583197</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01072119243138531</v>
+        <v>0.008570791297710677</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.06789719140062311</v>
+        <v>0.07623083090863832</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01852678935465894</v>
+        <v>0.01053559846808665</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.05761482096887027</v>
+        <v>0.06336405708634577</v>
       </c>
       <c r="C29" t="n">
-        <v>0.008995268046432048</v>
+        <v>0.01292444846200363</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.05626395275438954</v>
+        <v>0.05904460652517633</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01191018562491219</v>
+        <v>0.004106427010041845</v>
       </c>
     </row>
     <row r="31">
@@ -4595,36 +4595,36 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04899689817484372</v>
+        <v>0.04460673031187341</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01739886403666123</v>
+        <v>0.0116699535045652</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03953229815692849</v>
+        <v>0.0444364418021808</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01377820664705577</v>
+        <v>0.005678813520936629</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.03646441560282913</v>
+        <v>0.03994583360876443</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006676812542848714</v>
+        <v>0.01002818879925652</v>
       </c>
     </row>
     <row r="34">
@@ -4634,10 +4634,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.03218048221999849</v>
+        <v>0.03767401289623069</v>
       </c>
       <c r="C34" t="n">
-        <v>0.008322023077720238</v>
+        <v>0.006430698973262971</v>
       </c>
     </row>
     <row r="35">
@@ -4647,75 +4647,75 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0155996221748812</v>
+        <v>0.01941684251383045</v>
       </c>
       <c r="C35" t="n">
-        <v>0.004416445313994832</v>
+        <v>0.005410907695305437</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01538608506104455</v>
+        <v>0.01713565496240037</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003234784651243278</v>
+        <v>0.003181385061122646</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01213919423991119</v>
+        <v>0.01673938669085202</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00209136844458099</v>
+        <v>0.002531803056178214</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0111909647847809</v>
+        <v>0.01501992287167446</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003759770507980863</v>
+        <v>0.005201305014024437</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.004754192306114402</v>
+        <v>0.004759327468054031</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001630618464537779</v>
+        <v>0.002318013144754458</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.004524409875908697</v>
+        <v>0.004446916900439524</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003224256467553223</v>
+        <v>0.001623168958767269</v>
       </c>
     </row>
     <row r="41">
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.001301218949120919</v>
+        <v>0.0007028337934482431</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0007279156561689503</v>
+        <v>0.001605955153255771</v>
       </c>
     </row>
     <row r="42">
@@ -4738,10 +4738,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-7.799784179034486e-05</v>
+        <v>0.0001469497372242667</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0006338888548634909</v>
+        <v>0.0009513421361174712</v>
       </c>
     </row>
   </sheetData>
@@ -4787,10 +4787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02816772351621257</v>
+        <v>0.02857824714946562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002378823752838678</v>
+        <v>0.003755630512161962</v>
       </c>
     </row>
     <row r="3">
@@ -4800,10 +4800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.008068841759043655</v>
+        <v>0.007006829534333204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001548016618886338</v>
+        <v>0.002223224464898112</v>
       </c>
     </row>
     <row r="4">
@@ -4813,36 +4813,36 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004872119342357739</v>
+        <v>0.005155505031395613</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007316844964420392</v>
+        <v>0.0004081508626768481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002897249394414425</v>
+        <v>0.002915862872297903</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000288929672230622</v>
+        <v>0.0003744981319269876</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002562424506151117</v>
+        <v>0.002688871727023878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003456910263085648</v>
+        <v>0.0003849137011268451</v>
       </c>
     </row>
     <row r="7">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002544512255436926</v>
+        <v>0.002436795201561614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001820594519369826</v>
+        <v>0.0002772821039502839</v>
       </c>
     </row>
     <row r="8">
@@ -4865,62 +4865,62 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002222970537388158</v>
+        <v>0.002383650336810717</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001559806080333566</v>
+        <v>0.0004500053569603562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001097183734611762</v>
+        <v>0.001268927989360358</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005852375234228583</v>
+        <v>0.0001497411923890923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0009962142669352359</v>
+        <v>0.001236876636604367</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003040983830903781</v>
+        <v>0.0006398094684082897</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0009880672840950177</v>
+        <v>0.001141869775674742</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002940370897401245</v>
+        <v>0.0005000515642277184</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0008973640803870975</v>
+        <v>0.001012606761963175</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001685892291758846</v>
+        <v>0.0002290793005976015</v>
       </c>
     </row>
     <row r="13">
@@ -4930,62 +4930,62 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0008826648140516591</v>
+        <v>0.00092607692652098</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001559375024823472</v>
+        <v>8.230123829259896e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0008217558246807144</v>
+        <v>0.0009041088241024786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002974474135933534</v>
+        <v>0.000147392158674105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006743360276065813</v>
+        <v>0.000842610856592052</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002107333087185754</v>
+        <v>0.0001478531963553543</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0006741861222193002</v>
+        <v>0.0007663263674329901</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001421105392558427</v>
+        <v>0.000121752962865037</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0005852402270594803</v>
+        <v>0.000612863926167595</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005538391164723319</v>
+        <v>9.601103518468615e-05</v>
       </c>
     </row>
     <row r="18">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0004652450714076384</v>
+        <v>0.0005534062904762216</v>
       </c>
       <c r="C18" t="n">
-        <v>9.142074476093303e-05</v>
+        <v>0.0001731665416498833</v>
       </c>
     </row>
     <row r="19">
@@ -5008,10 +5008,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0004042967303016676</v>
+        <v>0.0004956219166325937</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0002602675165243945</v>
+        <v>0.000406155043597331</v>
       </c>
     </row>
     <row r="20">
@@ -5021,10 +5021,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0003550967228296731</v>
+        <v>0.0004008340494772833</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001149514681933834</v>
+        <v>0.0001185646711702119</v>
       </c>
     </row>
     <row r="21">
@@ -5034,166 +5034,166 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.589244514831562e-05</v>
+        <v>0.000123098220390494</v>
       </c>
       <c r="C21" t="n">
-        <v>7.349920631291513e-05</v>
+        <v>2.455303064645638e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.793939468019318e-05</v>
+        <v>9.279043181817937e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001422285219648464</v>
+        <v>4.898919395816757e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.428732745453747e-05</v>
+        <v>4.293464842732853e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>3.795734439342533e-05</v>
+        <v>3.274887786506508e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.54124058321792e-05</v>
+        <v>3.460197631746098e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>4.75078252366648e-05</v>
+        <v>0.0001570109168670506</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.69932333362377e-05</v>
+        <v>2.953198634723097e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>4.156389226227322e-05</v>
+        <v>1.625373367849356e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.473459332392846e-05</v>
+        <v>2.818084829829814e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>3.617242927554331e-05</v>
+        <v>1.528893891746384e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.436562895134052e-05</v>
+        <v>2.736364482667231e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>3.556605627340019e-05</v>
+        <v>2.143764501571556e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.239552241931729e-05</v>
+        <v>2.563979781782244e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>1.885305882814332e-05</v>
+        <v>1.689862735248454e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.126825518031893e-05</v>
+        <v>2.439378117178315e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>1.390957526044751e-05</v>
+        <v>1.836797063438976e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.959327457762733e-06</v>
+        <v>1.644895748218467e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>1.683364392245126e-05</v>
+        <v>9.262280035546088e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.064823382796348e-06</v>
+        <v>1.980744547847024e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001027435516437201</v>
+        <v>1.246367841647567e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.013385793379733e-06</v>
+        <v>1.891912825358055e-06</v>
       </c>
       <c r="C32" t="n">
-        <v>1.619201942279309e-05</v>
+        <v>2.161441521844442e-06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.648596247898041e-06</v>
+        <v>1.756383461626321e-06</v>
       </c>
       <c r="C33" t="n">
-        <v>1.134604188150611e-05</v>
+        <v>9.174431162864691e-06</v>
       </c>
     </row>
     <row r="34">
@@ -5203,114 +5203,114 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.107860090669547e-06</v>
+        <v>1.457954945593975e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>1.013363282535122e-05</v>
+        <v>1.573067071219392e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.80562618267355e-06</v>
+        <v>9.557443682695066e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>7.052240120610148e-06</v>
+        <v>3.038123473762797e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.694348278102886e-06</v>
+        <v>3.295546221249168e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>1.925424664065267e-05</v>
+        <v>1.588045293272539e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.072031968840648e-06</v>
+        <v>1.094720371686009e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>9.68316637660771e-06</v>
+        <v>2.438274323783433e-07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-8.383457772431768e-08</v>
+        <v>-1.316927029093584e-06</v>
       </c>
       <c r="C38" t="n">
-        <v>3.522901369228277e-07</v>
+        <v>1.627416798640376e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-7.486751448126938e-07</v>
+        <v>-4.807188771294157e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>1.279078651839229e-05</v>
+        <v>2.955631544685344e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.929686427248889e-06</v>
+        <v>-1.614175696320608e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>7.358876839487789e-06</v>
+        <v>7.158307405055557e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-8.975518720943931e-06</v>
+        <v>-3.752685561420055e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>2.900262573353536e-05</v>
+        <v>0.0001450164779952675</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.189176708171757e-05</v>
+        <v>-4.522278848528849e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>6.64536494051537e-05</v>
+        <v>0.0001026943879825041</v>
       </c>
     </row>
   </sheetData>
@@ -5356,10 +5356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1931111206649156</v>
+        <v>0.2163965325207845</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01367570199904449</v>
+        <v>0.01529142352591123</v>
       </c>
     </row>
     <row r="3">
@@ -5369,10 +5369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1002659264666066</v>
+        <v>0.1271648245612812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005905025104881143</v>
+        <v>0.01065866557767066</v>
       </c>
     </row>
     <row r="4">
@@ -5382,153 +5382,153 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07037813822022269</v>
+        <v>0.067328595739478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00331462497935361</v>
+        <v>0.005330361579987937</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03661600503060447</v>
+        <v>0.04843852402662172</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001809831459660065</v>
+        <v>0.00381085090005822</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03646282018614173</v>
+        <v>0.02911350358967715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00291772740704765</v>
+        <v>0.001730971319242246</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03235717277218377</v>
+        <v>0.02900264677010909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006847106978973699</v>
+        <v>0.003807905959644412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0296790233706586</v>
+        <v>0.02779866810750333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001423197972903007</v>
+        <v>0.003072275472554957</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0284721720580239</v>
+        <v>0.02514414725009264</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006700005681675994</v>
+        <v>0.004611699240050685</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02715552840520032</v>
+        <v>0.02345159909334464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003143488007393243</v>
+        <v>0.002147797548891402</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02586808974131423</v>
+        <v>0.02236380499574193</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002803443228359739</v>
+        <v>0.002833810764135273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02564163719021571</v>
+        <v>0.02154119015514542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00121460496132682</v>
+        <v>0.002753989955720901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02511483184826007</v>
+        <v>0.0202916907491856</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003647294802259918</v>
+        <v>0.002695510132798633</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02332159490806636</v>
+        <v>0.01715342526894157</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001420265823027293</v>
+        <v>0.002168393052359577</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01996138290956266</v>
+        <v>0.01254730576143006</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002252938554053718</v>
+        <v>0.001130065627168904</v>
       </c>
     </row>
     <row r="16">
@@ -5538,10 +5538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01802282544138654</v>
+        <v>0.01170566603722518</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002327640294834432</v>
+        <v>0.0018455183953001</v>
       </c>
     </row>
     <row r="17">
@@ -5551,322 +5551,322 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01515859823468644</v>
+        <v>0.01098406595541057</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002004570871659072</v>
+        <v>0.001698959566311833</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01419777800438438</v>
+        <v>0.009556776311525361</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001078875977179978</v>
+        <v>0.0009311937929310628</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01374767594262369</v>
+        <v>0.009486347574102539</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004498502346817565</v>
+        <v>0.001341599375252222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01280691492167691</v>
+        <v>0.007940952110255561</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001827548499245624</v>
+        <v>0.001051760863503145</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01245355873549456</v>
+        <v>0.006672601391299571</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001571010511507485</v>
+        <v>0.001598998896753004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0121919096929185</v>
+        <v>0.006132739815408517</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0006254504936089171</v>
+        <v>0.001561182295563875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01033715838161775</v>
+        <v>0.006027824286749394</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001062253246151747</v>
+        <v>0.0005698910793422002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.008875187967375164</v>
+        <v>0.005545152722374058</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00268221780826473</v>
+        <v>0.0008348966096307264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.008005161053698329</v>
+        <v>0.004828562116293256</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001475868790826797</v>
+        <v>0.0003878128719436051</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.007386002127370239</v>
+        <v>0.004713804026850554</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0007438183821088097</v>
+        <v>0.001171127296695415</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00628904600596829</v>
+        <v>0.004207509880085158</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001002981949951465</v>
+        <v>0.0008392811287027749</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.005841258794746862</v>
+        <v>0.00416817768926514</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0005863590632116768</v>
+        <v>0.00122833558499773</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.005113903590309388</v>
+        <v>0.003131755088198074</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001213187174911126</v>
+        <v>0.0004689009524294133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.004906228693405024</v>
+        <v>0.002537876785628557</v>
       </c>
       <c r="C30" t="n">
-        <v>0.000489092620681567</v>
+        <v>0.0005276740557505628</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003955928320646907</v>
+        <v>0.002529219991383669</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0006554755876483058</v>
+        <v>0.0005859437915107977</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.003334206067411283</v>
+        <v>0.002246404462646501</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0002161053938150966</v>
+        <v>0.0004716200674730462</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.002706159256146634</v>
+        <v>0.001741369470089515</v>
       </c>
       <c r="C33" t="n">
-        <v>0.000144089153359541</v>
+        <v>0.0009531260711187309</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.002392440407140884</v>
+        <v>0.001513446792409634</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0003105900126015581</v>
+        <v>0.0003798976465077808</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.002099901945964855</v>
+        <v>0.001391393277258124</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0005426655720547151</v>
+        <v>0.0005899979251514342</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.001900420015197701</v>
+        <v>0.0002298972461110882</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0007798178542358197</v>
+        <v>0.0001507380545855688</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.001757084098608308</v>
+        <v>7.325302876002305e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0002956048031838307</v>
+        <v>4.233234503153335e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.001658357728366</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0002505735931526218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0009560380211016684</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0002115575625900044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0007324771682826192</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0002008703603770627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0005195843245352494</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.846702093569153e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -5876,10 +5876,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.463100901956565e-05</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>4.643947213390829e-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5925,10 +5925,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2335416083322618</v>
+        <v>0.2384942849234051</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02205423743892366</v>
+        <v>0.01133213651261827</v>
       </c>
     </row>
     <row r="3">
@@ -5938,23 +5938,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05424669626056884</v>
+        <v>0.04778242703996112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01401474363127482</v>
+        <v>0.009127412805395967</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02968400383100258</v>
+        <v>0.02529946657522675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01169284153368367</v>
+        <v>0.007996046585970145</v>
       </c>
     </row>
     <row r="5">
@@ -5964,23 +5964,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01905066140683775</v>
+        <v>0.02424711171604119</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007172734537221488</v>
+        <v>0.008707776227383864</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01408370470022855</v>
+        <v>0.02415077661728398</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01105686649749749</v>
+        <v>0.01078411780017779</v>
       </c>
     </row>
     <row r="7">
@@ -5990,10 +5990,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01160011146693543</v>
+        <v>0.01041061401233054</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006957170735472067</v>
+        <v>0.005718377408876042</v>
       </c>
     </row>
     <row r="8">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008071518431064706</v>
+        <v>0.009671646369638598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002165171016144575</v>
+        <v>0.003094134489848347</v>
       </c>
     </row>
     <row r="9">
@@ -6016,10 +6016,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007421866825998324</v>
+        <v>0.006422599583546651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002384668092972979</v>
+        <v>0.004369967762244928</v>
       </c>
     </row>
     <row r="10">
@@ -6029,10 +6029,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003110752674004069</v>
+        <v>0.003968157563828933</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001698672743004758</v>
+        <v>0.002707237488703841</v>
       </c>
     </row>
     <row r="11">
@@ -6042,127 +6042,127 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003020765916673662</v>
+        <v>0.003198282128856222</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001296772512113508</v>
+        <v>0.002040895529709207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00265542142827897</v>
+        <v>0.003011430258578418</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001827865951179301</v>
+        <v>0.003037292934126037</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002423533916760867</v>
+        <v>0.002909293046446937</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002045760232731067</v>
+        <v>0.003815958182238282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002381722263515074</v>
+        <v>0.002691089913598566</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0007830904945939408</v>
+        <v>0.001326407137872275</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002106219161269762</v>
+        <v>0.002409284401952716</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001159519070089746</v>
+        <v>0.001401968872380013</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001852840613152651</v>
+        <v>0.001799402716898957</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002157045456241014</v>
+        <v>0.0020044349346553</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001636505853498638</v>
+        <v>0.001719616486881814</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001061421838382107</v>
+        <v>0.002765758441526873</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001579962157849324</v>
+        <v>0.001294213664408828</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001220692247656119</v>
+        <v>0.001779228998316115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0009382170550268132</v>
+        <v>0.001270321802001084</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002334747885482597</v>
+        <v>0.001673803537053762</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0008764263706835029</v>
+        <v>0.0002492553369194406</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001115468305449067</v>
+        <v>0.001691812666827179</v>
       </c>
     </row>
     <row r="21">
@@ -6172,10 +6172,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0005410906426601469</v>
+        <v>-5.134108576272389e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001866520205442998</v>
+        <v>0.0009085226676415201</v>
       </c>
     </row>
     <row r="22">
@@ -6185,49 +6185,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001285454675117537</v>
+        <v>-0.000569855932295038</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002467567540437811</v>
+        <v>0.002178276717626008</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.001044200489896374</v>
+        <v>-0.0009425669931909297</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002570989855375861</v>
+        <v>0.001632242909472456</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.001045360084210079</v>
+        <v>-0.001073214341862272</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002262307881395652</v>
+        <v>0.00109687505204645</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001048470812504188</v>
+        <v>-0.001360386822546422</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0008370015521837046</v>
+        <v>0.001283659673134891</v>
       </c>
     </row>
     <row r="26">
@@ -6237,36 +6237,36 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.001557076098352694</v>
+        <v>-0.001467302965512074</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001797993296345191</v>
+        <v>0.001653453162986491</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.001667328802356849</v>
+        <v>-0.001819713015296687</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001978940277845061</v>
+        <v>0.001175396326523736</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.001967237076745576</v>
+        <v>-0.001892669974668837</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002227857165869492</v>
+        <v>0.002089206419766471</v>
       </c>
     </row>
     <row r="29">
@@ -6276,49 +6276,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0021906316206872</v>
+        <v>-0.002155928762532921</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00076223912773227</v>
+        <v>0.0008517354790985778</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.002312153068640232</v>
+        <v>-0.002467784875948786</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002483750128919235</v>
+        <v>0.001343137249869034</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.002502772247021978</v>
+        <v>-0.002925057695563948</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002696468250555068</v>
+        <v>0.00208733316531082</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.002810447117985904</v>
+        <v>-0.003479741396465896</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001736450014120817</v>
+        <v>0.001955475942807606</v>
       </c>
     </row>
     <row r="33">
@@ -6328,127 +6328,127 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.002850713314165199</v>
+        <v>-0.00360537104041494</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001461643180715818</v>
+        <v>0.001234595052445759</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.003056246382941352</v>
+        <v>-0.003845316034787416</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003071498192722988</v>
+        <v>0.001990774699830177</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.003200619493121914</v>
+        <v>-0.006586844401918745</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00223742289769555</v>
+        <v>0.001484906961680584</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.006810299067288051</v>
+        <v>-0.006987312395236334</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006128692037370525</v>
+        <v>0.005165596615549739</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.006872279491218847</v>
+        <v>-0.008713298455047402</v>
       </c>
       <c r="C37" t="n">
-        <v>0.003309339326885011</v>
+        <v>0.003376419789729666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.009984467215060855</v>
+        <v>-0.009582957779980351</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002425494857119321</v>
+        <v>0.004678993033927924</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.0104247578841095</v>
+        <v>-0.01014715547284393</v>
       </c>
       <c r="C39" t="n">
-        <v>0.003988809516167193</v>
+        <v>0.007912154460880994</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.01953062499563378</v>
+        <v>-0.01345749371588218</v>
       </c>
       <c r="C40" t="n">
-        <v>0.005595166330017553</v>
+        <v>0.004781774600881592</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.02047795789416513</v>
+        <v>-0.01863421813394896</v>
       </c>
       <c r="C41" t="n">
-        <v>0.009040836170579394</v>
+        <v>0.004825036163976499</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.02387703666494527</v>
+        <v>-0.02132195520952844</v>
       </c>
       <c r="C42" t="n">
-        <v>0.009079222556507737</v>
+        <v>0.006188965915159897</v>
       </c>
     </row>
   </sheetData>
@@ -6494,10 +6494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2911384058129773</v>
+        <v>0.2560040944243802</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02096683706584009</v>
+        <v>0.01453344516857634</v>
       </c>
     </row>
     <row r="3">
@@ -6507,36 +6507,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1937734513774153</v>
+        <v>0.2171658291037679</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01356178847350621</v>
+        <v>0.008693364364909754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04136151473098602</v>
+        <v>0.04345735305090337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005194556114792312</v>
+        <v>0.003591268127691929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04088623765218158</v>
+        <v>0.04111326886771818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004767114620313857</v>
+        <v>0.005917909793262803</v>
       </c>
     </row>
     <row r="6">
@@ -6546,75 +6546,75 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03919435876605801</v>
+        <v>0.0393520852574631</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003303451779860174</v>
+        <v>0.004027333265395043</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0348094477233097</v>
+        <v>0.03700507437929201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006740927359485449</v>
+        <v>0.004365432818960391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03431488067049424</v>
+        <v>0.03465685917647341</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006001648389225422</v>
+        <v>0.004318513451326611</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03030485749203502</v>
+        <v>0.03136532009027433</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002806259372870546</v>
+        <v>0.006844476334192275</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02911992195528073</v>
+        <v>0.0293317021495912</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006167613624623465</v>
+        <v>0.004020517589874681</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02835551714518607</v>
+        <v>0.02918991180309569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002993030692813705</v>
+        <v>0.006203953171376339</v>
       </c>
     </row>
     <row r="12">
@@ -6624,62 +6624,62 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02528088348906008</v>
+        <v>0.02644113803474308</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005130566334164466</v>
+        <v>0.004745641594598415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0231471082866032</v>
+        <v>0.02458427504578791</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002184987467280475</v>
+        <v>0.003085678910193518</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02267556098775174</v>
+        <v>0.02399702420491256</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003848560022146067</v>
+        <v>0.001533133732173601</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.021516142773614</v>
+        <v>0.0232400746468443</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003139905529903357</v>
+        <v>0.003163150125764129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01926751485769931</v>
+        <v>0.02276885622448217</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001638035251732279</v>
+        <v>0.002106909962855241</v>
       </c>
     </row>
     <row r="17">
@@ -6689,10 +6689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01567130121398828</v>
+        <v>0.02137016863155192</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0009390817356058712</v>
+        <v>0.002777095135670672</v>
       </c>
     </row>
     <row r="18">
@@ -6702,88 +6702,88 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01532759279823423</v>
+        <v>0.01981204722783354</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004307121416651375</v>
+        <v>0.001847732745720553</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01073904820555818</v>
+        <v>0.01055961094873896</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001425887245111592</v>
+        <v>0.002142471392835016</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01051853105512228</v>
+        <v>0.00976142774804838</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001775231053280938</v>
+        <v>0.001808685509985306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0103303115640645</v>
+        <v>0.009585271414057539</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00142199292503318</v>
+        <v>0.001599614558079515</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00920913212771648</v>
+        <v>0.008678211939861912</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002314437137879377</v>
+        <v>0.002424165464890266</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.009137026015766381</v>
+        <v>0.008459629027915017</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001977938885154884</v>
+        <v>0.00297833911987522</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.008616679574898246</v>
+        <v>0.00843063909370787</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0008062348810433734</v>
+        <v>0.002397233456353066</v>
       </c>
     </row>
     <row r="25">
@@ -6793,23 +6793,23 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.008419554899215953</v>
+        <v>0.008424648464915196</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001283891047471626</v>
+        <v>0.001000039200684945</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00835402589280545</v>
+        <v>0.007100107752210638</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001369620961488485</v>
+        <v>0.001066898302063367</v>
       </c>
     </row>
     <row r="27">
@@ -6819,10 +6819,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.006272749768303676</v>
+        <v>0.006856685816780783</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001034218688774133</v>
+        <v>0.001368579074658699</v>
       </c>
     </row>
     <row r="28">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.005900893705531751</v>
+        <v>0.005985977803645581</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0006771634479947924</v>
+        <v>0.001570236842348357</v>
       </c>
     </row>
     <row r="29">
@@ -6845,36 +6845,36 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.004629321554716315</v>
+        <v>0.003966821333897164</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0007923199395894183</v>
+        <v>0.0007396186133799177</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003643779671085645</v>
+        <v>0.003409926910386796</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001093993301200739</v>
+        <v>0.0007199426149775744</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.00355123515695519</v>
+        <v>0.003111652142475663</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0003715464150970333</v>
+        <v>0.0007700889114511777</v>
       </c>
     </row>
     <row r="32">
@@ -6884,55 +6884,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.003089581861808699</v>
+        <v>0.003010594525491283</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0009396372735282642</v>
+        <v>0.0006420109457912328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001010981220100482</v>
+        <v>0.0008802885456108189</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002746220181429238</v>
+        <v>0.0004795884364663182</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0009903490507701784</v>
+        <v>0.0008377856733474687</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002429343795085871</v>
+        <v>0.0002274361341729911</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0008460214624213203</v>
+        <v>0.0006068999135628416</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0001540347181710341</v>
+        <v>9.093969766248835e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -6945,7 +6945,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -6958,7 +6958,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -6971,7 +6971,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -6984,7 +6984,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -6997,7 +6997,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -7010,7 +7010,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -7063,10 +7063,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0001183562338431754</v>
+        <v>0.0001066693399596419</v>
       </c>
       <c r="C2" t="n">
-        <v>8.426405870460679e-06</v>
+        <v>6.989668212209403e-06</v>
       </c>
     </row>
     <row r="3">
@@ -7076,127 +7076,127 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.263929601748596e-05</v>
+        <v>7.310967038336447e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>1.130087275857017e-05</v>
+        <v>1.583596272294513e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.769140214355815e-05</v>
+        <v>4.678758845846343e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>4.314738721881506e-06</v>
+        <v>6.315611380047242e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.706846499433869e-05</v>
+        <v>3.585035274122905e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>7.555551702068165e-06</v>
+        <v>2.345570074195648e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.024445927848341e-05</v>
+        <v>2.913643995143822e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.118520982381304e-05</v>
+        <v>3.9794116582439e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.664099428806299e-05</v>
+        <v>2.670492832088644e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>2.865294914310692e-06</v>
+        <v>4.095233615055576e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.441567246229681e-05</v>
+        <v>2.44179919922205e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>4.03854411491972e-06</v>
+        <v>2.625101001525189e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.307938813088661e-05</v>
+        <v>2.386757305912202e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>8.113569104340485e-06</v>
+        <v>7.318624684819813e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.082710103059604e-05</v>
+        <v>2.043512230931466e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>4.57377690774572e-06</v>
+        <v>6.856801806878275e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.524994458694806e-05</v>
+        <v>1.444384951412303e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>1.055397828182076e-05</v>
+        <v>2.610974108174608e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.381676263350062e-05</v>
+        <v>1.320744780912708e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>2.337114799948293e-06</v>
+        <v>8.456776833518399e-06</v>
       </c>
     </row>
     <row r="13">
@@ -7206,36 +7206,36 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.317434686622931e-05</v>
+        <v>1.250261485092885e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>3.542748370534264e-06</v>
+        <v>3.03824383783756e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.203553399815593e-05</v>
+        <v>1.099261943136032e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>1.384521275336158e-06</v>
+        <v>1.408018704235975e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.03528480263293e-05</v>
+        <v>1.044812552475349e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>2.38295135479528e-06</v>
+        <v>1.973245870051382e-06</v>
       </c>
     </row>
     <row r="16">
@@ -7245,10 +7245,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.644058227520347e-06</v>
+        <v>9.635563874099696e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>3.022076349005788e-06</v>
+        <v>2.107950957793581e-06</v>
       </c>
     </row>
     <row r="17">
@@ -7258,10 +7258,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.289212092060794e-06</v>
+        <v>8.72991721982963e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.870770436840745e-06</v>
+        <v>2.082953105238053e-06</v>
       </c>
     </row>
     <row r="18">
@@ -7271,101 +7271,101 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.543037338009207e-06</v>
+        <v>7.071154891891141e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1.802191674941633e-06</v>
+        <v>1.370250329289408e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.491782572615179e-06</v>
+        <v>6.269464544073067e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>1.656231870697309e-06</v>
+        <v>2.413711313931435e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.687918621309017e-06</v>
+        <v>3.651978764995789e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>1.096799016577564e-06</v>
+        <v>2.689669400627612e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.356137468135678e-06</v>
+        <v>2.40651235265954e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>1.037528327322963e-06</v>
+        <v>4.494793735408026e-07</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.571297892806079e-06</v>
+        <v>2.013108180798362e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>3.302098717069901e-07</v>
+        <v>2.522893684877353e-06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.25537918578933e-06</v>
+        <v>1.868049134556848e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>3.928220059898587e-06</v>
+        <v>1.271288173141955e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.020442101002829e-06</v>
+        <v>1.596316545704468e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>1.634185879598535e-06</v>
+        <v>5.071561383387362e-07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.528472482670295e-06</v>
+        <v>1.476452597493072e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>5.519953349262211e-07</v>
+        <v>1.54463996562452e-06</v>
       </c>
     </row>
     <row r="26">
@@ -7375,49 +7375,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.323035778511006e-06</v>
+        <v>1.420902018267611e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>3.79183833261415e-07</v>
+        <v>2.664087457292482e-07</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.279521477437484e-06</v>
+        <v>1.123159047877742e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>5.397479264146255e-07</v>
+        <v>1.073857974965415e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.121589225205888e-06</v>
+        <v>9.268064996126313e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>7.361260399189324e-07</v>
+        <v>1.021415527229342e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.725658240533619e-07</v>
+        <v>9.144401137417546e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>2.429029731148076e-07</v>
+        <v>8.105455682308164e-07</v>
       </c>
     </row>
     <row r="30">
@@ -7427,101 +7427,101 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.095563062220478e-07</v>
+        <v>7.28910698688523e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>1.138329834590656e-06</v>
+        <v>4.978845718734577e-07</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.043048900090553e-07</v>
+        <v>7.086013620316578e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>3.71297530845653e-07</v>
+        <v>4.598811618973515e-07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.306944286465054e-07</v>
+        <v>6.930543637428955e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>1.718535777244365e-06</v>
+        <v>4.75868194775157e-07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.462678568404541e-07</v>
+        <v>4.623088549315923e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>2.640426387167766e-07</v>
+        <v>1.123347404435037e-06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.060916889368158e-07</v>
+        <v>4.25443109475232e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>8.675681014266305e-07</v>
+        <v>1.485710275009386e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.391534394601379e-07</v>
+        <v>3.354111733022691e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>1.801604495609999e-07</v>
+        <v>4.760620647450115e-07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.72106013183327e-08</v>
+        <v>2.360422276304064e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>4.98860012541503e-08</v>
+        <v>3.071121453763774e-07</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.717769786997337e-08</v>
+        <v>8.89797722170016e-08</v>
       </c>
       <c r="C37" t="n">
-        <v>8.293600268365986e-08</v>
+        <v>7.584859753099003e-08</v>
       </c>
     </row>
     <row r="38">
@@ -7531,49 +7531,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.327563101786836e-09</v>
+        <v>5.389956108103888e-08</v>
       </c>
       <c r="C38" t="n">
-        <v>1.625834223464495e-07</v>
+        <v>2.47487696179071e-07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-5.82639706925292e-08</v>
+        <v>-1.123744581832398e-08</v>
       </c>
       <c r="C39" t="n">
-        <v>9.492753843015421e-07</v>
+        <v>1.633783627934654e-07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-6.542325987624054e-08</v>
+        <v>-7.392409000495092e-08</v>
       </c>
       <c r="C40" t="n">
-        <v>3.786715817686182e-08</v>
+        <v>5.404900724742323e-08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.020565816745034e-07</v>
+        <v>-1.094548590874211e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>5.0890911096161e-08</v>
+        <v>6.732472722454403e-08</v>
       </c>
     </row>
     <row r="42">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-4.264082826832549e-07</v>
+        <v>-3.348729659791161e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>7.526143670748506e-07</v>
+        <v>7.169778570669909e-07</v>
       </c>
     </row>
   </sheetData>
@@ -7632,10 +7632,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4153276907501526</v>
+        <v>0.4630444240801329</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04484066942409231</v>
+        <v>0.05976483191050535</v>
       </c>
     </row>
     <row r="3">
@@ -7645,10 +7645,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04034009603909996</v>
+        <v>0.04303028701769509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003153795596916323</v>
+        <v>0.005782843160898923</v>
       </c>
     </row>
     <row r="4">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02808830984194521</v>
+        <v>0.03372408438299675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003938134693168815</v>
+        <v>0.005852268438609949</v>
       </c>
     </row>
     <row r="5">
@@ -7671,62 +7671,62 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02747268529618987</v>
+        <v>0.02558804537019073</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00288090926396848</v>
+        <v>0.003856991346805293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01696241029226224</v>
+        <v>0.01793873771053362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00368996418375869</v>
+        <v>0.004406274736050123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01338758077655611</v>
+        <v>0.01396467134785126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001025267173518327</v>
+        <v>0.001385341695521993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01165434732803545</v>
+        <v>0.01290127305029654</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004518804774431138</v>
+        <v>0.001636862005432802</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01141626550630583</v>
+        <v>0.01101832118829518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006543011228889071</v>
+        <v>0.002672366565965026</v>
       </c>
     </row>
     <row r="10">
@@ -7736,23 +7736,23 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007772139592186367</v>
+        <v>0.007006214385934695</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001265269217605175</v>
+        <v>0.0004054082077048937</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007577619609856989</v>
+        <v>0.006627079662496049</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001322819774639484</v>
+        <v>0.00078340562121406</v>
       </c>
     </row>
     <row r="12">
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002574677392984248</v>
+        <v>0.002892816709453916</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004879685504239267</v>
+        <v>0.001328302502985555</v>
       </c>
     </row>
     <row r="13">
@@ -7775,276 +7775,276 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002509880719442759</v>
+        <v>0.002490067871875312</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003401932372328156</v>
+        <v>0.000943351464751621</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002232963674204669</v>
+        <v>0.00245272841879185</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001516327733617965</v>
+        <v>0.0002469898224439746</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001679970384221119</v>
+        <v>0.002229139930869462</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001877109389451725</v>
+        <v>0.0007845613582941087</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0009486072839239634</v>
+        <v>0.001847131153336057</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002937707302043947</v>
+        <v>0.00047671345134681</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0005472640933981588</v>
+        <v>0.0008504833994293026</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002210793077202855</v>
+        <v>0.0001977382683879249</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0004841754188755321</v>
+        <v>0.0006175164781582643</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0003567933498316575</v>
+        <v>0.0001285092246050449</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0003552441657919125</v>
+        <v>0.0005017560767347051</v>
       </c>
       <c r="C19" t="n">
-        <v>8.055545852363179e-05</v>
+        <v>8.032756762278877e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0002988055903549336</v>
+        <v>0.0004544293632733565</v>
       </c>
       <c r="C20" t="n">
-        <v>6.53442418625486e-05</v>
+        <v>0.0001629502131207083</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0002729135507252512</v>
+        <v>0.0002795268115100446</v>
       </c>
       <c r="C21" t="n">
-        <v>8.827888015955282e-05</v>
+        <v>8.23292793871535e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0002121519358456281</v>
+        <v>0.0001728364443664976</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001079498079523856</v>
+        <v>3.546820533526471e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0001946577862682153</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0001138152578048142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.000181894920226644</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>6.670918360326244e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0001487903596986362</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>9.33830323517773e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0001158175660771699</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>2.15759497259212e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0001087019415768831</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>5.509201950840279e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.32892784296013e-05</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.251608688305907e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.240586458323815e-05</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.825080930027808e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.119128201134359e-05</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.821986664315911e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.919727702947906e-05</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.2161091649753e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.031367959072107e-05</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2.406230178370536e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.482371698155905e-05</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>4.434637029196423e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -8057,7 +8057,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -8070,7 +8070,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -8083,7 +8083,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -8096,7 +8096,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -8109,7 +8109,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -8122,7 +8122,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -8135,7 +8135,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -8148,14 +8148,14 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>-8.284244446743472e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.0001747511454290598</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_feature_info.xlsx
+++ b/examples/eCommerce_feature_info.xlsx
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003829409832172281</v>
+        <v>0.0003771807828700791</v>
       </c>
       <c r="C2" t="n">
-        <v>3.256050300109005e-05</v>
+        <v>3.682804076331444e-05</v>
       </c>
     </row>
     <row r="3">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001938047465768644</v>
+        <v>0.0001703473785191534</v>
       </c>
       <c r="C3" t="n">
-        <v>4.318950053848526e-05</v>
+        <v>3.166551501907436e-05</v>
       </c>
     </row>
     <row r="4">
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.062199220600028e-05</v>
+        <v>6.546393603565904e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>4.13067729945404e-06</v>
+        <v>7.247795928069602e-06</v>
       </c>
     </row>
     <row r="5">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.588304469836935e-05</v>
+        <v>4.279427710227601e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>6.369797165535688e-06</v>
+        <v>4.695711206478704e-06</v>
       </c>
     </row>
     <row r="6">
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.469458914093671e-05</v>
+        <v>4.126352737801042e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>9.950718000240815e-06</v>
+        <v>4.938531984910303e-06</v>
       </c>
     </row>
     <row r="7">
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.640247342011627e-05</v>
+        <v>3.883975195817513e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>4.852920650857823e-06</v>
+        <v>7.275866983611255e-06</v>
       </c>
     </row>
     <row r="8">
@@ -798,62 +798,62 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.425581743319306e-05</v>
+        <v>3.531469876718596e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>6.316580560790061e-06</v>
+        <v>3.86233396116825e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.127456297400521e-05</v>
+        <v>2.345281713762582e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>7.094917375189835e-06</v>
+        <v>2.425404671178268e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.863434667432884e-05</v>
+        <v>1.786156585881216e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>5.641821630366353e-06</v>
+        <v>2.074817817170286e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.19954270054734e-05</v>
+        <v>1.720051926601407e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>2.134563177573462e-06</v>
+        <v>3.061956334408252e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.02704346022886e-05</v>
+        <v>1.089339417088553e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>1.580426945970617e-06</v>
+        <v>1.676238256142294e-06</v>
       </c>
     </row>
     <row r="13">
@@ -863,62 +863,62 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.276545711633943e-06</v>
+        <v>9.561063038576734e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>1.641368955859918e-06</v>
+        <v>1.013185095398634e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.756848159212737e-06</v>
+        <v>8.410393789937132e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>1.879683995821835e-06</v>
+        <v>1.668612366981148e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.656721923821053e-06</v>
+        <v>7.505415614206257e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>4.410424530806781e-06</v>
+        <v>1.466487099289674e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.192475438166923e-06</v>
+        <v>6.197966102794439e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>9.359780056572442e-07</v>
+        <v>9.718554092312473e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.552301872497779e-06</v>
+        <v>5.682126455441861e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>1.559592954021612e-06</v>
+        <v>9.348766765981151e-07</v>
       </c>
     </row>
     <row r="18">
@@ -928,62 +928,62 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.445514697210996e-06</v>
+        <v>4.743960314712581e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1.308565687535386e-06</v>
+        <v>1.40577960222059e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.157225695466948e-06</v>
+        <v>4.575599673461994e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>1.463072033347352e-06</v>
+        <v>1.39947678059074e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.100538205025316e-06</v>
+        <v>4.530198145680231e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>1.354690933145818e-06</v>
+        <v>4.458744842983978e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.031499948713545e-06</v>
+        <v>3.017278035599702e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>4.797460743784862e-06</v>
+        <v>4.60217247747389e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.944398525433044e-06</v>
+        <v>3.003039502535998e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>2.561331174814033e-06</v>
+        <v>3.602584570197462e-06</v>
       </c>
     </row>
     <row r="23">
@@ -993,114 +993,114 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.91409336434134e-06</v>
+        <v>2.99996709891559e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>3.638260255650532e-06</v>
+        <v>2.175930227535403e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.71739962078199e-06</v>
+        <v>2.544938027737587e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>5.494586166432785e-06</v>
+        <v>3.073156795592852e-07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.69569895773769e-06</v>
+        <v>1.738228106740181e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>4.091846236007049e-06</v>
+        <v>4.524357094277754e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.368898641196381e-06</v>
+        <v>1.543017234917343e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>1.347937377285741e-06</v>
+        <v>6.894798560861335e-07</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.352257835575472e-07</v>
+        <v>1.483215064723709e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>2.760538106860312e-07</v>
+        <v>1.779093577702218e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.487534180532606e-07</v>
+        <v>6.482472242108628e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>1.563778040663221e-06</v>
+        <v>6.07394712494764e-07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.865898899364396e-07</v>
+        <v>2.682037404166948e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>8.667065263017038e-07</v>
+        <v>8.955402091562886e-07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.4206840206229e-07</v>
+        <v>2.320840789771239e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>4.699694620436049e-06</v>
+        <v>9.076133372214729e-07</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.057639417798242e-07</v>
+        <v>1.919758739088451e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>3.82617428722892e-07</v>
+        <v>2.06758767667005e-07</v>
       </c>
     </row>
     <row r="32">
@@ -1110,140 +1110,140 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.226708015611422e-07</v>
+        <v>1.53704628136353e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>3.844377805456814e-07</v>
+        <v>3.429907555551192e-07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.130466858600415e-08</v>
+        <v>1.344025116534198e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>1.598271377013977e-07</v>
+        <v>1.20361118906981e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.623215033497161e-08</v>
+        <v>1.09604430953425e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>9.004887509168762e-09</v>
+        <v>6.244640252864141e-08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.861332155073114e-08</v>
+        <v>9.706563681710634e-08</v>
       </c>
       <c r="C35" t="n">
-        <v>1.637053706411976e-07</v>
+        <v>3.13922280002198e-07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-8.348346951514429e-08</v>
+        <v>9.304017769551365e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>1.065776309611644e-07</v>
+        <v>5.538377503202126e-07</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.449112840390398e-07</v>
+        <v>-2.651953892041092e-08</v>
       </c>
       <c r="C37" t="n">
-        <v>5.568173516797894e-06</v>
+        <v>8.4291389005811e-09</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.450372071776229e-07</v>
+        <v>-1.481708551409611e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>1.27890845996865e-07</v>
+        <v>4.992938022535667e-06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-3.361336829765804e-07</v>
+        <v>-1.72021030175884e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>1.018349666977242e-06</v>
+        <v>6.821017978418544e-07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-3.929722235174182e-07</v>
+        <v>-1.966363162964058e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>1.151676436210873e-06</v>
+        <v>9.978643782219872e-07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-7.784161365265163e-07</v>
+        <v>-2.591528801776377e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>4.504454531187553e-07</v>
+        <v>4.117540865844446e-06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1.236760218503718e-06</v>
+        <v>-7.28819677675574e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>3.231234075612618e-06</v>
+        <v>3.330285885997559e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1285,27 +1285,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2707353970571407</v>
+        <v>0.2851887151648272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02831128650480155</v>
+        <v>0.02193294723237228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2672584048452378</v>
+        <v>0.2715848779861472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03269212584027816</v>
+        <v>0.02575373588682025</v>
       </c>
     </row>
     <row r="4">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06483507366769567</v>
+        <v>0.06089667192585899</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004215756165493034</v>
+        <v>0.003798438594687086</v>
       </c>
     </row>
     <row r="5">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05244947709354431</v>
+        <v>0.0520393161428296</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007546793096778212</v>
+        <v>0.002379507410713513</v>
       </c>
     </row>
     <row r="6">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04907602025273648</v>
+        <v>0.04967171261361061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00455652275926748</v>
+        <v>0.002010691461200901</v>
       </c>
     </row>
     <row r="7">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02700743841700115</v>
+        <v>0.02929026637588326</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002261937269880595</v>
+        <v>0.002870075613538173</v>
       </c>
     </row>
     <row r="8">
@@ -1367,49 +1367,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02393456863840921</v>
+        <v>0.02336655228272855</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001639724907850482</v>
+        <v>0.00160538999646419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02239819585441929</v>
+        <v>0.02083567924553462</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001484996380227151</v>
+        <v>0.001136516997013416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02110707952562665</v>
+        <v>0.02083388176956389</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000676200459715405</v>
+        <v>0.00150161309746535</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0209429417306088</v>
+        <v>0.01983574841311808</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002001602930083603</v>
+        <v>0.002985145905811838</v>
       </c>
     </row>
     <row r="12">
@@ -1419,62 +1419,62 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01840950062726374</v>
+        <v>0.01982660654880992</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002089957574664531</v>
+        <v>0.001456887540603447</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01811977414543722</v>
+        <v>0.01929996144841153</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00238719467660983</v>
+        <v>0.001159969108907829</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01757505478770855</v>
+        <v>0.01877377153493445</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002208546492008167</v>
+        <v>0.001955822476858144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01378457874972228</v>
+        <v>0.01390851533854813</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001473311981271627</v>
+        <v>0.00138683966604318</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01328019931517164</v>
+        <v>0.01282576003869884</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0009765638858169248</v>
+        <v>0.001171225242645582</v>
       </c>
     </row>
     <row r="17">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01305578016003526</v>
+        <v>0.01245895395770769</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002239564242739095</v>
+        <v>0.001526203230106156</v>
       </c>
     </row>
     <row r="18">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01210631040284149</v>
+        <v>0.01150657499809429</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0007606219657456661</v>
+        <v>0.001176646773840822</v>
       </c>
     </row>
     <row r="19">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01012501030571888</v>
+        <v>0.01090280020246119</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001148238492722489</v>
+        <v>0.001026060118788106</v>
       </c>
     </row>
     <row r="20">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.009843445216388691</v>
+        <v>0.00999200474444939</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006189044244829174</v>
+        <v>0.0008489760254823532</v>
       </c>
     </row>
     <row r="21">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.009136541901911422</v>
+        <v>0.009104510055883797</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005293628460840193</v>
+        <v>0.0002608399156245306</v>
       </c>
     </row>
     <row r="22">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.008115788461296458</v>
+        <v>0.008990125107653157</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002145323416607102</v>
+        <v>0.0006014875538484036</v>
       </c>
     </row>
     <row r="23">
@@ -1562,49 +1562,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.006904312388871991</v>
+        <v>0.006505197442030086</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004599507543746666</v>
+        <v>0.0004426544030999466</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.005857902817808802</v>
+        <v>0.005946426171551722</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001300960650831487</v>
+        <v>0.0004177014298581346</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.005556064462066601</v>
+        <v>0.005800830161167747</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0003049382207812467</v>
+        <v>0.0005565505785601899</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005546167732184459</v>
+        <v>0.005448045855319927</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0004089560265028904</v>
+        <v>0.0006929313672835677</v>
       </c>
     </row>
     <row r="27">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004674680320630009</v>
+        <v>0.004781968767043265</v>
       </c>
       <c r="C27" t="n">
-        <v>0.000687323805419804</v>
+        <v>0.0007822077836450873</v>
       </c>
     </row>
     <row r="28">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.004665549085862674</v>
+        <v>0.004392717916784372</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0003169212501592498</v>
+        <v>0.0005323265485658369</v>
       </c>
     </row>
     <row r="29">
@@ -1640,36 +1640,36 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.004056274694873729</v>
+        <v>0.00374954965380645</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003925564193663173</v>
+        <v>0.0003042856666175914</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003772938814248783</v>
+        <v>0.003715965127451115</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001900509055778769</v>
+        <v>0.0002745672929843013</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003529924299712417</v>
+        <v>0.003392988246952866</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0002156180330994196</v>
+        <v>0.0001471257743583123</v>
       </c>
     </row>
     <row r="32">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002063125013588407</v>
+        <v>0.002132741620050194</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001639824680767891</v>
+        <v>0.0001642173443596256</v>
       </c>
     </row>
     <row r="33">
@@ -1692,36 +1692,36 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.00198506783919119</v>
+        <v>0.001866972880338036</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001056027255765994</v>
+        <v>0.0001264190611216234</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001430944882565988</v>
+        <v>0.001521819541413616</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0004436696483072123</v>
+        <v>0.0002205855263327469</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001380552844129057</v>
+        <v>0.00141835401024164</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0003733944137639445</v>
+        <v>0.0003067097062685852</v>
       </c>
     </row>
     <row r="36">
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0002425516639757319</v>
+        <v>0.0002354287777504682</v>
       </c>
       <c r="C36" t="n">
-        <v>3.619909149182873e-05</v>
+        <v>1.95506641511229e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0001286466736811764</v>
+        <v>0.0001125148478358318</v>
       </c>
       <c r="C37" t="n">
-        <v>7.670051899746009e-06</v>
+        <v>1.494609777668097e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.32036448186679e-05</v>
+        <v>3.118310340497476e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1.642579798614925e-05</v>
+        <v>1.659991716415611e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1779,7 +1779,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1792,7 +1792,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1876,7 +1876,7 @@
         <v>16221.8185550413</v>
       </c>
       <c r="C2" t="n">
-        <v>914.1092555515601</v>
+        <v>959.9322357864957</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[14715.736276547295, 18229.34386979109]</t>
+          <t>[14543.684127975033, 18227.554793968244]</t>
         </is>
       </c>
     </row>
@@ -1902,10 +1902,10 @@
         <v>8.946762636263411</v>
       </c>
       <c r="C3" t="n">
-        <v>470.3997135272928</v>
+        <v>458.8106581179902</v>
       </c>
       <c r="D3" t="n">
-        <v>0.954</v>
+        <v>0.988</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-983.6565708670738, 889.4820558733538]</t>
+          <t>[-993.9141012396951, 866.3317786304829]</t>
         </is>
       </c>
     </row>
@@ -1928,10 +1928,10 @@
         <v>-47.78871456276676</v>
       </c>
       <c r="C4" t="n">
-        <v>460.9352903092391</v>
+        <v>443.2461765626754</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.924</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-953.4941900291528, 812.7001037637502]</t>
+          <t>[-950.0757228059797, 722.639231572965]</t>
         </is>
       </c>
     </row>
@@ -1954,10 +1954,10 @@
         <v>-315.6619011528302</v>
       </c>
       <c r="C5" t="n">
-        <v>507.4189158823394</v>
+        <v>500.1258505394748</v>
       </c>
       <c r="D5" t="n">
-        <v>0.45</v>
+        <v>0.478</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1267.69496875295, 737.2381746900346]</t>
+          <t>[-1323.3539036813718, 568.8057341691392]</t>
         </is>
       </c>
     </row>
@@ -1980,10 +1980,10 @@
         <v>-250.2636421924595</v>
       </c>
       <c r="C6" t="n">
-        <v>545.6921196952915</v>
+        <v>571.2289907073067</v>
       </c>
       <c r="D6" t="n">
-        <v>0.644</v>
+        <v>0.662</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-1409.2418614473872, 707.1387616999302]</t>
+          <t>[-1449.9226759090557, 754.2995779917334]</t>
         </is>
       </c>
     </row>
@@ -2006,10 +2006,10 @@
         <v>-696.8021189793758</v>
       </c>
       <c r="C7" t="n">
-        <v>598.9392578609674</v>
+        <v>621.9706544696679</v>
       </c>
       <c r="D7" t="n">
-        <v>0.218</v>
+        <v>0.25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-1951.2950407326498, 318.1726676992497]</t>
+          <t>[-1945.3722870012912, 362.1187554936341]</t>
         </is>
       </c>
     </row>
@@ -2162,10 +2162,10 @@
         <v>-1640.323309340931</v>
       </c>
       <c r="C13" t="n">
-        <v>1353.778193927374</v>
+        <v>1307.085583571712</v>
       </c>
       <c r="D13" t="n">
-        <v>0.126</v>
+        <v>0.124</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-4343.497294287628, 0.0]</t>
+          <t>[-4305.033813799417, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2188,10 +2188,10 @@
         <v>373.6381334363077</v>
       </c>
       <c r="C14" t="n">
-        <v>383.8832761827423</v>
+        <v>354.9082873743712</v>
       </c>
       <c r="D14" t="n">
-        <v>0.172</v>
+        <v>0.16</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-22.889414275599773, 1248.4740362791604]</t>
+          <t>[-60.095544548787345, 1182.4912595293251]</t>
         </is>
       </c>
     </row>
@@ -2214,10 +2214,10 @@
         <v>294.4642088139133</v>
       </c>
       <c r="C15" t="n">
-        <v>366.9939963885324</v>
+        <v>323.8371656461999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.248</v>
+        <v>0.2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-127.88621018584875, 1168.5681384027457]</t>
+          <t>[-93.25864924433141, 1033.1145534884415]</t>
         </is>
       </c>
     </row>
@@ -2240,10 +2240,10 @@
         <v>142.9260460884154</v>
       </c>
       <c r="C16" t="n">
-        <v>273.5728803226015</v>
+        <v>253.5360822778393</v>
       </c>
       <c r="D16" t="n">
-        <v>0.37</v>
+        <v>0.352</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-286.60249642590645, 764.430621455661]</t>
+          <t>[-348.234675819356, 783.2446586899994]</t>
         </is>
       </c>
     </row>
@@ -2266,10 +2266,10 @@
         <v>-406.6719843282598</v>
       </c>
       <c r="C17" t="n">
-        <v>376.8715219267018</v>
+        <v>419.3208288079402</v>
       </c>
       <c r="D17" t="n">
-        <v>0.14</v>
+        <v>0.176</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[-1219.9174160369053, 0.0]</t>
+          <t>[-1392.6855869299675, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2292,10 +2292,10 @@
         <v>-874.612146993946</v>
       </c>
       <c r="C18" t="n">
-        <v>1275.748770548536</v>
+        <v>1327.515610160457</v>
       </c>
       <c r="D18" t="n">
-        <v>0.46</v>
+        <v>0.476</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-3733.4001588457977, 1166.7028162398547]</t>
+          <t>[-3861.2442872802144, 1384.4302946630726]</t>
         </is>
       </c>
     </row>
@@ -2318,10 +2318,10 @@
         <v>-1735.853053061536</v>
       </c>
       <c r="C19" t="n">
-        <v>1025.720846707781</v>
+        <v>977.6298065508504</v>
       </c>
       <c r="D19" t="n">
-        <v>0.048</v>
+        <v>0.044</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-3682.7457331411365, 0.0]</t>
+          <t>[-3497.8117344284583, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2344,10 +2344,10 @@
         <v>-501.520120757929</v>
       </c>
       <c r="C20" t="n">
-        <v>384.6955677464519</v>
+        <v>413.5035841604173</v>
       </c>
       <c r="D20" t="n">
-        <v>0.12</v>
+        <v>0.144</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-1397.0055902781405, 37.30793676095948]</t>
+          <t>[-1342.4051835951077, 45.729824656624466]</t>
         </is>
       </c>
     </row>
@@ -2370,10 +2370,10 @@
         <v>-1235.619124447749</v>
       </c>
       <c r="C21" t="n">
-        <v>1327.781374536406</v>
+        <v>1320.996798807344</v>
       </c>
       <c r="D21" t="n">
-        <v>0.362</v>
+        <v>0.376</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-3954.3118481052225, 938.9774265634273]</t>
+          <t>[-3800.1505588447303, 864.5589191668064]</t>
         </is>
       </c>
     </row>
@@ -2396,10 +2396,10 @@
         <v>536.551693261755</v>
       </c>
       <c r="C22" t="n">
-        <v>1108.479821623685</v>
+        <v>1138.675583575721</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7</v>
+        <v>0.624</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-1418.8871719876875, 2846.9401637806723]</t>
+          <t>[-1320.4751177037194, 3074.40851391764]</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
         <v>-629.7219649075956</v>
       </c>
       <c r="C23" t="n">
-        <v>606.8230147853164</v>
+        <v>599.003478956171</v>
       </c>
       <c r="D23" t="n">
         <v>0.198</v>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-2101.148610668811, 233.8404448843271]</t>
+          <t>[-2037.7303757378422, 229.48301645333356]</t>
         </is>
       </c>
     </row>
@@ -2448,10 +2448,10 @@
         <v>-89.00930186573336</v>
       </c>
       <c r="C24" t="n">
-        <v>606.7582216747024</v>
+        <v>592.7098626604837</v>
       </c>
       <c r="D24" t="n">
-        <v>0.762</v>
+        <v>0.916</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-1333.3590804536343, 1096.974037958876]</t>
+          <t>[-1480.9597781524956, 989.7192913547693]</t>
         </is>
       </c>
     </row>
@@ -2474,10 +2474,10 @@
         <v>-1475.603930397075</v>
       </c>
       <c r="C25" t="n">
-        <v>1003.297826562383</v>
+        <v>979.2148394797974</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-3434.6483746198255, 0.0]</t>
+          <t>[-3388.255045553683, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2500,10 +2500,10 @@
         <v>-2950.60663351319</v>
       </c>
       <c r="C26" t="n">
-        <v>1644.730214395894</v>
+        <v>1655.566139228066</v>
       </c>
       <c r="D26" t="n">
-        <v>0.038</v>
+        <v>0.044</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-6027.7035477571635, 0.0]</t>
+          <t>[-5928.020249715035, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2526,10 +2526,10 @@
         <v>-850.3643758427934</v>
       </c>
       <c r="C27" t="n">
-        <v>749.4028599642662</v>
+        <v>689.381924492989</v>
       </c>
       <c r="D27" t="n">
-        <v>0.222</v>
+        <v>0.174</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[-2511.106540804428, 290.80790074519064]</t>
+          <t>[-2130.699959650624, 325.5366691848189]</t>
         </is>
       </c>
     </row>
@@ -2552,10 +2552,10 @@
         <v>-1818.979284294032</v>
       </c>
       <c r="C28" t="n">
-        <v>1438.773761735503</v>
+        <v>1504.611752033858</v>
       </c>
       <c r="D28" t="n">
-        <v>0.108</v>
+        <v>0.126</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-4810.402211837721, 0.0]</t>
+          <t>[-4900.780268385848, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2578,10 +2578,10 @@
         <v>-348.5214255079964</v>
       </c>
       <c r="C29" t="n">
-        <v>385.1593012636538</v>
+        <v>389.3216722540889</v>
       </c>
       <c r="D29" t="n">
-        <v>0.158</v>
+        <v>0.168</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[-1440.3974517454826, 0.0]</t>
+          <t>[-1347.3603833973696, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2604,10 +2604,10 @@
         <v>219.6599128058833</v>
       </c>
       <c r="C30" t="n">
-        <v>279.6732685144271</v>
+        <v>273.4591946846642</v>
       </c>
       <c r="D30" t="n">
-        <v>0.266</v>
+        <v>0.244</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[-161.02583577640678, 873.3787423276747]</t>
+          <t>[-135.15606050557645, 791.2227880341653]</t>
         </is>
       </c>
     </row>
@@ -2630,10 +2630,10 @@
         <v>-934.1918871230312</v>
       </c>
       <c r="C31" t="n">
-        <v>754.6330255977209</v>
+        <v>800.8726287625664</v>
       </c>
       <c r="D31" t="n">
-        <v>0.118</v>
+        <v>0.128</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-2539.029437187285, 0.0]</t>
+          <t>[-2638.3561636309205, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2656,10 +2656,10 @@
         <v>-1033.842903886473</v>
       </c>
       <c r="C32" t="n">
-        <v>871.3300949358484</v>
+        <v>813.6019171645155</v>
       </c>
       <c r="D32" t="n">
-        <v>0.138</v>
+        <v>0.118</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-2787.279819878666, 0.0]</t>
+          <t>[-2620.101085293954, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2812,19 +2812,19 @@
         <v>-4367.578280519683</v>
       </c>
       <c r="C38" t="n">
-        <v>1640.043596925526</v>
+        <v>1552.723300670624</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-7282.351263326569, -766.3043355752268]</t>
+          <t>[-7358.652938462597, -1211.7217840508074]</t>
         </is>
       </c>
     </row>
@@ -2838,10 +2838,10 @@
         <v>-439.3598425365299</v>
       </c>
       <c r="C39" t="n">
-        <v>1488.853332629079</v>
+        <v>1404.282826333675</v>
       </c>
       <c r="D39" t="n">
-        <v>0.75</v>
+        <v>0.774</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-3273.3597114576946, 2613.2747007096787]</t>
+          <t>[-3046.4420434848053, 2390.905038515908]</t>
         </is>
       </c>
     </row>
@@ -2864,10 +2864,10 @@
         <v>-895.2605529554834</v>
       </c>
       <c r="C40" t="n">
-        <v>1446.302086587606</v>
+        <v>1311.908297005826</v>
       </c>
       <c r="D40" t="n">
-        <v>0.506</v>
+        <v>0.538</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-3706.2630673010135, 2071.5325074751454]</t>
+          <t>[-3333.136035562293, 1774.6960490312222]</t>
         </is>
       </c>
     </row>
@@ -2890,10 +2890,10 @@
         <v>-307.3915898043502</v>
       </c>
       <c r="C41" t="n">
-        <v>2021.9428141703</v>
+        <v>1875.234275471732</v>
       </c>
       <c r="D41" t="n">
-        <v>0.882</v>
+        <v>0.886</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-4162.297681976592, 3713.5168626283958]</t>
+          <t>[-3804.586173713132, 3574.0972302119726]</t>
         </is>
       </c>
     </row>
@@ -2916,10 +2916,10 @@
         <v>2026.677189091354</v>
       </c>
       <c r="C42" t="n">
-        <v>1482.027167370215</v>
+        <v>1483.021350218142</v>
       </c>
       <c r="D42" t="n">
-        <v>0.16</v>
+        <v>0.162</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-849.8660002414679, 4928.1425188566145]</t>
+          <t>[-841.5967287630356, 4950.011583701349]</t>
         </is>
       </c>
     </row>
@@ -2942,10 +2942,10 @@
         <v>60.56456088347079</v>
       </c>
       <c r="C43" t="n">
-        <v>269.6693033296917</v>
+        <v>267.0600790001101</v>
       </c>
       <c r="D43" t="n">
-        <v>0.89</v>
+        <v>0.904</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-408.9059521494031, 712.0872665448446]</t>
+          <t>[-411.27292282427527, 733.2793691916033]</t>
         </is>
       </c>
     </row>
@@ -2968,10 +2968,10 @@
         <v>2244.141212080592</v>
       </c>
       <c r="C44" t="n">
-        <v>1892.342586662036</v>
+        <v>1850.801045105692</v>
       </c>
       <c r="D44" t="n">
-        <v>0.116</v>
+        <v>0.118</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.0, 6428.326796684301]</t>
+          <t>[0.0, 6079.040220014268]</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
         <v>1249.390373496088</v>
       </c>
       <c r="C45" t="n">
-        <v>1063.494233953339</v>
+        <v>1000.197435446926</v>
       </c>
       <c r="D45" t="n">
         <v>0.13</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[0.0, 3482.7947537884497]</t>
+          <t>[0.0, 3027.2288207817987]</t>
         </is>
       </c>
     </row>
@@ -3020,10 +3020,10 @@
         <v>996.1322062656325</v>
       </c>
       <c r="C46" t="n">
-        <v>892.1290038375346</v>
+        <v>895.1044237657396</v>
       </c>
       <c r="D46" t="n">
-        <v>0.156</v>
+        <v>0.142</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.0, 2836.0358842073465]</t>
+          <t>[0.0, 3041.636423530558]</t>
         </is>
       </c>
     </row>
@@ -3046,10 +3046,10 @@
         <v>-256.6497011872469</v>
       </c>
       <c r="C47" t="n">
-        <v>272.3920420452332</v>
+        <v>286.0870902149913</v>
       </c>
       <c r="D47" t="n">
-        <v>0.198</v>
+        <v>0.182</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[-891.8375257092564, 107.39737093971743]</t>
+          <t>[-912.1380740926472, 0.0]</t>
         </is>
       </c>
     </row>
@@ -3072,10 +3072,10 @@
         <v>998.6771979587326</v>
       </c>
       <c r="C48" t="n">
-        <v>905.8855160033577</v>
+        <v>844.4628702127711</v>
       </c>
       <c r="D48" t="n">
-        <v>0.12</v>
+        <v>0.126</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[0.0, 3084.7758125223727]</t>
+          <t>[0.0, 2782.7097170953284]</t>
         </is>
       </c>
     </row>
@@ -3098,10 +3098,10 @@
         <v>905.8753165930859</v>
       </c>
       <c r="C49" t="n">
-        <v>813.6539228916504</v>
+        <v>791.98202151333</v>
       </c>
       <c r="D49" t="n">
-        <v>0.134</v>
+        <v>0.132</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[0.0, 2694.9100105579982]</t>
+          <t>[0.0, 2641.105057404845]</t>
         </is>
       </c>
     </row>
@@ -3124,10 +3124,10 @@
         <v>1836.891614895217</v>
       </c>
       <c r="C50" t="n">
-        <v>1464.848929637624</v>
+        <v>1444.86730408656</v>
       </c>
       <c r="D50" t="n">
-        <v>0.118</v>
+        <v>0.122</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.0, 4823.975797078765]</t>
+          <t>[0.0, 4386.220557264927]</t>
         </is>
       </c>
     </row>
@@ -3150,7 +3150,7 @@
         <v>-581.8525834395579</v>
       </c>
       <c r="C51" t="n">
-        <v>548.3507828167213</v>
+        <v>548.3563937538278</v>
       </c>
       <c r="D51" t="n">
         <v>0.142</v>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[-1883.072948028153, 0.0]</t>
+          <t>[-1802.4307730872242, 0.0]</t>
         </is>
       </c>
     </row>
@@ -3176,10 +3176,10 @@
         <v>300.9849296563543</v>
       </c>
       <c r="C52" t="n">
-        <v>405.713310830875</v>
+        <v>392.6562161048764</v>
       </c>
       <c r="D52" t="n">
-        <v>0.282</v>
+        <v>0.252</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[-205.18653002010484, 1219.412766579324]</t>
+          <t>[-203.211429483738, 1271.897402085271]</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
         <v>2068.122014804155</v>
       </c>
       <c r="C53" t="n">
-        <v>467.2244970424993</v>
+        <v>484.7203135944154</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[1143.5323890159366, 2924.418857238983]</t>
+          <t>[1207.5930266230803, 3041.370965015872]</t>
         </is>
       </c>
     </row>
@@ -3228,19 +3228,19 @@
         <v>503.4838950168074</v>
       </c>
       <c r="C54" t="n">
-        <v>249.3728037719685</v>
+        <v>245.8241050395981</v>
       </c>
       <c r="D54" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[8.936964036842141, 1001.3154099433866]</t>
+          <t>[32.41293239896568, 993.6845270007406]</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
         <v>1506.345327360888</v>
       </c>
       <c r="C55" t="n">
-        <v>266.8809242829785</v>
+        <v>274.4662557773556</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[1011.6971225543648, 2045.2409991184095]</t>
+          <t>[986.9392544989599, 2036.6409826800618]</t>
         </is>
       </c>
     </row>
@@ -3280,10 +3280,10 @@
         <v>2.556404175517645</v>
       </c>
       <c r="C56" t="n">
-        <v>267.7507001836378</v>
+        <v>257.8498565010957</v>
       </c>
       <c r="D56" t="n">
-        <v>0.992</v>
+        <v>0.994</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-487.44063306416706, 559.824327371123]</t>
+          <t>[-489.42204817183375, 489.4132116636788]</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
         <v>-4088.089096803415</v>
       </c>
       <c r="C57" t="n">
-        <v>190.7099210817235</v>
+        <v>190.0613942246745</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[-4455.061837221561, -3712.673957309317]</t>
+          <t>[-4478.943970874896, -3720.585864068493]</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
         <v>-1921.470618609711</v>
       </c>
       <c r="C58" t="n">
-        <v>231.3924747034179</v>
+        <v>237.9146674190214</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[-2390.793065032065, -1467.5181881842723]</t>
+          <t>[-2374.564428769884, -1482.1373213778124]</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3358,7 @@
         <v>18424.3578230766</v>
       </c>
       <c r="C59" t="n">
-        <v>2067.008690625056</v>
+        <v>2076.767901589799</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[13862.330787379564, 22190.32263926378]</t>
+          <t>[13982.672640212128, 21928.899737392392]</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
         <v>-4210.103325095953</v>
       </c>
       <c r="C60" t="n">
-        <v>897.2355380571523</v>
+        <v>865.8246616675974</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[-5721.533159602085, -2332.7334138273927]</t>
+          <t>[-5646.892742440194, -2371.5387681975344]</t>
         </is>
       </c>
     </row>
@@ -3410,10 +3410,10 @@
         <v>993.5760858757008</v>
       </c>
       <c r="C61" t="n">
-        <v>2238.583211223338</v>
+        <v>2383.192656203538</v>
       </c>
       <c r="D61" t="n">
-        <v>0.68</v>
+        <v>0.698</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-3869.9796106928898, 5157.370485209165]</t>
+          <t>[-3271.451841281789, 5560.53216661602]</t>
         </is>
       </c>
     </row>
@@ -3436,19 +3436,19 @@
         <v>3742.277256647134</v>
       </c>
       <c r="C62" t="n">
-        <v>1397.880732556273</v>
+        <v>1350.55024197351</v>
       </c>
       <c r="D62" t="n">
-        <v>0.014</v>
+        <v>0.002</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[909.3417862201122, 6261.320059928663]</t>
+          <t>[1097.6273151555247, 6083.250275896886]</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
         <v>4653.999844972506</v>
       </c>
       <c r="C63" t="n">
-        <v>1425.670451592227</v>
+        <v>1468.393464068525</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[1677.595479743004, 7567.558433918852]</t>
+          <t>[1769.5492669598425, 7403.827721123973]</t>
         </is>
       </c>
     </row>
@@ -3488,19 +3488,19 @@
         <v>3995.428620587048</v>
       </c>
       <c r="C64" t="n">
-        <v>2188.140005370075</v>
+        <v>2063.855851682181</v>
       </c>
       <c r="D64" t="n">
-        <v>0.062</v>
+        <v>0.046</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[257.06864477775184, 8849.866023354603]</t>
+          <t>[127.08499569133747, 8201.110690136838]</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         <v>-4637.820067500492</v>
       </c>
       <c r="C65" t="n">
-        <v>550.6010108727376</v>
+        <v>560.9698322214123</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[-5500.6040727546915, -3368.60984518408]</t>
+          <t>[-5548.001809629126, -3417.195392738684]</t>
         </is>
       </c>
     </row>
@@ -3540,10 +3540,10 @@
         <v>427.7167424045368</v>
       </c>
       <c r="C66" t="n">
-        <v>741.3566596928598</v>
+        <v>716.1233117600359</v>
       </c>
       <c r="D66" t="n">
-        <v>0.552</v>
+        <v>0.57</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[-1002.6646361785981, 1827.1680704572793]</t>
+          <t>[-949.542601199329, 1680.8812649932688]</t>
         </is>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
         <v>8248.111354406359</v>
       </c>
       <c r="C67" t="n">
-        <v>637.9270091163897</v>
+        <v>664.1423065737429</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[7018.678174420807, 9437.431331791375]</t>
+          <t>[7071.552064956126, 9620.098943924455]</t>
         </is>
       </c>
     </row>
@@ -3592,19 +3592,19 @@
         <v>1458.663936539087</v>
       </c>
       <c r="C68" t="n">
-        <v>884.3074761237521</v>
+        <v>854.5197970781444</v>
       </c>
       <c r="D68" t="n">
-        <v>0.116</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[-328.2663146627162, 3196.234749487262]</t>
+          <t>[-177.38739817836017, 3007.711232392261]</t>
         </is>
       </c>
     </row>
@@ -3618,10 +3618,10 @@
         <v>721.6468352949161</v>
       </c>
       <c r="C69" t="n">
-        <v>728.6844563697537</v>
+        <v>751.677564043507</v>
       </c>
       <c r="D69" t="n">
-        <v>0.336</v>
+        <v>0.346</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-695.1320555337967, 2087.402566990598]</t>
+          <t>[-730.3248369698714, 2217.7179399952247]</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
         <v>6066.821600559238</v>
       </c>
       <c r="C70" t="n">
-        <v>720.484781351438</v>
+        <v>702.9746558313033</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[4769.598563349068, 7540.659262007564]</t>
+          <t>[4716.042282251214, 7368.813016955577]</t>
         </is>
       </c>
     </row>
@@ -3670,10 +3670,10 @@
         <v>-392.731154470252</v>
       </c>
       <c r="C71" t="n">
-        <v>322.0828244515354</v>
+        <v>327.9601337276532</v>
       </c>
       <c r="D71" t="n">
-        <v>0.23</v>
+        <v>0.222</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[-1027.4015407793795, 240.05062553769784]</t>
+          <t>[-992.8910884915049, 258.01946290111846]</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
         <v>-773.803277903365</v>
       </c>
       <c r="C72" t="n">
-        <v>503.9325148912311</v>
+        <v>510.4505480426103</v>
       </c>
       <c r="D72" t="n">
         <v>0.124</v>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-1739.6227288215878, 273.5481924993258]</t>
+          <t>[-1727.8209511065093, 254.29420902760364]</t>
         </is>
       </c>
     </row>
@@ -3722,10 +3722,10 @@
         <v>392.7311544702866</v>
       </c>
       <c r="C73" t="n">
-        <v>322.0828244515353</v>
+        <v>327.960133727654</v>
       </c>
       <c r="D73" t="n">
-        <v>0.23</v>
+        <v>0.222</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-240.0506255377353, 1027.4015407793167]</t>
+          <t>[-258.0194629011003, 992.8910884915324]</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
         <v>-773.803277903345</v>
       </c>
       <c r="C74" t="n">
-        <v>503.9325148912279</v>
+        <v>510.450548042611</v>
       </c>
       <c r="D74" t="n">
         <v>0.124</v>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-1739.6227288215482, 273.54819249933576]</t>
+          <t>[-1727.8209511065415, 254.29420902759477]</t>
         </is>
       </c>
     </row>
@@ -3774,10 +3774,10 @@
         <v>-824.5650292138297</v>
       </c>
       <c r="C75" t="n">
-        <v>962.7120960195138</v>
+        <v>975.8807919981593</v>
       </c>
       <c r="D75" t="n">
-        <v>0.396</v>
+        <v>0.422</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-2798.978388944698, 949.7095172725626]</t>
+          <t>[-2617.3911884791246, 1007.0547266128367]</t>
         </is>
       </c>
     </row>
@@ -3800,10 +3800,10 @@
         <v>-48.22460325019548</v>
       </c>
       <c r="C76" t="n">
-        <v>861.597413466237</v>
+        <v>915.1155905948343</v>
       </c>
       <c r="D76" t="n">
-        <v>0.946</v>
+        <v>0.958</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-1707.763368756408, 1669.94286177974]</t>
+          <t>[-1833.7561269136613, 1553.8846632042537]</t>
         </is>
       </c>
     </row>
@@ -3826,10 +3826,10 @@
         <v>-450.3057032043181</v>
       </c>
       <c r="C77" t="n">
-        <v>944.6248801109627</v>
+        <v>926.0583060517381</v>
       </c>
       <c r="D77" t="n">
-        <v>0.626</v>
+        <v>0.624</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-2252.7279421291832, 1399.9622604914614]</t>
+          <t>[-2236.3477043844664, 1467.4920367587026]</t>
         </is>
       </c>
     </row>
@@ -3852,10 +3852,10 @@
         <v>253.90699800839</v>
       </c>
       <c r="C78" t="n">
-        <v>1018.962534015002</v>
+        <v>959.9870017544713</v>
       </c>
       <c r="D78" t="n">
-        <v>0.786</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-1785.088370829439, 2122.270075899487]</t>
+          <t>[-1670.6673415298483, 2000.318357287631]</t>
         </is>
       </c>
     </row>
@@ -3878,19 +3878,19 @@
         <v>1986.601183219399</v>
       </c>
       <c r="C79" t="n">
-        <v>982.5332392527245</v>
+        <v>1035.237382361701</v>
       </c>
       <c r="D79" t="n">
-        <v>0.038</v>
+        <v>0.052</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[-10.184509000898823, 3794.6806184116886]</t>
+          <t>[-105.6186193418269, 3858.3488027980293]</t>
         </is>
       </c>
     </row>
@@ -3904,10 +3904,10 @@
         <v>-901.3586217426471</v>
       </c>
       <c r="C80" t="n">
-        <v>923.3429414453914</v>
+        <v>898.9521096445893</v>
       </c>
       <c r="D80" t="n">
-        <v>0.292</v>
+        <v>0.318</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-2671.214439721119, 887.4747019192748]</t>
+          <t>[-2800.578907488024, 686.5765751723949]</t>
         </is>
       </c>
     </row>
@@ -3930,10 +3930,10 @@
         <v>-502.2295697085127</v>
       </c>
       <c r="C81" t="n">
-        <v>863.9140029061979</v>
+        <v>848.2949267958656</v>
       </c>
       <c r="D81" t="n">
-        <v>0.58</v>
+        <v>0.572</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-2134.2546091818363, 1224.0033206809048]</t>
+          <t>[-2280.817549856956, 1057.8753658680178]</t>
         </is>
       </c>
     </row>
@@ -3956,10 +3956,10 @@
         <v>926.7198973539264</v>
       </c>
       <c r="C82" t="n">
-        <v>983.8036406612283</v>
+        <v>1000.590222271633</v>
       </c>
       <c r="D82" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-959.3647415166645, 3024.346060010488]</t>
+          <t>[-1067.2074956317997, 2905.672069647502]</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
         <v>-688.7103802012941</v>
       </c>
       <c r="C83" t="n">
-        <v>970.6201828813352</v>
+        <v>943.6446950794829</v>
       </c>
       <c r="D83" t="n">
         <v>0.508</v>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-2518.403240626555, 1310.043142715242]</t>
+          <t>[-2545.7677128843807, 1049.722051134844]</t>
         </is>
       </c>
     </row>
@@ -4008,10 +4008,10 @@
         <v>897.5764531995118</v>
       </c>
       <c r="C84" t="n">
-        <v>1006.228900505181</v>
+        <v>977.6705983337347</v>
       </c>
       <c r="D84" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-1040.1193546062864, 2878.6837285870356]</t>
+          <t>[-950.929239556762, 2665.0254958888763]</t>
         </is>
       </c>
     </row>
@@ -4218,10 +4218,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.608362802237098</v>
+        <v>1.560581128209852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06475695190635157</v>
+        <v>0.07584242655984413</v>
       </c>
     </row>
     <row r="3">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.3657656587335</v>
+        <v>1.284019036475008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05295120939484177</v>
+        <v>0.08905191056919526</v>
       </c>
     </row>
     <row r="4">
@@ -4244,10 +4244,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9769338157527756</v>
+        <v>1.004365120014417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03867601398108427</v>
+        <v>0.0496220744765566</v>
       </c>
     </row>
     <row r="5">
@@ -4257,10 +4257,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7296932554413001</v>
+        <v>0.7119433242350768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0376938045771727</v>
+        <v>0.047751130523165</v>
       </c>
     </row>
     <row r="6">
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5211736856013747</v>
+        <v>0.538140059549218</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07386079425972369</v>
+        <v>0.04880751859870174</v>
       </c>
     </row>
     <row r="7">
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4891426333718081</v>
+        <v>0.4733550692094631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01063414912099525</v>
+        <v>0.03273085608874238</v>
       </c>
     </row>
     <row r="8">
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4377299080065544</v>
+        <v>0.4571826264431615</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04569616138673671</v>
+        <v>0.05616530959182169</v>
       </c>
     </row>
     <row r="9">
@@ -4309,10 +4309,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3435269289463804</v>
+        <v>0.3567809241542447</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03279131391560973</v>
+        <v>0.0203052500984017</v>
       </c>
     </row>
     <row r="10">
@@ -4322,10 +4322,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2955938752171074</v>
+        <v>0.2768229834073421</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02276064193467316</v>
+        <v>0.0203178086064136</v>
       </c>
     </row>
     <row r="11">
@@ -4335,10 +4335,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2592300289225056</v>
+        <v>0.2423532328211247</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03288084277820712</v>
+        <v>0.02437510127964423</v>
       </c>
     </row>
     <row r="12">
@@ -4348,10 +4348,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2231196853958595</v>
+        <v>0.2261606436718923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02099285359217556</v>
+        <v>0.01259599688825205</v>
       </c>
     </row>
     <row r="13">
@@ -4361,49 +4361,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2227387426047822</v>
+        <v>0.219466243025495</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01199203759349061</v>
+        <v>0.02720892314121051</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2184977362462134</v>
+        <v>0.2008857712103184</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01813030586399225</v>
+        <v>0.02392546978318278</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2046598168537178</v>
+        <v>0.1989029735789151</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01985727398669578</v>
+        <v>0.02491944713904422</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1950302897972376</v>
+        <v>0.1910522481514706</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02189789889664937</v>
+        <v>0.007105379685647045</v>
       </c>
     </row>
     <row r="17">
@@ -4413,10 +4413,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1572028022203779</v>
+        <v>0.1555785396192413</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008722522064516935</v>
+        <v>0.01761907000167964</v>
       </c>
     </row>
     <row r="18">
@@ -4426,36 +4426,36 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1382147327869178</v>
+        <v>0.1369238403016027</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01878322785606968</v>
+        <v>0.01496550906981054</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1169527299024408</v>
+        <v>0.1162999926836587</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01333039327416542</v>
+        <v>0.01219257907471756</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1074520438743139</v>
+        <v>0.1154099823024737</v>
       </c>
       <c r="C20" t="n">
-        <v>0.009061213545318489</v>
+        <v>0.006596560997804194</v>
       </c>
     </row>
     <row r="21">
@@ -4465,23 +4465,23 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1026108377666431</v>
+        <v>0.1126015440548591</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007223315583297832</v>
+        <v>0.005535222255737707</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09677079498457881</v>
+        <v>0.09896880486473944</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01063841338021967</v>
+        <v>0.01185410010434175</v>
       </c>
     </row>
     <row r="23">
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.09503433506631313</v>
+        <v>0.09395993666395761</v>
       </c>
       <c r="C23" t="n">
-        <v>0.008957474736011098</v>
+        <v>0.01105926628813209</v>
       </c>
     </row>
     <row r="24">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.09225699551149844</v>
+        <v>0.08169771693546397</v>
       </c>
       <c r="C24" t="n">
-        <v>0.005085396225096707</v>
+        <v>0.01245478189474112</v>
       </c>
     </row>
     <row r="25">
@@ -4517,36 +4517,36 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0867036895292442</v>
+        <v>0.07762403343615783</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01007688650802899</v>
+        <v>0.01831950706249063</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.08488696792011592</v>
+        <v>0.07391154725957549</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008081068443326551</v>
+        <v>0.01583614296947242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.07711117441583197</v>
+        <v>0.07131187284588847</v>
       </c>
       <c r="C27" t="n">
-        <v>0.008570791297710677</v>
+        <v>0.009557675952076034</v>
       </c>
     </row>
     <row r="28">
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07623083090863832</v>
+        <v>0.07009960166852776</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01053559846808665</v>
+        <v>0.005723338116216238</v>
       </c>
     </row>
     <row r="29">
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.06336405708634577</v>
+        <v>0.0625646259335513</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01292444846200363</v>
+        <v>0.00844987631616163</v>
       </c>
     </row>
     <row r="30">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.05904460652517633</v>
+        <v>0.05956191445971979</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004106427010041845</v>
+        <v>0.004232369856246632</v>
       </c>
     </row>
     <row r="31">
@@ -4595,10 +4595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04460673031187341</v>
+        <v>0.0515724014673544</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0116699535045652</v>
+        <v>0.008525379745601263</v>
       </c>
     </row>
     <row r="32">
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0444364418021808</v>
+        <v>0.04950442875038781</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005678813520936629</v>
+        <v>0.01161383265820387</v>
       </c>
     </row>
     <row r="33">
@@ -4621,10 +4621,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.03994583360876443</v>
+        <v>0.03529670175470316</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01002818879925652</v>
+        <v>0.01073348253691727</v>
       </c>
     </row>
     <row r="34">
@@ -4634,62 +4634,62 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.03767401289623069</v>
+        <v>0.02975487788857112</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006430698973262971</v>
+        <v>0.005735111325359685</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01941684251383045</v>
+        <v>0.02165623101220913</v>
       </c>
       <c r="C35" t="n">
-        <v>0.005410907695305437</v>
+        <v>0.003875296181767678</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01713565496240037</v>
+        <v>0.01909117576243013</v>
       </c>
       <c r="C36" t="n">
-        <v>0.003181385061122646</v>
+        <v>0.0062700980578608</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01673938669085202</v>
+        <v>0.01581543862242922</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002531803056178214</v>
+        <v>0.006242714024895849</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01501992287167446</v>
+        <v>0.0149405742916529</v>
       </c>
       <c r="C38" t="n">
-        <v>0.005201305014024437</v>
+        <v>0.005270782893547835</v>
       </c>
     </row>
     <row r="39">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.004759327468054031</v>
+        <v>0.00368111845998067</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002318013144754458</v>
+        <v>0.002556453805194759</v>
       </c>
     </row>
     <row r="40">
@@ -4712,36 +4712,36 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.004446916900439524</v>
+        <v>0.003538667965560904</v>
       </c>
       <c r="C40" t="n">
-        <v>0.001623168958767269</v>
+        <v>0.0008664333044972632</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0007028337934482431</v>
+        <v>0.001147763121452439</v>
       </c>
       <c r="C41" t="n">
-        <v>0.001605955153255771</v>
+        <v>0.0007903372350063437</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0001469497372242667</v>
+        <v>0.001021437342696774</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0009513421361174712</v>
+        <v>0.001033430868918415</v>
       </c>
     </row>
   </sheetData>
@@ -4787,10 +4787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02857824714946562</v>
+        <v>0.03135733175004043</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003755630512161962</v>
+        <v>0.0017151242180016</v>
       </c>
     </row>
     <row r="3">
@@ -4800,10 +4800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.007006829534333204</v>
+        <v>0.006651405642047492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002223224464898112</v>
+        <v>0.001274424550837181</v>
       </c>
     </row>
     <row r="4">
@@ -4813,10 +4813,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005155505031395613</v>
+        <v>0.005194222718846087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004081508626768481</v>
+        <v>0.0004049744275111532</v>
       </c>
     </row>
     <row r="5">
@@ -4826,10 +4826,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002915862872297903</v>
+        <v>0.003039238094131025</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003744981319269876</v>
+        <v>0.0003327861874241231</v>
       </c>
     </row>
     <row r="6">
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002688871727023878</v>
+        <v>0.002888965338123905</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003849137011268451</v>
+        <v>0.0002194432431095852</v>
       </c>
     </row>
     <row r="7">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002436795201561614</v>
+        <v>0.002254888231627561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002772821039502839</v>
+        <v>0.0002298324777894707</v>
       </c>
     </row>
     <row r="8">
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002383650336810717</v>
+        <v>0.00181212987415762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004500053569603562</v>
+        <v>0.0006128825925736632</v>
       </c>
     </row>
     <row r="9">
@@ -4878,88 +4878,88 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001268927989360358</v>
+        <v>0.001096529987250383</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001497411923890923</v>
+        <v>0.0001774220400133301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001236876636604367</v>
+        <v>0.0009656346419127049</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006398094684082897</v>
+        <v>0.0005211806119453851</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001141869775674742</v>
+        <v>0.00093368444716595</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005000515642277184</v>
+        <v>0.0002385210639987708</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001012606761963175</v>
+        <v>0.000899246058851877</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002290793005976015</v>
+        <v>0.0005466239426242564</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00092607692652098</v>
+        <v>0.0008884757397060739</v>
       </c>
       <c r="C13" t="n">
-        <v>8.230123829259896e-05</v>
+        <v>0.0001623960195704665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0009041088241024786</v>
+        <v>0.0008297235059154362</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000147392158674105</v>
+        <v>0.0001559885561085907</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.000842610856592052</v>
+        <v>0.0007831652525413402</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001478531963553543</v>
+        <v>0.0001023762499613444</v>
       </c>
     </row>
     <row r="16">
@@ -4969,10 +4969,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0007663263674329901</v>
+        <v>0.0006438606828743865</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000121752962865037</v>
+        <v>0.000112694238815141</v>
       </c>
     </row>
     <row r="17">
@@ -4982,10 +4982,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.000612863926167595</v>
+        <v>0.0004840473706550829</v>
       </c>
       <c r="C17" t="n">
-        <v>9.601103518468615e-05</v>
+        <v>0.0001297138208680902</v>
       </c>
     </row>
     <row r="18">
@@ -4995,270 +4995,270 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0005534062904762216</v>
+        <v>0.0004612364245024425</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001731665416498833</v>
+        <v>0.0001350683801543947</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0004956219166325937</v>
+        <v>0.0003940764447075695</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000406155043597331</v>
+        <v>9.333327643968418e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0004008340494772833</v>
+        <v>0.0002022487198518608</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001185646711702119</v>
+        <v>7.542230753519091e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.000123098220390494</v>
+        <v>0.0001226263487805523</v>
       </c>
       <c r="C21" t="n">
-        <v>2.455303064645638e-05</v>
+        <v>9.258802925430308e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.279043181817937e-05</v>
+        <v>9.647290148020459e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>4.898919395816757e-05</v>
+        <v>0.0003864475683599579</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.293464842732853e-05</v>
+        <v>8.380594425050347e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>3.274887786506508e-05</v>
+        <v>7.308686118921365e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.460197631746098e-05</v>
+        <v>5.153829481492344e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001570109168670506</v>
+        <v>0.0001485655339426182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.953198634723097e-05</v>
+        <v>5.085161637561342e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>1.625373367849356e-05</v>
+        <v>2.397786136686205e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.818084829829814e-05</v>
+        <v>4.519019778372879e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>1.528893891746384e-05</v>
+        <v>3.156055901958549e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.736364482667231e-05</v>
+        <v>2.430595100229027e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>2.143764501571556e-05</v>
+        <v>3.612891893286855e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.563979781782244e-05</v>
+        <v>2.418204828713577e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>1.689862735248454e-05</v>
+        <v>2.829857495563009e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.439378117178315e-05</v>
+        <v>1.825042344445471e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>1.836797063438976e-05</v>
+        <v>4.182600099040545e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.644895748218467e-05</v>
+        <v>1.590338147616777e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>9.262280035546088e-06</v>
+        <v>1.05142781776555e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.980744547847024e-06</v>
+        <v>1.471810685356179e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>1.246367841647567e-05</v>
+        <v>3.639251827401275e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.891912825358055e-06</v>
+        <v>8.645038498933389e-06</v>
       </c>
       <c r="C32" t="n">
-        <v>2.161441521844442e-06</v>
+        <v>2.004439079264098e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.756383461626321e-06</v>
+        <v>7.296598600303739e-06</v>
       </c>
       <c r="C33" t="n">
-        <v>9.174431162864691e-06</v>
+        <v>8.629876477473839e-06</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.457954945593975e-06</v>
+        <v>6.851427946030775e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>1.573067071219392e-05</v>
+        <v>1.163703268421467e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.557443682695066e-07</v>
+        <v>3.92892519942567e-06</v>
       </c>
       <c r="C35" t="n">
-        <v>3.038123473762797e-05</v>
+        <v>8.704281120425278e-06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.295546221249168e-07</v>
+        <v>1.390071960227779e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>1.588045293272539e-05</v>
+        <v>1.031979043945152e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.094720371686009e-07</v>
+        <v>-2.501119011011354e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>2.438274323783433e-07</v>
+        <v>7.945416628858459e-06</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.316927029093584e-06</v>
+        <v>-4.477783245748768e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>1.627416798640376e-05</v>
+        <v>1.339309735841533e-07</v>
       </c>
     </row>
     <row r="39">
@@ -5268,49 +5268,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-4.807188771294157e-06</v>
+        <v>-4.096921835450296e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>2.955631544685344e-05</v>
+        <v>3.895537475470076e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.614175696320608e-05</v>
+        <v>-4.491058286104632e-06</v>
       </c>
       <c r="C40" t="n">
-        <v>7.158307405055557e-05</v>
+        <v>1.723777172978795e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-3.752685561420055e-05</v>
+        <v>-7.65287503530221e-06</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0001450164779952675</v>
+        <v>1.034074202079321e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-4.522278848528849e-05</v>
+        <v>-2.531150391438253e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0001026943879825041</v>
+        <v>0.0001585973400054705</v>
       </c>
     </row>
   </sheetData>
@@ -5352,27 +5352,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2163965325207845</v>
+        <v>0.264333834793299</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01529142352591123</v>
+        <v>0.02369986350191064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1271648245612812</v>
+        <v>0.2366691761474365</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01065866557767066</v>
+        <v>0.01857888029387316</v>
       </c>
     </row>
     <row r="4">
@@ -5382,361 +5382,361 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.067328595739478</v>
+        <v>0.0998488308919534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005330361579987937</v>
+        <v>0.009319198295194928</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04843852402662172</v>
+        <v>0.03685409228988668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00381085090005822</v>
+        <v>0.01127843666346856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02911350358967715</v>
+        <v>0.03677751209792415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001730971319242246</v>
+        <v>0.006758663200718541</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02900264677010909</v>
+        <v>0.03076660359629377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003807905959644412</v>
+        <v>0.005473536536686243</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02779866810750333</v>
+        <v>0.02561947058512626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003072275472554957</v>
+        <v>0.002104674632527265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02514414725009264</v>
+        <v>0.02502430646531921</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004611699240050685</v>
+        <v>0.004518552152698178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02345159909334464</v>
+        <v>0.02046513854301875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002147797548891402</v>
+        <v>0.003016286472201661</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02236380499574193</v>
+        <v>0.02010516608681301</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002833810764135273</v>
+        <v>0.001685994634383658</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02154119015514542</v>
+        <v>0.01917724206113087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002753989955720901</v>
+        <v>0.001865404405554314</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0202916907491856</v>
+        <v>0.01603784501897441</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002695510132798633</v>
+        <v>0.002802700950384328</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01715342526894157</v>
+        <v>0.01415208462588304</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002168393052359577</v>
+        <v>0.002197293102401464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01254730576143006</v>
+        <v>0.01324673904584739</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001130065627168904</v>
+        <v>0.002466618091767583</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01170566603722518</v>
+        <v>0.01241879421030332</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0018455183953001</v>
+        <v>0.002050907186151004</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01098406595541057</v>
+        <v>0.01175305220291847</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001698959566311833</v>
+        <v>0.001601088427322213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.009556776311525361</v>
+        <v>0.008777017785646523</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0009311937929310628</v>
+        <v>0.001665971070842841</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.009486347574102539</v>
+        <v>0.008503737201824424</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001341599375252222</v>
+        <v>0.001469669725043051</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.007940952110255561</v>
+        <v>0.007942641369138803</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001051760863503145</v>
+        <v>0.001556964393464008</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.006672601391299571</v>
+        <v>0.005642416629979175</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001598998896753004</v>
+        <v>0.001021666239555475</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.006132739815408517</v>
+        <v>0.005050854404981697</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001561182295563875</v>
+        <v>0.001065985226960786</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.006027824286749394</v>
+        <v>0.00501767016105541</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005698910793422002</v>
+        <v>0.00119407671203069</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.005545152722374058</v>
+        <v>0.004935700957641997</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0008348966096307264</v>
+        <v>0.0009505248616572008</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.004828562116293256</v>
+        <v>0.004821856690533565</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0003878128719436051</v>
+        <v>0.000678107787784931</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.004713804026850554</v>
+        <v>0.003973319901730421</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001171127296695415</v>
+        <v>0.0007985813707500545</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004207509880085158</v>
+        <v>0.003030322416052744</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0008392811287027749</v>
+        <v>0.000636471447019276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.00416817768926514</v>
+        <v>0.001683586650586943</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00122833558499773</v>
+        <v>0.000525542284589043</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003131755088198074</v>
+        <v>0.00164874438843472</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0004689009524294133</v>
+        <v>0.0004951192896264963</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.002537876785628557</v>
+        <v>0.001264399247541603</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0005276740557505628</v>
+        <v>0.0003107873236088272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.002529219991383669</v>
+        <v>0.001085719888551773</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0005859437915107977</v>
+        <v>0.0003626916128521341</v>
       </c>
     </row>
     <row r="32">
@@ -5746,81 +5746,81 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002246404462646501</v>
+        <v>0.0007843156944512097</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0004716200674730462</v>
+        <v>0.0001604475558987192</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001741369470089515</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0009531260711187309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001513446792409634</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0003798976465077808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001391393277258124</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0005899979251514342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0002298972461110882</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0001507380545855688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.325302876002305e-05</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>4.233234503153335e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5833,7 +5833,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -5846,7 +5846,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -5859,11 +5859,11 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-5.981134122123866e-05</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -5872,14 +5872,14 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>-6.64685218676686e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1.908114573371964e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5925,10 +5925,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2384942849234051</v>
+        <v>0.2306292356539729</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01133213651261827</v>
+        <v>0.03209887526361228</v>
       </c>
     </row>
     <row r="3">
@@ -5938,49 +5938,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04778242703996112</v>
+        <v>0.06261992036439541</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009127412805395967</v>
+        <v>0.01528480512551865</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02529946657522675</v>
+        <v>0.02823120602115399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007996046585970145</v>
+        <v>0.007661566783646671</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02424711171604119</v>
+        <v>0.0199176128285453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008707776227383864</v>
+        <v>0.003785917571440759</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02415077661728398</v>
+        <v>0.01784588065027932</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01078411780017779</v>
+        <v>0.002938438041172354</v>
       </c>
     </row>
     <row r="7">
@@ -5990,10 +5990,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01041061401233054</v>
+        <v>0.01698044807959451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005718377408876042</v>
+        <v>0.009996814835882014</v>
       </c>
     </row>
     <row r="8">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.009671646369638598</v>
+        <v>0.008029206240638232</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003094134489848347</v>
+        <v>0.003370206633523628</v>
       </c>
     </row>
     <row r="9">
@@ -6016,23 +6016,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.006422599583546651</v>
+        <v>0.007029212414263619</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004369967762244928</v>
+        <v>0.001914346477420907</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003968157563828933</v>
+        <v>0.003409125453718698</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002707237488703841</v>
+        <v>0.001375379870183922</v>
       </c>
     </row>
     <row r="11">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003198282128856222</v>
+        <v>0.003155764140229778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002040895529709207</v>
+        <v>0.002213020777585267</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.003011430258578418</v>
+        <v>0.002527592956366376</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003037292934126037</v>
+        <v>0.002426691820836948</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002909293046446937</v>
+        <v>0.002363472799617128</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003815958182238282</v>
+        <v>0.00264617121527615</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002691089913598566</v>
+        <v>0.001850944101438223</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001326407137872275</v>
+        <v>0.001254052393458747</v>
       </c>
     </row>
     <row r="15">
@@ -6094,62 +6094,62 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002409284401952716</v>
+        <v>0.001556225302662417</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001401968872380013</v>
+        <v>0.002626879491429159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001799402716898957</v>
+        <v>0.001539152606816785</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0020044349346553</v>
+        <v>0.0009126231263017663</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001719616486881814</v>
+        <v>0.001084754290604506</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002765758441526873</v>
+        <v>0.002455544852921119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001294213664408828</v>
+        <v>0.0008216580756124081</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001779228998316115</v>
+        <v>0.001787812608620719</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001270321802001084</v>
+        <v>0.0007417658019135631</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001673803537053762</v>
+        <v>0.002091345735970595</v>
       </c>
     </row>
     <row r="20">
@@ -6159,101 +6159,101 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0002492553369194406</v>
+        <v>-8.976820467410107e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001691812666827179</v>
+        <v>0.002255862594202207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-5.134108576272389e-05</v>
+        <v>-0.0001253710729340884</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0009085226676415201</v>
+        <v>0.001681560894702344</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.000569855932295038</v>
+        <v>-0.0004341826047919772</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002178276717626008</v>
+        <v>0.002815177933747604</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0009425669931909297</v>
+        <v>-0.0008100343406073129</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001632242909472456</v>
+        <v>0.001430044077948308</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.001073214341862272</v>
+        <v>-0.001235474546084037</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00109687505204645</v>
+        <v>0.001667324709428216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001360386822546422</v>
+        <v>-0.001262234783460192</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001283659673134891</v>
+        <v>0.001964940402029889</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.001467302965512074</v>
+        <v>-0.001325798061106154</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001653453162986491</v>
+        <v>0.002564234288435116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.001819713015296687</v>
+        <v>-0.00174780762626261</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001175396326523736</v>
+        <v>0.002331071903276618</v>
       </c>
     </row>
     <row r="28">
@@ -6263,88 +6263,88 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.001892669974668837</v>
+        <v>-0.002052755843818366</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002089206419766471</v>
+        <v>0.002598493024049307</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.002155928762532921</v>
+        <v>-0.002344883778346474</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0008517354790985778</v>
+        <v>0.002392676940470048</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.002467784875948786</v>
+        <v>-0.002658877637773349</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001343137249869034</v>
+        <v>0.002084272489672781</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.002925057695563948</v>
+        <v>-0.002783502669054183</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00208733316531082</v>
+        <v>0.00157087503634662</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.003479741396465896</v>
+        <v>-0.003802360012175909</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001955475942807606</v>
+        <v>0.001738130174587711</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.00360537104041494</v>
+        <v>-0.003832414900356862</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001234595052445759</v>
+        <v>0.001350957052802733</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.003845316034787416</v>
+        <v>-0.003906750079470745</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001990774699830177</v>
+        <v>0.001596490047196939</v>
       </c>
     </row>
     <row r="35">
@@ -6354,62 +6354,62 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.006586844401918745</v>
+        <v>-0.005437796366049907</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001484906961680584</v>
+        <v>0.00251509857019623</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.006987312395236334</v>
+        <v>-0.006050456835243745</v>
       </c>
       <c r="C36" t="n">
-        <v>0.005165596615549739</v>
+        <v>0.008399405847807599</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.008713298455047402</v>
+        <v>-0.007875252388535304</v>
       </c>
       <c r="C37" t="n">
-        <v>0.003376419789729666</v>
+        <v>0.002884474139033115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.009582957779980351</v>
+        <v>-0.007900505031191463</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004678993033927924</v>
+        <v>0.005120007468922215</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.01014715547284393</v>
+        <v>-0.008941300238862127</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007912154460880994</v>
+        <v>0.006446338752268807</v>
       </c>
     </row>
     <row r="40">
@@ -6419,10 +6419,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.01345749371588218</v>
+        <v>-0.01601689641848691</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004781774600881592</v>
+        <v>0.00369481804143445</v>
       </c>
     </row>
     <row r="41">
@@ -6432,10 +6432,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.01863421813394896</v>
+        <v>-0.02293754435545485</v>
       </c>
       <c r="C41" t="n">
-        <v>0.004825036163976499</v>
+        <v>0.00732112862685051</v>
       </c>
     </row>
     <row r="42">
@@ -6445,10 +6445,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.02132195520952844</v>
+        <v>-0.02324094233002681</v>
       </c>
       <c r="C42" t="n">
-        <v>0.006188965915159897</v>
+        <v>0.006591580915712393</v>
       </c>
     </row>
   </sheetData>
@@ -6494,10 +6494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2560040944243802</v>
+        <v>0.2363505989837497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01453344516857634</v>
+        <v>0.01506418535795792</v>
       </c>
     </row>
     <row r="3">
@@ -6507,49 +6507,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2171658291037679</v>
+        <v>0.1899960893783771</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008693364364909754</v>
+        <v>0.01303019792119188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04345735305090337</v>
+        <v>0.03872215115840179</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003591268127691929</v>
+        <v>0.005787814159893543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04111326886771818</v>
+        <v>0.03807036402194663</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005917909793262803</v>
+        <v>0.005904021841361855</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0393520852574631</v>
+        <v>0.03785609342128573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004027333265395043</v>
+        <v>0.005411899583072861</v>
       </c>
     </row>
     <row r="7">
@@ -6559,10 +6559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03700507437929201</v>
+        <v>0.03738299829229834</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004365432818960391</v>
+        <v>0.007907597666052322</v>
       </c>
     </row>
     <row r="8">
@@ -6572,75 +6572,75 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03465685917647341</v>
+        <v>0.0362599187786697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004318513451326611</v>
+        <v>0.002906251162565909</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03136532009027433</v>
+        <v>0.03537603513986285</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006844476334192275</v>
+        <v>0.005265176809049611</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0293317021495912</v>
+        <v>0.03112584146905837</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004020517589874681</v>
+        <v>0.005077045444346147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02918991180309569</v>
+        <v>0.02752833386136277</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006203953171376339</v>
+        <v>0.003428008618580544</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02644113803474308</v>
+        <v>0.02549661454207963</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004745641594598415</v>
+        <v>0.001875378710810108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02458427504578791</v>
+        <v>0.0251754402666931</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003085678910193518</v>
+        <v>0.000877963333411731</v>
       </c>
     </row>
     <row r="14">
@@ -6650,23 +6650,23 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02399702420491256</v>
+        <v>0.02444531650421196</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001533133732173601</v>
+        <v>0.002844090168779782</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0232400746468443</v>
+        <v>0.02295379348020594</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003163150125764129</v>
+        <v>0.005156770039666948</v>
       </c>
     </row>
     <row r="16">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02276885622448217</v>
+        <v>0.02156166408155238</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002106909962855241</v>
+        <v>0.003602753218867641</v>
       </c>
     </row>
     <row r="17">
@@ -6689,10 +6689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02137016863155192</v>
+        <v>0.0185185742459486</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002777095135670672</v>
+        <v>0.00441293760348286</v>
       </c>
     </row>
     <row r="18">
@@ -6702,127 +6702,127 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01981204722783354</v>
+        <v>0.01630487452712568</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001847732745720553</v>
+        <v>0.003261118406332644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01055961094873896</v>
+        <v>0.01180632367345038</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002142471392835016</v>
+        <v>0.000970603325968065</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00976142774804838</v>
+        <v>0.01122882797249252</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001808685509985306</v>
+        <v>0.001816762011372752</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.009585271414057539</v>
+        <v>0.0102336817491486</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001599614558079515</v>
+        <v>0.001728585979074513</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.008678211939861912</v>
+        <v>0.009838474038441691</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002424165464890266</v>
+        <v>0.000686355387372381</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.008459629027915017</v>
+        <v>0.009267478560515796</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00297833911987522</v>
+        <v>0.001545068715849016</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00843063909370787</v>
+        <v>0.007979333127018351</v>
       </c>
       <c r="C24" t="n">
-        <v>0.002397233456353066</v>
+        <v>0.001078454344829105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.008424648464915196</v>
+        <v>0.007873828065649046</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001000039200684945</v>
+        <v>0.00111939833089427</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.007100107752210638</v>
+        <v>0.007083834798401023</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001066898302063367</v>
+        <v>0.0008334890266370337</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.006856685816780783</v>
+        <v>0.006571253473765193</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001368579074658699</v>
+        <v>0.001304482740573959</v>
       </c>
     </row>
     <row r="28">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.005985977803645581</v>
+        <v>0.005249996175145854</v>
       </c>
       <c r="C28" t="n">
-        <v>0.001570236842348357</v>
+        <v>0.0010260953592187</v>
       </c>
     </row>
     <row r="29">
@@ -6845,10 +6845,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003966821333897164</v>
+        <v>0.004158601949352292</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0007396186133799177</v>
+        <v>0.0007576946983586725</v>
       </c>
     </row>
     <row r="30">
@@ -6858,10 +6858,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003409926910386796</v>
+        <v>0.003652936230027959</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0007199426149775744</v>
+        <v>0.0002964525618758319</v>
       </c>
     </row>
     <row r="31">
@@ -6871,10 +6871,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003111652142475663</v>
+        <v>0.003520751265018429</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0007700889114511777</v>
+        <v>0.0007065366330497709</v>
       </c>
     </row>
     <row r="32">
@@ -6884,10 +6884,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.003010594525491283</v>
+        <v>0.002960902965222245</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0006420109457912328</v>
+        <v>0.0008065045490173475</v>
       </c>
     </row>
     <row r="33">
@@ -6897,42 +6897,42 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0008802885456108189</v>
+        <v>0.001064316736656834</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0004795884364663182</v>
+        <v>0.0003611245709746105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0008377856733474687</v>
+        <v>0.000907336185239438</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002274361341729911</v>
+        <v>0.0002045514415272437</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0006068999135628416</v>
+        <v>0.0008272430281078602</v>
       </c>
       <c r="C35" t="n">
-        <v>9.093969766248835e-05</v>
+        <v>0.0003999091399587857</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -6945,7 +6945,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -6958,7 +6958,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -6971,7 +6971,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -6984,7 +6984,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -6997,7 +6997,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -7010,7 +7010,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -7063,10 +7063,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0001066693399596419</v>
+        <v>0.0001098407070307728</v>
       </c>
       <c r="C2" t="n">
-        <v>6.989668212209403e-06</v>
+        <v>1.39925509125127e-05</v>
       </c>
     </row>
     <row r="3">
@@ -7076,127 +7076,127 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.310967038336447e-05</v>
+        <v>6.995725730727376e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>1.583596272294513e-05</v>
+        <v>1.040633446624516e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.678758845846343e-05</v>
+        <v>3.536259838978762e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>6.315611380047242e-06</v>
+        <v>5.281836863193346e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.585035274122905e-05</v>
+        <v>3.191276078542416e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>2.345570074195648e-06</v>
+        <v>1.080789108986389e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.913643995143822e-05</v>
+        <v>3.141153619208303e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>3.9794116582439e-06</v>
+        <v>1.466709982690729e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.670492832088644e-05</v>
+        <v>3.132108486589846e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>4.095233615055576e-06</v>
+        <v>1.074158625490561e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.44179919922205e-05</v>
+        <v>2.684352568895765e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>2.625101001525189e-06</v>
+        <v>5.586258836320927e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.386757305912202e-05</v>
+        <v>2.34488087366147e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>7.318624684819813e-06</v>
+        <v>2.131988453301609e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.043512230931466e-05</v>
+        <v>2.271114970204824e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>6.856801806878275e-06</v>
+        <v>2.09396178938095e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.444384951412303e-05</v>
+        <v>1.617340964286118e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>2.610974108174608e-06</v>
+        <v>5.432325079556411e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.320744780912708e-05</v>
+        <v>1.517557171235584e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>8.456776833518399e-06</v>
+        <v>1.749668528782761e-06</v>
       </c>
     </row>
     <row r="13">
@@ -7206,62 +7206,62 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.250261485092885e-05</v>
+        <v>1.431610879598644e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>3.03824383783756e-06</v>
+        <v>3.095933792820276e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.099261943136032e-05</v>
+        <v>1.048254149313976e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>1.408018704235975e-06</v>
+        <v>2.798586340342682e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.044812552475349e-05</v>
+        <v>1.008729028693089e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>1.973245870051382e-06</v>
+        <v>1.186241206177091e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.635563874099696e-06</v>
+        <v>9.836898854564958e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>2.107950957793581e-06</v>
+        <v>1.128720992080498e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.72991721982963e-06</v>
+        <v>9.202951956854832e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.082953105238053e-06</v>
+        <v>2.530379227584146e-06</v>
       </c>
     </row>
     <row r="18">
@@ -7271,10 +7271,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.071154891891141e-06</v>
+        <v>7.708135439732366e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1.370250329289408e-06</v>
+        <v>2.251908568706361e-06</v>
       </c>
     </row>
     <row r="19">
@@ -7284,10 +7284,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.269464544073067e-06</v>
+        <v>5.980552583473298e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>2.413711313931435e-06</v>
+        <v>2.132372111789546e-06</v>
       </c>
     </row>
     <row r="20">
@@ -7297,10 +7297,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.651978764995789e-06</v>
+        <v>3.597095416241203e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>2.689669400627612e-06</v>
+        <v>2.086179198487733e-06</v>
       </c>
     </row>
     <row r="21">
@@ -7310,49 +7310,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.40651235265954e-06</v>
+        <v>2.207915121643644e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>4.494793735408026e-07</v>
+        <v>3.257014867995836e-07</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.013108180798362e-06</v>
+        <v>1.642819065650336e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>2.522893684877353e-06</v>
+        <v>2.732766006484245e-07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.868049134556848e-06</v>
+        <v>1.459695250649595e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>1.271288173141955e-06</v>
+        <v>3.051271048194596e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.596316545704468e-06</v>
+        <v>1.450017140269822e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>5.071561383387362e-07</v>
+        <v>2.644977204258463e-07</v>
       </c>
     </row>
     <row r="25">
@@ -7362,101 +7362,101 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.476452597493072e-06</v>
+        <v>1.395729790520939e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>1.54463996562452e-06</v>
+        <v>1.665765183376051e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.420902018267611e-06</v>
+        <v>1.003297914703438e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>2.664087457292482e-07</v>
+        <v>1.730097184388749e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.123159047877742e-06</v>
+        <v>9.129356318027248e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>1.073857974965415e-06</v>
+        <v>8.447598584439442e-07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.268064996126313e-07</v>
+        <v>9.03202550528448e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>1.021415527229342e-06</v>
+        <v>1.089534429381391e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.144401137417546e-07</v>
+        <v>8.961354982517378e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>8.105455682308164e-07</v>
+        <v>1.719936716840292e-07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.28910698688523e-07</v>
+        <v>8.422074895930721e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>4.978845718734577e-07</v>
+        <v>7.253043425115547e-07</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.086013620316578e-07</v>
+        <v>5.281254401579005e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>4.598811618973515e-07</v>
+        <v>2.296247202983037e-07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.930543637428955e-07</v>
+        <v>4.885365757711923e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>4.75868194775157e-07</v>
+        <v>1.212966047862735e-06</v>
       </c>
     </row>
     <row r="33">
@@ -7466,127 +7466,127 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.623088549315923e-07</v>
+        <v>3.568204127502028e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>1.123347404435037e-06</v>
+        <v>6.28483932194033e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.25443109475232e-07</v>
+        <v>3.281295018808805e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>1.485710275009386e-07</v>
+        <v>2.519201667818948e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.354111733022691e-07</v>
+        <v>2.29887536762341e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>4.760620647450115e-07</v>
+        <v>1.836600410458314e-07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.360422276304064e-07</v>
+        <v>1.762468870403211e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>3.071121453763774e-07</v>
+        <v>1.090536072621751e-06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.89797722170016e-08</v>
+        <v>1.256735248533758e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>7.584859753099003e-08</v>
+        <v>2.158195802210853e-07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.389956108103888e-08</v>
+        <v>1.067294741474711e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>2.47487696179071e-07</v>
+        <v>3.548642286242698e-08</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.123744581832398e-08</v>
+        <v>2.741264784056341e-08</v>
       </c>
       <c r="C39" t="n">
-        <v>1.633783627934654e-07</v>
+        <v>1.179471094162109e-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-7.392409000495092e-08</v>
+        <v>-2.736440636308401e-08</v>
       </c>
       <c r="C40" t="n">
-        <v>5.404900724742323e-08</v>
+        <v>8.567152297176975e-08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.094548590874211e-07</v>
+        <v>-9.618293350666107e-08</v>
       </c>
       <c r="C41" t="n">
-        <v>6.732472722454403e-08</v>
+        <v>2.599554487684865e-08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-3.348729659791161e-07</v>
+        <v>-9.875838749007216e-08</v>
       </c>
       <c r="C42" t="n">
-        <v>7.169778570669909e-07</v>
+        <v>7.143549510990591e-08</v>
       </c>
     </row>
   </sheetData>
@@ -7632,10 +7632,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4630444240801329</v>
+        <v>0.4836986597385466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05976483191050535</v>
+        <v>0.04673120120950698</v>
       </c>
     </row>
     <row r="3">
@@ -7645,10 +7645,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04303028701769509</v>
+        <v>0.03836015767410215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005782843160898923</v>
+        <v>0.008689811623479274</v>
       </c>
     </row>
     <row r="4">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03372408438299675</v>
+        <v>0.03179866290506957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005852268438609949</v>
+        <v>0.005205996471032218</v>
       </c>
     </row>
     <row r="5">
@@ -7671,62 +7671,62 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02558804537019073</v>
+        <v>0.02734791235173985</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003856991346805293</v>
+        <v>0.002686916229184481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01793873771053362</v>
+        <v>0.01929401825360628</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004406274736050123</v>
+        <v>0.003751888728658811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01396467134785126</v>
+        <v>0.01373958256510337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001385341695521993</v>
+        <v>0.001747688704004514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01290127305029654</v>
+        <v>0.01174430342363628</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001636862005432802</v>
+        <v>0.002738453643934322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01101832118829518</v>
+        <v>0.00997712472679806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002672366565965026</v>
+        <v>0.001429931186316478</v>
       </c>
     </row>
     <row r="10">
@@ -7736,49 +7736,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007006214385934695</v>
+        <v>0.009170432265224671</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004054082077048937</v>
+        <v>0.0008108834302517085</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006627079662496049</v>
+        <v>0.007350071327191276</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00078340562121406</v>
+        <v>0.00196796166129555</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002892816709453916</v>
+        <v>0.002906574580497967</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001328302502985555</v>
+        <v>0.0005470152489524065</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002490067871875312</v>
+        <v>0.002501803797354674</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000943351464751621</v>
+        <v>0.0005018278684246257</v>
       </c>
     </row>
     <row r="14">
@@ -7788,10 +7788,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00245272841879185</v>
+        <v>0.002049091882344056</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002469898224439746</v>
+        <v>0.000184496717547448</v>
       </c>
     </row>
     <row r="15">
@@ -7801,276 +7801,276 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.002229139930869462</v>
+        <v>0.00119305527917104</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0007845613582941087</v>
+        <v>0.00024580625274863</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001847131153336057</v>
+        <v>0.0008577089253817505</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00047671345134681</v>
+        <v>0.0001340819995747245</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0008504833994293026</v>
+        <v>0.0007978236561053453</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001977382683879249</v>
+        <v>0.0003228581318314748</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0006175164781582643</v>
+        <v>0.000600711591062697</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001285092246050449</v>
+        <v>0.0003343320614962828</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0005017560767347051</v>
+        <v>0.0004296028815465647</v>
       </c>
       <c r="C19" t="n">
-        <v>8.032756762278877e-05</v>
+        <v>0.0002027295362849023</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0004544293632733565</v>
+        <v>0.0004034504123255234</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001629502131207083</v>
+        <v>9.157968552639372e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0002795268115100446</v>
+        <v>0.000364147911790269</v>
       </c>
       <c r="C21" t="n">
-        <v>8.23292793871535e-05</v>
+        <v>4.444266283475576e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0001728364443664976</v>
+        <v>0.0003292257984190749</v>
       </c>
       <c r="C22" t="n">
-        <v>3.546820533526471e-05</v>
+        <v>4.529893805373801e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.0002115990219169417</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.583615816629336e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.0001768122014544682</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>6.731643997386422e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.0001748907176094772</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>7.822380098016675e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.0001401224810432478</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.904097937581214e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.0001331309353987287</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>7.452328034114593e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>8.46458059483135e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2.635272492598466e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>7.918361704812859e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2.856280929989693e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>6.808737142327548e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2.632545620856065e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>5.701514764522297e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.758277165069767e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>5.499145373111247e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.663797502069452e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2.867454090675903e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2.244615557836332e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2.846129796245655e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>4.323877390819479e-06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.604711691436389e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2.410792143048793e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -8083,7 +8083,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -8096,7 +8096,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -8109,7 +8109,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -8122,7 +8122,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -8135,7 +8135,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -8148,14 +8148,14 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-8.284244446743472e-05</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0001747511454290598</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/examples/eCommerce_feature_info.xlsx
+++ b/examples/eCommerce_feature_info.xlsx
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0003771807828700791</v>
+        <v>0.0003714697944016798</v>
       </c>
       <c r="C2" t="n">
-        <v>3.682804076331444e-05</v>
+        <v>5.066168038440345e-05</v>
       </c>
     </row>
     <row r="3">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001703473785191534</v>
+        <v>0.000190593949778517</v>
       </c>
       <c r="C3" t="n">
-        <v>3.166551501907436e-05</v>
+        <v>2.406468253429192e-05</v>
       </c>
     </row>
     <row r="4">
@@ -746,62 +746,62 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.546393603565904e-05</v>
+        <v>7.077760382716569e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>7.247795928069602e-06</v>
+        <v>1.012155127936481e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.279427710227601e-05</v>
+        <v>4.581763702842246e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>4.695711206478704e-06</v>
+        <v>1.382281805852204e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.126352737801042e-05</v>
+        <v>4.412165136207236e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>4.938531984910303e-06</v>
+        <v>5.601533374991631e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.883975195817513e-05</v>
+        <v>3.722954814748825e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>7.275866983611255e-06</v>
+        <v>2.652096096252814e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.531469876718596e-05</v>
+        <v>3.57386887716693e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>3.86233396116825e-06</v>
+        <v>3.316597593323496e-06</v>
       </c>
     </row>
     <row r="9">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.345281713762582e-05</v>
+        <v>1.82998821773861e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.425404671178268e-06</v>
+        <v>4.015963656224328e-06</v>
       </c>
     </row>
     <row r="10">
@@ -824,49 +824,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.786156585881216e-05</v>
+        <v>1.342843079461531e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>2.074817817170286e-05</v>
+        <v>1.719246373093165e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.720051926601407e-05</v>
+        <v>1.139018430809102e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>3.061956334408252e-06</v>
+        <v>1.318740425891258e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.089339417088553e-05</v>
+        <v>1.122871977026207e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>1.676238256142294e-06</v>
+        <v>2.267484913282755e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.561063038576734e-06</v>
+        <v>1.079577544094157e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.013185095398634e-06</v>
+        <v>2.287988641400855e-06</v>
       </c>
     </row>
     <row r="14">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.410393789937132e-06</v>
+        <v>9.83696221243946e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>1.668612366981148e-06</v>
+        <v>2.591821569146348e-06</v>
       </c>
     </row>
     <row r="15">
@@ -889,36 +889,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.505415614206257e-06</v>
+        <v>7.446837081381829e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>1.466487099289674e-06</v>
+        <v>2.105777497246144e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.197966102794439e-06</v>
+        <v>7.267362048590797e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>9.718554092312473e-07</v>
+        <v>1.864616663781066e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.682126455441861e-06</v>
+        <v>6.992109944858882e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>9.348766765981151e-07</v>
+        <v>1.00978896210932e-06</v>
       </c>
     </row>
     <row r="18">
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.743960314712581e-06</v>
+        <v>6.158656124988226e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>1.40577960222059e-06</v>
+        <v>1.548661748242171e-06</v>
       </c>
     </row>
     <row r="19">
@@ -941,179 +941,179 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.575599673461994e-06</v>
+        <v>5.706996796073227e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>1.39947678059074e-06</v>
+        <v>2.389581238206877e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.530198145680231e-06</v>
+        <v>4.729248860702029e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>4.458744842983978e-06</v>
+        <v>3.662528015255688e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.017278035599702e-06</v>
+        <v>4.57666982898175e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>4.60217247747389e-06</v>
+        <v>4.167400614566851e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.003039502535998e-06</v>
+        <v>3.592255880402462e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>3.602584570197462e-06</v>
+        <v>1.656048619177535e-06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.99996709891559e-06</v>
+        <v>2.004194995253172e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>2.175930227535403e-06</v>
+        <v>1.218389654495359e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.544938027737587e-06</v>
+        <v>1.832809458024442e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>3.073156795592852e-07</v>
+        <v>1.098475329450037e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.738228106740181e-06</v>
+        <v>1.658198936871358e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>4.524357094277754e-06</v>
+        <v>3.30262043980005e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.543017234917343e-06</v>
+        <v>1.09206156539976e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>6.894798560861335e-07</v>
+        <v>4.999209924776571e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.483215064723709e-06</v>
+        <v>8.773788526372784e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>1.779093577702218e-06</v>
+        <v>6.471501713367917e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.482472242108628e-07</v>
+        <v>8.330196737738049e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>6.07394712494764e-07</v>
+        <v>9.234804315906055e-07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.682037404166948e-07</v>
+        <v>5.330708058082223e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>8.955402091562886e-07</v>
+        <v>4.447852504392166e-07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.320840789771239e-07</v>
+        <v>4.076754016146822e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>9.076133372214729e-07</v>
+        <v>2.403096947237778e-07</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.919758739088451e-07</v>
+        <v>1.010676090817952e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>2.06758767667005e-07</v>
+        <v>8.306973479749503e-07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.53704628136353e-07</v>
+        <v>4.767207562039744e-08</v>
       </c>
       <c r="C32" t="n">
-        <v>3.429907555551192e-07</v>
+        <v>2.032565695346636e-07</v>
       </c>
     </row>
     <row r="33">
@@ -1123,127 +1123,127 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.344025116534198e-07</v>
+        <v>4.75512255349031e-08</v>
       </c>
       <c r="C33" t="n">
-        <v>1.20361118906981e-07</v>
+        <v>1.338140838761165e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.09604430953425e-07</v>
+        <v>2.82038837617904e-08</v>
       </c>
       <c r="C34" t="n">
-        <v>6.244640252864141e-08</v>
+        <v>4.275628262841144e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.706563681710634e-08</v>
+        <v>4.770151385002919e-10</v>
       </c>
       <c r="C35" t="n">
-        <v>3.13922280002198e-07</v>
+        <v>9.93138146258615e-08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.304017769551365e-08</v>
+        <v>-1.785933836373488e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>5.538377503202126e-07</v>
+        <v>1.201226439026895e-08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2.651953892041092e-08</v>
+        <v>-1.39274217492158e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>8.4291389005811e-09</v>
+        <v>2.119601689435964e-07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.481708551409611e-07</v>
+        <v>-2.653039329558737e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>4.992938022535667e-06</v>
+        <v>4.117764290151565e-07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1.72021030175884e-07</v>
+        <v>-6.831217308267412e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>6.821017978418544e-07</v>
+        <v>5.982752479528376e-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.966363162964058e-07</v>
+        <v>-7.242082557645802e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>9.978643782219872e-07</v>
+        <v>2.2223738068936e-07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2.591528801776377e-07</v>
+        <v>-7.906541744429063e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>4.117540865844446e-06</v>
+        <v>1.508091308966708e-06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-7.28819677675574e-07</v>
+        <v>-1.139765893354294e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>3.330285885997559e-07</v>
+        <v>6.36142182526013e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2851887151648272</v>
+        <v>0.2812404307534707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02193294723237228</v>
+        <v>0.02235095187593411</v>
       </c>
     </row>
     <row r="3">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2715848779861472</v>
+        <v>0.2648870927213438</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02575373588682025</v>
+        <v>0.03496406790189515</v>
       </c>
     </row>
     <row r="4">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06089667192585899</v>
+        <v>0.06087542197883333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003798438594687086</v>
+        <v>0.007782890911390415</v>
       </c>
     </row>
     <row r="5">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0520393161428296</v>
+        <v>0.05421073391879179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002379507410713513</v>
+        <v>0.004603776033493723</v>
       </c>
     </row>
     <row r="6">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04967171261361061</v>
+        <v>0.05007538455953738</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002010691461200901</v>
+        <v>0.003644664588234968</v>
       </c>
     </row>
     <row r="7">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02929026637588326</v>
+        <v>0.02891658519169036</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002870075613538173</v>
+        <v>0.001590840915773578</v>
       </c>
     </row>
     <row r="8">
@@ -1367,140 +1367,140 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02336655228272855</v>
+        <v>0.02427590572238116</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00160538999646419</v>
+        <v>0.003480997434440724</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02083567924553462</v>
+        <v>0.02134908629104806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001136516997013416</v>
+        <v>0.0009190239005704091</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02083388176956389</v>
+        <v>0.02051450274847453</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00150161309746535</v>
+        <v>0.0008570236124992991</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01983574841311808</v>
+        <v>0.0202145223879364</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002985145905811838</v>
+        <v>0.00136563559689966</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01982660654880992</v>
+        <v>0.01953891046374985</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001456887540603447</v>
+        <v>0.002518557586240697</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01929996144841153</v>
+        <v>0.01844545422641788</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001159969108907829</v>
+        <v>0.00115091253811963</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01877377153493445</v>
+        <v>0.01722021935693558</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001955822476858144</v>
+        <v>0.002236391064509554</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01390851533854813</v>
+        <v>0.01416213252063694</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00138683966604318</v>
+        <v>0.0008972323336157159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01282576003869884</v>
+        <v>0.01357063478421301</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001171225242645582</v>
+        <v>0.0008768581116919484</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01245895395770769</v>
+        <v>0.01297445089653846</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001526203230106156</v>
+        <v>0.002416775119809091</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01150657499809429</v>
+        <v>0.011582649883077</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001176646773840822</v>
+        <v>0.000991594333262626</v>
       </c>
     </row>
     <row r="19">
@@ -1510,49 +1510,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01090280020246119</v>
+        <v>0.01010591284351152</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001026060118788106</v>
+        <v>0.0008429085815905215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00999200474444939</v>
+        <v>0.009520752070564176</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0008489760254823532</v>
+        <v>0.00111379981739511</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.009104510055883797</v>
+        <v>0.009505326602149467</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0002608399156245306</v>
+        <v>0.0005724710603930765</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.008990125107653157</v>
+        <v>0.009327698104634408</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0006014875538484036</v>
+        <v>0.0007352136246658349</v>
       </c>
     </row>
     <row r="23">
@@ -1562,62 +1562,62 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.006505197442030086</v>
+        <v>0.006798490132362711</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004426544030999466</v>
+        <v>0.0003726722048299041</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.005946426171551722</v>
+        <v>0.006130735976133827</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004177014298581346</v>
+        <v>0.001509364860221209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.005800830161167747</v>
+        <v>0.005895987670185665</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0005565505785601899</v>
+        <v>0.0004514556422851513</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.005448045855319927</v>
+        <v>0.005287879483622015</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006929313672835677</v>
+        <v>0.0006386588872108859</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004781968767043265</v>
+        <v>0.005141289025275863</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0007822077836450873</v>
+        <v>0.0004893825217893897</v>
       </c>
     </row>
     <row r="28">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.004392717916784372</v>
+        <v>0.004265458187926408</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0005323265485658369</v>
+        <v>0.0004217418414313524</v>
       </c>
     </row>
     <row r="29">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00374954965380645</v>
+        <v>0.003900637493627612</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0003042856666175914</v>
+        <v>0.0002003521044999511</v>
       </c>
     </row>
     <row r="30">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003715965127451115</v>
+        <v>0.003500296723562979</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002745672929843013</v>
+        <v>0.0004473993387557161</v>
       </c>
     </row>
     <row r="31">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003392988246952866</v>
+        <v>0.003466851384120417</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001471257743583123</v>
+        <v>0.0001809439251590263</v>
       </c>
     </row>
     <row r="32">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002132741620050194</v>
+        <v>0.002160377305834382</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001642173443596256</v>
+        <v>0.0003073218966357283</v>
       </c>
     </row>
     <row r="33">
@@ -1692,36 +1692,36 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001866972880338036</v>
+        <v>0.001984436661036559</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001264190611216234</v>
+        <v>8.818559477841522e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001521819541413616</v>
+        <v>0.001424899729646878</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002205855263327469</v>
+        <v>0.0003742394403794821</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.00141835401024164</v>
+        <v>0.001389875061250212</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0003067097062685852</v>
+        <v>0.0002626606742693945</v>
       </c>
     </row>
     <row r="36">
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0002354287777504682</v>
+        <v>0.0002577376245054497</v>
       </c>
       <c r="C36" t="n">
-        <v>1.95506641511229e-05</v>
+        <v>6.547427175773931e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0001125148478358318</v>
+        <v>0.0001138062097254089</v>
       </c>
       <c r="C37" t="n">
-        <v>1.494609777668097e-05</v>
+        <v>1.652235131980005e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.118310340497476e-05</v>
+        <v>4.037932023754909e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1.659991716415611e-05</v>
+        <v>1.437553963208332e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1779,7 +1779,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1792,7 +1792,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1876,7 +1876,7 @@
         <v>16221.8185550413</v>
       </c>
       <c r="C2" t="n">
-        <v>959.9322357864957</v>
+        <v>923.3953127755066</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[14543.684127975033, 18227.554793968244]</t>
+          <t>[14577.930297097537, 18211.784694401536]</t>
         </is>
       </c>
     </row>
@@ -1902,10 +1902,10 @@
         <v>8.946762636263411</v>
       </c>
       <c r="C3" t="n">
-        <v>458.8106581179902</v>
+        <v>467.4797129323958</v>
       </c>
       <c r="D3" t="n">
-        <v>0.988</v>
+        <v>0.984</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[-993.9141012396951, 866.3317786304829]</t>
+          <t>[-930.3316402719315, 931.7149220349581]</t>
         </is>
       </c>
     </row>
@@ -1928,10 +1928,10 @@
         <v>-47.78871456276676</v>
       </c>
       <c r="C4" t="n">
-        <v>443.2461765626754</v>
+        <v>460.1271081378617</v>
       </c>
       <c r="D4" t="n">
-        <v>0.924</v>
+        <v>0.918</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-950.0757228059797, 722.639231572965]</t>
+          <t>[-1029.1060075555692, 812.4905302553009]</t>
         </is>
       </c>
     </row>
@@ -1954,10 +1954,10 @@
         <v>-315.6619011528302</v>
       </c>
       <c r="C5" t="n">
-        <v>500.1258505394748</v>
+        <v>510.7000121997332</v>
       </c>
       <c r="D5" t="n">
-        <v>0.478</v>
+        <v>0.54</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[-1323.3539036813718, 568.8057341691392]</t>
+          <t>[-1464.7532089112917, 505.3919396125623]</t>
         </is>
       </c>
     </row>
@@ -1980,10 +1980,10 @@
         <v>-250.2636421924595</v>
       </c>
       <c r="C6" t="n">
-        <v>571.2289907073067</v>
+        <v>538.3370421422135</v>
       </c>
       <c r="D6" t="n">
-        <v>0.662</v>
+        <v>0.668</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-1449.9226759090557, 754.2995779917334]</t>
+          <t>[-1399.1851830700189, 619.8358215743639]</t>
         </is>
       </c>
     </row>
@@ -2006,10 +2006,10 @@
         <v>-696.8021189793758</v>
       </c>
       <c r="C7" t="n">
-        <v>621.9706544696679</v>
+        <v>629.6784183164849</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>0.234</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-1945.3722870012912, 362.1187554936341]</t>
+          <t>[-1986.0744081428734, 405.19220068245846]</t>
         </is>
       </c>
     </row>
@@ -2162,10 +2162,10 @@
         <v>-1640.323309340931</v>
       </c>
       <c r="C13" t="n">
-        <v>1307.085583571712</v>
+        <v>1381.731592200432</v>
       </c>
       <c r="D13" t="n">
-        <v>0.124</v>
+        <v>0.154</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[-4305.033813799417, 0.0]</t>
+          <t>[-4297.802914027524, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2188,10 +2188,10 @@
         <v>373.6381334363077</v>
       </c>
       <c r="C14" t="n">
-        <v>354.9082873743712</v>
+        <v>407.7079015496405</v>
       </c>
       <c r="D14" t="n">
-        <v>0.16</v>
+        <v>0.182</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[-60.095544548787345, 1182.4912595293251]</t>
+          <t>[-106.45184269726732, 1394.0906760629127]</t>
         </is>
       </c>
     </row>
@@ -2214,10 +2214,10 @@
         <v>294.4642088139133</v>
       </c>
       <c r="C15" t="n">
-        <v>323.8371656461999</v>
+        <v>357.8418723254554</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2</v>
+        <v>0.236</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[-93.25864924433141, 1033.1145534884415]</t>
+          <t>[-109.09162932624281, 1157.4516492197104]</t>
         </is>
       </c>
     </row>
@@ -2240,10 +2240,10 @@
         <v>142.9260460884154</v>
       </c>
       <c r="C16" t="n">
-        <v>253.5360822778393</v>
+        <v>265.0155502833564</v>
       </c>
       <c r="D16" t="n">
-        <v>0.352</v>
+        <v>0.348</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[-348.234675819356, 783.2446586899994]</t>
+          <t>[-323.4408749496107, 820.0055403629028]</t>
         </is>
       </c>
     </row>
@@ -2266,10 +2266,10 @@
         <v>-406.6719843282598</v>
       </c>
       <c r="C17" t="n">
-        <v>419.3208288079402</v>
+        <v>413.7682500816908</v>
       </c>
       <c r="D17" t="n">
-        <v>0.176</v>
+        <v>0.174</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[-1392.6855869299675, 0.0]</t>
+          <t>[-1400.2763943846703, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2292,10 +2292,10 @@
         <v>-874.612146993946</v>
       </c>
       <c r="C18" t="n">
-        <v>1327.515610160457</v>
+        <v>1272.522364986019</v>
       </c>
       <c r="D18" t="n">
-        <v>0.476</v>
+        <v>0.484</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-3861.2442872802144, 1384.4302946630726]</t>
+          <t>[-3460.438481155111, 1234.507228206134]</t>
         </is>
       </c>
     </row>
@@ -2318,19 +2318,19 @@
         <v>-1735.853053061536</v>
       </c>
       <c r="C19" t="n">
-        <v>977.6298065508504</v>
+        <v>988.7615747354073</v>
       </c>
       <c r="D19" t="n">
-        <v>0.044</v>
+        <v>0.05</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-3497.8117344284583, 0.0]</t>
+          <t>[-3567.160665695315, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2344,10 +2344,10 @@
         <v>-501.520120757929</v>
       </c>
       <c r="C20" t="n">
-        <v>413.5035841604173</v>
+        <v>413.0813060898713</v>
       </c>
       <c r="D20" t="n">
-        <v>0.144</v>
+        <v>0.146</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-1342.4051835951077, 45.729824656624466]</t>
+          <t>[-1353.6642051364693, 81.42315174149786]</t>
         </is>
       </c>
     </row>
@@ -2370,10 +2370,10 @@
         <v>-1235.619124447749</v>
       </c>
       <c r="C21" t="n">
-        <v>1320.996798807344</v>
+        <v>1296.408186446977</v>
       </c>
       <c r="D21" t="n">
-        <v>0.376</v>
+        <v>0.34</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-3800.1505588447303, 864.5589191668064]</t>
+          <t>[-4000.8876029872486, 771.0657432295676]</t>
         </is>
       </c>
     </row>
@@ -2396,10 +2396,10 @@
         <v>536.551693261755</v>
       </c>
       <c r="C22" t="n">
-        <v>1138.675583575721</v>
+        <v>1147.132945227543</v>
       </c>
       <c r="D22" t="n">
-        <v>0.624</v>
+        <v>0.62</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[-1320.4751177037194, 3074.40851391764]</t>
+          <t>[-1453.350301826747, 3006.383308480382]</t>
         </is>
       </c>
     </row>
@@ -2422,10 +2422,10 @@
         <v>-629.7219649075956</v>
       </c>
       <c r="C23" t="n">
-        <v>599.003478956171</v>
+        <v>635.8875843690342</v>
       </c>
       <c r="D23" t="n">
-        <v>0.198</v>
+        <v>0.226</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[-2037.7303757378422, 229.48301645333356]</t>
+          <t>[-2145.0033612725156, 317.1009557247338]</t>
         </is>
       </c>
     </row>
@@ -2448,10 +2448,10 @@
         <v>-89.00930186573336</v>
       </c>
       <c r="C24" t="n">
-        <v>592.7098626604837</v>
+        <v>582.612959926724</v>
       </c>
       <c r="D24" t="n">
-        <v>0.916</v>
+        <v>0.778</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[-1480.9597781524956, 989.7192913547693]</t>
+          <t>[-1219.4508622338967, 1039.3297660468754]</t>
         </is>
       </c>
     </row>
@@ -2474,10 +2474,10 @@
         <v>-1475.603930397075</v>
       </c>
       <c r="C25" t="n">
-        <v>979.2148394797974</v>
+        <v>959.5330656324327</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[-3388.255045553683, 0.0]</t>
+          <t>[-3237.060618858928, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2500,10 +2500,10 @@
         <v>-2950.60663351319</v>
       </c>
       <c r="C26" t="n">
-        <v>1655.566139228066</v>
+        <v>1617.396503378916</v>
       </c>
       <c r="D26" t="n">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[-5928.020249715035, 0.0]</t>
+          <t>[-5823.138405357477, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2526,10 +2526,10 @@
         <v>-850.3643758427934</v>
       </c>
       <c r="C27" t="n">
-        <v>689.381924492989</v>
+        <v>727.039420412205</v>
       </c>
       <c r="D27" t="n">
-        <v>0.174</v>
+        <v>0.184</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[-2130.699959650624, 325.5366691848189]</t>
+          <t>[-2327.2835035756107, 204.33527252779425]</t>
         </is>
       </c>
     </row>
@@ -2552,10 +2552,10 @@
         <v>-1818.979284294032</v>
       </c>
       <c r="C28" t="n">
-        <v>1504.611752033858</v>
+        <v>1439.884807086754</v>
       </c>
       <c r="D28" t="n">
-        <v>0.126</v>
+        <v>0.11</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[-4900.780268385848, 0.0]</t>
+          <t>[-4754.53677440969, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2578,10 +2578,10 @@
         <v>-348.5214255079964</v>
       </c>
       <c r="C29" t="n">
-        <v>389.3216722540889</v>
+        <v>369.6906635926602</v>
       </c>
       <c r="D29" t="n">
-        <v>0.168</v>
+        <v>0.178</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[-1347.3603833973696, 0.0]</t>
+          <t>[-1256.6647183950083, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2604,10 +2604,10 @@
         <v>219.6599128058833</v>
       </c>
       <c r="C30" t="n">
-        <v>273.4591946846642</v>
+        <v>291.0401919097291</v>
       </c>
       <c r="D30" t="n">
-        <v>0.244</v>
+        <v>0.248</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[-135.15606050557645, 791.2227880341653]</t>
+          <t>[-141.90349826975933, 924.9463671739829]</t>
         </is>
       </c>
     </row>
@@ -2630,10 +2630,10 @@
         <v>-934.1918871230312</v>
       </c>
       <c r="C31" t="n">
-        <v>800.8726287625664</v>
+        <v>851.1401457079127</v>
       </c>
       <c r="D31" t="n">
-        <v>0.128</v>
+        <v>0.15</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[-2638.3561636309205, 0.0]</t>
+          <t>[-2671.810381585232, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2656,10 +2656,10 @@
         <v>-1033.842903886473</v>
       </c>
       <c r="C32" t="n">
-        <v>813.6019171645155</v>
+        <v>878.1367029237992</v>
       </c>
       <c r="D32" t="n">
-        <v>0.118</v>
+        <v>0.136</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[-2620.101085293954, 0.0]</t>
+          <t>[-2848.9622631161833, 0.0]</t>
         </is>
       </c>
     </row>
@@ -2812,19 +2812,19 @@
         <v>-4367.578280519683</v>
       </c>
       <c r="C38" t="n">
-        <v>1552.723300670624</v>
+        <v>1759.152275228582</v>
       </c>
       <c r="D38" t="n">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[-7358.652938462597, -1211.7217840508074]</t>
+          <t>[-7764.753099625539, -550.0603033423811]</t>
         </is>
       </c>
     </row>
@@ -2838,10 +2838,10 @@
         <v>-439.3598425365299</v>
       </c>
       <c r="C39" t="n">
-        <v>1404.282826333675</v>
+        <v>1470.963451736467</v>
       </c>
       <c r="D39" t="n">
-        <v>0.774</v>
+        <v>0.756</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[-3046.4420434848053, 2390.905038515908]</t>
+          <t>[-3238.610042158458, 2273.497207334508]</t>
         </is>
       </c>
     </row>
@@ -2864,10 +2864,10 @@
         <v>-895.2605529554834</v>
       </c>
       <c r="C40" t="n">
-        <v>1311.908297005826</v>
+        <v>1410.816415776606</v>
       </c>
       <c r="D40" t="n">
-        <v>0.538</v>
+        <v>0.526</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[-3333.136035562293, 1774.6960490312222]</t>
+          <t>[-3562.560568643107, 1939.2289195046724]</t>
         </is>
       </c>
     </row>
@@ -2890,10 +2890,10 @@
         <v>-307.3915898043502</v>
       </c>
       <c r="C41" t="n">
-        <v>1875.234275471732</v>
+        <v>1981.529088367937</v>
       </c>
       <c r="D41" t="n">
-        <v>0.886</v>
+        <v>0.906</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[-3804.586173713132, 3574.0972302119726]</t>
+          <t>[-3857.2590383997895, 3571.727769778968]</t>
         </is>
       </c>
     </row>
@@ -2916,10 +2916,10 @@
         <v>2026.677189091354</v>
       </c>
       <c r="C42" t="n">
-        <v>1483.021350218142</v>
+        <v>1581.805640755675</v>
       </c>
       <c r="D42" t="n">
-        <v>0.162</v>
+        <v>0.21</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[-841.5967287630356, 4950.011583701349]</t>
+          <t>[-1299.1622049273528, 4893.074994735094]</t>
         </is>
       </c>
     </row>
@@ -2942,10 +2942,10 @@
         <v>60.56456088347079</v>
       </c>
       <c r="C43" t="n">
-        <v>267.0600790001101</v>
+        <v>283.732888292045</v>
       </c>
       <c r="D43" t="n">
-        <v>0.904</v>
+        <v>0.886</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[-411.27292282427527, 733.2793691916033]</t>
+          <t>[-472.41603158665305, 874.6098989743358]</t>
         </is>
       </c>
     </row>
@@ -2968,10 +2968,10 @@
         <v>2244.141212080592</v>
       </c>
       <c r="C44" t="n">
-        <v>1850.801045105692</v>
+        <v>1794.136479380776</v>
       </c>
       <c r="D44" t="n">
-        <v>0.118</v>
+        <v>0.104</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[0.0, 6079.040220014268]</t>
+          <t>[0.0, 5589.499308769837]</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
         <v>1249.390373496088</v>
       </c>
       <c r="C45" t="n">
-        <v>1000.197435446926</v>
+        <v>1050.899057621368</v>
       </c>
       <c r="D45" t="n">
         <v>0.13</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[0.0, 3027.2288207817987]</t>
+          <t>[0.0, 3227.375774461222]</t>
         </is>
       </c>
     </row>
@@ -3020,10 +3020,10 @@
         <v>996.1322062656325</v>
       </c>
       <c r="C46" t="n">
-        <v>895.1044237657396</v>
+        <v>874.7082980018106</v>
       </c>
       <c r="D46" t="n">
-        <v>0.142</v>
+        <v>0.144</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[0.0, 3041.636423530558]</t>
+          <t>[0.0, 2785.717126109899]</t>
         </is>
       </c>
     </row>
@@ -3046,10 +3046,10 @@
         <v>-256.6497011872469</v>
       </c>
       <c r="C47" t="n">
-        <v>286.0870902149913</v>
+        <v>286.1058586150625</v>
       </c>
       <c r="D47" t="n">
-        <v>0.182</v>
+        <v>0.212</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[-912.1380740926472, 0.0]</t>
+          <t>[-919.8925273096245, 54.661589666173775]</t>
         </is>
       </c>
     </row>
@@ -3072,10 +3072,10 @@
         <v>998.6771979587326</v>
       </c>
       <c r="C48" t="n">
-        <v>844.4628702127711</v>
+        <v>883.2206986278668</v>
       </c>
       <c r="D48" t="n">
-        <v>0.126</v>
+        <v>0.142</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[0.0, 2782.7097170953284]</t>
+          <t>[0.0, 2890.8640113257698]</t>
         </is>
       </c>
     </row>
@@ -3098,10 +3098,10 @@
         <v>905.8753165930859</v>
       </c>
       <c r="C49" t="n">
-        <v>791.98202151333</v>
+        <v>835.8511221305297</v>
       </c>
       <c r="D49" t="n">
-        <v>0.132</v>
+        <v>0.136</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[0.0, 2641.105057404845]</t>
+          <t>[0.0, 2769.3347811078206]</t>
         </is>
       </c>
     </row>
@@ -3124,10 +3124,10 @@
         <v>1836.891614895217</v>
       </c>
       <c r="C50" t="n">
-        <v>1444.86730408656</v>
+        <v>1461.762769163301</v>
       </c>
       <c r="D50" t="n">
-        <v>0.122</v>
+        <v>0.116</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[0.0, 4386.220557264927]</t>
+          <t>[0.0, 4859.026305487703]</t>
         </is>
       </c>
     </row>
@@ -3150,7 +3150,7 @@
         <v>-581.8525834395579</v>
       </c>
       <c r="C51" t="n">
-        <v>548.3563937538278</v>
+        <v>529.4080392818191</v>
       </c>
       <c r="D51" t="n">
         <v>0.142</v>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[-1802.4307730872242, 0.0]</t>
+          <t>[-1766.9734673200708, 0.0]</t>
         </is>
       </c>
     </row>
@@ -3176,10 +3176,10 @@
         <v>300.9849296563543</v>
       </c>
       <c r="C52" t="n">
-        <v>392.6562161048764</v>
+        <v>414.4364245816685</v>
       </c>
       <c r="D52" t="n">
-        <v>0.252</v>
+        <v>0.61</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[-203.211429483738, 1271.897402085271]</t>
+          <t>[-226.94288318114303, 1339.9461839442597]</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
         <v>2068.122014804155</v>
       </c>
       <c r="C53" t="n">
-        <v>484.7203135944154</v>
+        <v>439.7240577097389</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[1207.5930266230803, 3041.370965015872]</t>
+          <t>[1302.333842215929, 3009.0033878581853]</t>
         </is>
       </c>
     </row>
@@ -3228,19 +3228,19 @@
         <v>503.4838950168074</v>
       </c>
       <c r="C54" t="n">
-        <v>245.8241050395981</v>
+        <v>264.9032207260191</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04</v>
+        <v>0.062</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[32.41293239896568, 993.6845270007406]</t>
+          <t>[-36.2875754557756, 997.1774180140815]</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
         <v>1506.345327360888</v>
       </c>
       <c r="C55" t="n">
-        <v>274.4662557773556</v>
+        <v>257.20850997441</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[986.9392544989599, 2036.6409826800618]</t>
+          <t>[970.52949577562, 2005.7859368659615]</t>
         </is>
       </c>
     </row>
@@ -3280,10 +3280,10 @@
         <v>2.556404175517645</v>
       </c>
       <c r="C56" t="n">
-        <v>257.8498565010957</v>
+        <v>255.163366352477</v>
       </c>
       <c r="D56" t="n">
-        <v>0.994</v>
+        <v>0.996</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[-489.42204817183375, 489.4132116636788]</t>
+          <t>[-452.631751074023, 499.4706228758224]</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
         <v>-4088.089096803415</v>
       </c>
       <c r="C57" t="n">
-        <v>190.0613942246745</v>
+        <v>203.3758832022978</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[-4478.943970874896, -3720.585864068493]</t>
+          <t>[-4498.729368274251, -3698.7934703748283]</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
         <v>-1921.470618609711</v>
       </c>
       <c r="C58" t="n">
-        <v>237.9146674190214</v>
+        <v>223.3469755798836</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[-2374.564428769884, -1482.1373213778124]</t>
+          <t>[-2365.438781053822, -1474.5266749952152]</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3358,7 @@
         <v>18424.3578230766</v>
       </c>
       <c r="C59" t="n">
-        <v>2076.767901589799</v>
+        <v>1976.502247463889</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[13982.672640212128, 21928.899737392392]</t>
+          <t>[14043.766982147052, 21714.296373484827]</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
         <v>-4210.103325095953</v>
       </c>
       <c r="C60" t="n">
-        <v>865.8246616675974</v>
+        <v>851.6267390643202</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[-5646.892742440194, -2371.5387681975344]</t>
+          <t>[-5731.935313622476, -2280.0066465525283]</t>
         </is>
       </c>
     </row>
@@ -3410,10 +3410,10 @@
         <v>993.5760858757008</v>
       </c>
       <c r="C61" t="n">
-        <v>2383.192656203538</v>
+        <v>2418.466399115351</v>
       </c>
       <c r="D61" t="n">
-        <v>0.698</v>
+        <v>0.714</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[-3271.451841281789, 5560.53216661602]</t>
+          <t>[-4044.3261833871134, 5517.81023593997]</t>
         </is>
       </c>
     </row>
@@ -3436,10 +3436,10 @@
         <v>3742.277256647134</v>
       </c>
       <c r="C62" t="n">
-        <v>1350.55024197351</v>
+        <v>1351.889690497653</v>
       </c>
       <c r="D62" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[1097.6273151555247, 6083.250275896886]</t>
+          <t>[1104.518223408847, 6261.427524212431]</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
         <v>4653.999844972506</v>
       </c>
       <c r="C63" t="n">
-        <v>1468.393464068525</v>
+        <v>1373.828546729958</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[1769.5492669598425, 7403.827721123973]</t>
+          <t>[1940.7373815328756, 7352.381150226884]</t>
         </is>
       </c>
     </row>
@@ -3488,19 +3488,19 @@
         <v>3995.428620587048</v>
       </c>
       <c r="C64" t="n">
-        <v>2063.855851682181</v>
+        <v>2145.740061800195</v>
       </c>
       <c r="D64" t="n">
-        <v>0.046</v>
+        <v>0.06</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[127.08499569133747, 8201.110690136838]</t>
+          <t>[-195.4583622412553, 8060.275197444208]</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         <v>-4637.820067500492</v>
       </c>
       <c r="C65" t="n">
-        <v>560.9698322214123</v>
+        <v>506.9737170171857</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[-5548.001809629126, -3417.195392738684]</t>
+          <t>[-5388.963918768133, -3446.5637757951554]</t>
         </is>
       </c>
     </row>
@@ -3540,10 +3540,10 @@
         <v>427.7167424045368</v>
       </c>
       <c r="C66" t="n">
-        <v>716.1233117600359</v>
+        <v>707.1312481694948</v>
       </c>
       <c r="D66" t="n">
-        <v>0.57</v>
+        <v>0.548</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[-949.542601199329, 1680.8812649932688]</t>
+          <t>[-995.6094262017671, 1787.1676357535239]</t>
         </is>
       </c>
     </row>
@@ -3566,7 +3566,7 @@
         <v>8248.111354406359</v>
       </c>
       <c r="C67" t="n">
-        <v>664.1423065737429</v>
+        <v>624.5690415114419</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[7071.552064956126, 9620.098943924455]</t>
+          <t>[7151.35855762462, 9493.711971646164]</t>
         </is>
       </c>
     </row>
@@ -3592,10 +3592,10 @@
         <v>1458.663936539087</v>
       </c>
       <c r="C68" t="n">
-        <v>854.5197970781444</v>
+        <v>875.3677533603693</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.082</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[-177.38739817836017, 3007.711232392261]</t>
+          <t>[-223.39963027325592, 3168.0936261718502]</t>
         </is>
       </c>
     </row>
@@ -3618,10 +3618,10 @@
         <v>721.6468352949161</v>
       </c>
       <c r="C69" t="n">
-        <v>751.677564043507</v>
+        <v>682.8830236784604</v>
       </c>
       <c r="D69" t="n">
-        <v>0.346</v>
+        <v>0.284</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[-730.3248369698714, 2217.7179399952247]</t>
+          <t>[-651.9272843198747, 2103.077316157316]</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
         <v>6066.821600559238</v>
       </c>
       <c r="C70" t="n">
-        <v>702.9746558313033</v>
+        <v>776.6860431922451</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[4716.042282251214, 7368.813016955577]</t>
+          <t>[4645.641640612734, 7625.410056574985]</t>
         </is>
       </c>
     </row>
@@ -3670,10 +3670,10 @@
         <v>-392.731154470252</v>
       </c>
       <c r="C71" t="n">
-        <v>327.9601337276532</v>
+        <v>327.3331738946901</v>
       </c>
       <c r="D71" t="n">
-        <v>0.222</v>
+        <v>0.218</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[-992.8910884915049, 258.01946290111846]</t>
+          <t>[-1025.3584393637138, 290.54121916587803]</t>
         </is>
       </c>
     </row>
@@ -3696,10 +3696,10 @@
         <v>-773.803277903365</v>
       </c>
       <c r="C72" t="n">
-        <v>510.4505480426103</v>
+        <v>519.9311822453876</v>
       </c>
       <c r="D72" t="n">
-        <v>0.124</v>
+        <v>0.132</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[-1727.8209511065093, 254.29420902760364]</t>
+          <t>[-1829.7394033432704, 218.06567554117206]</t>
         </is>
       </c>
     </row>
@@ -3722,10 +3722,10 @@
         <v>392.7311544702866</v>
       </c>
       <c r="C73" t="n">
-        <v>327.960133727654</v>
+        <v>327.3331738946896</v>
       </c>
       <c r="D73" t="n">
-        <v>0.222</v>
+        <v>0.218</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[-258.0194629011003, 992.8910884915324]</t>
+          <t>[-290.54121916591, 1025.3584393637184]</t>
         </is>
       </c>
     </row>
@@ -3748,10 +3748,10 @@
         <v>-773.803277903345</v>
       </c>
       <c r="C74" t="n">
-        <v>510.450548042611</v>
+        <v>519.9311822453885</v>
       </c>
       <c r="D74" t="n">
-        <v>0.124</v>
+        <v>0.132</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[-1727.8209511065415, 254.29420902759477]</t>
+          <t>[-1829.739403343278, 218.0656755411781]</t>
         </is>
       </c>
     </row>
@@ -3774,10 +3774,10 @@
         <v>-824.5650292138297</v>
       </c>
       <c r="C75" t="n">
-        <v>975.8807919981593</v>
+        <v>1041.668735029996</v>
       </c>
       <c r="D75" t="n">
-        <v>0.422</v>
+        <v>0.424</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[-2617.3911884791246, 1007.0547266128367]</t>
+          <t>[-2986.7452448586155, 1142.1019519575702]</t>
         </is>
       </c>
     </row>
@@ -3800,10 +3800,10 @@
         <v>-48.22460325019548</v>
       </c>
       <c r="C76" t="n">
-        <v>915.1155905948343</v>
+        <v>898.8417630017143</v>
       </c>
       <c r="D76" t="n">
-        <v>0.958</v>
+        <v>0.95</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[-1833.7561269136613, 1553.8846632042537]</t>
+          <t>[-1854.1864067223082, 1624.642878808605]</t>
         </is>
       </c>
     </row>
@@ -3826,10 +3826,10 @@
         <v>-450.3057032043181</v>
       </c>
       <c r="C77" t="n">
-        <v>926.0583060517381</v>
+        <v>967.8489732346236</v>
       </c>
       <c r="D77" t="n">
-        <v>0.624</v>
+        <v>0.632</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[-2236.3477043844664, 1467.4920367587026]</t>
+          <t>[-2547.304953250706, 1557.4212060594607]</t>
         </is>
       </c>
     </row>
@@ -3852,10 +3852,10 @@
         <v>253.90699800839</v>
       </c>
       <c r="C78" t="n">
-        <v>959.9870017544713</v>
+        <v>977.5975224884683</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.794</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[-1670.6673415298483, 2000.318357287631]</t>
+          <t>[-1814.4580163985286, 2163.0419888762785]</t>
         </is>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
         <v>1986.601183219399</v>
       </c>
       <c r="C79" t="n">
-        <v>1035.237382361701</v>
+        <v>1021.678281611174</v>
       </c>
       <c r="D79" t="n">
         <v>0.052</v>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[-105.6186193418269, 3858.3488027980293]</t>
+          <t>[16.755981042589898, 3953.6109111321575]</t>
         </is>
       </c>
     </row>
@@ -3904,10 +3904,10 @@
         <v>-901.3586217426471</v>
       </c>
       <c r="C80" t="n">
-        <v>898.9521096445893</v>
+        <v>941.8549210529516</v>
       </c>
       <c r="D80" t="n">
-        <v>0.318</v>
+        <v>0.324</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[-2800.578907488024, 686.5765751723949]</t>
+          <t>[-2835.756045098615, 736.9480991172385]</t>
         </is>
       </c>
     </row>
@@ -3930,10 +3930,10 @@
         <v>-502.2295697085127</v>
       </c>
       <c r="C81" t="n">
-        <v>848.2949267958656</v>
+        <v>890.821489494566</v>
       </c>
       <c r="D81" t="n">
-        <v>0.572</v>
+        <v>0.584</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[-2280.817549856956, 1057.8753658680178]</t>
+          <t>[-2197.2471858766567, 1128.97892755234]</t>
         </is>
       </c>
     </row>
@@ -3956,10 +3956,10 @@
         <v>926.7198973539264</v>
       </c>
       <c r="C82" t="n">
-        <v>1000.590222271633</v>
+        <v>1080.728473801885</v>
       </c>
       <c r="D82" t="n">
-        <v>0.34</v>
+        <v>0.394</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[-1067.2074956317997, 2905.672069647502]</t>
+          <t>[-1266.3404706985023, 2997.2956198194306]</t>
         </is>
       </c>
     </row>
@@ -3982,10 +3982,10 @@
         <v>-688.7103802012941</v>
       </c>
       <c r="C83" t="n">
-        <v>943.6446950794829</v>
+        <v>974.9691368562019</v>
       </c>
       <c r="D83" t="n">
-        <v>0.508</v>
+        <v>0.45</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[-2545.7677128843807, 1049.722051134844]</t>
+          <t>[-2573.434698739002, 1265.3864478380997]</t>
         </is>
       </c>
     </row>
@@ -4008,10 +4008,10 @@
         <v>897.5764531995118</v>
       </c>
       <c r="C84" t="n">
-        <v>977.6705983337347</v>
+        <v>1005.503848366379</v>
       </c>
       <c r="D84" t="n">
-        <v>0.368</v>
+        <v>0.398</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[-950.929239556762, 2665.0254958888763]</t>
+          <t>[-1210.4644855652039, 2808.8878179343924]</t>
         </is>
       </c>
     </row>
@@ -4218,10 +4218,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.560581128209852</v>
+        <v>1.569664631839609</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07584242655984413</v>
+        <v>0.1029642817128975</v>
       </c>
     </row>
     <row r="3">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.284019036475008</v>
+        <v>1.247208459474457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08905191056919526</v>
+        <v>0.06863072716604572</v>
       </c>
     </row>
     <row r="4">
@@ -4244,10 +4244,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.004365120014417</v>
+        <v>0.9897767872718356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0496220744765566</v>
+        <v>0.04882326702123927</v>
       </c>
     </row>
     <row r="5">
@@ -4257,10 +4257,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7119433242350768</v>
+        <v>0.6934320126705933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.047751130523165</v>
+        <v>0.05411169946483708</v>
       </c>
     </row>
     <row r="6">
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.538140059549218</v>
+        <v>0.512714308599168</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04880751859870174</v>
+        <v>0.04324022331250946</v>
       </c>
     </row>
     <row r="7">
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4733550692094631</v>
+        <v>0.4816288300928299</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03273085608874238</v>
+        <v>0.02377782999768097</v>
       </c>
     </row>
     <row r="8">
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4571826264431615</v>
+        <v>0.4170842046481645</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05616530959182169</v>
+        <v>0.03862088222336758</v>
       </c>
     </row>
     <row r="9">
@@ -4309,10 +4309,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3567809241542447</v>
+        <v>0.3607461469360533</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0203052500984017</v>
+        <v>0.02824918864619657</v>
       </c>
     </row>
     <row r="10">
@@ -4322,10 +4322,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2768229834073421</v>
+        <v>0.2929199807839454</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0203178086064136</v>
+        <v>0.01834972597970645</v>
       </c>
     </row>
     <row r="11">
@@ -4335,10 +4335,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2423532328211247</v>
+        <v>0.2445395102876373</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02437510127964423</v>
+        <v>0.0131704540662426</v>
       </c>
     </row>
     <row r="12">
@@ -4348,10 +4348,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2261606436718923</v>
+        <v>0.2254640497321787</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01259599688825205</v>
+        <v>0.02370828787530543</v>
       </c>
     </row>
     <row r="13">
@@ -4361,10 +4361,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.219466243025495</v>
+        <v>0.2159376123758911</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02720892314121051</v>
+        <v>0.0131638737304006</v>
       </c>
     </row>
     <row r="14">
@@ -4374,140 +4374,140 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2008857712103184</v>
+        <v>0.2051401393975055</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02392546978318278</v>
+        <v>0.02351092749700085</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1989029735789151</v>
+        <v>0.2011671308475979</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02491944713904422</v>
+        <v>0.01830892073668225</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1910522481514706</v>
+        <v>0.190853642910926</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007105379685647045</v>
+        <v>0.01241782849904241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1555785396192413</v>
+        <v>0.1614986503781976</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01761907000167964</v>
+        <v>0.01254774969698876</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1369238403016027</v>
+        <v>0.1560124707535581</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01496550906981054</v>
+        <v>0.01711071276529691</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1162999926836587</v>
+        <v>0.1203656694331392</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01219257907471756</v>
+        <v>0.007725929803868934</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1154099823024737</v>
+        <v>0.1086791425878507</v>
       </c>
       <c r="C20" t="n">
-        <v>0.006596560997804194</v>
+        <v>0.01702333515041154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1126015440548591</v>
+        <v>0.1074127535701738</v>
       </c>
       <c r="C21" t="n">
-        <v>0.005535222255737707</v>
+        <v>0.009173293103683493</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09896880486473944</v>
+        <v>0.1064610239936391</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01185410010434175</v>
+        <v>0.01560892928213667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.09395993666395761</v>
+        <v>0.09830411833130581</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01105926628813209</v>
+        <v>0.009650520523662266</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.08169771693546397</v>
+        <v>0.09776075917507809</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01245478189474112</v>
+        <v>0.006799500817214005</v>
       </c>
     </row>
     <row r="25">
@@ -4517,36 +4517,36 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07762403343615783</v>
+        <v>0.09017552737353762</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01831950706249063</v>
+        <v>0.01004967925471508</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.07391154725957549</v>
+        <v>0.08162135412960278</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01583614296947242</v>
+        <v>0.00917652995901916</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.07131187284588847</v>
+        <v>0.07894894598604627</v>
       </c>
       <c r="C27" t="n">
-        <v>0.009557675952076034</v>
+        <v>0.01151077823812763</v>
       </c>
     </row>
     <row r="28">
@@ -4556,49 +4556,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07009960166852776</v>
+        <v>0.06144564184055838</v>
       </c>
       <c r="C28" t="n">
-        <v>0.005723338116216238</v>
+        <v>0.01172759209046259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0625646259335513</v>
+        <v>0.05592927921621258</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00844987631616163</v>
+        <v>0.007364609637194073</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.05956191445971979</v>
+        <v>0.05205894981355017</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004232369856246632</v>
+        <v>0.005592346013290857</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.0515724014673544</v>
+        <v>0.05008893520298217</v>
       </c>
       <c r="C31" t="n">
-        <v>0.008525379745601263</v>
+        <v>0.006037143841084317</v>
       </c>
     </row>
     <row r="32">
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.04950442875038781</v>
+        <v>0.04785321988025597</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01161383265820387</v>
+        <v>0.009841691285447518</v>
       </c>
     </row>
     <row r="33">
@@ -4621,10 +4621,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.03529670175470316</v>
+        <v>0.03981149785604636</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01073348253691727</v>
+        <v>0.00818600368730963</v>
       </c>
     </row>
     <row r="34">
@@ -4634,10 +4634,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02975487788857112</v>
+        <v>0.03351624643836444</v>
       </c>
       <c r="C34" t="n">
-        <v>0.005735111325359685</v>
+        <v>0.003598649750187668</v>
       </c>
     </row>
     <row r="35">
@@ -4647,10 +4647,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02165623101220913</v>
+        <v>0.02016223925297213</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003875296181767678</v>
+        <v>0.003275582601151395</v>
       </c>
     </row>
     <row r="36">
@@ -4660,62 +4660,62 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01909117576243013</v>
+        <v>0.01769498430332346</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0062700980578608</v>
+        <v>0.006583324912132809</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01581543862242922</v>
+        <v>0.01282194148528504</v>
       </c>
       <c r="C37" t="n">
-        <v>0.006242714024895849</v>
+        <v>0.006027145178541933</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0149405742916529</v>
+        <v>0.01050758261638027</v>
       </c>
       <c r="C38" t="n">
-        <v>0.005270782893547835</v>
+        <v>0.004505170238063787</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.00368111845998067</v>
+        <v>0.004904972065206637</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002556453805194759</v>
+        <v>0.00228944325719512</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.003538667965560904</v>
+        <v>0.004514812008693058</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0008664333044972632</v>
+        <v>0.002792747983308158</v>
       </c>
     </row>
     <row r="41">
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.001147763121452439</v>
+        <v>0.001145943515592474</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0007903372350063437</v>
+        <v>0.0008349223234200549</v>
       </c>
     </row>
     <row r="42">
@@ -4738,10 +4738,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.001021437342696774</v>
+        <v>-3.853344942901238e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0.001033430868918415</v>
+        <v>0.0007911258602616653</v>
       </c>
     </row>
   </sheetData>
@@ -4787,10 +4787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03135733175004043</v>
+        <v>0.03156633100055996</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0017151242180016</v>
+        <v>0.002451680422384822</v>
       </c>
     </row>
     <row r="3">
@@ -4800,10 +4800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006651405642047492</v>
+        <v>0.008221495390226697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001274424550837181</v>
+        <v>0.001456309027676528</v>
       </c>
     </row>
     <row r="4">
@@ -4813,10 +4813,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005194222718846087</v>
+        <v>0.005065341351273456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004049744275111532</v>
+        <v>0.0004602734729491898</v>
       </c>
     </row>
     <row r="5">
@@ -4826,10 +4826,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003039238094131025</v>
+        <v>0.002952550786366381</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003327861874241231</v>
+        <v>0.0002368529785483972</v>
       </c>
     </row>
     <row r="6">
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002888965338123905</v>
+        <v>0.002919710605240455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002194432431095852</v>
+        <v>0.0002210185028324253</v>
       </c>
     </row>
     <row r="7">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002254888231627561</v>
+        <v>0.002279927617632849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002298324777894707</v>
+        <v>0.0003446893341161624</v>
       </c>
     </row>
     <row r="8">
@@ -4865,10 +4865,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00181212987415762</v>
+        <v>0.001961285679384628</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006128825925736632</v>
+        <v>0.0008867754142419649</v>
       </c>
     </row>
     <row r="9">
@@ -4878,62 +4878,62 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001096529987250383</v>
+        <v>0.001194927256816336</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001774220400133301</v>
+        <v>6.912292991574336e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0009656346419127049</v>
+        <v>0.0009780519112974062</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005211806119453851</v>
+        <v>9.907901596195347e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00093368444716595</v>
+        <v>0.0009003762310945574</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002385210639987708</v>
+        <v>0.0001548173534603497</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.000899246058851877</v>
+        <v>0.000849598611660518</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005466239426242564</v>
+        <v>0.0001725438034773687</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0008884757397060739</v>
+        <v>0.000718002637905224</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001623960195704665</v>
+        <v>0.0001661826120790124</v>
       </c>
     </row>
     <row r="14">
@@ -4943,49 +4943,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0008297235059154362</v>
+        <v>0.0006812717510987998</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001559885561085907</v>
+        <v>0.0001344403589705895</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0007831652525413402</v>
+        <v>0.000580617907861658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001023762499613444</v>
+        <v>0.0002108846077003149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0006438606828743865</v>
+        <v>0.0005484247137230502</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000112694238815141</v>
+        <v>0.0001821006762869262</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0004840473706550829</v>
+        <v>0.000541066302161175</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001297138208680902</v>
+        <v>0.0007077520861207977</v>
       </c>
     </row>
     <row r="18">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0004612364245024425</v>
+        <v>0.0004349886510453871</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001350683801543947</v>
+        <v>0.0001444408302447246</v>
       </c>
     </row>
     <row r="19">
@@ -5008,23 +5008,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0003940764447075695</v>
+        <v>0.000434011745208962</v>
       </c>
       <c r="C19" t="n">
-        <v>9.333327643968418e-05</v>
+        <v>0.0001234975368411108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0002022487198518608</v>
+        <v>0.0002505306591354506</v>
       </c>
       <c r="C20" t="n">
-        <v>7.542230753519091e-05</v>
+        <v>0.0004503107497127408</v>
       </c>
     </row>
     <row r="21">
@@ -5034,166 +5034,166 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0001226263487805523</v>
+        <v>0.0001259396347462749</v>
       </c>
       <c r="C21" t="n">
-        <v>9.258802925430308e-05</v>
+        <v>0.0001022569241041683</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.647290148020459e-05</v>
+        <v>0.0001154620746699031</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0003864475683599579</v>
+        <v>6.265523850593309e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.380594425050347e-05</v>
+        <v>6.513411991222462e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>7.308686118921365e-05</v>
+        <v>4.479308687628869e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.153829481492344e-05</v>
+        <v>4.665406538821859e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001485655339426182</v>
+        <v>6.560474863938077e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.085161637561342e-05</v>
+        <v>3.483168112874413e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>2.397786136686205e-05</v>
+        <v>1.261970601629741e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.519019778372879e-05</v>
+        <v>3.208243811767541e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>3.156055901958549e-05</v>
+        <v>0.0001130904241112128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.430595100229027e-05</v>
+        <v>2.955190798110685e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>3.612891893286855e-05</v>
+        <v>4.00529573598134e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.418204828713577e-05</v>
+        <v>2.773762899528354e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>2.829857495563009e-05</v>
+        <v>1.433248502500368e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.825042344445471e-05</v>
+        <v>2.614529576543401e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>4.182600099040545e-05</v>
+        <v>2.332604433154476e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.590338147616777e-05</v>
+        <v>2.562517784892027e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>1.05142781776555e-05</v>
+        <v>2.977112688870619e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.471810685356179e-05</v>
+        <v>1.807206181410059e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>3.639251827401275e-05</v>
+        <v>2.101047057881631e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.645038498933389e-06</v>
+        <v>1.678449038238217e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>2.004439079264098e-05</v>
+        <v>5.276024606242835e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.296598600303739e-06</v>
+        <v>1.600011486062591e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>8.629876477473839e-06</v>
+        <v>3.096379181199546e-05</v>
       </c>
     </row>
     <row r="34">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.851427946030775e-06</v>
+        <v>1.491442428260825e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>1.163703268421467e-05</v>
+        <v>1.707289659885554e-05</v>
       </c>
     </row>
     <row r="35">
@@ -5216,101 +5216,101 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.92892519942567e-06</v>
+        <v>8.270867242488045e-06</v>
       </c>
       <c r="C35" t="n">
-        <v>8.704281120425278e-06</v>
+        <v>1.483841909494906e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.390071960227779e-06</v>
+        <v>7.671327089608936e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>1.031979043945152e-05</v>
+        <v>6.207736140907017e-06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-2.501119011011354e-07</v>
+        <v>4.572488364984473e-06</v>
       </c>
       <c r="C37" t="n">
-        <v>7.945416628858459e-06</v>
+        <v>1.083061734904925e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-4.477783245748768e-07</v>
+        <v>1.807886049864926e-06</v>
       </c>
       <c r="C38" t="n">
-        <v>1.339309735841533e-07</v>
+        <v>6.705311376169523e-06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-4.096921835450296e-06</v>
+        <v>1.380165410758139e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>3.895537475470076e-05</v>
+        <v>9.62054033033959e-06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-4.491058286104632e-06</v>
+        <v>1.210765027592764e-06</v>
       </c>
       <c r="C40" t="n">
-        <v>1.723777172978795e-05</v>
+        <v>1.649098682205444e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-7.65287503530221e-06</v>
+        <v>1.284047297378521e-08</v>
       </c>
       <c r="C41" t="n">
-        <v>1.034074202079321e-05</v>
+        <v>1.321937251159313e-07</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-2.531150391438253e-05</v>
+        <v>-1.233120419108502e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0001585973400054705</v>
+        <v>1.071053896458628e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5352,92 +5352,92 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.264333834793299</v>
+        <v>0.2041148734058185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02369986350191064</v>
+        <v>0.01070445579119262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2366691761474365</v>
+        <v>0.1004847681313803</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01857888029387316</v>
+        <v>0.01080150887019549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0998488308919534</v>
+        <v>0.05505640611492311</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009319198295194928</v>
+        <v>0.006721705838457792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03685409228988668</v>
+        <v>0.04938423724183059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01127843666346856</v>
+        <v>0.00385937100708052</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03677751209792415</v>
+        <v>0.03772871847334056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006758663200718541</v>
+        <v>0.002612474100344024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03076660359629377</v>
+        <v>0.034159549415035</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005473536536686243</v>
+        <v>0.003289190855341221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02561947058512626</v>
+        <v>0.03294746208893975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002104674632527265</v>
+        <v>0.005679904795817307</v>
       </c>
     </row>
     <row r="9">
@@ -5447,205 +5447,205 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02502430646531921</v>
+        <v>0.03108515383819856</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004518552152698178</v>
+        <v>0.001617402370986927</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02046513854301875</v>
+        <v>0.02891033901522513</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003016286472201661</v>
+        <v>0.003491643766857591</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02010516608681301</v>
+        <v>0.02167966175925773</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001685994634383658</v>
+        <v>0.002468033235872856</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01917724206113087</v>
+        <v>0.02084466122593198</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001865404405554314</v>
+        <v>0.001419518994479205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01603784501897441</v>
+        <v>0.01900137779589421</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002802700950384328</v>
+        <v>0.003177307181866001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01415208462588304</v>
+        <v>0.01571960665623888</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002197293102401464</v>
+        <v>0.002703450319802866</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01324673904584739</v>
+        <v>0.01539304110152881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002466618091767583</v>
+        <v>0.003143074190053754</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01241879421030332</v>
+        <v>0.01434367506950021</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002050907186151004</v>
+        <v>0.001493916311734247</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01175305220291847</v>
+        <v>0.01395121781050006</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001601088427322213</v>
+        <v>0.001727227201493391</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.008777017785646523</v>
+        <v>0.01119209449881473</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001665971070842841</v>
+        <v>0.0009538375813384265</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.008503737201824424</v>
+        <v>0.01117291522392678</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001469669725043051</v>
+        <v>0.001233044008367759</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.007942641369138803</v>
+        <v>0.01104095041603106</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001556964393464008</v>
+        <v>0.001520611821212962</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.005642416629979175</v>
+        <v>0.01064441031652348</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001021666239555475</v>
+        <v>0.002585398014700779</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.005050854404981697</v>
+        <v>0.009875300325654934</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001065985226960786</v>
+        <v>0.0005544430396138128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00501767016105541</v>
+        <v>0.00711506126496646</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00119407671203069</v>
+        <v>0.001151664233725287</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.004935700957641997</v>
+        <v>0.006931611546712224</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0009505248616572008</v>
+        <v>0.001142532512399704</v>
       </c>
     </row>
     <row r="25">
@@ -5655,231 +5655,231 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.004821856690533565</v>
+        <v>0.006613434196359469</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000678107787784931</v>
+        <v>0.0005603209361421273</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.003973319901730421</v>
+        <v>0.006149428459313122</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0007985813707500545</v>
+        <v>0.0009267187470595884</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.003030322416052744</v>
+        <v>0.005828647694086775</v>
       </c>
       <c r="C27" t="n">
-        <v>0.000636471447019276</v>
+        <v>0.001429278715439549</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.001683586650586943</v>
+        <v>0.005697637285231427</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000525542284589043</v>
+        <v>0.001310498246949184</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00164874438843472</v>
+        <v>0.005611221113754649</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0004951192896264963</v>
+        <v>0.001287213578793263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001264399247541603</v>
+        <v>0.004933140426161975</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0003107873236088272</v>
+        <v>0.001006633967320201</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001085719888551773</v>
+        <v>0.004419917825025021</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0003626916128521341</v>
+        <v>0.0004766015042277347</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0007843156944512097</v>
+        <v>0.003679538485090927</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001604475558987192</v>
+        <v>0.0006541860544949216</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.003483223343231234</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.0007335319025246218</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.002961079533806066</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.0009255502357123065</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.002883530496738973</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.0006100229344538342</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.002816615592823424</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.0004429118823454044</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.002298427863315067</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.0002638673716644179</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.001641577512355585</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.0005135290216726548</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.001608557345002737</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.0002026035650828921</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.001526998040139782</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.0003136930068683671</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.981134122123866e-05</v>
+        <v>0.0002577213321773408</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.0002362998506321012</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-6.64685218676686e-05</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1.908114573371964e-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5925,10 +5925,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2306292356539729</v>
+        <v>0.2349826647240655</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03209887526361228</v>
+        <v>0.03317674743126507</v>
       </c>
     </row>
     <row r="3">
@@ -5938,10 +5938,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06261992036439541</v>
+        <v>0.0574520452792797</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01528480512551865</v>
+        <v>0.006436654334339644</v>
       </c>
     </row>
     <row r="4">
@@ -5951,10 +5951,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02823120602115399</v>
+        <v>0.031819181695781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007661566783646671</v>
+        <v>0.004716604068758322</v>
       </c>
     </row>
     <row r="5">
@@ -5964,10 +5964,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0199176128285453</v>
+        <v>0.02482232010867662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003785917571440759</v>
+        <v>0.01160699708317763</v>
       </c>
     </row>
     <row r="6">
@@ -5977,10 +5977,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01784588065027932</v>
+        <v>0.01843333637813136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002938438041172354</v>
+        <v>0.004824114873290361</v>
       </c>
     </row>
     <row r="7">
@@ -5990,10 +5990,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01698044807959451</v>
+        <v>0.01152524841332736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009996814835882014</v>
+        <v>0.00229061478876678</v>
       </c>
     </row>
     <row r="8">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008029206240638232</v>
+        <v>0.00926701531984564</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003370206633523628</v>
+        <v>0.002215519544999819</v>
       </c>
     </row>
     <row r="9">
@@ -6016,231 +6016,231 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007029212414263619</v>
+        <v>0.005512033461711851</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001914346477420907</v>
+        <v>0.002151597544719051</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003409125453718698</v>
+        <v>0.004671384429382863</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001375379870183922</v>
+        <v>0.001441983848459428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003155764140229778</v>
+        <v>0.00413231388302886</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002213020777585267</v>
+        <v>0.002387182140757281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002527592956366376</v>
+        <v>0.003418336389716936</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002426691820836948</v>
+        <v>0.001006911686924892</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002363472799617128</v>
+        <v>0.002697047676198316</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00264617121527615</v>
+        <v>0.00294743476760482</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001850944101438223</v>
+        <v>0.002197308257831909</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001254052393458747</v>
+        <v>0.001664706961637808</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001556225302662417</v>
+        <v>0.001869355564396846</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002626879491429159</v>
+        <v>0.00220153637091338</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001539152606816785</v>
+        <v>0.001713322686116769</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0009126231263017663</v>
+        <v>0.001949288531234971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001084754290604506</v>
+        <v>0.001503914532952622</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002455544852921119</v>
+        <v>0.001946517849407671</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0008216580756124081</v>
+        <v>0.0008931475500683517</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001787812608620719</v>
+        <v>0.001989653152119072</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0007417658019135631</v>
+        <v>0.0008906305242491807</v>
       </c>
       <c r="C19" t="n">
-        <v>0.002091345735970595</v>
+        <v>0.001457484687689496</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-8.976820467410107e-06</v>
+        <v>0.000818772287528069</v>
       </c>
       <c r="C20" t="n">
-        <v>0.002255862594202207</v>
+        <v>0.003205454098323765</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0001253710729340884</v>
+        <v>0.0006579376801307379</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001681560894702344</v>
+        <v>0.001728707781990606</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0004341826047919772</v>
+        <v>0.0003386483779456162</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002815177933747604</v>
+        <v>0.002661586425292985</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0008100343406073129</v>
+        <v>-0.0003794860939339229</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001430044077948308</v>
+        <v>0.0006986500373952434</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.001235474546084037</v>
+        <v>-0.000442327684434507</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001667324709428216</v>
+        <v>0.001826010902976146</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001262234783460192</v>
+        <v>-0.0005555756878842466</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001964940402029889</v>
+        <v>0.001506568342352393</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.001325798061106154</v>
+        <v>-0.001429276636659105</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002564234288435116</v>
+        <v>0.001991050523061256</v>
       </c>
     </row>
     <row r="27">
@@ -6250,62 +6250,62 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.00174780762626261</v>
+        <v>-0.001661670742577481</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002331071903276618</v>
+        <v>0.001190902945702805</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.002052755843818366</v>
+        <v>-0.00185518083941163</v>
       </c>
       <c r="C28" t="n">
-        <v>0.002598493024049307</v>
+        <v>0.001193430452603948</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.002344883778346474</v>
+        <v>-0.00199902649907262</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002392676940470048</v>
+        <v>0.00177162794563458</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.002658877637773349</v>
+        <v>-0.002308958110675441</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002084272489672781</v>
+        <v>0.00212238473570939</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.002783502669054183</v>
+        <v>-0.002441314333545863</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00157087503634662</v>
+        <v>0.002411757685777597</v>
       </c>
     </row>
     <row r="32">
@@ -6315,140 +6315,140 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.003802360012175909</v>
+        <v>-0.002659855928507371</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001738130174587711</v>
+        <v>0.001220933273741428</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.003832414900356862</v>
+        <v>-0.002861274832768212</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001350957052802733</v>
+        <v>0.002260767196937138</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.003906750079470745</v>
+        <v>-0.003448803042182291</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001596490047196939</v>
+        <v>0.004487713697142782</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.005437796366049907</v>
+        <v>-0.003478100917379101</v>
       </c>
       <c r="C35" t="n">
-        <v>0.00251509857019623</v>
+        <v>0.0009977175816742341</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.006050456835243745</v>
+        <v>-0.005982453881157456</v>
       </c>
       <c r="C36" t="n">
-        <v>0.008399405847807599</v>
+        <v>0.001831365146145709</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.007875252388535304</v>
+        <v>-0.00766852135488072</v>
       </c>
       <c r="C37" t="n">
-        <v>0.002884474139033115</v>
+        <v>0.006663153731921567</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.007900505031191463</v>
+        <v>-0.00802906169031794</v>
       </c>
       <c r="C38" t="n">
-        <v>0.005120007468922215</v>
+        <v>0.002360749554115103</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.008941300238862127</v>
+        <v>-0.01007056388040766</v>
       </c>
       <c r="C39" t="n">
-        <v>0.006446338752268807</v>
+        <v>0.007017810516114028</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.01601689641848691</v>
+        <v>-0.01462891481039834</v>
       </c>
       <c r="C40" t="n">
-        <v>0.00369481804143445</v>
+        <v>0.007500786457749055</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.02293754435545485</v>
+        <v>-0.01532467852276671</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00732112862685051</v>
+        <v>0.008828310739807147</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.02324094233002681</v>
+        <v>-0.02336785182301722</v>
       </c>
       <c r="C42" t="n">
-        <v>0.006591580915712393</v>
+        <v>0.004537110737622878</v>
       </c>
     </row>
   </sheetData>
@@ -6494,10 +6494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2363505989837497</v>
+        <v>0.2652084984509747</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01506418535795792</v>
+        <v>0.02943639461830847</v>
       </c>
     </row>
     <row r="3">
@@ -6507,62 +6507,62 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1899960893783771</v>
+        <v>0.21442604079457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01303019792119188</v>
+        <v>0.01704068027757331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03872215115840179</v>
+        <v>0.04030825124473301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005787814159893543</v>
+        <v>0.006496616044429563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03807036402194663</v>
+        <v>0.03922697505090704</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005904021841361855</v>
+        <v>0.00530872213194307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03785609342128573</v>
+        <v>0.03921933495089765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005411899583072861</v>
+        <v>0.003921054691941222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03738299829229834</v>
+        <v>0.03786048361532644</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007907597666052322</v>
+        <v>0.003278317185833435</v>
       </c>
     </row>
     <row r="8">
@@ -6572,101 +6572,101 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0362599187786697</v>
+        <v>0.03402518689653387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002906251162565909</v>
+        <v>0.004161573976107009</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03537603513986285</v>
+        <v>0.03214029057838419</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005265176809049611</v>
+        <v>0.003894933538191956</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03112584146905837</v>
+        <v>0.03015162483886593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005077045444346147</v>
+        <v>0.006498940302060654</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>dayofweek_5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02752833386136277</v>
+        <v>0.02791449428567694</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003428008618580544</v>
+        <v>0.004213002930810708</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_5</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02549661454207963</v>
+        <v>0.0273362130768823</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001875378710810108</v>
+        <v>0.003685147504241961</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0251754402666931</v>
+        <v>0.02519117397550015</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000877963333411731</v>
+        <v>0.002280417083269137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02444531650421196</v>
+        <v>0.0240934608869281</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002844090168779782</v>
+        <v>0.00613054441220618</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02295379348020594</v>
+        <v>0.02396989796999793</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005156770039666948</v>
+        <v>0.004520039922314998</v>
       </c>
     </row>
     <row r="16">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02156166408155238</v>
+        <v>0.02257328393854077</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003602753218867641</v>
+        <v>0.002261283092947514</v>
       </c>
     </row>
     <row r="17">
@@ -6689,10 +6689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0185185742459486</v>
+        <v>0.01906655828252017</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00441293760348286</v>
+        <v>0.002288307577535661</v>
       </c>
     </row>
     <row r="18">
@@ -6702,10 +6702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01630487452712568</v>
+        <v>0.0171767371559387</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003261118406332644</v>
+        <v>0.003123476066356258</v>
       </c>
     </row>
     <row r="19">
@@ -6715,23 +6715,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01180632367345038</v>
+        <v>0.01192327711378449</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000970603325968065</v>
+        <v>0.00144286984248757</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01122882797249252</v>
+        <v>0.01173222216157701</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001816762011372752</v>
+        <v>0.001801668250747785</v>
       </c>
     </row>
     <row r="21">
@@ -6741,49 +6741,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0102336817491486</v>
+        <v>0.01005042015476911</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001728585979074513</v>
+        <v>0.001408564872824112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.009838474038441691</v>
+        <v>0.009831624512736226</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000686355387372381</v>
+        <v>0.003289080007989585</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.009267478560515796</v>
+        <v>0.009009073716108863</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001545068715849016</v>
+        <v>0.001948087897489816</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.007979333127018351</v>
+        <v>0.008177599054059303</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001078454344829105</v>
+        <v>0.001319550094902868</v>
       </c>
     </row>
     <row r="25">
@@ -6793,36 +6793,36 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.007873828065649046</v>
+        <v>0.007521647495796313</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00111939833089427</v>
+        <v>0.001098977015062881</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.007083834798401023</v>
+        <v>0.00743538500541403</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0008334890266370337</v>
+        <v>0.001219794837329957</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.006571253473765193</v>
+        <v>0.006979681960973694</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001304482740573959</v>
+        <v>0.0009585013763995242</v>
       </c>
     </row>
     <row r="28">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.005249996175145854</v>
+        <v>0.006672816513249668</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0010260953592187</v>
+        <v>0.001439882581191086</v>
       </c>
     </row>
     <row r="29">
@@ -6845,10 +6845,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.004158601949352292</v>
+        <v>0.004328323877525753</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0007576946983586725</v>
+        <v>0.0008532032649829619</v>
       </c>
     </row>
     <row r="30">
@@ -6858,10 +6858,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003652936230027959</v>
+        <v>0.004121053994948798</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002964525618758319</v>
+        <v>0.0007171301151459948</v>
       </c>
     </row>
     <row r="31">
@@ -6871,10 +6871,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003520751265018429</v>
+        <v>0.003011970131888253</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0007065366330497709</v>
+        <v>0.000897418241818678</v>
       </c>
     </row>
     <row r="32">
@@ -6884,55 +6884,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002960902965222245</v>
+        <v>0.002832470715831881</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0008065045490173475</v>
+        <v>0.0004753660941676849</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001064316736656834</v>
+        <v>0.001215834809582272</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0003611245709746105</v>
+        <v>0.0002066510511752819</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.000907336185239438</v>
+        <v>0.0009238482509629665</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0002045514415272437</v>
+        <v>0.0003299484975862268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0008272430281078602</v>
+        <v>0.0007519109939424506</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0003999091399587857</v>
+        <v>0.0005040002236883856</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -6945,7 +6945,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -6958,7 +6958,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -6971,7 +6971,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -6984,7 +6984,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -6997,7 +6997,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -7010,7 +7010,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -7063,10 +7063,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0001098407070307728</v>
+        <v>0.0001187437940006753</v>
       </c>
       <c r="C2" t="n">
-        <v>1.39925509125127e-05</v>
+        <v>5.636343547605201e-06</v>
       </c>
     </row>
     <row r="3">
@@ -7076,49 +7076,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.995725730727376e-05</v>
+        <v>5.885913479861671e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>1.040633446624516e-05</v>
+        <v>2.009360316480596e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR7</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.536259838978762e-05</v>
+        <v>3.994749563456246e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>5.281836863193346e-06</v>
+        <v>7.441649517977076e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.191276078542416e-05</v>
+        <v>3.620576916278928e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>1.080789108986389e-05</v>
+        <v>1.642040156454478e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.141153619208303e-05</v>
+        <v>3.165971201659623e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.466709982690729e-05</v>
+        <v>8.922530847725827e-06</v>
       </c>
     </row>
     <row r="7">
@@ -7128,10 +7128,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.132108486589846e-05</v>
+        <v>2.920623118698451e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>1.074158625490561e-05</v>
+        <v>5.860351338901402e-06</v>
       </c>
     </row>
     <row r="8">
@@ -7141,10 +7141,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.684352568895765e-05</v>
+        <v>2.70296721287977e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>5.586258836320927e-06</v>
+        <v>2.483176622518864e-06</v>
       </c>
     </row>
     <row r="9">
@@ -7154,10 +7154,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.34488087366147e-05</v>
+        <v>2.603758489900798e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.131988453301609e-06</v>
+        <v>1.358447604406057e-06</v>
       </c>
     </row>
     <row r="10">
@@ -7167,10 +7167,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.271114970204824e-05</v>
+        <v>2.341966497467762e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>2.09396178938095e-06</v>
+        <v>2.754574284257355e-06</v>
       </c>
     </row>
     <row r="11">
@@ -7180,10 +7180,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.617340964286118e-05</v>
+        <v>2.243916764770315e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>5.432325079556411e-06</v>
+        <v>5.230375539385719e-06</v>
       </c>
     </row>
     <row r="12">
@@ -7193,75 +7193,75 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.517557171235584e-05</v>
+        <v>1.446212437912209e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>1.749668528782761e-06</v>
+        <v>2.755740997692452e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AR12</t>
+          <t>AR23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.431610879598644e-05</v>
+        <v>1.3658469090716e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>3.095933792820276e-06</v>
+        <v>2.08407517507525e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AR9</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.048254149313976e-05</v>
+        <v>1.349757197406376e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>2.798586340342682e-06</v>
+        <v>2.135393494945643e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.008729028693089e-05</v>
+        <v>1.34606664855097e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>1.186241206177091e-06</v>
+        <v>4.304817720647179e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR23</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.836898854564958e-06</v>
+        <v>1.16348761066698e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>1.128720992080498e-06</v>
+        <v>2.889025673490609e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.202951956854832e-06</v>
+        <v>1.163478206942514e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>2.530379227584146e-06</v>
+        <v>1.785353184061859e-06</v>
       </c>
     </row>
     <row r="18">
@@ -7271,10 +7271,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.708135439732366e-06</v>
+        <v>6.562899351059137e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.251908568706361e-06</v>
+        <v>2.007809291689841e-06</v>
       </c>
     </row>
     <row r="19">
@@ -7284,10 +7284,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.980552583473298e-06</v>
+        <v>6.225680784921472e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>2.132372111789546e-06</v>
+        <v>1.909452657791386e-06</v>
       </c>
     </row>
     <row r="20">
@@ -7297,10 +7297,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.597095416241203e-06</v>
+        <v>5.943476291969674e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>2.086179198487733e-06</v>
+        <v>2.280410880412313e-06</v>
       </c>
     </row>
     <row r="21">
@@ -7310,166 +7310,166 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.207915121643644e-06</v>
+        <v>2.587463955827651e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>3.257014867995836e-07</v>
+        <v>6.325646397948675e-07</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.642819065650336e-06</v>
+        <v>1.663655515993234e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>2.732766006484245e-07</v>
+        <v>1.489853233628997e-06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.459695250649595e-06</v>
+        <v>1.522458622060796e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>3.051271048194596e-06</v>
+        <v>1.275723073544985e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.450017140269822e-06</v>
+        <v>1.485117236565969e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>2.644977204258463e-07</v>
+        <v>6.959567607355512e-07</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.395729790520939e-06</v>
+        <v>1.460172566059015e-06</v>
       </c>
       <c r="C25" t="n">
-        <v>1.665765183376051e-06</v>
+        <v>3.996408834345345e-07</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.003297914703438e-06</v>
+        <v>1.304962547576949e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>1.730097184388749e-06</v>
+        <v>5.624752029568882e-07</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.129356318027248e-07</v>
+        <v>1.123394160584823e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>8.447598584439442e-07</v>
+        <v>7.135092069915563e-07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.03202550528448e-07</v>
+        <v>1.008802912960682e-06</v>
       </c>
       <c r="C28" t="n">
-        <v>1.089534429381391e-06</v>
+        <v>1.888027283767098e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.961354982517378e-07</v>
+        <v>1.003202194715946e-06</v>
       </c>
       <c r="C29" t="n">
-        <v>1.719936716840292e-07</v>
+        <v>5.025172251638272e-07</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.422074895930721e-07</v>
+        <v>8.705638487649381e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>7.253043425115547e-07</v>
+        <v>2.379139048573793e-07</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.281254401579005e-07</v>
+        <v>7.957014327208967e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>2.296247202983037e-07</v>
+        <v>7.225691934502761e-07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.885365757711923e-07</v>
+        <v>7.52638489576185e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>1.212966047862735e-06</v>
+        <v>2.449604170506251e-07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.568204127502028e-07</v>
+        <v>6.828289083049555e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>6.28483932194033e-07</v>
+        <v>4.404602123325748e-07</v>
       </c>
     </row>
     <row r="34">
@@ -7479,114 +7479,114 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.281295018808805e-07</v>
+        <v>2.91689487275093e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>2.519201667818948e-07</v>
+        <v>6.288057261760104e-07</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>AR25</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.29887536762341e-07</v>
+        <v>2.481910466922699e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>1.836600410458314e-07</v>
+        <v>2.697423360434859e-07</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.762468870403211e-07</v>
+        <v>6.65817045275574e-08</v>
       </c>
       <c r="C36" t="n">
-        <v>1.090536072621751e-06</v>
+        <v>4.886351062365725e-08</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR25</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.256735248533758e-07</v>
+        <v>4.805426028209325e-08</v>
       </c>
       <c r="C37" t="n">
-        <v>2.158195802210853e-07</v>
+        <v>1.21542248270342e-07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.067294741474711e-07</v>
+        <v>4.270432114594769e-08</v>
       </c>
       <c r="C38" t="n">
-        <v>3.548642286242698e-08</v>
+        <v>1.149866741693476e-07</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.741264784056341e-08</v>
+        <v>-3.622412958481647e-08</v>
       </c>
       <c r="C39" t="n">
-        <v>1.179471094162109e-06</v>
+        <v>3.302867133706323e-07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.736440636308401e-08</v>
+        <v>-4.050688422463366e-08</v>
       </c>
       <c r="C40" t="n">
-        <v>8.567152297176975e-08</v>
+        <v>9.00400113181935e-08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-9.618293350666107e-08</v>
+        <v>-4.775766910825041e-08</v>
       </c>
       <c r="C41" t="n">
-        <v>2.599554487684865e-08</v>
+        <v>1.350333387506875e-07</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-9.875838749007216e-08</v>
+        <v>-1.885695545866817e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>7.143549510990591e-08</v>
+        <v>2.017814014771668e-06</v>
       </c>
     </row>
   </sheetData>
@@ -7632,10 +7632,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4836986597385466</v>
+        <v>0.5038930191144662</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04673120120950698</v>
+        <v>0.05116043081937126</v>
       </c>
     </row>
     <row r="3">
@@ -7645,101 +7645,101 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03836015767410215</v>
+        <v>0.03884736651713409</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008689811623479274</v>
+        <v>0.008529368063205985</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AR6</t>
+          <t>AR1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03179866290506957</v>
+        <v>0.03048543615358101</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005205996471032218</v>
+        <v>0.003529404020988591</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AR1</t>
+          <t>AR6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02734791235173985</v>
+        <v>0.02614573771496931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002686916229184481</v>
+        <v>0.002317381252048114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AR2</t>
+          <t>AR5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01929401825360628</v>
+        <v>0.02232081225717859</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003751888728658811</v>
+        <v>0.007055848590860316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AR14</t>
+          <t>AR2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01373958256510337</v>
+        <v>0.01898579745342992</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001747688704004514</v>
+        <v>0.002166066105009897</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AR5</t>
+          <t>AR14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01174430342363628</v>
+        <v>0.01271989085707714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002738453643934322</v>
+        <v>0.001265416570099363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AR21</t>
+          <t>AR28</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00997712472679806</v>
+        <v>0.009191761009524457</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001429931186316478</v>
+        <v>0.001540500191798347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AR28</t>
+          <t>AR21</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009170432265224671</v>
+        <v>0.008222983345852808</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008108834302517085</v>
+        <v>0.001689072642924093</v>
       </c>
     </row>
     <row r="11">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007350071327191276</v>
+        <v>0.006559803789188435</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00196796166129555</v>
+        <v>0.000909283310803177</v>
       </c>
     </row>
     <row r="12">
@@ -7762,23 +7762,23 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002906574580497967</v>
+        <v>0.003637792877416834</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005470152489524065</v>
+        <v>0.0009167727328240859</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>AR20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002501803797354674</v>
+        <v>0.002365398536385421</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005018278684246257</v>
+        <v>0.0008593852489865237</v>
       </c>
     </row>
     <row r="14">
@@ -7788,289 +7788,289 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002049091882344056</v>
+        <v>0.002139638943622968</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000184496717547448</v>
+        <v>0.0004382840611020725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AR20</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00119305527917104</v>
+        <v>0.001647497710565715</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00024580625274863</v>
+        <v>0.0003284389644132403</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR13</t>
+          <t>AR27</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0008577089253817505</v>
+        <v>0.0008546034842788596</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001340819995747245</v>
+        <v>0.0003709996747618245</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AR8</t>
+          <t>AR22</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0007978236561053453</v>
+        <v>0.0006997577750904593</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003228581318314748</v>
+        <v>0.0003301154466392274</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AR4</t>
+          <t>dayofweek_6</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.000600711591062697</v>
+        <v>0.0004474299017135586</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0003343320614962828</v>
+        <v>0.0001043713908493307</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AR27</t>
+          <t>AR19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0004296028815465647</v>
+        <v>0.0003852281588869521</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0002027295362849023</v>
+        <v>3.641896015945168e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>quartercos</t>
+          <t>AR16</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0004034504123255234</v>
+        <v>0.0002890610782131153</v>
       </c>
       <c r="C20" t="n">
-        <v>9.157968552639372e-05</v>
+        <v>5.222252581243778e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AR19</t>
+          <t>AR4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.000364147911790269</v>
+        <v>0.0002887719269816902</v>
       </c>
       <c r="C21" t="n">
-        <v>4.444266283475576e-05</v>
+        <v>0.0001341951719557988</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AR16</t>
+          <t>quartercos</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0003292257984190749</v>
+        <v>0.0002196341368923216</v>
       </c>
       <c r="C22" t="n">
-        <v>4.529893805373801e-05</v>
+        <v>4.042075918727873e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AR22</t>
+          <t>AR24</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0002115990219169417</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.583615816629336e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AR10</t>
+          <t>quartersin</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0001768122014544682</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>6.731643997386422e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AR17</t>
+          <t>AR3</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0001748907176094772</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>7.822380098016675e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_3</t>
+          <t>monthcos</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0001401224810432478</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.904097937581214e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AR15</t>
+          <t>monthsin</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0001331309353987287</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>7.452328034114593e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AR18</t>
+          <t>weekcos</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.46458059483135e-05</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.635272492598466e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AR26</t>
+          <t>AR8</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.918361704812859e-05</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.856280929989693e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>monthcos</t>
+          <t>dayofweek_2</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.808737142327548e-05</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.632545620856065e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>weeksin</t>
+          <t>AR10</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.701514764522297e-05</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.758277165069767e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_4</t>
+          <t>AR11</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.499145373111247e-05</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.663797502069452e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AR24</t>
+          <t>dayofweek_1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.867454090675903e-05</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>2.244615557836332e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AR11</t>
+          <t>AR13</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.846129796245655e-05</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>4.323877390819479e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AR3</t>
+          <t>weeksin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.604711691436389e-05</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.410792143048793e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>quartersin</t>
+          <t>AR15</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -8083,7 +8083,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_1</t>
+          <t>dayofweek_3</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -8096,7 +8096,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>monthsin</t>
+          <t>AR17</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -8109,7 +8109,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>weekcos</t>
+          <t>AR18</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -8122,7 +8122,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_2</t>
+          <t>AR26</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -8148,7 +8148,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>dayofweek_6</t>
+          <t>dayofweek_4</t>
         </is>
       </c>
       <c r="B42" t="n">
